--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C197949F-6C90-4FDC-859F-FD1536ADBD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3EA3D-81A2-4EF8-9640-6EB16C52FDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,7 @@
   <authors>
     <author>tc={5558FB42-F87C-4CDC-B512-89B11611676C}</author>
     <author>tc={45555182-4B66-4403-A4DF-FAAF7805C1D9}</author>
+    <author>tc={BF08BEFD-057D-45EF-9016-3B13D59DEEEB}</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5558FB42-F87C-4CDC-B512-89B11611676C}">
@@ -60,12 +61,21 @@
 github user:  byui-english-ed</t>
       </text>
     </comment>
+    <comment ref="N1" authorId="2" shapeId="0" xr:uid="{BF08BEFD-057D-45EF-9016-3B13D59DEEEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    byui.english.ed@gmail.com
+password: byui2019</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="233">
   <si>
     <t>ENG 251</t>
   </si>
@@ -683,9 +693,6 @@
     <t>Syllabus #329</t>
   </si>
   <si>
-    <t>Annotated Bibliography #329</t>
-  </si>
-  <si>
     <t>Book Pusher #356</t>
   </si>
   <si>
@@ -782,30 +789,15 @@
     <t>Lexile Level Text Assignment #356</t>
   </si>
   <si>
-    <t>Annotated Bibliography #329 (seminars: best practices/vocab role)</t>
-  </si>
-  <si>
-    <t>Annotated Bibliography #329 (seminars: inclusive environment role)</t>
-  </si>
-  <si>
-    <t>Annotated Bibliography #329 (seminars: social justice role)</t>
-  </si>
-  <si>
     <t>Literacy I or II (Syllabus) #ED344-346</t>
   </si>
   <si>
     <t>Teaching/Practicum Lab (1-3) #329</t>
   </si>
   <si>
-    <t>Literature Circles - LitLinks role #329</t>
-  </si>
-  <si>
     <t>Literature Circles - Sociological Role #356</t>
   </si>
   <si>
-    <t>Literature Circles  - LitLinks role #329</t>
-  </si>
-  <si>
     <t>Literature Circles - Historical Role #356</t>
   </si>
   <si>
@@ -816,9 +808,6 @@
   </si>
   <si>
     <t>Literature Circles - Social Justice role #356</t>
-  </si>
-  <si>
-    <t>Annotated Bibliography #329 (seminars: best assessments)</t>
   </si>
   <si>
     <t>Syllabus #ED461</t>
@@ -853,13 +842,71 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Annotated Bibliography Lab  #329 (seminars: literacy strategies role)</t>
-  </si>
-  <si>
     <t>Lit I or Lit II (Syllabus)  #331-336</t>
   </si>
   <si>
     <t>PowerPoint on code of ethics #329</t>
+  </si>
+  <si>
+    <t>FA 2020</t>
+  </si>
+  <si>
+    <t>Google Drive Access</t>
+  </si>
+  <si>
+    <t>!!!</t>
+  </si>
+  <si>
+    <t>Literature Circles - LitLinks role #356</t>
+  </si>
+  <si>
+    <t>Literature Circles  - LitLinks role #356</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's included in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Book Pusher Final</t>
+    </r>
+  </si>
+  <si>
+    <t>It wasn't used last semester and it looks like this one too. Any substitute? Should I contact Bro Chandler?</t>
+  </si>
+  <si>
+    <t>Annotated Bibliography #329 (literacy strategies _1B/ dialect &amp; inclusivity_2A/3A)</t>
+  </si>
+  <si>
+    <t>Annotated Bibliography   #329 (literacy strategies_1B)</t>
+  </si>
+  <si>
+    <t>Annotated Bibliography #329 (dialect &amp; inclusivity_2A/3A)</t>
+  </si>
+  <si>
+    <t>Annotated Bibliography #329 (social justice_5B / dialect &amp; inclusivity 2A/3A)</t>
+  </si>
+  <si>
+    <t>Annotated Bibliography #329 (assessments_6B/vocabulary_4D)</t>
+  </si>
+  <si>
+    <t>Annotated Bibliography #329 (assessments_6B)</t>
+  </si>
+  <si>
+    <t>No students chose this topic (solution: use Book Pusher Final samples, not final grades, instead).</t>
+  </si>
+  <si>
+    <t>I went with the final grades summary like in previous semesters, but let me know if you want to add especific samples this time. Solution: Yes, go ahead and attach three samples).</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="456">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2717,6 +2764,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2732,15 +2785,78 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2771,68 +2887,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2846,54 +2947,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2924,6 +2977,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2948,15 +3010,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2975,71 +3028,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3457,6 +3510,10 @@
     <text>gmail/goodreads/github (byui.english.ed@gmail.com, password:byui2019)
 github user:  byui-english-ed</text>
   </threadedComment>
+  <threadedComment ref="N1" dT="2021-01-31T14:16:50.66" personId="{00000000-0000-0000-0000-000000000000}" id="{BF08BEFD-057D-45EF-9016-3B13D59DEEEB}">
+    <text>byui.english.ed@gmail.com
+password: byui2019</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -3468,7 +3525,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
@@ -3518,7 +3575,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="352" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -3537,7 +3594,7 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="347"/>
+      <c r="A3" s="349"/>
       <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3552,7 +3609,7 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="348"/>
+      <c r="A4" s="350"/>
       <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
@@ -3567,7 +3624,7 @@
       <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="349" t="s">
+      <c r="A5" s="351" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -3584,7 +3641,7 @@
       <c r="I5" s="21"/>
     </row>
     <row r="6" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="348"/>
+      <c r="A6" s="350"/>
       <c r="B6" s="22" t="s">
         <v>23</v>
       </c>
@@ -3616,7 +3673,7 @@
       <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="349" t="s">
+      <c r="A8" s="351" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -3635,7 +3692,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="347"/>
+      <c r="A9" s="349"/>
       <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
@@ -3654,7 +3711,7 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="347"/>
+      <c r="A10" s="349"/>
       <c r="B10" s="8" t="s">
         <v>27</v>
       </c>
@@ -3669,7 +3726,7 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="348"/>
+      <c r="A11" s="350"/>
       <c r="B11" s="22" t="s">
         <v>28</v>
       </c>
@@ -3684,7 +3741,7 @@
       <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="346" t="s">
+      <c r="A12" s="348" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -3701,7 +3758,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
-      <c r="A13" s="347"/>
+      <c r="A13" s="349"/>
       <c r="B13" s="11" t="s">
         <v>30</v>
       </c>
@@ -3716,7 +3773,7 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="347"/>
+      <c r="A14" s="349"/>
       <c r="B14" s="11" t="s">
         <v>31</v>
       </c>
@@ -3731,7 +3788,7 @@
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="348"/>
+      <c r="A15" s="350"/>
       <c r="B15" s="22" t="s">
         <v>32</v>
       </c>
@@ -3750,7 +3807,7 @@
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="349" t="s">
+      <c r="A16" s="351" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -3767,7 +3824,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="347"/>
+      <c r="A17" s="349"/>
       <c r="B17" s="11" t="s">
         <v>34</v>
       </c>
@@ -3782,7 +3839,7 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="347"/>
+      <c r="A18" s="349"/>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -3797,7 +3854,7 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="348"/>
+      <c r="A19" s="350"/>
       <c r="B19" s="22" t="s">
         <v>36</v>
       </c>
@@ -3812,7 +3869,7 @@
       <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="349" t="s">
+      <c r="A20" s="351" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -3829,7 +3886,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="347"/>
+      <c r="A21" s="349"/>
       <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
@@ -3844,7 +3901,7 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="347"/>
+      <c r="A22" s="349"/>
       <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
@@ -3859,7 +3916,7 @@
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="348"/>
+      <c r="A23" s="350"/>
       <c r="B23" s="22" t="s">
         <v>40</v>
       </c>
@@ -3943,32 +4000,38 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.28515625" style="210" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63" style="330" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="83" style="330" customWidth="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="372" t="s">
-        <v>189</v>
-      </c>
-      <c r="B1" s="373"/>
-      <c r="C1" s="374"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="365" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="366"/>
+      <c r="C1" s="367"/>
+      <c r="F1" s="346"/>
+      <c r="G1" s="346"/>
+      <c r="N1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="331" t="s">
         <v>6</v>
       </c>
@@ -3979,879 +4042,998 @@
         <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="354" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="346"/>
+      <c r="F2" s="347" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="347" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="375" t="s">
+      <c r="B3" s="368" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
         <v>163</v>
       </c>
       <c r="D3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="378"/>
+      <c r="B4" s="369"/>
+      <c r="C4" s="339" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="355"/>
-      <c r="B4" s="376"/>
-      <c r="C4" s="339" t="s">
-        <v>192</v>
-      </c>
       <c r="D4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="355"/>
-      <c r="B5" s="377"/>
+        <v>190</v>
+      </c>
+      <c r="F4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="378"/>
+      <c r="B5" s="370"/>
       <c r="C5" s="336" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="355"/>
-      <c r="B6" s="375" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="378"/>
+      <c r="B6" s="368" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="355"/>
-      <c r="B7" s="376"/>
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="378"/>
+      <c r="B7" s="369"/>
       <c r="C7" s="341" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="355"/>
-      <c r="B8" s="377"/>
+        <v>190</v>
+      </c>
+      <c r="F7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="378"/>
+      <c r="B8" s="370"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="355"/>
-      <c r="B9" s="375" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="378"/>
+      <c r="B9" s="368" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="355"/>
-      <c r="B10" s="376"/>
+        <v>190</v>
+      </c>
+      <c r="F9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="378"/>
+      <c r="B10" s="369"/>
       <c r="C10" s="334" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="356"/>
-      <c r="B11" s="378"/>
+        <v>190</v>
+      </c>
+      <c r="F10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="379"/>
+      <c r="B11" s="371"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="357" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="380" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="379" t="s">
-        <v>180</v>
+      <c r="B12" s="372" t="s">
+        <v>179</v>
       </c>
       <c r="C12" s="334" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="355"/>
-      <c r="B13" s="376"/>
+        <v>190</v>
+      </c>
+      <c r="F12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="378"/>
+      <c r="B13" s="369"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="355"/>
-      <c r="B14" s="377"/>
+        <v>190</v>
+      </c>
+      <c r="F13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="378"/>
+      <c r="B14" s="370"/>
       <c r="C14" s="333" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="355"/>
-      <c r="B15" s="380" t="s">
-        <v>181</v>
+        <v>190</v>
+      </c>
+      <c r="F14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="378"/>
+      <c r="B15" s="353" t="s">
+        <v>180</v>
       </c>
       <c r="C15" s="334" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="355"/>
-      <c r="B16" s="381"/>
+        <v>190</v>
+      </c>
+      <c r="F15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="378"/>
+      <c r="B16" s="354"/>
       <c r="C16" s="334" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="356"/>
-      <c r="B17" s="382"/>
+        <v>190</v>
+      </c>
+      <c r="F16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="379"/>
+      <c r="B17" s="355"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="357" t="s">
+        <v>190</v>
+      </c>
+      <c r="F17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="380" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="383" t="s">
+      <c r="B18" s="356" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="378"/>
+      <c r="B19" s="357"/>
+      <c r="C19" s="334" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" t="s">
         <v>196</v>
       </c>
-      <c r="D18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="355"/>
-      <c r="B19" s="365"/>
-      <c r="C19" s="334" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="356"/>
-      <c r="B20" s="384"/>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="379"/>
+      <c r="B20" s="358"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="357" t="s">
+        <v>190</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="380" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="351" t="s">
+      <c r="B21" s="359" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="355"/>
-      <c r="B22" s="352"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="378"/>
+      <c r="B22" s="360"/>
       <c r="C22" s="334" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="355"/>
-      <c r="B23" s="368"/>
+        <v>190</v>
+      </c>
+      <c r="F22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="378"/>
+      <c r="B23" s="361"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="355"/>
-      <c r="B24" s="367" t="s">
-        <v>182</v>
+        <v>190</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="378"/>
+      <c r="B24" s="362" t="s">
+        <v>181</v>
       </c>
       <c r="C24" s="334" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="378"/>
+      <c r="B25" s="360"/>
+      <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
-      <c r="D24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="355"/>
-      <c r="B25" s="352"/>
-      <c r="C25" s="334" t="s">
-        <v>172</v>
-      </c>
       <c r="D25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="355"/>
-      <c r="B26" s="368"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="378"/>
+      <c r="B26" s="361"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="355"/>
-      <c r="B27" s="364" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="378"/>
+      <c r="B27" s="363" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="378"/>
+      <c r="B28" s="357"/>
+      <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
-      <c r="D27" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="355"/>
-      <c r="B28" s="365"/>
-      <c r="C28" s="334" t="s">
-        <v>172</v>
-      </c>
       <c r="D28" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="355"/>
-      <c r="B29" s="366"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="378"/>
+      <c r="B29" s="364"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="355"/>
-      <c r="B30" s="367" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="378"/>
+      <c r="B30" s="362" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="355"/>
-      <c r="B31" s="352"/>
+        <v>190</v>
+      </c>
+      <c r="F30" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="378"/>
+      <c r="B31" s="360"/>
       <c r="C31" s="334" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="356"/>
-      <c r="B32" s="353"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="379"/>
+      <c r="B32" s="373"/>
       <c r="C32" s="337" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="358" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="381" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="351" t="s">
+      <c r="B33" s="359" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="359"/>
-      <c r="B34" s="352"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="382"/>
+      <c r="B34" s="360"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="359"/>
-      <c r="B35" s="368"/>
+        <v>190</v>
+      </c>
+      <c r="F34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="382"/>
+      <c r="B35" s="361"/>
       <c r="C35" s="333" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="382"/>
+      <c r="B36" s="362" t="s">
         <v>183</v>
       </c>
-      <c r="D35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="359"/>
-      <c r="B36" s="367" t="s">
+      <c r="C36" s="334" t="s">
+        <v>203</v>
+      </c>
+      <c r="D36" t="s">
+        <v>190</v>
+      </c>
+      <c r="F36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="382"/>
+      <c r="B37" s="360"/>
+      <c r="C37" s="334" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="382"/>
+      <c r="B38" s="361"/>
+      <c r="C38" s="333" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="382"/>
+      <c r="B39" s="362" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="334" t="s">
+        <v>173</v>
+      </c>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="382"/>
+      <c r="B40" s="360"/>
+      <c r="C40" s="334" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="382"/>
+      <c r="B41" s="361"/>
+      <c r="C41" s="333" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="382"/>
+      <c r="B42" s="362" t="s">
         <v>184</v>
       </c>
-      <c r="C36" s="334" t="s">
-        <v>209</v>
-      </c>
-      <c r="D36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="359"/>
-      <c r="B37" s="352"/>
-      <c r="C37" s="334" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="359"/>
-      <c r="B38" s="368"/>
-      <c r="C38" s="333" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="359"/>
-      <c r="B39" s="367" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="334" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="359"/>
-      <c r="B40" s="352"/>
-      <c r="C40" s="334" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="359"/>
-      <c r="B41" s="368"/>
-      <c r="C41" s="333" t="s">
+      <c r="C42" s="334" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="382"/>
+      <c r="B43" s="360"/>
+      <c r="C43" s="334" t="s">
         <v>202</v>
       </c>
-      <c r="D41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="359"/>
-      <c r="B42" s="367" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" s="334" t="s">
-        <v>204</v>
-      </c>
-      <c r="D42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="359"/>
-      <c r="B43" s="352"/>
-      <c r="C43" s="334" t="s">
-        <v>208</v>
-      </c>
       <c r="D43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="360"/>
-      <c r="B44" s="353"/>
+        <v>190</v>
+      </c>
+      <c r="F43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="383"/>
+      <c r="B44" s="373"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
       <c r="D44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="380" t="s">
+        <v>185</v>
+      </c>
+      <c r="B45" s="359" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="334" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="378"/>
+      <c r="B46" s="360"/>
+      <c r="C46" s="334" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="378"/>
+      <c r="B47" s="361"/>
+      <c r="C47" s="333" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="378"/>
+      <c r="B48" s="362" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="338" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="378"/>
+      <c r="B49" s="360"/>
+      <c r="C49" s="334" t="s">
+        <v>205</v>
+      </c>
+      <c r="D49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="378"/>
+      <c r="B50" s="361"/>
+      <c r="C50" s="333" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="357" t="s">
-        <v>186</v>
-      </c>
-      <c r="B45" s="351" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="334" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="355"/>
-      <c r="B46" s="352"/>
-      <c r="C46" s="334" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="355"/>
-      <c r="B47" s="368"/>
-      <c r="C47" s="333" t="s">
-        <v>204</v>
-      </c>
-      <c r="D47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="355"/>
-      <c r="B48" s="367" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="338" t="s">
-        <v>211</v>
-      </c>
-      <c r="D48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="355"/>
-      <c r="B49" s="352"/>
-      <c r="C49" s="334" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="355"/>
-      <c r="B50" s="368"/>
-      <c r="C50" s="333" t="s">
-        <v>192</v>
-      </c>
       <c r="D50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="355"/>
-      <c r="B51" s="367" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="378"/>
+      <c r="B51" s="362" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
         <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="355"/>
-      <c r="B52" s="352"/>
+        <v>190</v>
+      </c>
+      <c r="F51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="378"/>
+      <c r="B52" s="360"/>
       <c r="C52" s="334" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="355"/>
-      <c r="B53" s="368"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="378"/>
+      <c r="B53" s="361"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="355"/>
-      <c r="B54" s="367" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="378"/>
+      <c r="B54" s="362" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="355"/>
-      <c r="B55" s="352"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="378"/>
+      <c r="B55" s="360"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="356"/>
-      <c r="B56" s="353"/>
+        <v>190</v>
+      </c>
+      <c r="F55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="379"/>
+      <c r="B56" s="373"/>
       <c r="C56" s="337" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="361" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="384" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="369" t="s">
+      <c r="B57" s="374" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="362"/>
-      <c r="B58" s="370"/>
+        <v>190</v>
+      </c>
+      <c r="F57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="385"/>
+      <c r="B58" s="375"/>
       <c r="C58" s="334" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" t="s">
+        <v>192</v>
+      </c>
+      <c r="E58" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="385"/>
+      <c r="B59" s="376"/>
+      <c r="C59" s="333" t="s">
+        <v>199</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="385"/>
+      <c r="B60" s="363" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="338" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="385"/>
+      <c r="B61" s="357"/>
+      <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
-      <c r="D58" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="362"/>
-      <c r="B59" s="371"/>
-      <c r="C59" s="333" t="s">
-        <v>203</v>
-      </c>
-      <c r="D59" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="362"/>
-      <c r="B60" s="364" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="338" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="362"/>
-      <c r="B61" s="365"/>
-      <c r="C61" s="334" t="s">
-        <v>176</v>
-      </c>
       <c r="D61" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="362"/>
-      <c r="B62" s="366"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="385"/>
+      <c r="B62" s="364"/>
       <c r="C62" s="333" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="362"/>
-      <c r="B63" s="367" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="385"/>
+      <c r="B63" s="362" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
         <v>165</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="362"/>
-      <c r="B64" s="352"/>
+        <v>190</v>
+      </c>
+      <c r="F63" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="385"/>
+      <c r="B64" s="360"/>
       <c r="C64" s="334" t="s">
+        <v>176</v>
+      </c>
+      <c r="D64" t="s">
+        <v>192</v>
+      </c>
+      <c r="E64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="385"/>
+      <c r="B65" s="361"/>
+      <c r="C65" s="333" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="385"/>
+      <c r="B66" s="362" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="334" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="385"/>
+      <c r="B67" s="360"/>
+      <c r="C67" s="334" t="s">
         <v>177</v>
       </c>
-      <c r="D64" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="362"/>
-      <c r="B65" s="368"/>
-      <c r="C65" s="333" t="s">
-        <v>204</v>
-      </c>
-      <c r="D65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="362"/>
-      <c r="B66" s="367" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="334" t="s">
-        <v>214</v>
-      </c>
-      <c r="D66" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="362"/>
-      <c r="B67" s="352"/>
-      <c r="C67" s="334" t="s">
-        <v>178</v>
-      </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E67" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="363"/>
-      <c r="B68" s="353"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="386"/>
+      <c r="B68" s="373"/>
       <c r="C68" s="334" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="357" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="380" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="351" t="s">
+      <c r="B69" s="359" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
         <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="355"/>
-      <c r="B70" s="352"/>
+        <v>190</v>
+      </c>
+      <c r="F69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="378"/>
+      <c r="B70" s="360"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
       <c r="D70" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="356"/>
-      <c r="B71" s="353"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="379"/>
+      <c r="B71" s="373"/>
       <c r="C71" s="335" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="381" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="359" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72" s="342" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="382"/>
+      <c r="B73" s="360"/>
+      <c r="C73" s="341" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="382"/>
+      <c r="B74" s="360"/>
+      <c r="C74" s="341" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="383"/>
+      <c r="B75" s="373"/>
+      <c r="C75" s="335" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="381" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" s="359" t="s">
         <v>187</v>
       </c>
-      <c r="D71" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="358" t="s">
-        <v>16</v>
-      </c>
-      <c r="B72" s="351" t="s">
-        <v>42</v>
-      </c>
-      <c r="C72" s="342" t="s">
-        <v>203</v>
-      </c>
-      <c r="D72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="359"/>
-      <c r="B73" s="352"/>
-      <c r="C73" s="341" t="s">
-        <v>224</v>
-      </c>
-      <c r="D73" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="359"/>
-      <c r="B74" s="352"/>
-      <c r="C74" s="341" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="360"/>
-      <c r="B75" s="353"/>
-      <c r="C75" s="335" t="s">
-        <v>179</v>
-      </c>
-      <c r="D75" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="358" t="s">
-        <v>17</v>
-      </c>
-      <c r="B76" s="351" t="s">
-        <v>188</v>
-      </c>
       <c r="C76" s="341" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="359"/>
-      <c r="B77" s="352"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="382"/>
+      <c r="B77" s="360"/>
       <c r="C77" s="341" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="360"/>
-      <c r="B78" s="353"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="383"/>
+      <c r="B78" s="373"/>
       <c r="C78" s="335" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -4868,6 +5050,26 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -4989,15 +5191,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="389" t="s">
+      <c r="A1" s="387" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="390"/>
-      <c r="C1" s="390"/>
-      <c r="D1" s="390"/>
-      <c r="E1" s="390"/>
-      <c r="F1" s="390"/>
-      <c r="G1" s="391"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="389"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5027,7 +5229,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="386" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5040,7 +5242,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="386"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5051,7 +5253,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="387"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5062,7 +5264,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="385" t="s">
+      <c r="A6" s="403" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5075,7 +5277,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="387"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5099,7 +5301,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="385" t="s">
+      <c r="A9" s="403" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5112,7 +5314,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="386"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5123,7 +5325,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="386"/>
+      <c r="A11" s="404"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5136,7 +5338,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="387"/>
+      <c r="A12" s="405"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5147,7 +5349,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="388" t="s">
+      <c r="A13" s="406" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5160,7 +5362,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="386"/>
+      <c r="A14" s="404"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5171,7 +5373,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="386"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5193,19 +5395,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="386"/>
-      <c r="B16" s="395" t="s">
+      <c r="A16" s="404"/>
+      <c r="B16" s="393" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="392" t="s">
+      <c r="C16" s="390" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="399"/>
-      <c r="G16" s="402"/>
+      <c r="F16" s="397"/>
+      <c r="G16" s="400"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5217,15 +5419,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="386"/>
-      <c r="B17" s="396"/>
-      <c r="C17" s="393"/>
+      <c r="A17" s="404"/>
+      <c r="B17" s="394"/>
+      <c r="C17" s="391"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="400"/>
-      <c r="G17" s="403"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="401"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5237,15 +5439,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="386"/>
-      <c r="B18" s="396"/>
-      <c r="C18" s="393"/>
+      <c r="A18" s="404"/>
+      <c r="B18" s="394"/>
+      <c r="C18" s="391"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="400"/>
-      <c r="G18" s="403"/>
+      <c r="F18" s="398"/>
+      <c r="G18" s="401"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5257,15 +5459,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="386"/>
-      <c r="B19" s="396"/>
-      <c r="C19" s="394"/>
+      <c r="A19" s="404"/>
+      <c r="B19" s="394"/>
+      <c r="C19" s="392"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="401"/>
-      <c r="G19" s="404"/>
+      <c r="F19" s="399"/>
+      <c r="G19" s="402"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5277,8 +5479,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="386"/>
-      <c r="B20" s="397"/>
+      <c r="A20" s="404"/>
+      <c r="B20" s="395"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5299,8 +5501,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="387"/>
-      <c r="B21" s="398"/>
+      <c r="A21" s="405"/>
+      <c r="B21" s="396"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5321,7 +5523,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="385" t="s">
+      <c r="A22" s="403" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5343,7 +5545,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="386"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5363,7 +5565,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="386"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5383,7 +5585,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="387"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5394,7 +5596,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="385" t="s">
+      <c r="A26" s="403" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -5407,7 +5609,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="386"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -5418,7 +5620,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="386"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -5429,7 +5631,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="387"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -5804,17 +6006,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5846,15 +6048,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="405" t="s">
+      <c r="A1" s="407" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="407"/>
+      <c r="B1" s="408"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="409"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5884,7 +6086,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="385" t="s">
+      <c r="A3" s="403" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -5897,7 +6099,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="386"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5908,7 +6110,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="387"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5919,7 +6121,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="385" t="s">
+      <c r="A6" s="403" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5932,7 +6134,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="387"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5956,7 +6158,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="385" t="s">
+      <c r="A9" s="403" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5969,57 +6171,57 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="386"/>
-      <c r="B10" s="408" t="s">
+      <c r="A10" s="404"/>
+      <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="410" t="s">
+      <c r="C10" s="412" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="136" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="402"/>
+      <c r="F10" s="397"/>
+      <c r="G10" s="400"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="386"/>
-      <c r="B11" s="397"/>
-      <c r="C11" s="411"/>
+      <c r="A11" s="404"/>
+      <c r="B11" s="395"/>
+      <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="400"/>
-      <c r="G11" s="403"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="386"/>
-      <c r="B12" s="397"/>
-      <c r="C12" s="411"/>
+      <c r="A12" s="404"/>
+      <c r="B12" s="395"/>
+      <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="400"/>
-      <c r="G12" s="403"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="401"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="386"/>
-      <c r="B13" s="397"/>
-      <c r="C13" s="412"/>
+      <c r="A13" s="404"/>
+      <c r="B13" s="395"/>
+      <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="401"/>
-      <c r="G13" s="404"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="386"/>
-      <c r="B14" s="409"/>
+      <c r="A14" s="404"/>
+      <c r="B14" s="411"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
       </c>
@@ -6031,7 +6233,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="386"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6046,7 +6248,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="387"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6057,7 +6259,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="388" t="s">
+      <c r="A17" s="406" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6070,7 +6272,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="386"/>
+      <c r="A18" s="404"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6081,7 +6283,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="386"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6094,57 +6296,57 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="386"/>
-      <c r="B20" s="408" t="s">
+      <c r="A20" s="404"/>
+      <c r="B20" s="410" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="410" t="s">
+      <c r="C20" s="412" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="141" t="s">
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="399"/>
-      <c r="G20" s="402"/>
+      <c r="F20" s="397"/>
+      <c r="G20" s="400"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="386"/>
-      <c r="B21" s="397"/>
-      <c r="C21" s="411"/>
+      <c r="A21" s="404"/>
+      <c r="B21" s="395"/>
+      <c r="C21" s="413"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="400"/>
-      <c r="G21" s="403"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="401"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="386"/>
-      <c r="B22" s="397"/>
-      <c r="C22" s="411"/>
+      <c r="A22" s="404"/>
+      <c r="B22" s="395"/>
+      <c r="C22" s="413"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="400"/>
-      <c r="G22" s="403"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="401"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="386"/>
-      <c r="B23" s="397"/>
-      <c r="C23" s="412"/>
+      <c r="A23" s="404"/>
+      <c r="B23" s="395"/>
+      <c r="C23" s="414"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="401"/>
-      <c r="G23" s="404"/>
+      <c r="F23" s="399"/>
+      <c r="G23" s="402"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="386"/>
-      <c r="B24" s="397"/>
+      <c r="A24" s="404"/>
+      <c r="B24" s="395"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6156,8 +6358,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="386"/>
-      <c r="B25" s="397"/>
+      <c r="A25" s="404"/>
+      <c r="B25" s="395"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6169,8 +6371,8 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="387"/>
-      <c r="B26" s="413"/>
+      <c r="A26" s="405"/>
+      <c r="B26" s="415"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
       </c>
@@ -6183,7 +6385,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="385" t="s">
+      <c r="A27" s="403" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6197,7 +6399,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="386"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6208,7 +6410,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="386"/>
+      <c r="A29" s="404"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6219,7 +6421,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="387"/>
+      <c r="A30" s="405"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6230,7 +6432,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="385" t="s">
+      <c r="A31" s="403" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6243,7 +6445,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="386"/>
+      <c r="A32" s="404"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6254,7 +6456,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="386"/>
+      <c r="A33" s="404"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6265,7 +6467,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="387"/>
+      <c r="A34" s="405"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -6648,6 +6850,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -6657,12 +6865,6 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6694,15 +6896,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="405" t="s">
+      <c r="A1" s="407" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="407"/>
+      <c r="B1" s="408"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="409"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -6732,7 +6934,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="386" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -6745,7 +6947,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="386"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6756,7 +6958,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="387"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6767,7 +6969,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="386" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -6780,7 +6982,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="387"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6804,7 +7006,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="386" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -6817,56 +7019,56 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="386"/>
-      <c r="B10" s="408" t="s">
+      <c r="A10" s="404"/>
+      <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="410" t="s">
+      <c r="C10" s="412" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="138" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="402"/>
+      <c r="F10" s="397"/>
+      <c r="G10" s="400"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="386"/>
-      <c r="B11" s="397"/>
-      <c r="C11" s="411"/>
+      <c r="A11" s="404"/>
+      <c r="B11" s="395"/>
+      <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="400"/>
-      <c r="G11" s="403"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="386"/>
-      <c r="B12" s="397"/>
-      <c r="C12" s="411"/>
+      <c r="A12" s="404"/>
+      <c r="B12" s="395"/>
+      <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="400"/>
-      <c r="G12" s="403"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="401"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="386"/>
-      <c r="B13" s="397"/>
-      <c r="C13" s="412"/>
+      <c r="A13" s="404"/>
+      <c r="B13" s="395"/>
+      <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="401"/>
-      <c r="G13" s="404"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="386"/>
-      <c r="B14" s="397"/>
+      <c r="A14" s="404"/>
+      <c r="B14" s="395"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -6878,8 +7080,8 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="386"/>
-      <c r="B15" s="409"/>
+      <c r="A15" s="404"/>
+      <c r="B15" s="411"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
       </c>
@@ -6891,7 +7093,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="386"/>
+      <c r="A16" s="404"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -6902,7 +7104,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="387"/>
+      <c r="A17" s="405"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -6913,7 +7115,7 @@
       <c r="G17" s="93"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="414" t="s">
+      <c r="A18" s="416" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="199" t="s">
@@ -6926,7 +7128,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="386"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -6937,7 +7139,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="386"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -6948,7 +7150,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="386"/>
+      <c r="A21" s="404"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -6959,7 +7161,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="385" t="s">
+      <c r="A22" s="403" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -6972,7 +7174,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="386"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -6983,7 +7185,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="386"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -6994,7 +7196,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="387"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7005,7 +7207,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="386" t="s">
+      <c r="A26" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7018,7 +7220,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="386"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7029,7 +7231,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="386"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7040,7 +7242,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="387"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -7444,17 +7646,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7486,15 +7688,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="405" t="s">
+      <c r="A1" s="407" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="406"/>
-      <c r="C1" s="406"/>
-      <c r="D1" s="406"/>
-      <c r="E1" s="406"/>
-      <c r="F1" s="406"/>
-      <c r="G1" s="407"/>
+      <c r="B1" s="408"/>
+      <c r="C1" s="408"/>
+      <c r="D1" s="408"/>
+      <c r="E1" s="408"/>
+      <c r="F1" s="408"/>
+      <c r="G1" s="409"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -7528,7 +7730,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="385" t="s">
+      <c r="A3" s="403" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -7549,7 +7751,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="386"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -7560,8 +7762,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="386"/>
-      <c r="B5" s="423" t="s">
+      <c r="A5" s="404"/>
+      <c r="B5" s="417" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -7575,8 +7777,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="387"/>
-      <c r="B6" s="424"/>
+      <c r="A6" s="405"/>
+      <c r="B6" s="418"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -7588,7 +7790,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="386" t="s">
+      <c r="A7" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -7601,7 +7803,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="387"/>
+      <c r="A8" s="405"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -7612,10 +7814,10 @@
       <c r="G8" s="93"/>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="349" t="s">
+      <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="425" t="s">
+      <c r="B9" s="419" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -7629,8 +7831,8 @@
       <c r="G9" s="177"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="348"/>
-      <c r="B10" s="424"/>
+      <c r="A10" s="350"/>
+      <c r="B10" s="418"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -7642,7 +7844,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="386" t="s">
+      <c r="A11" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -7655,7 +7857,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="386"/>
+      <c r="A12" s="404"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -7670,7 +7872,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="386"/>
+      <c r="A13" s="404"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -7681,7 +7883,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="387"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -7696,7 +7898,7 @@
       <c r="G14" s="150"/>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="414" t="s">
+      <c r="A15" s="416" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="203" t="s">
@@ -7713,7 +7915,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="386"/>
+      <c r="A16" s="404"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -7724,7 +7926,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="386"/>
+      <c r="A17" s="404"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -7735,7 +7937,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="387"/>
+      <c r="A18" s="405"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -7746,7 +7948,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="386" t="s">
+      <c r="A19" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -7763,7 +7965,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="386"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -7774,8 +7976,8 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="386"/>
-      <c r="B21" s="408" t="s">
+      <c r="A21" s="404"/>
+      <c r="B21" s="410" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="180" t="s">
@@ -7789,8 +7991,8 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="386"/>
-      <c r="B22" s="409"/>
+      <c r="A22" s="404"/>
+      <c r="B22" s="411"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
       </c>
@@ -7802,7 +8004,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="387"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -7817,7 +8019,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="386" t="s">
+      <c r="A24" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -7834,7 +8036,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="386"/>
+      <c r="A25" s="404"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -7845,7 +8047,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="386"/>
+      <c r="A26" s="404"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -7860,7 +8062,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="387"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -7871,13 +8073,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="420" t="s">
+      <c r="A28" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="418" t="s">
+      <c r="B28" s="423" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="419" t="s">
+      <c r="C28" s="424" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -7888,9 +8090,9 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="421"/>
-      <c r="B29" s="397"/>
-      <c r="C29" s="411"/>
+      <c r="A29" s="426"/>
+      <c r="B29" s="395"/>
+      <c r="C29" s="413"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
       </c>
@@ -7899,9 +8101,9 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="421"/>
-      <c r="B30" s="397"/>
-      <c r="C30" s="411"/>
+      <c r="A30" s="426"/>
+      <c r="B30" s="395"/>
+      <c r="C30" s="413"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
       </c>
@@ -7910,9 +8112,9 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="421"/>
-      <c r="B31" s="397"/>
-      <c r="C31" s="412"/>
+      <c r="A31" s="426"/>
+      <c r="B31" s="395"/>
+      <c r="C31" s="414"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
       </c>
@@ -7921,8 +8123,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="421"/>
-      <c r="B32" s="397"/>
+      <c r="A32" s="426"/>
+      <c r="B32" s="395"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -7934,8 +8136,8 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="422"/>
-      <c r="B33" s="413"/>
+      <c r="A33" s="427"/>
+      <c r="B33" s="415"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
       </c>
@@ -7947,13 +8149,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="415" t="s">
+      <c r="A34" s="420" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="418" t="s">
+      <c r="B34" s="423" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="419" t="s">
+      <c r="C34" s="424" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -7964,9 +8166,9 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="416"/>
-      <c r="B35" s="397"/>
-      <c r="C35" s="411"/>
+      <c r="A35" s="421"/>
+      <c r="B35" s="395"/>
+      <c r="C35" s="413"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
       </c>
@@ -7975,9 +8177,9 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="416"/>
-      <c r="B36" s="397"/>
-      <c r="C36" s="411"/>
+      <c r="A36" s="421"/>
+      <c r="B36" s="395"/>
+      <c r="C36" s="413"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
       </c>
@@ -7986,9 +8188,9 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="416"/>
-      <c r="B37" s="397"/>
-      <c r="C37" s="412"/>
+      <c r="A37" s="421"/>
+      <c r="B37" s="395"/>
+      <c r="C37" s="414"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
       </c>
@@ -7997,8 +8199,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="416"/>
-      <c r="B38" s="397"/>
+      <c r="A38" s="421"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8010,8 +8212,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="416"/>
-      <c r="B39" s="397"/>
+      <c r="A39" s="421"/>
+      <c r="B39" s="395"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8023,8 +8225,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="416"/>
-      <c r="B40" s="397"/>
+      <c r="A40" s="421"/>
+      <c r="B40" s="395"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8036,8 +8238,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="416"/>
-      <c r="B41" s="397"/>
+      <c r="A41" s="421"/>
+      <c r="B41" s="395"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8049,8 +8251,8 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="417"/>
-      <c r="B42" s="413"/>
+      <c r="A42" s="422"/>
+      <c r="B42" s="415"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
       </c>
@@ -8062,13 +8264,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="415" t="s">
+      <c r="A43" s="420" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="418" t="s">
+      <c r="B43" s="423" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="419" t="s">
+      <c r="C43" s="424" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8079,9 +8281,9 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="416"/>
-      <c r="B44" s="397"/>
-      <c r="C44" s="411"/>
+      <c r="A44" s="421"/>
+      <c r="B44" s="395"/>
+      <c r="C44" s="413"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
       </c>
@@ -8090,9 +8292,9 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="416"/>
-      <c r="B45" s="397"/>
-      <c r="C45" s="411"/>
+      <c r="A45" s="421"/>
+      <c r="B45" s="395"/>
+      <c r="C45" s="413"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
       </c>
@@ -8101,9 +8303,9 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="416"/>
-      <c r="B46" s="397"/>
-      <c r="C46" s="412"/>
+      <c r="A46" s="421"/>
+      <c r="B46" s="395"/>
+      <c r="C46" s="414"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
       </c>
@@ -8112,9 +8314,9 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="416"/>
-      <c r="B47" s="397"/>
-      <c r="C47" s="411" t="s">
+      <c r="A47" s="421"/>
+      <c r="B47" s="395"/>
+      <c r="C47" s="413" t="s">
         <v>133</v>
       </c>
       <c r="D47" s="224" t="s">
@@ -8125,9 +8327,9 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="416"/>
-      <c r="B48" s="397"/>
-      <c r="C48" s="411"/>
+      <c r="A48" s="421"/>
+      <c r="B48" s="395"/>
+      <c r="C48" s="413"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
       </c>
@@ -8136,9 +8338,9 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="416"/>
-      <c r="B49" s="397"/>
-      <c r="C49" s="411"/>
+      <c r="A49" s="421"/>
+      <c r="B49" s="395"/>
+      <c r="C49" s="413"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
       </c>
@@ -8147,9 +8349,9 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="416"/>
-      <c r="B50" s="397"/>
-      <c r="C50" s="412"/>
+      <c r="A50" s="421"/>
+      <c r="B50" s="395"/>
+      <c r="C50" s="414"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
       </c>
@@ -8158,8 +8360,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="416"/>
-      <c r="B51" s="397"/>
+      <c r="A51" s="421"/>
+      <c r="B51" s="395"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8171,8 +8373,8 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="417"/>
-      <c r="B52" s="413"/>
+      <c r="A52" s="422"/>
+      <c r="B52" s="415"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
       </c>
@@ -8568,17 +8770,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -8589,6 +8780,17 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8620,15 +8822,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="426" t="s">
+      <c r="A1" s="428" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="427"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="427"/>
-      <c r="E1" s="427"/>
-      <c r="F1" s="427"/>
-      <c r="G1" s="427"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -8658,7 +8860,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="386" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -8671,7 +8873,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="386"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -8682,7 +8884,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="387"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -8693,7 +8895,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="386" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -8706,7 +8908,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="387"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -8730,58 +8932,58 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="428" t="s">
+      <c r="A9" s="430" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="397" t="s">
+      <c r="B9" s="395" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="393" t="s">
+      <c r="C9" s="391" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="270"/>
-      <c r="F9" s="431"/>
-      <c r="G9" s="430"/>
+      <c r="F9" s="433"/>
+      <c r="G9" s="432"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="428"/>
-      <c r="B10" s="397"/>
-      <c r="C10" s="393"/>
+      <c r="A10" s="430"/>
+      <c r="B10" s="395"/>
+      <c r="C10" s="391"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="400"/>
-      <c r="G10" s="403"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="428"/>
-      <c r="B11" s="397"/>
-      <c r="C11" s="393"/>
+      <c r="A11" s="430"/>
+      <c r="B11" s="395"/>
+      <c r="C11" s="391"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="400"/>
-      <c r="G11" s="403"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="428"/>
-      <c r="B12" s="397"/>
-      <c r="C12" s="394"/>
+      <c r="A12" s="430"/>
+      <c r="B12" s="395"/>
+      <c r="C12" s="392"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="401"/>
-      <c r="G12" s="404"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="428"/>
-      <c r="B13" s="397"/>
+      <c r="A13" s="430"/>
+      <c r="B13" s="395"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -8793,8 +8995,8 @@
       <c r="G13" s="153"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="428"/>
-      <c r="B14" s="409"/>
+      <c r="A14" s="430"/>
+      <c r="B14" s="411"/>
       <c r="C14" s="265" t="s">
         <v>139</v>
       </c>
@@ -8806,7 +9008,7 @@
       <c r="G14" s="154"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="428"/>
+      <c r="A15" s="430"/>
       <c r="B15" s="204" t="s">
         <v>73</v>
       </c>
@@ -8817,7 +9019,7 @@
       <c r="G15" s="90"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="428"/>
+      <c r="A16" s="430"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -8830,7 +9032,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="429"/>
+      <c r="A17" s="431"/>
       <c r="B17" s="198" t="s">
         <v>74</v>
       </c>
@@ -8841,7 +9043,7 @@
       <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="414" t="s">
+      <c r="A18" s="416" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="199" t="s">
@@ -8854,7 +9056,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="386"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -8865,7 +9067,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="386"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -8878,7 +9080,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="387"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -8889,7 +9091,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="386" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -8902,7 +9104,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="386"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -8913,7 +9115,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="386"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -8924,7 +9126,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="387"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -8935,7 +9137,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="386" t="s">
+      <c r="A26" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -8948,7 +9150,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="386"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -8959,7 +9161,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="386"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -8970,7 +9172,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="387"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9341,17 +9543,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9382,15 +9584,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="432" t="s">
+      <c r="A1" s="454" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="432"/>
-      <c r="C1" s="432"/>
-      <c r="D1" s="432"/>
-      <c r="E1" s="432"/>
-      <c r="F1" s="432"/>
-      <c r="G1" s="433"/>
+      <c r="B1" s="454"/>
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="455"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9419,10 +9621,10 @@
       <c r="A3" s="434" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="425" t="s">
+      <c r="B3" s="419" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="419" t="s">
+      <c r="C3" s="424" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -9434,8 +9636,8 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="435"/>
-      <c r="B4" s="437"/>
-      <c r="C4" s="411"/>
+      <c r="B4" s="440"/>
+      <c r="C4" s="413"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
       </c>
@@ -9445,8 +9647,8 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="435"/>
-      <c r="B5" s="437"/>
-      <c r="C5" s="411"/>
+      <c r="B5" s="440"/>
+      <c r="C5" s="413"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
       </c>
@@ -9456,8 +9658,8 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="435"/>
-      <c r="B6" s="437"/>
-      <c r="C6" s="412"/>
+      <c r="B6" s="440"/>
+      <c r="C6" s="414"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
       </c>
@@ -9467,7 +9669,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="435"/>
-      <c r="B7" s="437"/>
+      <c r="B7" s="440"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -9480,7 +9682,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="435"/>
-      <c r="B8" s="438"/>
+      <c r="B8" s="436"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -9493,146 +9695,146 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="435"/>
-      <c r="B9" s="423" t="s">
+      <c r="B9" s="417" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="410" t="s">
+      <c r="C9" s="412" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="399"/>
-      <c r="F9" s="399"/>
-      <c r="G9" s="402"/>
+      <c r="E9" s="397"/>
+      <c r="F9" s="397"/>
+      <c r="G9" s="400"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="435"/>
-      <c r="B10" s="437"/>
-      <c r="C10" s="411"/>
+      <c r="B10" s="440"/>
+      <c r="C10" s="413"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="400"/>
-      <c r="F10" s="400"/>
-      <c r="G10" s="403"/>
+      <c r="E10" s="398"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="435"/>
-      <c r="B11" s="437"/>
-      <c r="C11" s="411"/>
+      <c r="B11" s="440"/>
+      <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="400"/>
-      <c r="F11" s="400"/>
-      <c r="G11" s="403"/>
+      <c r="E11" s="398"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="435"/>
-      <c r="B12" s="437"/>
-      <c r="C12" s="412"/>
+      <c r="B12" s="440"/>
+      <c r="C12" s="414"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="401"/>
-      <c r="F12" s="401"/>
-      <c r="G12" s="404"/>
+      <c r="E12" s="399"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="435"/>
-      <c r="B13" s="437"/>
-      <c r="C13" s="411" t="s">
+      <c r="B13" s="440"/>
+      <c r="C13" s="413" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="400"/>
-      <c r="F13" s="400"/>
-      <c r="G13" s="403"/>
+      <c r="E13" s="398"/>
+      <c r="F13" s="398"/>
+      <c r="G13" s="401"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="435"/>
-      <c r="B14" s="437"/>
-      <c r="C14" s="411"/>
+      <c r="B14" s="440"/>
+      <c r="C14" s="413"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="400"/>
-      <c r="F14" s="400"/>
-      <c r="G14" s="403"/>
+      <c r="E14" s="398"/>
+      <c r="F14" s="398"/>
+      <c r="G14" s="401"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="435"/>
-      <c r="B15" s="437"/>
-      <c r="C15" s="411"/>
+      <c r="B15" s="440"/>
+      <c r="C15" s="413"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="400"/>
-      <c r="F15" s="400"/>
-      <c r="G15" s="403"/>
+      <c r="E15" s="398"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="401"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="435"/>
-      <c r="B16" s="437"/>
-      <c r="C16" s="412"/>
+      <c r="B16" s="440"/>
+      <c r="C16" s="414"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="401"/>
-      <c r="F16" s="401"/>
-      <c r="G16" s="404"/>
+      <c r="E16" s="399"/>
+      <c r="F16" s="399"/>
+      <c r="G16" s="402"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="435"/>
-      <c r="B17" s="437"/>
-      <c r="C17" s="411" t="s">
+      <c r="B17" s="440"/>
+      <c r="C17" s="413" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="400"/>
-      <c r="F17" s="400"/>
-      <c r="G17" s="403"/>
+      <c r="E17" s="398"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="401"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="435"/>
-      <c r="B18" s="437"/>
-      <c r="C18" s="411"/>
+      <c r="B18" s="440"/>
+      <c r="C18" s="413"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="400"/>
-      <c r="F18" s="400"/>
-      <c r="G18" s="403"/>
+      <c r="E18" s="398"/>
+      <c r="F18" s="398"/>
+      <c r="G18" s="401"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="435"/>
-      <c r="B19" s="437"/>
-      <c r="C19" s="411"/>
+      <c r="B19" s="440"/>
+      <c r="C19" s="413"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="400"/>
-      <c r="F19" s="400"/>
-      <c r="G19" s="403"/>
+      <c r="E19" s="398"/>
+      <c r="F19" s="398"/>
+      <c r="G19" s="401"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="435"/>
-      <c r="B20" s="437"/>
-      <c r="C20" s="439"/>
+      <c r="B20" s="440"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="440"/>
-      <c r="F20" s="440"/>
+      <c r="E20" s="447"/>
+      <c r="F20" s="447"/>
       <c r="G20" s="441"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="436"/>
+      <c r="A21" s="442"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -9643,10 +9845,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="442" t="s">
+      <c r="A22" s="448" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="425" t="s">
+      <c r="B22" s="419" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -9658,8 +9860,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="443"/>
-      <c r="B23" s="437"/>
+      <c r="A23" s="449"/>
+      <c r="B23" s="440"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -9669,54 +9871,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="443"/>
-      <c r="B24" s="437"/>
-      <c r="C24" s="411" t="s">
+      <c r="A24" s="449"/>
+      <c r="B24" s="440"/>
+      <c r="C24" s="413" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="400"/>
-      <c r="F24" s="400"/>
-      <c r="G24" s="403"/>
+      <c r="E24" s="398"/>
+      <c r="F24" s="398"/>
+      <c r="G24" s="401"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="443"/>
-      <c r="B25" s="437"/>
-      <c r="C25" s="411"/>
+      <c r="A25" s="449"/>
+      <c r="B25" s="440"/>
+      <c r="C25" s="413"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="400"/>
-      <c r="F25" s="400"/>
-      <c r="G25" s="403"/>
+      <c r="E25" s="398"/>
+      <c r="F25" s="398"/>
+      <c r="G25" s="401"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="443"/>
-      <c r="B26" s="437"/>
-      <c r="C26" s="411"/>
+      <c r="A26" s="449"/>
+      <c r="B26" s="440"/>
+      <c r="C26" s="413"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="400"/>
-      <c r="F26" s="400"/>
-      <c r="G26" s="403"/>
+      <c r="E26" s="398"/>
+      <c r="F26" s="398"/>
+      <c r="G26" s="401"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="443"/>
-      <c r="B27" s="438"/>
-      <c r="C27" s="439"/>
+      <c r="A27" s="449"/>
+      <c r="B27" s="436"/>
+      <c r="C27" s="443"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="440"/>
-      <c r="F27" s="440"/>
+      <c r="E27" s="447"/>
+      <c r="F27" s="447"/>
       <c r="G27" s="441"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="443"/>
-      <c r="B28" s="437" t="s">
+      <c r="A28" s="449"/>
+      <c r="B28" s="440" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -9728,50 +9930,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="443"/>
-      <c r="B29" s="437"/>
-      <c r="C29" s="411" t="s">
+      <c r="A29" s="449"/>
+      <c r="B29" s="440"/>
+      <c r="C29" s="413" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="400"/>
-      <c r="F29" s="400"/>
-      <c r="G29" s="403"/>
+      <c r="E29" s="398"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="401"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="443"/>
-      <c r="B30" s="437"/>
-      <c r="C30" s="411"/>
+      <c r="A30" s="449"/>
+      <c r="B30" s="440"/>
+      <c r="C30" s="413"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="400"/>
-      <c r="F30" s="400"/>
-      <c r="G30" s="403"/>
+      <c r="E30" s="398"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="401"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="443"/>
-      <c r="B31" s="437"/>
-      <c r="C31" s="411"/>
+      <c r="A31" s="449"/>
+      <c r="B31" s="440"/>
+      <c r="C31" s="413"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="400"/>
-      <c r="F31" s="400"/>
-      <c r="G31" s="403"/>
+      <c r="E31" s="398"/>
+      <c r="F31" s="398"/>
+      <c r="G31" s="401"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="444"/>
-      <c r="B32" s="424"/>
-      <c r="C32" s="445"/>
+      <c r="A32" s="450"/>
+      <c r="B32" s="418"/>
+      <c r="C32" s="451"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="446"/>
-      <c r="F32" s="446"/>
-      <c r="G32" s="447"/>
+      <c r="E32" s="452"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -9790,7 +9992,7 @@
       <c r="A34" s="434" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="448" t="s">
+      <c r="B34" s="444" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -9803,7 +10005,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="435"/>
-      <c r="B35" s="449"/>
+      <c r="B35" s="445"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -9814,48 +10016,48 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="435"/>
-      <c r="B36" s="449"/>
-      <c r="C36" s="439" t="s">
+      <c r="B36" s="445"/>
+      <c r="C36" s="443" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="400"/>
-      <c r="F36" s="400"/>
-      <c r="G36" s="403"/>
+      <c r="E36" s="398"/>
+      <c r="F36" s="398"/>
+      <c r="G36" s="401"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="435"/>
-      <c r="B37" s="449"/>
-      <c r="C37" s="450"/>
+      <c r="B37" s="445"/>
+      <c r="C37" s="446"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="400"/>
-      <c r="F37" s="400"/>
-      <c r="G37" s="403"/>
+      <c r="E37" s="398"/>
+      <c r="F37" s="398"/>
+      <c r="G37" s="401"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="435"/>
-      <c r="B38" s="449"/>
-      <c r="C38" s="450"/>
+      <c r="B38" s="445"/>
+      <c r="C38" s="446"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="400"/>
-      <c r="F38" s="400"/>
-      <c r="G38" s="403"/>
+      <c r="E38" s="398"/>
+      <c r="F38" s="398"/>
+      <c r="G38" s="401"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="435"/>
-      <c r="B39" s="449"/>
-      <c r="C39" s="450"/>
+      <c r="B39" s="445"/>
+      <c r="C39" s="446"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="440"/>
-      <c r="F39" s="440"/>
+      <c r="E39" s="447"/>
+      <c r="F39" s="447"/>
       <c r="G39" s="441"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -9881,7 +10083,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="436"/>
+      <c r="A42" s="442"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -9906,7 +10108,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="435"/>
-      <c r="B44" s="423" t="s">
+      <c r="B44" s="417" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -9919,7 +10121,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="435"/>
-      <c r="B45" s="437"/>
+      <c r="B45" s="440"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -9930,7 +10132,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="435"/>
-      <c r="B46" s="437"/>
+      <c r="B46" s="440"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -9941,8 +10143,8 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="435"/>
-      <c r="B47" s="437"/>
-      <c r="C47" s="411" t="s">
+      <c r="B47" s="440"/>
+      <c r="C47" s="413" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="305" t="s">
@@ -9954,8 +10156,8 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="435"/>
-      <c r="B48" s="437"/>
-      <c r="C48" s="411"/>
+      <c r="B48" s="440"/>
+      <c r="C48" s="413"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
       </c>
@@ -9965,8 +10167,8 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="435"/>
-      <c r="B49" s="437"/>
-      <c r="C49" s="411"/>
+      <c r="B49" s="440"/>
+      <c r="C49" s="413"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
       </c>
@@ -9976,8 +10178,8 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="435"/>
-      <c r="B50" s="438"/>
-      <c r="C50" s="439"/>
+      <c r="B50" s="436"/>
+      <c r="C50" s="443"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -9987,10 +10189,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="435"/>
-      <c r="B51" s="423" t="s">
+      <c r="B51" s="417" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="410" t="s">
+      <c r="C51" s="412" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="309" t="s">
@@ -10002,8 +10204,8 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="435"/>
-      <c r="B52" s="437"/>
-      <c r="C52" s="411"/>
+      <c r="B52" s="440"/>
+      <c r="C52" s="413"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
       </c>
@@ -10013,8 +10215,8 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="435"/>
-      <c r="B53" s="437"/>
-      <c r="C53" s="411"/>
+      <c r="B53" s="440"/>
+      <c r="C53" s="413"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
       </c>
@@ -10024,8 +10226,8 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="435"/>
-      <c r="B54" s="437"/>
-      <c r="C54" s="412"/>
+      <c r="B54" s="440"/>
+      <c r="C54" s="414"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
       </c>
@@ -10035,7 +10237,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="435"/>
-      <c r="B55" s="437"/>
+      <c r="B55" s="440"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10046,7 +10248,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="435"/>
-      <c r="B56" s="438"/>
+      <c r="B56" s="436"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10057,7 +10259,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="435"/>
-      <c r="B57" s="437" t="s">
+      <c r="B57" s="440" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10070,7 +10272,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="435"/>
-      <c r="B58" s="437"/>
+      <c r="B58" s="440"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10080,8 +10282,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="436"/>
-      <c r="B59" s="424"/>
+      <c r="A59" s="442"/>
+      <c r="B59" s="418"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10105,7 +10307,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="435"/>
-      <c r="B61" s="423" t="s">
+      <c r="B61" s="417" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10118,7 +10320,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="435"/>
-      <c r="B62" s="438"/>
+      <c r="B62" s="436"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10150,7 +10352,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="451" t="s">
+      <c r="A65" s="437" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10163,8 +10365,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="452"/>
-      <c r="B66" s="423" t="s">
+      <c r="A66" s="438"/>
+      <c r="B66" s="417" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10176,8 +10378,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="452"/>
-      <c r="B67" s="437"/>
+      <c r="A67" s="438"/>
+      <c r="B67" s="440"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10187,8 +10389,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="452"/>
-      <c r="B68" s="438"/>
+      <c r="A68" s="438"/>
+      <c r="B68" s="436"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10198,7 +10400,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="452"/>
+      <c r="A69" s="438"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10209,8 +10411,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="452"/>
-      <c r="B70" s="423" t="s">
+      <c r="A70" s="438"/>
+      <c r="B70" s="417" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10222,8 +10424,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="452"/>
-      <c r="B71" s="437"/>
+      <c r="A71" s="438"/>
+      <c r="B71" s="440"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10233,8 +10435,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="453"/>
-      <c r="B72" s="424"/>
+      <c r="A72" s="439"/>
+      <c r="B72" s="418"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10284,35 +10486,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10329,6 +10502,35 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10360,15 +10562,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="426" t="s">
+      <c r="A1" s="428" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="427"/>
-      <c r="C1" s="427"/>
-      <c r="D1" s="427"/>
-      <c r="E1" s="427"/>
-      <c r="F1" s="427"/>
-      <c r="G1" s="427"/>
+      <c r="B1" s="429"/>
+      <c r="C1" s="429"/>
+      <c r="D1" s="429"/>
+      <c r="E1" s="429"/>
+      <c r="F1" s="429"/>
+      <c r="G1" s="429"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -10398,7 +10600,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="386" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -10411,7 +10613,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="386"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -10422,7 +10624,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="387"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -10433,7 +10635,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="386" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -10446,7 +10648,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="387"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -10470,7 +10672,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="386" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -10483,7 +10685,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="386"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -10494,7 +10696,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="386"/>
+      <c r="A11" s="404"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -10507,7 +10709,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="387"/>
+      <c r="A12" s="405"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -10518,7 +10720,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="414" t="s">
+      <c r="A13" s="416" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="158" t="s">
@@ -10531,7 +10733,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="386"/>
+      <c r="A14" s="404"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -10542,7 +10744,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="386"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -10555,7 +10757,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="387"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -10566,7 +10768,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="386" t="s">
+      <c r="A17" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -10579,7 +10781,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="386"/>
+      <c r="A18" s="404"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -10590,7 +10792,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="386"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -10601,7 +10803,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="387"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -10612,7 +10814,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="386" t="s">
+      <c r="A21" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -10625,7 +10827,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="386"/>
+      <c r="A22" s="404"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -10636,7 +10838,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="386"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -10647,7 +10849,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="387"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3EA3D-81A2-4EF8-9640-6EB16C52FDC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F694457-BB37-4C6A-A79F-5D1CAA34286A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="238">
   <si>
     <t>ENG 251</t>
   </si>
@@ -717,12 +717,6 @@
     <t>Syllabus #ED 461</t>
   </si>
   <si>
-    <t xml:space="preserve">Lesson Unit Plan #430 </t>
-  </si>
-  <si>
-    <t>Lesson Unit Plan #430</t>
-  </si>
-  <si>
     <t>Course Attendance #329</t>
   </si>
   <si>
@@ -780,9 +774,6 @@
     <t>Writing Unit #329</t>
   </si>
   <si>
-    <t>Teaching Observations (1-15)  #329</t>
-  </si>
-  <si>
     <t xml:space="preserve">Done </t>
   </si>
   <si>
@@ -819,24 +810,10 @@
     <t>(to be determined)</t>
   </si>
   <si>
-    <t>Observations (11-15) #329</t>
-  </si>
-  <si>
-    <t>Observations (1-5) #329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Observations (6-10) #329
-</t>
-  </si>
-  <si>
     <t>Reflection (Practicum)  #329</t>
   </si>
   <si>
     <t>waiting from sister Soper to send me samples</t>
-  </si>
-  <si>
-    <t>Grading Writing #329</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -907,6 +884,44 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Observations 6-10 #329
+</t>
+  </si>
+  <si>
+    <t>Observations 1-5 #329</t>
+  </si>
+  <si>
+    <t>Observations 11-15 #329</t>
+  </si>
+  <si>
+    <t>Observations 1-5  #329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Lesson Plan #430 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> !!!</t>
+  </si>
+  <si>
+    <t>I wrote Sister Moen, see if she can provide the same thing again.</t>
+  </si>
+  <si>
+    <t>I Contacted brother Glenn Dayley</t>
+  </si>
+  <si>
+    <t>I asked brother J Harrell</t>
+  </si>
+  <si>
+    <t>Sent email to Sister Tobler</t>
+  </si>
+  <si>
+    <t>Sent email to Brother Benitez</t>
+  </si>
+  <si>
+    <t>Grading writing powerpoint or handout #329</t>
   </si>
 </sst>
 </file>
@@ -2785,6 +2800,93 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2797,95 +2899,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2935,18 +2962,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2977,6 +2992,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2986,30 +3025,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3028,15 +3043,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3045,54 +3108,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4003,10 +4018,10 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4020,15 +4035,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="365" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="366"/>
-      <c r="C1" s="367"/>
+      <c r="A1" s="374" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="375"/>
+      <c r="C1" s="376"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="N1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4042,998 +4057,1111 @@
         <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E2" s="346"/>
       <c r="F2" s="347" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="G2" s="347" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="368" t="s">
+      <c r="B3" s="377" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
         <v>163</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="378"/>
-      <c r="B4" s="369"/>
+      <c r="A4" s="357"/>
+      <c r="B4" s="378"/>
       <c r="C4" s="339" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="357"/>
+      <c r="B5" s="379"/>
+      <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
-      <c r="D4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="378"/>
-      <c r="B5" s="370"/>
-      <c r="C5" s="336" t="s">
-        <v>193</v>
-      </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="378"/>
-      <c r="B6" s="368" t="s">
+      <c r="A6" s="357"/>
+      <c r="B6" s="377" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="378"/>
-      <c r="B7" s="369"/>
+      <c r="A7" s="357"/>
+      <c r="B7" s="378"/>
       <c r="C7" s="341" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="378"/>
-      <c r="B8" s="370"/>
+      <c r="A8" s="357"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="378"/>
-      <c r="B9" s="368" t="s">
+      <c r="A9" s="357"/>
+      <c r="B9" s="377" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="378"/>
-      <c r="B10" s="369"/>
+      <c r="A10" s="357"/>
+      <c r="B10" s="378"/>
       <c r="C10" s="334" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="379"/>
-      <c r="B11" s="371"/>
+      <c r="A11" s="358"/>
+      <c r="B11" s="380"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="380" t="s">
+      <c r="A12" s="359" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="372" t="s">
-        <v>179</v>
+      <c r="B12" s="381" t="s">
+        <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="378"/>
-      <c r="B13" s="369"/>
+      <c r="A13" s="357"/>
+      <c r="B13" s="378"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="378"/>
-      <c r="B14" s="370"/>
+      <c r="A14" s="357"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="333" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="378"/>
-      <c r="B15" s="353" t="s">
-        <v>180</v>
+      <c r="A15" s="357"/>
+      <c r="B15" s="382" t="s">
+        <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
         <v>168</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="378"/>
-      <c r="B16" s="354"/>
+      <c r="A16" s="357"/>
+      <c r="B16" s="383"/>
       <c r="C16" s="334" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="379"/>
-      <c r="B17" s="355"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="358"/>
+      <c r="B17" s="384"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="380" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="359" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="356" t="s">
+      <c r="B18" s="385" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="378"/>
-      <c r="B19" s="357"/>
+        <v>188</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="357"/>
+      <c r="B19" s="367"/>
       <c r="C19" s="334" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="379"/>
-      <c r="B20" s="358"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="358"/>
+      <c r="B20" s="386"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="380" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="359" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="359" t="s">
+      <c r="B21" s="353" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
         <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="378"/>
-      <c r="B22" s="360"/>
+        <v>188</v>
+      </c>
+      <c r="F21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="357"/>
+      <c r="B22" s="354"/>
       <c r="C22" s="334" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="378"/>
-      <c r="B23" s="361"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="357"/>
+      <c r="B23" s="370"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="378"/>
-      <c r="B24" s="362" t="s">
-        <v>181</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="357"/>
+      <c r="B24" s="369" t="s">
+        <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
         <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="378"/>
-      <c r="B25" s="360"/>
+        <v>188</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="357"/>
+      <c r="B25" s="354"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="378"/>
-      <c r="B26" s="361"/>
+        <v>188</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="357"/>
+      <c r="B26" s="370"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="378"/>
-      <c r="B27" s="363" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="357"/>
+      <c r="B27" s="366" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
         <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="378"/>
-      <c r="B28" s="357"/>
+        <v>188</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="357"/>
+      <c r="B28" s="367"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="378"/>
-      <c r="B29" s="364"/>
+        <v>188</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="357"/>
+      <c r="B29" s="368"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="378"/>
-      <c r="B30" s="362" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="357"/>
+      <c r="B30" s="369" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="378"/>
-      <c r="B31" s="360"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="357"/>
+      <c r="B31" s="354"/>
       <c r="C31" s="334" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="379"/>
-      <c r="B32" s="373"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="358"/>
+      <c r="B32" s="355"/>
       <c r="C32" s="337" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="381" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="360" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="359" t="s">
+      <c r="B33" s="353" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
         <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="382"/>
-      <c r="B34" s="360"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="361"/>
+      <c r="B34" s="354"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="382"/>
-      <c r="B35" s="361"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="361"/>
+      <c r="B35" s="370"/>
       <c r="C35" s="333" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="382"/>
-      <c r="B36" s="362" t="s">
-        <v>183</v>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="361"/>
+      <c r="B36" s="369" t="s">
+        <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="382"/>
-      <c r="B37" s="360"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="361"/>
+      <c r="B37" s="354"/>
       <c r="C37" s="334" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="382"/>
-      <c r="B38" s="361"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="361"/>
+      <c r="B38" s="370"/>
       <c r="C38" s="333" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F38" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="382"/>
-      <c r="B39" s="362" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="361"/>
+      <c r="B39" s="369" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
         <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="361"/>
+      <c r="B40" s="354"/>
+      <c r="C40" s="334" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="382"/>
-      <c r="B40" s="360"/>
-      <c r="C40" s="334" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="382"/>
-      <c r="B41" s="361"/>
+      <c r="G40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="361"/>
+      <c r="B41" s="370"/>
       <c r="C41" s="333" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D41" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="382"/>
-      <c r="B42" s="362" t="s">
-        <v>184</v>
+        <v>188</v>
+      </c>
+      <c r="F41" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="361"/>
+      <c r="B42" s="369" t="s">
+        <v>182</v>
       </c>
       <c r="C42" s="334" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="382"/>
-      <c r="B43" s="360"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="361"/>
+      <c r="B43" s="354"/>
       <c r="C43" s="334" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="383"/>
-      <c r="B44" s="373"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="362"/>
+      <c r="B44" s="355"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F44" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="380" t="s">
-        <v>185</v>
-      </c>
-      <c r="B45" s="359" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="359" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="353" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="378"/>
-      <c r="B46" s="360"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="357"/>
+      <c r="B46" s="354"/>
       <c r="C46" s="334" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="378"/>
-      <c r="B47" s="361"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="357"/>
+      <c r="B47" s="370"/>
       <c r="C47" s="333" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="378"/>
-      <c r="B48" s="362" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="357"/>
+      <c r="B48" s="369" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="378"/>
-      <c r="B49" s="360"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="357"/>
+      <c r="B49" s="354"/>
       <c r="C49" s="334" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="378"/>
-      <c r="B50" s="361"/>
+        <v>188</v>
+      </c>
+      <c r="F49" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="357"/>
+      <c r="B50" s="370"/>
       <c r="C50" s="333" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="378"/>
-      <c r="B51" s="362" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="357"/>
+      <c r="B51" s="369" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
         <v>165</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F51" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="378"/>
-      <c r="B52" s="360"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="357"/>
+      <c r="B52" s="354"/>
       <c r="C52" s="334" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="378"/>
-      <c r="B53" s="361"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="357"/>
+      <c r="B53" s="370"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="378"/>
-      <c r="B54" s="362" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="357"/>
+      <c r="B54" s="369" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="378"/>
-      <c r="B55" s="360"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="357"/>
+      <c r="B55" s="354"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F55" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="379"/>
-      <c r="B56" s="373"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="358"/>
+      <c r="B56" s="355"/>
       <c r="C56" s="337" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="384" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="374" t="s">
+      <c r="B57" s="371" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
         <v>165</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F57" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="385"/>
-      <c r="B58" s="375"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="364"/>
+      <c r="B58" s="372"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="385"/>
-      <c r="B59" s="376"/>
+        <v>206</v>
+      </c>
+      <c r="F58" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="364"/>
+      <c r="B59" s="373"/>
       <c r="C59" s="333" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="385"/>
-      <c r="B60" s="363" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="364"/>
+      <c r="B60" s="366" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
         <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="385"/>
-      <c r="B61" s="357"/>
+        <v>206</v>
+      </c>
+      <c r="F60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="364"/>
+      <c r="B61" s="367"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="385"/>
-      <c r="B62" s="364"/>
+        <v>188</v>
+      </c>
+      <c r="F61" t="s">
+        <v>212</v>
+      </c>
+      <c r="G61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="364"/>
+      <c r="B62" s="368"/>
       <c r="C62" s="333" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="385"/>
-      <c r="B63" s="362" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" t="s">
+        <v>212</v>
+      </c>
+      <c r="G62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="364"/>
+      <c r="B63" s="369" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
         <v>165</v>
       </c>
       <c r="D63" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="364"/>
+      <c r="B64" s="354"/>
+      <c r="C64" s="334" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64" t="s">
         <v>190</v>
       </c>
-      <c r="F63" t="s">
+      <c r="E64" t="s">
+        <v>206</v>
+      </c>
+      <c r="F64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="364"/>
+      <c r="B65" s="370"/>
+      <c r="C65" s="333" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="364"/>
+      <c r="B66" s="369" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="334" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="364"/>
+      <c r="B67" s="354"/>
+      <c r="C67" s="334" t="s">
+        <v>174</v>
+      </c>
+      <c r="D67" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="385"/>
-      <c r="B64" s="360"/>
-      <c r="C64" s="334" t="s">
-        <v>176</v>
-      </c>
-      <c r="D64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E64" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="385"/>
-      <c r="B65" s="361"/>
-      <c r="C65" s="333" t="s">
-        <v>220</v>
-      </c>
-      <c r="D65" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="385"/>
-      <c r="B66" s="362" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="334" t="s">
-        <v>207</v>
-      </c>
-      <c r="D66" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="385"/>
-      <c r="B67" s="360"/>
-      <c r="C67" s="334" t="s">
-        <v>177</v>
-      </c>
-      <c r="D67" t="s">
-        <v>192</v>
-      </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>206</v>
+      </c>
+      <c r="F67" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="386"/>
-      <c r="B68" s="373"/>
+      <c r="A68" s="365"/>
+      <c r="B68" s="355"/>
       <c r="C68" s="334" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D68" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="380" t="s">
+      <c r="A69" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="359" t="s">
+      <c r="B69" s="353" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
         <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="378"/>
-      <c r="B70" s="360"/>
+      <c r="A70" s="357"/>
+      <c r="B70" s="354"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="379"/>
-      <c r="B71" s="373"/>
+      <c r="A71" s="358"/>
+      <c r="B71" s="355"/>
       <c r="C71" s="335" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="381" t="s">
+      <c r="A72" s="360" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="359" t="s">
+      <c r="B72" s="353" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="382"/>
-      <c r="B73" s="360"/>
+      <c r="A73" s="361"/>
+      <c r="B73" s="354"/>
       <c r="C73" s="341" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="382"/>
-      <c r="B74" s="360"/>
+      <c r="A74" s="361"/>
+      <c r="B74" s="354"/>
       <c r="C74" s="341" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="F74" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="383"/>
-      <c r="B75" s="373"/>
+      <c r="A75" s="362"/>
+      <c r="B75" s="355"/>
       <c r="C75" s="335" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="381" t="s">
+      <c r="A76" s="360" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="359" t="s">
-        <v>187</v>
+      <c r="B76" s="353" t="s">
+        <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E76" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="382"/>
-      <c r="B77" s="360"/>
+        <v>207</v>
+      </c>
+      <c r="F76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="361"/>
+      <c r="B77" s="354"/>
       <c r="C77" s="341" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="383"/>
-      <c r="B78" s="373"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="362"/>
+      <c r="B78" s="355"/>
       <c r="C78" s="335" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="D78" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="F78" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5050,26 +5178,6 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5191,15 +5299,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="391" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="389"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="393"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5229,7 +5337,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5242,7 +5350,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5253,7 +5361,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5264,7 +5372,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="403" t="s">
+      <c r="A6" s="387" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5277,7 +5385,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5301,7 +5409,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="403" t="s">
+      <c r="A9" s="387" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5314,7 +5422,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5325,7 +5433,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
+      <c r="A11" s="388"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5338,7 +5446,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="405"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5349,7 +5457,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="406" t="s">
+      <c r="A13" s="390" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5362,7 +5470,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5373,7 +5481,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5395,19 +5503,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="404"/>
-      <c r="B16" s="393" t="s">
+      <c r="A16" s="388"/>
+      <c r="B16" s="397" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="390" t="s">
+      <c r="C16" s="394" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="397"/>
-      <c r="G16" s="400"/>
+      <c r="F16" s="401"/>
+      <c r="G16" s="404"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5419,15 +5527,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="404"/>
-      <c r="B17" s="394"/>
-      <c r="C17" s="391"/>
+      <c r="A17" s="388"/>
+      <c r="B17" s="398"/>
+      <c r="C17" s="395"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="398"/>
-      <c r="G17" s="401"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="405"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5439,15 +5547,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
-      <c r="B18" s="394"/>
-      <c r="C18" s="391"/>
+      <c r="A18" s="388"/>
+      <c r="B18" s="398"/>
+      <c r="C18" s="395"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="398"/>
-      <c r="G18" s="401"/>
+      <c r="F18" s="402"/>
+      <c r="G18" s="405"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5459,15 +5567,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
-      <c r="B19" s="394"/>
-      <c r="C19" s="392"/>
+      <c r="A19" s="388"/>
+      <c r="B19" s="398"/>
+      <c r="C19" s="396"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="399"/>
-      <c r="G19" s="402"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="406"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5479,8 +5587,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
-      <c r="B20" s="395"/>
+      <c r="A20" s="388"/>
+      <c r="B20" s="399"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5501,8 +5609,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405"/>
-      <c r="B21" s="396"/>
+      <c r="A21" s="389"/>
+      <c r="B21" s="400"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5523,7 +5631,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="403" t="s">
+      <c r="A22" s="387" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5545,7 +5653,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5565,7 +5673,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="404"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5585,7 +5693,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5596,7 +5704,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="403" t="s">
+      <c r="A26" s="387" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -5609,7 +5717,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="404"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -5620,7 +5728,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -5631,7 +5739,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6006,17 +6114,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6086,7 +6194,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="403" t="s">
+      <c r="A3" s="387" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6099,7 +6207,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6110,7 +6218,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6121,7 +6229,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="403" t="s">
+      <c r="A6" s="387" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6134,7 +6242,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6158,7 +6266,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="403" t="s">
+      <c r="A9" s="387" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6171,7 +6279,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
@@ -6182,45 +6290,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="397"/>
-      <c r="G10" s="400"/>
+      <c r="F10" s="401"/>
+      <c r="G10" s="404"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
-      <c r="B11" s="395"/>
+      <c r="A11" s="388"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
-      <c r="B12" s="395"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="399"/>
       <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="398"/>
-      <c r="G12" s="401"/>
+      <c r="F12" s="402"/>
+      <c r="G12" s="405"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
-      <c r="B13" s="395"/>
+      <c r="A13" s="388"/>
+      <c r="B13" s="399"/>
       <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="402"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="411"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6233,7 +6341,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6248,7 +6356,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6259,7 +6367,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="406" t="s">
+      <c r="A17" s="390" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6272,7 +6380,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
+      <c r="A18" s="388"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6283,7 +6391,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6296,7 +6404,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="410" t="s">
         <v>32</v>
       </c>
@@ -6307,46 +6415,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="397"/>
-      <c r="G20" s="400"/>
+      <c r="F20" s="401"/>
+      <c r="G20" s="404"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="404"/>
-      <c r="B21" s="395"/>
+      <c r="A21" s="388"/>
+      <c r="B21" s="399"/>
       <c r="C21" s="413"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="401"/>
+      <c r="F21" s="402"/>
+      <c r="G21" s="405"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="404"/>
-      <c r="B22" s="395"/>
+      <c r="A22" s="388"/>
+      <c r="B22" s="399"/>
       <c r="C22" s="413"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="401"/>
+      <c r="F22" s="402"/>
+      <c r="G22" s="405"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
-      <c r="B23" s="395"/>
+      <c r="A23" s="388"/>
+      <c r="B23" s="399"/>
       <c r="C23" s="414"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="399"/>
-      <c r="G23" s="402"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="406"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="404"/>
-      <c r="B24" s="395"/>
+      <c r="A24" s="388"/>
+      <c r="B24" s="399"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6358,8 +6466,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="404"/>
-      <c r="B25" s="395"/>
+      <c r="A25" s="388"/>
+      <c r="B25" s="399"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6371,7 +6479,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="405"/>
+      <c r="A26" s="389"/>
       <c r="B26" s="415"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6385,7 +6493,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="403" t="s">
+      <c r="A27" s="387" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6399,7 +6507,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6410,7 +6518,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="404"/>
+      <c r="A29" s="388"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6421,7 +6529,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="405"/>
+      <c r="A30" s="389"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6432,7 +6540,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="403" t="s">
+      <c r="A31" s="387" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6445,7 +6553,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="404"/>
+      <c r="A32" s="388"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6456,7 +6564,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="404"/>
+      <c r="A33" s="388"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6467,7 +6575,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="405"/>
+      <c r="A34" s="389"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -6850,12 +6958,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -6865,6 +6967,12 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6934,7 +7042,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -6947,7 +7055,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6958,7 +7066,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6969,7 +7077,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -6982,7 +7090,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7006,7 +7114,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7019,7 +7127,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
@@ -7030,45 +7138,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="397"/>
-      <c r="G10" s="400"/>
+      <c r="F10" s="401"/>
+      <c r="G10" s="404"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
-      <c r="B11" s="395"/>
+      <c r="A11" s="388"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
-      <c r="B12" s="395"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="399"/>
       <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="398"/>
-      <c r="G12" s="401"/>
+      <c r="F12" s="402"/>
+      <c r="G12" s="405"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
-      <c r="B13" s="395"/>
+      <c r="A13" s="388"/>
+      <c r="B13" s="399"/>
       <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="402"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
-      <c r="B14" s="395"/>
+      <c r="A14" s="388"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7080,7 +7188,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="411"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7093,7 +7201,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="404"/>
+      <c r="A16" s="388"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7104,7 +7212,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="405"/>
+      <c r="A17" s="389"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7128,7 +7236,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7139,7 +7247,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7150,7 +7258,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="404"/>
+      <c r="A21" s="388"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7161,7 +7269,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="403" t="s">
+      <c r="A22" s="387" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7174,7 +7282,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7185,7 +7293,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="404"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7196,7 +7304,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7207,7 +7315,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="404" t="s">
+      <c r="A26" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7220,7 +7328,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="404"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7231,7 +7339,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7242,7 +7350,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -7646,17 +7754,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7730,7 +7838,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="403" t="s">
+      <c r="A3" s="387" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -7751,7 +7859,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -7762,8 +7870,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="404"/>
-      <c r="B5" s="417" t="s">
+      <c r="A5" s="388"/>
+      <c r="B5" s="425" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -7777,8 +7885,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="405"/>
-      <c r="B6" s="418"/>
+      <c r="A6" s="389"/>
+      <c r="B6" s="426"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -7790,7 +7898,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="404" t="s">
+      <c r="A7" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -7803,7 +7911,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="405"/>
+      <c r="A8" s="389"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -7817,7 +7925,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="419" t="s">
+      <c r="B9" s="427" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -7832,7 +7940,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="418"/>
+      <c r="B10" s="426"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -7844,7 +7952,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="404" t="s">
+      <c r="A11" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -7857,7 +7965,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
+      <c r="A12" s="388"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -7872,7 +7980,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
+      <c r="A13" s="388"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -7883,7 +7991,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -7915,7 +8023,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="404"/>
+      <c r="A16" s="388"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -7926,7 +8034,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="404"/>
+      <c r="A17" s="388"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -7937,7 +8045,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="405"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -7948,7 +8056,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="404" t="s">
+      <c r="A19" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -7965,7 +8073,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -7976,7 +8084,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="404"/>
+      <c r="A21" s="388"/>
       <c r="B21" s="410" t="s">
         <v>81</v>
       </c>
@@ -7991,7 +8099,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="404"/>
+      <c r="A22" s="388"/>
       <c r="B22" s="411"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8004,7 +8112,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8019,7 +8127,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="404" t="s">
+      <c r="A24" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8036,7 +8144,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="404"/>
+      <c r="A25" s="388"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8047,7 +8155,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="404"/>
+      <c r="A26" s="388"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8062,7 +8170,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8073,13 +8181,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="425" t="s">
+      <c r="A28" s="422" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="423" t="s">
+      <c r="B28" s="420" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="424" t="s">
+      <c r="C28" s="421" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8090,8 +8198,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="426"/>
-      <c r="B29" s="395"/>
+      <c r="A29" s="423"/>
+      <c r="B29" s="399"/>
       <c r="C29" s="413"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8101,8 +8209,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="426"/>
-      <c r="B30" s="395"/>
+      <c r="A30" s="423"/>
+      <c r="B30" s="399"/>
       <c r="C30" s="413"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8112,8 +8220,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="426"/>
-      <c r="B31" s="395"/>
+      <c r="A31" s="423"/>
+      <c r="B31" s="399"/>
       <c r="C31" s="414"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8123,8 +8231,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="426"/>
-      <c r="B32" s="395"/>
+      <c r="A32" s="423"/>
+      <c r="B32" s="399"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8136,7 +8244,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="427"/>
+      <c r="A33" s="424"/>
       <c r="B33" s="415"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8149,13 +8257,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="420" t="s">
+      <c r="A34" s="417" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="423" t="s">
+      <c r="B34" s="420" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="424" t="s">
+      <c r="C34" s="421" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8166,8 +8274,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="421"/>
-      <c r="B35" s="395"/>
+      <c r="A35" s="418"/>
+      <c r="B35" s="399"/>
       <c r="C35" s="413"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8177,8 +8285,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="421"/>
-      <c r="B36" s="395"/>
+      <c r="A36" s="418"/>
+      <c r="B36" s="399"/>
       <c r="C36" s="413"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8188,8 +8296,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="421"/>
-      <c r="B37" s="395"/>
+      <c r="A37" s="418"/>
+      <c r="B37" s="399"/>
       <c r="C37" s="414"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8199,8 +8307,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="421"/>
-      <c r="B38" s="395"/>
+      <c r="A38" s="418"/>
+      <c r="B38" s="399"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8212,8 +8320,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="421"/>
-      <c r="B39" s="395"/>
+      <c r="A39" s="418"/>
+      <c r="B39" s="399"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8225,8 +8333,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="421"/>
-      <c r="B40" s="395"/>
+      <c r="A40" s="418"/>
+      <c r="B40" s="399"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8238,8 +8346,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="421"/>
-      <c r="B41" s="395"/>
+      <c r="A41" s="418"/>
+      <c r="B41" s="399"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8251,7 +8359,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="422"/>
+      <c r="A42" s="419"/>
       <c r="B42" s="415"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8264,13 +8372,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="420" t="s">
+      <c r="A43" s="417" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="423" t="s">
+      <c r="B43" s="420" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="424" t="s">
+      <c r="C43" s="421" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8281,8 +8389,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="421"/>
-      <c r="B44" s="395"/>
+      <c r="A44" s="418"/>
+      <c r="B44" s="399"/>
       <c r="C44" s="413"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8292,8 +8400,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="421"/>
-      <c r="B45" s="395"/>
+      <c r="A45" s="418"/>
+      <c r="B45" s="399"/>
       <c r="C45" s="413"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8303,8 +8411,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="421"/>
-      <c r="B46" s="395"/>
+      <c r="A46" s="418"/>
+      <c r="B46" s="399"/>
       <c r="C46" s="414"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8314,8 +8422,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="421"/>
-      <c r="B47" s="395"/>
+      <c r="A47" s="418"/>
+      <c r="B47" s="399"/>
       <c r="C47" s="413" t="s">
         <v>133</v>
       </c>
@@ -8327,8 +8435,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="421"/>
-      <c r="B48" s="395"/>
+      <c r="A48" s="418"/>
+      <c r="B48" s="399"/>
       <c r="C48" s="413"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8338,8 +8446,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="421"/>
-      <c r="B49" s="395"/>
+      <c r="A49" s="418"/>
+      <c r="B49" s="399"/>
       <c r="C49" s="413"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8349,8 +8457,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="421"/>
-      <c r="B50" s="395"/>
+      <c r="A50" s="418"/>
+      <c r="B50" s="399"/>
       <c r="C50" s="414"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8360,8 +8468,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="421"/>
-      <c r="B51" s="395"/>
+      <c r="A51" s="418"/>
+      <c r="B51" s="399"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8373,7 +8481,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="422"/>
+      <c r="A52" s="419"/>
       <c r="B52" s="415"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -8770,6 +8878,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -8780,17 +8899,6 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8860,7 +8968,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -8873,7 +8981,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -8884,7 +8992,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -8895,7 +9003,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -8908,7 +9016,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -8935,10 +9043,10 @@
       <c r="A9" s="430" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="395" t="s">
+      <c r="B9" s="399" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="391" t="s">
+      <c r="C9" s="395" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -8950,40 +9058,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="430"/>
-      <c r="B10" s="395"/>
-      <c r="C10" s="391"/>
+      <c r="B10" s="399"/>
+      <c r="C10" s="395"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="430"/>
-      <c r="B11" s="395"/>
-      <c r="C11" s="391"/>
+      <c r="B11" s="399"/>
+      <c r="C11" s="395"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="430"/>
-      <c r="B12" s="395"/>
-      <c r="C12" s="392"/>
+      <c r="B12" s="399"/>
+      <c r="C12" s="396"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="430"/>
-      <c r="B13" s="395"/>
+      <c r="B13" s="399"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9056,7 +9164,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9067,7 +9175,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9080,7 +9188,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9091,7 +9199,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9104,7 +9212,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9115,7 +9223,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="404"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9126,7 +9234,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9137,7 +9245,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="404" t="s">
+      <c r="A26" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9150,7 +9258,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="404"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9161,7 +9269,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9172,7 +9280,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9543,17 +9651,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9584,15 +9692,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="434" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="454"/>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="455"/>
+      <c r="B1" s="434"/>
+      <c r="C1" s="434"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="435"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9618,13 +9726,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="436" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="419" t="s">
+      <c r="B3" s="427" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="424" t="s">
+      <c r="C3" s="421" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -9635,8 +9743,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="435"/>
-      <c r="B4" s="440"/>
+      <c r="A4" s="437"/>
+      <c r="B4" s="439"/>
       <c r="C4" s="413"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -9646,8 +9754,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="435"/>
-      <c r="B5" s="440"/>
+      <c r="A5" s="437"/>
+      <c r="B5" s="439"/>
       <c r="C5" s="413"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -9657,8 +9765,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="435"/>
-      <c r="B6" s="440"/>
+      <c r="A6" s="437"/>
+      <c r="B6" s="439"/>
       <c r="C6" s="414"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -9668,8 +9776,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="435"/>
-      <c r="B7" s="440"/>
+      <c r="A7" s="437"/>
+      <c r="B7" s="439"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -9681,8 +9789,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="435"/>
-      <c r="B8" s="436"/>
+      <c r="A8" s="437"/>
+      <c r="B8" s="440"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -9694,8 +9802,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="435"/>
-      <c r="B9" s="417" t="s">
+      <c r="A9" s="437"/>
+      <c r="B9" s="425" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="412" t="s">
@@ -9704,137 +9812,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="397"/>
-      <c r="F9" s="397"/>
-      <c r="G9" s="400"/>
+      <c r="E9" s="401"/>
+      <c r="F9" s="401"/>
+      <c r="G9" s="404"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="435"/>
-      <c r="B10" s="440"/>
+      <c r="A10" s="437"/>
+      <c r="B10" s="439"/>
       <c r="C10" s="413"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="398"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="E10" s="402"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="435"/>
-      <c r="B11" s="440"/>
+      <c r="A11" s="437"/>
+      <c r="B11" s="439"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="398"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="E11" s="402"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="435"/>
-      <c r="B12" s="440"/>
+      <c r="A12" s="437"/>
+      <c r="B12" s="439"/>
       <c r="C12" s="414"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="399"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="E12" s="403"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="435"/>
-      <c r="B13" s="440"/>
+      <c r="A13" s="437"/>
+      <c r="B13" s="439"/>
       <c r="C13" s="413" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="398"/>
-      <c r="F13" s="398"/>
-      <c r="G13" s="401"/>
+      <c r="E13" s="402"/>
+      <c r="F13" s="402"/>
+      <c r="G13" s="405"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="435"/>
-      <c r="B14" s="440"/>
+      <c r="A14" s="437"/>
+      <c r="B14" s="439"/>
       <c r="C14" s="413"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="398"/>
-      <c r="F14" s="398"/>
-      <c r="G14" s="401"/>
+      <c r="E14" s="402"/>
+      <c r="F14" s="402"/>
+      <c r="G14" s="405"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="435"/>
-      <c r="B15" s="440"/>
+      <c r="A15" s="437"/>
+      <c r="B15" s="439"/>
       <c r="C15" s="413"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="398"/>
-      <c r="F15" s="398"/>
-      <c r="G15" s="401"/>
+      <c r="E15" s="402"/>
+      <c r="F15" s="402"/>
+      <c r="G15" s="405"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="435"/>
-      <c r="B16" s="440"/>
+      <c r="A16" s="437"/>
+      <c r="B16" s="439"/>
       <c r="C16" s="414"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="399"/>
-      <c r="F16" s="399"/>
-      <c r="G16" s="402"/>
+      <c r="E16" s="403"/>
+      <c r="F16" s="403"/>
+      <c r="G16" s="406"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="435"/>
-      <c r="B17" s="440"/>
+      <c r="A17" s="437"/>
+      <c r="B17" s="439"/>
       <c r="C17" s="413" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="398"/>
-      <c r="F17" s="398"/>
-      <c r="G17" s="401"/>
+      <c r="E17" s="402"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="405"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="435"/>
-      <c r="B18" s="440"/>
+      <c r="A18" s="437"/>
+      <c r="B18" s="439"/>
       <c r="C18" s="413"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="398"/>
-      <c r="F18" s="398"/>
-      <c r="G18" s="401"/>
+      <c r="E18" s="402"/>
+      <c r="F18" s="402"/>
+      <c r="G18" s="405"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="435"/>
-      <c r="B19" s="440"/>
+      <c r="A19" s="437"/>
+      <c r="B19" s="439"/>
       <c r="C19" s="413"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="398"/>
-      <c r="F19" s="398"/>
-      <c r="G19" s="401"/>
+      <c r="E19" s="402"/>
+      <c r="F19" s="402"/>
+      <c r="G19" s="405"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="435"/>
-      <c r="B20" s="440"/>
-      <c r="C20" s="443"/>
+      <c r="A20" s="437"/>
+      <c r="B20" s="439"/>
+      <c r="C20" s="441"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="447"/>
-      <c r="F20" s="447"/>
-      <c r="G20" s="441"/>
+      <c r="E20" s="442"/>
+      <c r="F20" s="442"/>
+      <c r="G20" s="443"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="442"/>
+      <c r="A21" s="438"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -9845,10 +9953,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="448" t="s">
+      <c r="A22" s="444" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="419" t="s">
+      <c r="B22" s="427" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -9860,8 +9968,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="449"/>
-      <c r="B23" s="440"/>
+      <c r="A23" s="445"/>
+      <c r="B23" s="439"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -9871,54 +9979,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="449"/>
-      <c r="B24" s="440"/>
+      <c r="A24" s="445"/>
+      <c r="B24" s="439"/>
       <c r="C24" s="413" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="398"/>
-      <c r="F24" s="398"/>
-      <c r="G24" s="401"/>
+      <c r="E24" s="402"/>
+      <c r="F24" s="402"/>
+      <c r="G24" s="405"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="449"/>
-      <c r="B25" s="440"/>
+      <c r="A25" s="445"/>
+      <c r="B25" s="439"/>
       <c r="C25" s="413"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="398"/>
-      <c r="F25" s="398"/>
-      <c r="G25" s="401"/>
+      <c r="E25" s="402"/>
+      <c r="F25" s="402"/>
+      <c r="G25" s="405"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="449"/>
-      <c r="B26" s="440"/>
+      <c r="A26" s="445"/>
+      <c r="B26" s="439"/>
       <c r="C26" s="413"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="398"/>
-      <c r="F26" s="398"/>
-      <c r="G26" s="401"/>
+      <c r="E26" s="402"/>
+      <c r="F26" s="402"/>
+      <c r="G26" s="405"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="449"/>
-      <c r="B27" s="436"/>
-      <c r="C27" s="443"/>
+      <c r="A27" s="445"/>
+      <c r="B27" s="440"/>
+      <c r="C27" s="441"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="447"/>
-      <c r="F27" s="447"/>
-      <c r="G27" s="441"/>
+      <c r="E27" s="442"/>
+      <c r="F27" s="442"/>
+      <c r="G27" s="443"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="449"/>
-      <c r="B28" s="440" t="s">
+      <c r="A28" s="445"/>
+      <c r="B28" s="439" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -9930,50 +10038,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="449"/>
-      <c r="B29" s="440"/>
+      <c r="A29" s="445"/>
+      <c r="B29" s="439"/>
       <c r="C29" s="413" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="398"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="401"/>
+      <c r="E29" s="402"/>
+      <c r="F29" s="402"/>
+      <c r="G29" s="405"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="449"/>
-      <c r="B30" s="440"/>
+      <c r="A30" s="445"/>
+      <c r="B30" s="439"/>
       <c r="C30" s="413"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="398"/>
-      <c r="F30" s="398"/>
-      <c r="G30" s="401"/>
+      <c r="E30" s="402"/>
+      <c r="F30" s="402"/>
+      <c r="G30" s="405"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="449"/>
-      <c r="B31" s="440"/>
+      <c r="A31" s="445"/>
+      <c r="B31" s="439"/>
       <c r="C31" s="413"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="398"/>
-      <c r="F31" s="398"/>
-      <c r="G31" s="401"/>
+      <c r="E31" s="402"/>
+      <c r="F31" s="402"/>
+      <c r="G31" s="405"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="450"/>
-      <c r="B32" s="418"/>
-      <c r="C32" s="451"/>
+      <c r="A32" s="446"/>
+      <c r="B32" s="426"/>
+      <c r="C32" s="447"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="452"/>
-      <c r="F32" s="452"/>
-      <c r="G32" s="453"/>
+      <c r="E32" s="448"/>
+      <c r="F32" s="448"/>
+      <c r="G32" s="449"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -9989,10 +10097,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="434" t="s">
+      <c r="A34" s="436" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="444" t="s">
+      <c r="B34" s="450" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10004,8 +10112,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="435"/>
-      <c r="B35" s="445"/>
+      <c r="A35" s="437"/>
+      <c r="B35" s="451"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10015,53 +10123,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="435"/>
-      <c r="B36" s="445"/>
-      <c r="C36" s="443" t="s">
+      <c r="A36" s="437"/>
+      <c r="B36" s="451"/>
+      <c r="C36" s="441" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="398"/>
-      <c r="F36" s="398"/>
-      <c r="G36" s="401"/>
+      <c r="E36" s="402"/>
+      <c r="F36" s="402"/>
+      <c r="G36" s="405"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="435"/>
-      <c r="B37" s="445"/>
-      <c r="C37" s="446"/>
+      <c r="A37" s="437"/>
+      <c r="B37" s="451"/>
+      <c r="C37" s="452"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="398"/>
-      <c r="F37" s="398"/>
-      <c r="G37" s="401"/>
+      <c r="E37" s="402"/>
+      <c r="F37" s="402"/>
+      <c r="G37" s="405"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="435"/>
-      <c r="B38" s="445"/>
-      <c r="C38" s="446"/>
+      <c r="A38" s="437"/>
+      <c r="B38" s="451"/>
+      <c r="C38" s="452"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="398"/>
-      <c r="F38" s="398"/>
-      <c r="G38" s="401"/>
+      <c r="E38" s="402"/>
+      <c r="F38" s="402"/>
+      <c r="G38" s="405"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="435"/>
-      <c r="B39" s="445"/>
-      <c r="C39" s="446"/>
+      <c r="A39" s="437"/>
+      <c r="B39" s="451"/>
+      <c r="C39" s="452"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="447"/>
-      <c r="F39" s="447"/>
-      <c r="G39" s="441"/>
+      <c r="E39" s="442"/>
+      <c r="F39" s="442"/>
+      <c r="G39" s="443"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="435"/>
+      <c r="A40" s="437"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10072,7 +10180,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="435"/>
+      <c r="A41" s="437"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10083,7 +10191,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="442"/>
+      <c r="A42" s="438"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10094,7 +10202,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="434" t="s">
+      <c r="A43" s="436" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10107,8 +10215,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="435"/>
-      <c r="B44" s="417" t="s">
+      <c r="A44" s="437"/>
+      <c r="B44" s="425" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10120,8 +10228,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="435"/>
-      <c r="B45" s="440"/>
+      <c r="A45" s="437"/>
+      <c r="B45" s="439"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10131,8 +10239,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="435"/>
-      <c r="B46" s="440"/>
+      <c r="A46" s="437"/>
+      <c r="B46" s="439"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10142,8 +10250,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="435"/>
-      <c r="B47" s="440"/>
+      <c r="A47" s="437"/>
+      <c r="B47" s="439"/>
       <c r="C47" s="413" t="s">
         <v>58</v>
       </c>
@@ -10155,8 +10263,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="435"/>
-      <c r="B48" s="440"/>
+      <c r="A48" s="437"/>
+      <c r="B48" s="439"/>
       <c r="C48" s="413"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10166,8 +10274,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="435"/>
-      <c r="B49" s="440"/>
+      <c r="A49" s="437"/>
+      <c r="B49" s="439"/>
       <c r="C49" s="413"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10177,9 +10285,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="435"/>
-      <c r="B50" s="436"/>
-      <c r="C50" s="443"/>
+      <c r="A50" s="437"/>
+      <c r="B50" s="440"/>
+      <c r="C50" s="441"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10188,8 +10296,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="435"/>
-      <c r="B51" s="417" t="s">
+      <c r="A51" s="437"/>
+      <c r="B51" s="425" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="412" t="s">
@@ -10203,8 +10311,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="435"/>
-      <c r="B52" s="440"/>
+      <c r="A52" s="437"/>
+      <c r="B52" s="439"/>
       <c r="C52" s="413"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10214,8 +10322,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="435"/>
-      <c r="B53" s="440"/>
+      <c r="A53" s="437"/>
+      <c r="B53" s="439"/>
       <c r="C53" s="413"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10225,8 +10333,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="435"/>
-      <c r="B54" s="440"/>
+      <c r="A54" s="437"/>
+      <c r="B54" s="439"/>
       <c r="C54" s="414"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10236,8 +10344,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="435"/>
-      <c r="B55" s="440"/>
+      <c r="A55" s="437"/>
+      <c r="B55" s="439"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10247,8 +10355,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="435"/>
-      <c r="B56" s="436"/>
+      <c r="A56" s="437"/>
+      <c r="B56" s="440"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10258,8 +10366,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="435"/>
-      <c r="B57" s="440" t="s">
+      <c r="A57" s="437"/>
+      <c r="B57" s="439" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10271,8 +10379,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="435"/>
-      <c r="B58" s="440"/>
+      <c r="A58" s="437"/>
+      <c r="B58" s="439"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10282,8 +10390,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="442"/>
-      <c r="B59" s="418"/>
+      <c r="A59" s="438"/>
+      <c r="B59" s="426"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10293,7 +10401,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="434" t="s">
+      <c r="A60" s="436" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10306,8 +10414,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="435"/>
-      <c r="B61" s="417" t="s">
+      <c r="A61" s="437"/>
+      <c r="B61" s="425" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10319,8 +10427,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="435"/>
-      <c r="B62" s="436"/>
+      <c r="A62" s="437"/>
+      <c r="B62" s="440"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10330,7 +10438,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="435"/>
+      <c r="A63" s="437"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10341,7 +10449,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="435"/>
+      <c r="A64" s="437"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10352,7 +10460,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="437" t="s">
+      <c r="A65" s="453" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10365,8 +10473,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="438"/>
-      <c r="B66" s="417" t="s">
+      <c r="A66" s="454"/>
+      <c r="B66" s="425" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10378,8 +10486,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="438"/>
-      <c r="B67" s="440"/>
+      <c r="A67" s="454"/>
+      <c r="B67" s="439"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10389,8 +10497,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="438"/>
-      <c r="B68" s="436"/>
+      <c r="A68" s="454"/>
+      <c r="B68" s="440"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10400,7 +10508,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="438"/>
+      <c r="A69" s="454"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10411,8 +10519,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="438"/>
-      <c r="B70" s="417" t="s">
+      <c r="A70" s="454"/>
+      <c r="B70" s="425" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10424,8 +10532,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="438"/>
-      <c r="B71" s="440"/>
+      <c r="A71" s="454"/>
+      <c r="B71" s="439"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10435,8 +10543,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="439"/>
-      <c r="B72" s="418"/>
+      <c r="A72" s="455"/>
+      <c r="B72" s="426"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10486,6 +10594,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10502,35 +10639,6 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10600,7 +10708,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -10613,7 +10721,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -10624,7 +10732,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -10635,7 +10743,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -10648,7 +10756,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -10672,7 +10780,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -10685,7 +10793,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -10696,7 +10804,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
+      <c r="A11" s="388"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -10709,7 +10817,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="405"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -10733,7 +10841,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -10744,7 +10852,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -10757,7 +10865,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -10768,7 +10876,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="404" t="s">
+      <c r="A17" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -10781,7 +10889,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
+      <c r="A18" s="388"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -10792,7 +10900,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -10803,7 +10911,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -10814,7 +10922,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="404" t="s">
+      <c r="A21" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -10827,7 +10935,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="404"/>
+      <c r="A22" s="388"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -10838,7 +10946,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -10849,7 +10957,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F694457-BB37-4C6A-A79F-5D1CAA34286A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC763A8-E87B-4D44-AA1B-7F1DC5CBE20C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="247">
   <si>
     <t>ENG 251</t>
   </si>
@@ -781,9 +781,6 @@
   </si>
   <si>
     <t>Literacy I or II (Syllabus) #ED344-346</t>
-  </si>
-  <si>
-    <t>Teaching/Practicum Lab (1-3) #329</t>
   </si>
   <si>
     <t>Literature Circles - Sociological Role #356</t>
@@ -922,6 +919,36 @@
   </si>
   <si>
     <t>Grading writing powerpoint or handout #329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avergae and poor samples none (students hardly chose this topic and they got A). </t>
+  </si>
+  <si>
+    <t>poor sample missing</t>
+  </si>
+  <si>
+    <t>Mini-Lesson #329</t>
+  </si>
+  <si>
+    <t>Don't know what to add for Fall 2020, but at least we got three samples already (2 pptx from Fall 2019 and 1 from Winter 20)</t>
+  </si>
+  <si>
+    <t>Contact bro Chandler too: what evidence use this semester? It looks like they didn't have an assignment similar to  Grading packet</t>
+  </si>
+  <si>
+    <t>What can I use? I haven't seen material to teach how to grade writing this semester</t>
+  </si>
+  <si>
+    <t>Chandler too: Which powerpoint this time? Didn't see any on Canvas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I went ahead and added a professional disposition assessment I found on canvas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">attendance is not available on canvas. </t>
+  </si>
+  <si>
+    <t>Solved</t>
   </si>
 </sst>
 </file>
@@ -2800,15 +2827,78 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2839,68 +2929,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2914,54 +2989,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2992,6 +3019,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3016,15 +3052,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3043,71 +3070,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4018,10 +4045,10 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4035,15 +4062,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="365" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="376"/>
+      <c r="B1" s="366"/>
+      <c r="C1" s="367"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="N1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4061,17 +4088,17 @@
       </c>
       <c r="E2" s="346"/>
       <c r="F2" s="347" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G2" s="347" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="368" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4085,8 +4112,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="357"/>
-      <c r="B4" s="378"/>
+      <c r="A4" s="378"/>
+      <c r="B4" s="369"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4098,8 +4125,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="357"/>
-      <c r="B5" s="379"/>
+      <c r="A5" s="378"/>
+      <c r="B5" s="370"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4110,33 +4137,36 @@
         <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="H5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="357"/>
-      <c r="B6" s="377" t="s">
+      <c r="A6" s="378"/>
+      <c r="B6" s="368" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" t="s">
         <v>188</v>
       </c>
       <c r="F6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="378"/>
+      <c r="B7" s="369"/>
+      <c r="C7" s="341" t="s">
         <v>212</v>
       </c>
-      <c r="G6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="357"/>
-      <c r="B7" s="378"/>
-      <c r="C7" s="341" t="s">
-        <v>213</v>
-      </c>
       <c r="D7" t="s">
         <v>188</v>
       </c>
@@ -4145,8 +4175,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="357"/>
-      <c r="B8" s="379"/>
+      <c r="A8" s="378"/>
+      <c r="B8" s="370"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4158,8 +4188,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="357"/>
-      <c r="B9" s="377" t="s">
+      <c r="A9" s="378"/>
+      <c r="B9" s="368" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4169,18 +4199,18 @@
         <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="378"/>
+      <c r="B10" s="369"/>
+      <c r="C10" s="334" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="357"/>
-      <c r="B10" s="378"/>
-      <c r="C10" s="334" t="s">
-        <v>217</v>
-      </c>
       <c r="D10" t="s">
         <v>188</v>
       </c>
@@ -4188,12 +4218,12 @@
         <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="358"/>
-      <c r="B11" s="380"/>
+      <c r="A11" s="379"/>
+      <c r="B11" s="371"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4205,14 +4235,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="380" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="381" t="s">
+      <c r="B12" s="372" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
         <v>188</v>
@@ -4222,8 +4252,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="357"/>
-      <c r="B13" s="378"/>
+      <c r="A13" s="378"/>
+      <c r="B13" s="369"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4235,10 +4265,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="357"/>
-      <c r="B14" s="379"/>
+      <c r="A14" s="378"/>
+      <c r="B14" s="370"/>
       <c r="C14" s="333" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
         <v>188</v>
@@ -4248,8 +4278,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="357"/>
-      <c r="B15" s="382" t="s">
+      <c r="A15" s="378"/>
+      <c r="B15" s="353" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4262,14 +4292,14 @@
         <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="357"/>
-      <c r="B16" s="383"/>
+      <c r="A16" s="378"/>
+      <c r="B16" s="354"/>
       <c r="C16" s="334" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D16" t="s">
         <v>188</v>
@@ -4279,8 +4309,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358"/>
-      <c r="B17" s="384"/>
+      <c r="A17" s="379"/>
+      <c r="B17" s="355"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4292,14 +4322,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="359" t="s">
+      <c r="A18" s="380" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="385" t="s">
+      <c r="B18" s="356" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D18" t="s">
         <v>188</v>
@@ -4309,10 +4339,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="357"/>
-      <c r="B19" s="367"/>
+      <c r="A19" s="378"/>
+      <c r="B19" s="357"/>
       <c r="C19" s="334" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" t="s">
         <v>193</v>
@@ -4322,8 +4352,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="358"/>
-      <c r="B20" s="386"/>
+      <c r="A20" s="379"/>
+      <c r="B20" s="358"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4335,10 +4365,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="359" t="s">
+      <c r="A21" s="380" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="353" t="s">
+      <c r="B21" s="359" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4348,17 +4378,17 @@
         <v>188</v>
       </c>
       <c r="F21" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" t="s">
         <v>231</v>
       </c>
-      <c r="G21" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="357"/>
-      <c r="B22" s="354"/>
+      <c r="A22" s="378"/>
+      <c r="B22" s="360"/>
       <c r="C22" s="334" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
         <v>188</v>
@@ -4368,8 +4398,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="357"/>
-      <c r="B23" s="370"/>
+      <c r="A23" s="378"/>
+      <c r="B23" s="361"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4381,8 +4411,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="369" t="s">
+      <c r="A24" s="378"/>
+      <c r="B24" s="362" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4392,15 +4422,15 @@
         <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="357"/>
-      <c r="B25" s="354"/>
+      <c r="A25" s="378"/>
+      <c r="B25" s="360"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4408,15 +4438,15 @@
         <v>188</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="357"/>
-      <c r="B26" s="370"/>
+      <c r="A26" s="378"/>
+      <c r="B26" s="361"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4424,15 +4454,15 @@
         <v>188</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="357"/>
-      <c r="B27" s="366" t="s">
+      <c r="A27" s="378"/>
+      <c r="B27" s="363" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4442,15 +4472,15 @@
         <v>188</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="357"/>
-      <c r="B28" s="367"/>
+      <c r="A28" s="378"/>
+      <c r="B28" s="357"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4458,15 +4488,15 @@
         <v>188</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="357"/>
-      <c r="B29" s="368"/>
+      <c r="A29" s="378"/>
+      <c r="B29" s="364"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4478,8 +4508,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="357"/>
-      <c r="B30" s="369" t="s">
+      <c r="A30" s="378"/>
+      <c r="B30" s="362" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4493,20 +4523,26 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="357"/>
-      <c r="B31" s="354"/>
+      <c r="A31" s="378"/>
+      <c r="B31" s="360"/>
       <c r="C31" s="334" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D31" t="s">
         <v>188</v>
       </c>
+      <c r="F31" t="s">
+        <v>188</v>
+      </c>
+      <c r="G31" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="358"/>
-      <c r="B32" s="355"/>
+      <c r="A32" s="379"/>
+      <c r="B32" s="373"/>
       <c r="C32" s="337" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D32" t="s">
         <v>188</v>
@@ -4516,10 +4552,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="360" t="s">
+      <c r="A33" s="381" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="353" t="s">
+      <c r="B33" s="359" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4528,10 +4564,13 @@
       <c r="D33" t="s">
         <v>188</v>
       </c>
+      <c r="F33" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="361"/>
-      <c r="B34" s="354"/>
+      <c r="A34" s="382"/>
+      <c r="B34" s="360"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4543,49 +4582,55 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="361"/>
-      <c r="B35" s="370"/>
+      <c r="A35" s="382"/>
+      <c r="B35" s="361"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
       <c r="D35" t="s">
         <v>188</v>
       </c>
+      <c r="F35" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="361"/>
-      <c r="B36" s="369" t="s">
+      <c r="A36" s="382"/>
+      <c r="B36" s="362" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="382"/>
+      <c r="B37" s="360"/>
+      <c r="C37" s="334" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="382"/>
+      <c r="B38" s="361"/>
+      <c r="C38" s="333" t="s">
         <v>200</v>
       </c>
-      <c r="D36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="361"/>
-      <c r="B37" s="354"/>
-      <c r="C37" s="334" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="361"/>
-      <c r="B38" s="370"/>
-      <c r="C38" s="333" t="s">
-        <v>201</v>
-      </c>
       <c r="D38" t="s">
         <v>188</v>
       </c>
@@ -4594,8 +4639,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="361"/>
-      <c r="B39" s="369" t="s">
+      <c r="A39" s="382"/>
+      <c r="B39" s="362" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4605,31 +4650,31 @@
         <v>190</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="361"/>
-      <c r="B40" s="354"/>
+      <c r="A40" s="382"/>
+      <c r="B40" s="360"/>
       <c r="C40" s="334" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
         <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="361"/>
-      <c r="B41" s="370"/>
+      <c r="A41" s="382"/>
+      <c r="B41" s="361"/>
       <c r="C41" s="333" t="s">
         <v>195</v>
       </c>
@@ -4637,20 +4682,20 @@
         <v>188</v>
       </c>
       <c r="F41" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="382"/>
+      <c r="B42" s="362" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="334" t="s">
         <v>212</v>
       </c>
-      <c r="G41" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="361"/>
-      <c r="B42" s="369" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="334" t="s">
-        <v>213</v>
-      </c>
       <c r="D42" t="s">
         <v>188</v>
       </c>
@@ -4659,10 +4704,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="361"/>
-      <c r="B43" s="354"/>
+      <c r="A43" s="382"/>
+      <c r="B43" s="360"/>
       <c r="C43" s="334" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D43" t="s">
         <v>188</v>
@@ -4672,8 +4717,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="362"/>
-      <c r="B44" s="355"/>
+      <c r="A44" s="383"/>
+      <c r="B44" s="373"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4685,10 +4730,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="359" t="s">
+      <c r="A45" s="380" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="353" t="s">
+      <c r="B45" s="359" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4702,20 +4747,23 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="357"/>
-      <c r="B46" s="354"/>
+      <c r="A46" s="378"/>
+      <c r="B46" s="360"/>
       <c r="C46" s="334" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="D46" t="s">
         <v>188</v>
       </c>
+      <c r="F46" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="357"/>
-      <c r="B47" s="370"/>
+      <c r="A47" s="378"/>
+      <c r="B47" s="361"/>
       <c r="C47" s="333" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -4725,36 +4773,42 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="357"/>
-      <c r="B48" s="369" t="s">
+      <c r="A48" s="378"/>
+      <c r="B48" s="362" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
         <v>188</v>
       </c>
+      <c r="F48" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="357"/>
-      <c r="B49" s="354"/>
+      <c r="A49" s="378"/>
+      <c r="B49" s="360"/>
       <c r="C49" s="334" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" t="s">
         <v>188</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="357"/>
-      <c r="B50" s="370"/>
+      <c r="A50" s="378"/>
+      <c r="B50" s="361"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -4766,8 +4820,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="357"/>
-      <c r="B51" s="369" t="s">
+      <c r="A51" s="378"/>
+      <c r="B51" s="362" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -4781,40 +4835,55 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="357"/>
-      <c r="B52" s="354"/>
+      <c r="A52" s="378"/>
+      <c r="B52" s="360"/>
       <c r="C52" s="334" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
         <v>188</v>
       </c>
+      <c r="F52" t="s">
+        <v>211</v>
+      </c>
+      <c r="G52" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="357"/>
-      <c r="B53" s="370"/>
+      <c r="A53" s="378"/>
+      <c r="B53" s="361"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
       <c r="D53" t="s">
         <v>188</v>
       </c>
+      <c r="F53" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="357"/>
-      <c r="B54" s="369" t="s">
+      <c r="A54" s="378"/>
+      <c r="B54" s="362" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s">
         <v>188</v>
       </c>
+      <c r="F54" t="s">
+        <v>211</v>
+      </c>
+      <c r="G54" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="357"/>
-      <c r="B55" s="354"/>
+      <c r="A55" s="378"/>
+      <c r="B55" s="360"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -4826,20 +4895,26 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="358"/>
-      <c r="B56" s="355"/>
+      <c r="A56" s="379"/>
+      <c r="B56" s="373"/>
       <c r="C56" s="337" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D56" t="s">
         <v>188</v>
       </c>
+      <c r="F56" t="s">
+        <v>211</v>
+      </c>
+      <c r="G56" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="363" t="s">
+      <c r="A57" s="384" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="371" t="s">
+      <c r="B57" s="374" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -4853,8 +4928,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="364"/>
-      <c r="B58" s="372"/>
+      <c r="A58" s="385"/>
+      <c r="B58" s="375"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -4862,25 +4937,28 @@
         <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="364"/>
-      <c r="B59" s="373"/>
+      <c r="A59" s="385"/>
+      <c r="B59" s="376"/>
       <c r="C59" s="333" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="D59" t="s">
         <v>188</v>
       </c>
+      <c r="F59" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="364"/>
-      <c r="B60" s="366" t="s">
+      <c r="A60" s="385"/>
+      <c r="B60" s="363" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -4890,15 +4968,15 @@
         <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F60" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="364"/>
-      <c r="B61" s="367"/>
+      <c r="A61" s="385"/>
+      <c r="B61" s="357"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -4906,31 +4984,31 @@
         <v>188</v>
       </c>
       <c r="F61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="364"/>
-      <c r="B62" s="368"/>
+      <c r="A62" s="385"/>
+      <c r="B62" s="364"/>
       <c r="C62" s="333" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62" t="s">
         <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="364"/>
-      <c r="B63" s="369" t="s">
+      <c r="A63" s="385"/>
+      <c r="B63" s="362" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -4944,26 +5022,26 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="364"/>
-      <c r="B64" s="354"/>
+      <c r="A64" s="385"/>
+      <c r="B64" s="360"/>
       <c r="C64" s="334" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D64" t="s">
         <v>190</v>
       </c>
       <c r="E64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F64" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="364"/>
-      <c r="B65" s="370"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="385"/>
+      <c r="B65" s="361"/>
       <c r="C65" s="333" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" t="s">
         <v>188</v>
@@ -4972,21 +5050,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="364"/>
-      <c r="B66" s="369" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="385"/>
+      <c r="B66" s="362" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="364"/>
-      <c r="B67" s="354"/>
+      <c r="F66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="385"/>
+      <c r="B67" s="360"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -4994,17 +5075,17 @@
         <v>190</v>
       </c>
       <c r="E67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F67" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="365"/>
-      <c r="B68" s="355"/>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="386"/>
+      <c r="B68" s="373"/>
       <c r="C68" s="334" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D68" t="s">
         <v>193</v>
@@ -5013,11 +5094,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="359" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="380" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="353" t="s">
+      <c r="B69" s="359" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5030,55 +5111,73 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="357"/>
-      <c r="B70" s="354"/>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="378"/>
+      <c r="B70" s="360"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
       <c r="D70" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="358"/>
-      <c r="B71" s="355"/>
+      <c r="F70" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="379"/>
+      <c r="B71" s="373"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
       <c r="D71" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="360" t="s">
+      <c r="F71" t="s">
+        <v>211</v>
+      </c>
+      <c r="G71" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="381" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="353" t="s">
+      <c r="B72" s="359" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="D72" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="361"/>
-      <c r="B73" s="354"/>
+      <c r="F72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="382"/>
+      <c r="B73" s="360"/>
       <c r="C73" s="341" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="361"/>
-      <c r="B74" s="354"/>
+      <c r="F73" t="s">
+        <v>188</v>
+      </c>
+      <c r="G73" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="382"/>
+      <c r="B74" s="360"/>
       <c r="C74" s="341" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D74" t="s">
         <v>188</v>
@@ -5087,51 +5186,60 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="362"/>
-      <c r="B75" s="355"/>
+    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="383"/>
+      <c r="B75" s="373"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
       <c r="D75" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="360" t="s">
+      <c r="F75" t="s">
+        <v>188</v>
+      </c>
+      <c r="G75" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="381" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="353" t="s">
+      <c r="B76" s="359" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" t="s">
         <v>188</v>
       </c>
       <c r="E76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F76" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="361"/>
-      <c r="B77" s="354"/>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="382"/>
+      <c r="B77" s="360"/>
       <c r="C77" s="341" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D77" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="362"/>
-      <c r="B78" s="355"/>
+      <c r="F77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="383"/>
+      <c r="B78" s="373"/>
       <c r="C78" s="335" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" t="s">
         <v>188</v>
@@ -5142,26 +5250,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5178,6 +5266,26 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5299,15 +5407,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="391" t="s">
+      <c r="A1" s="387" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="393"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="389"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5337,7 +5445,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5350,7 +5458,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5361,7 +5469,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5372,7 +5480,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="387" t="s">
+      <c r="A6" s="403" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5385,7 +5493,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5409,7 +5517,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="387" t="s">
+      <c r="A9" s="403" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5422,7 +5530,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5433,7 +5541,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
+      <c r="A11" s="404"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5446,7 +5554,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="389"/>
+      <c r="A12" s="405"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5457,7 +5565,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="390" t="s">
+      <c r="A13" s="406" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5470,7 +5578,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
+      <c r="A14" s="404"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5481,7 +5589,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5503,19 +5611,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="388"/>
-      <c r="B16" s="397" t="s">
+      <c r="A16" s="404"/>
+      <c r="B16" s="393" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="394" t="s">
+      <c r="C16" s="390" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="401"/>
-      <c r="G16" s="404"/>
+      <c r="F16" s="397"/>
+      <c r="G16" s="400"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5527,15 +5635,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="388"/>
-      <c r="B17" s="398"/>
-      <c r="C17" s="395"/>
+      <c r="A17" s="404"/>
+      <c r="B17" s="394"/>
+      <c r="C17" s="391"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="405"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="401"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5547,15 +5655,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="388"/>
-      <c r="B18" s="398"/>
-      <c r="C18" s="395"/>
+      <c r="A18" s="404"/>
+      <c r="B18" s="394"/>
+      <c r="C18" s="391"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="402"/>
-      <c r="G18" s="405"/>
+      <c r="F18" s="398"/>
+      <c r="G18" s="401"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5567,15 +5675,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
-      <c r="B19" s="398"/>
-      <c r="C19" s="396"/>
+      <c r="A19" s="404"/>
+      <c r="B19" s="394"/>
+      <c r="C19" s="392"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="406"/>
+      <c r="F19" s="399"/>
+      <c r="G19" s="402"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5587,8 +5695,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
-      <c r="B20" s="399"/>
+      <c r="A20" s="404"/>
+      <c r="B20" s="395"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5609,8 +5717,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="389"/>
-      <c r="B21" s="400"/>
+      <c r="A21" s="405"/>
+      <c r="B21" s="396"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5631,7 +5739,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="387" t="s">
+      <c r="A22" s="403" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5653,7 +5761,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5673,7 +5781,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="388"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5693,7 +5801,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="389"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5704,7 +5812,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="387" t="s">
+      <c r="A26" s="403" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -5717,7 +5825,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="388"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -5728,7 +5836,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -5739,7 +5847,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="389"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6114,17 +6222,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6194,7 +6302,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="387" t="s">
+      <c r="A3" s="403" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6207,7 +6315,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6218,7 +6326,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6229,7 +6337,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="387" t="s">
+      <c r="A6" s="403" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6242,7 +6350,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6266,7 +6374,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="387" t="s">
+      <c r="A9" s="403" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6279,7 +6387,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
@@ -6290,45 +6398,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="401"/>
-      <c r="G10" s="404"/>
+      <c r="F10" s="397"/>
+      <c r="G10" s="400"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
-      <c r="B11" s="399"/>
+      <c r="A11" s="404"/>
+      <c r="B11" s="395"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
-      <c r="B12" s="399"/>
+      <c r="A12" s="404"/>
+      <c r="B12" s="395"/>
       <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="402"/>
-      <c r="G12" s="405"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="401"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
-      <c r="B13" s="399"/>
+      <c r="A13" s="404"/>
+      <c r="B13" s="395"/>
       <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="406"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
+      <c r="A14" s="404"/>
       <c r="B14" s="411"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6341,7 +6449,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6356,7 +6464,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6367,7 +6475,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="390" t="s">
+      <c r="A17" s="406" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6380,7 +6488,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="388"/>
+      <c r="A18" s="404"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6391,7 +6499,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6404,7 +6512,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="410" t="s">
         <v>32</v>
       </c>
@@ -6415,46 +6523,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="401"/>
-      <c r="G20" s="404"/>
+      <c r="F20" s="397"/>
+      <c r="G20" s="400"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="388"/>
-      <c r="B21" s="399"/>
+      <c r="A21" s="404"/>
+      <c r="B21" s="395"/>
       <c r="C21" s="413"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="402"/>
-      <c r="G21" s="405"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="401"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="388"/>
-      <c r="B22" s="399"/>
+      <c r="A22" s="404"/>
+      <c r="B22" s="395"/>
       <c r="C22" s="413"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="402"/>
-      <c r="G22" s="405"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="401"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
-      <c r="B23" s="399"/>
+      <c r="A23" s="404"/>
+      <c r="B23" s="395"/>
       <c r="C23" s="414"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="406"/>
+      <c r="F23" s="399"/>
+      <c r="G23" s="402"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="388"/>
-      <c r="B24" s="399"/>
+      <c r="A24" s="404"/>
+      <c r="B24" s="395"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6466,8 +6574,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="388"/>
-      <c r="B25" s="399"/>
+      <c r="A25" s="404"/>
+      <c r="B25" s="395"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6479,7 +6587,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="389"/>
+      <c r="A26" s="405"/>
       <c r="B26" s="415"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6493,7 +6601,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="387" t="s">
+      <c r="A27" s="403" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6507,7 +6615,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6518,7 +6626,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="388"/>
+      <c r="A29" s="404"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6529,7 +6637,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="389"/>
+      <c r="A30" s="405"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6540,7 +6648,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="387" t="s">
+      <c r="A31" s="403" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6553,7 +6661,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="388"/>
+      <c r="A32" s="404"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6564,7 +6672,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="388"/>
+      <c r="A33" s="404"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6575,7 +6683,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="389"/>
+      <c r="A34" s="405"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -6958,6 +7066,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -6967,12 +7081,6 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7042,7 +7150,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7055,7 +7163,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7066,7 +7174,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7077,7 +7185,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7090,7 +7198,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7114,7 +7222,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7127,7 +7235,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
@@ -7138,45 +7246,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="401"/>
-      <c r="G10" s="404"/>
+      <c r="F10" s="397"/>
+      <c r="G10" s="400"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
-      <c r="B11" s="399"/>
+      <c r="A11" s="404"/>
+      <c r="B11" s="395"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
-      <c r="B12" s="399"/>
+      <c r="A12" s="404"/>
+      <c r="B12" s="395"/>
       <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="402"/>
-      <c r="G12" s="405"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="401"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
-      <c r="B13" s="399"/>
+      <c r="A13" s="404"/>
+      <c r="B13" s="395"/>
       <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="406"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
-      <c r="B14" s="399"/>
+      <c r="A14" s="404"/>
+      <c r="B14" s="395"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7188,7 +7296,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="411"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7201,7 +7309,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="388"/>
+      <c r="A16" s="404"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7212,7 +7320,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="389"/>
+      <c r="A17" s="405"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7236,7 +7344,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7247,7 +7355,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7258,7 +7366,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="388"/>
+      <c r="A21" s="404"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7269,7 +7377,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="387" t="s">
+      <c r="A22" s="403" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7282,7 +7390,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7293,7 +7401,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="388"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7304,7 +7412,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="389"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7315,7 +7423,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7328,7 +7436,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="388"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7339,7 +7447,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7350,7 +7458,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="389"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -7754,17 +7862,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7838,7 +7946,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="387" t="s">
+      <c r="A3" s="403" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -7859,7 +7967,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -7870,8 +7978,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="388"/>
-      <c r="B5" s="425" t="s">
+      <c r="A5" s="404"/>
+      <c r="B5" s="417" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -7885,8 +7993,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="389"/>
-      <c r="B6" s="426"/>
+      <c r="A6" s="405"/>
+      <c r="B6" s="418"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -7898,7 +8006,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="388" t="s">
+      <c r="A7" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -7911,7 +8019,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="389"/>
+      <c r="A8" s="405"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -7925,7 +8033,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="427" t="s">
+      <c r="B9" s="419" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -7940,7 +8048,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="426"/>
+      <c r="B10" s="418"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -7952,7 +8060,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="388" t="s">
+      <c r="A11" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -7965,7 +8073,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
+      <c r="A12" s="404"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -7980,7 +8088,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
+      <c r="A13" s="404"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -7991,7 +8099,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8023,7 +8131,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="388"/>
+      <c r="A16" s="404"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8034,7 +8142,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="388"/>
+      <c r="A17" s="404"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8045,7 +8153,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="389"/>
+      <c r="A18" s="405"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8056,7 +8164,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="388" t="s">
+      <c r="A19" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8073,7 +8181,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8084,7 +8192,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="388"/>
+      <c r="A21" s="404"/>
       <c r="B21" s="410" t="s">
         <v>81</v>
       </c>
@@ -8099,7 +8207,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="388"/>
+      <c r="A22" s="404"/>
       <c r="B22" s="411"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8112,7 +8220,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8127,7 +8235,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="388" t="s">
+      <c r="A24" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8144,7 +8252,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="388"/>
+      <c r="A25" s="404"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8155,7 +8263,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="388"/>
+      <c r="A26" s="404"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8170,7 +8278,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8181,13 +8289,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="422" t="s">
+      <c r="A28" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="420" t="s">
+      <c r="B28" s="423" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="421" t="s">
+      <c r="C28" s="424" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8198,8 +8306,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="423"/>
-      <c r="B29" s="399"/>
+      <c r="A29" s="426"/>
+      <c r="B29" s="395"/>
       <c r="C29" s="413"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8209,8 +8317,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="423"/>
-      <c r="B30" s="399"/>
+      <c r="A30" s="426"/>
+      <c r="B30" s="395"/>
       <c r="C30" s="413"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8220,8 +8328,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="423"/>
-      <c r="B31" s="399"/>
+      <c r="A31" s="426"/>
+      <c r="B31" s="395"/>
       <c r="C31" s="414"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8231,8 +8339,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="423"/>
-      <c r="B32" s="399"/>
+      <c r="A32" s="426"/>
+      <c r="B32" s="395"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8244,7 +8352,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="424"/>
+      <c r="A33" s="427"/>
       <c r="B33" s="415"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8257,13 +8365,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="417" t="s">
+      <c r="A34" s="420" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="420" t="s">
+      <c r="B34" s="423" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="421" t="s">
+      <c r="C34" s="424" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8274,8 +8382,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="418"/>
-      <c r="B35" s="399"/>
+      <c r="A35" s="421"/>
+      <c r="B35" s="395"/>
       <c r="C35" s="413"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8285,8 +8393,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="418"/>
-      <c r="B36" s="399"/>
+      <c r="A36" s="421"/>
+      <c r="B36" s="395"/>
       <c r="C36" s="413"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8296,8 +8404,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="418"/>
-      <c r="B37" s="399"/>
+      <c r="A37" s="421"/>
+      <c r="B37" s="395"/>
       <c r="C37" s="414"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8307,8 +8415,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="418"/>
-      <c r="B38" s="399"/>
+      <c r="A38" s="421"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8320,8 +8428,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="418"/>
-      <c r="B39" s="399"/>
+      <c r="A39" s="421"/>
+      <c r="B39" s="395"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8333,8 +8441,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="418"/>
-      <c r="B40" s="399"/>
+      <c r="A40" s="421"/>
+      <c r="B40" s="395"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8346,8 +8454,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="418"/>
-      <c r="B41" s="399"/>
+      <c r="A41" s="421"/>
+      <c r="B41" s="395"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8359,7 +8467,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="419"/>
+      <c r="A42" s="422"/>
       <c r="B42" s="415"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8372,13 +8480,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="417" t="s">
+      <c r="A43" s="420" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="420" t="s">
+      <c r="B43" s="423" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="421" t="s">
+      <c r="C43" s="424" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8389,8 +8497,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="418"/>
-      <c r="B44" s="399"/>
+      <c r="A44" s="421"/>
+      <c r="B44" s="395"/>
       <c r="C44" s="413"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8400,8 +8508,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="418"/>
-      <c r="B45" s="399"/>
+      <c r="A45" s="421"/>
+      <c r="B45" s="395"/>
       <c r="C45" s="413"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8411,8 +8519,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="418"/>
-      <c r="B46" s="399"/>
+      <c r="A46" s="421"/>
+      <c r="B46" s="395"/>
       <c r="C46" s="414"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8422,8 +8530,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="418"/>
-      <c r="B47" s="399"/>
+      <c r="A47" s="421"/>
+      <c r="B47" s="395"/>
       <c r="C47" s="413" t="s">
         <v>133</v>
       </c>
@@ -8435,8 +8543,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="418"/>
-      <c r="B48" s="399"/>
+      <c r="A48" s="421"/>
+      <c r="B48" s="395"/>
       <c r="C48" s="413"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8446,8 +8554,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="418"/>
-      <c r="B49" s="399"/>
+      <c r="A49" s="421"/>
+      <c r="B49" s="395"/>
       <c r="C49" s="413"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8457,8 +8565,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="418"/>
-      <c r="B50" s="399"/>
+      <c r="A50" s="421"/>
+      <c r="B50" s="395"/>
       <c r="C50" s="414"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8468,8 +8576,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="418"/>
-      <c r="B51" s="399"/>
+      <c r="A51" s="421"/>
+      <c r="B51" s="395"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8481,7 +8589,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="419"/>
+      <c r="A52" s="422"/>
       <c r="B52" s="415"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -8878,17 +8986,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -8899,6 +8996,17 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8968,7 +9076,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -8981,7 +9089,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -8992,7 +9100,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9003,7 +9111,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9016,7 +9124,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9043,10 +9151,10 @@
       <c r="A9" s="430" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="399" t="s">
+      <c r="B9" s="395" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="395" t="s">
+      <c r="C9" s="391" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9058,40 +9166,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="430"/>
-      <c r="B10" s="399"/>
-      <c r="C10" s="395"/>
+      <c r="B10" s="395"/>
+      <c r="C10" s="391"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="430"/>
-      <c r="B11" s="399"/>
-      <c r="C11" s="395"/>
+      <c r="B11" s="395"/>
+      <c r="C11" s="391"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="430"/>
-      <c r="B12" s="399"/>
-      <c r="C12" s="396"/>
+      <c r="B12" s="395"/>
+      <c r="C12" s="392"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="430"/>
-      <c r="B13" s="399"/>
+      <c r="B13" s="395"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9164,7 +9272,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9175,7 +9283,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9188,7 +9296,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="389"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9199,7 +9307,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9212,7 +9320,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9223,7 +9331,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="388"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9234,7 +9342,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="389"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9245,7 +9353,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9258,7 +9366,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="388"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9269,7 +9377,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9280,7 +9388,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="389"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9651,17 +9759,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9692,15 +9800,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="434" t="s">
+      <c r="A1" s="454" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="435"/>
+      <c r="B1" s="454"/>
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="455"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9726,13 +9834,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="436" t="s">
+      <c r="A3" s="434" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="427" t="s">
+      <c r="B3" s="419" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="421" t="s">
+      <c r="C3" s="424" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -9743,8 +9851,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="437"/>
-      <c r="B4" s="439"/>
+      <c r="A4" s="435"/>
+      <c r="B4" s="440"/>
       <c r="C4" s="413"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -9754,8 +9862,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="437"/>
-      <c r="B5" s="439"/>
+      <c r="A5" s="435"/>
+      <c r="B5" s="440"/>
       <c r="C5" s="413"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -9765,8 +9873,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="437"/>
-      <c r="B6" s="439"/>
+      <c r="A6" s="435"/>
+      <c r="B6" s="440"/>
       <c r="C6" s="414"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -9776,8 +9884,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="437"/>
-      <c r="B7" s="439"/>
+      <c r="A7" s="435"/>
+      <c r="B7" s="440"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -9789,8 +9897,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="437"/>
-      <c r="B8" s="440"/>
+      <c r="A8" s="435"/>
+      <c r="B8" s="436"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -9802,8 +9910,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="437"/>
-      <c r="B9" s="425" t="s">
+      <c r="A9" s="435"/>
+      <c r="B9" s="417" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="412" t="s">
@@ -9812,137 +9920,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="401"/>
-      <c r="F9" s="401"/>
-      <c r="G9" s="404"/>
+      <c r="E9" s="397"/>
+      <c r="F9" s="397"/>
+      <c r="G9" s="400"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="437"/>
-      <c r="B10" s="439"/>
+      <c r="A10" s="435"/>
+      <c r="B10" s="440"/>
       <c r="C10" s="413"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="402"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="E10" s="398"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="437"/>
-      <c r="B11" s="439"/>
+      <c r="A11" s="435"/>
+      <c r="B11" s="440"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="402"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="E11" s="398"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="437"/>
-      <c r="B12" s="439"/>
+      <c r="A12" s="435"/>
+      <c r="B12" s="440"/>
       <c r="C12" s="414"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="403"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="E12" s="399"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="437"/>
-      <c r="B13" s="439"/>
+      <c r="A13" s="435"/>
+      <c r="B13" s="440"/>
       <c r="C13" s="413" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="402"/>
-      <c r="F13" s="402"/>
-      <c r="G13" s="405"/>
+      <c r="E13" s="398"/>
+      <c r="F13" s="398"/>
+      <c r="G13" s="401"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="437"/>
-      <c r="B14" s="439"/>
+      <c r="A14" s="435"/>
+      <c r="B14" s="440"/>
       <c r="C14" s="413"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="402"/>
-      <c r="F14" s="402"/>
-      <c r="G14" s="405"/>
+      <c r="E14" s="398"/>
+      <c r="F14" s="398"/>
+      <c r="G14" s="401"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="437"/>
-      <c r="B15" s="439"/>
+      <c r="A15" s="435"/>
+      <c r="B15" s="440"/>
       <c r="C15" s="413"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="402"/>
-      <c r="F15" s="402"/>
-      <c r="G15" s="405"/>
+      <c r="E15" s="398"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="401"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="437"/>
-      <c r="B16" s="439"/>
+      <c r="A16" s="435"/>
+      <c r="B16" s="440"/>
       <c r="C16" s="414"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
-      <c r="G16" s="406"/>
+      <c r="E16" s="399"/>
+      <c r="F16" s="399"/>
+      <c r="G16" s="402"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="437"/>
-      <c r="B17" s="439"/>
+      <c r="A17" s="435"/>
+      <c r="B17" s="440"/>
       <c r="C17" s="413" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="402"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="405"/>
+      <c r="E17" s="398"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="401"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="437"/>
-      <c r="B18" s="439"/>
+      <c r="A18" s="435"/>
+      <c r="B18" s="440"/>
       <c r="C18" s="413"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="402"/>
-      <c r="F18" s="402"/>
-      <c r="G18" s="405"/>
+      <c r="E18" s="398"/>
+      <c r="F18" s="398"/>
+      <c r="G18" s="401"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="437"/>
-      <c r="B19" s="439"/>
+      <c r="A19" s="435"/>
+      <c r="B19" s="440"/>
       <c r="C19" s="413"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="402"/>
-      <c r="F19" s="402"/>
-      <c r="G19" s="405"/>
+      <c r="E19" s="398"/>
+      <c r="F19" s="398"/>
+      <c r="G19" s="401"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="437"/>
-      <c r="B20" s="439"/>
-      <c r="C20" s="441"/>
+      <c r="A20" s="435"/>
+      <c r="B20" s="440"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="442"/>
-      <c r="F20" s="442"/>
-      <c r="G20" s="443"/>
+      <c r="E20" s="447"/>
+      <c r="F20" s="447"/>
+      <c r="G20" s="441"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="438"/>
+      <c r="A21" s="442"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -9953,10 +10061,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="444" t="s">
+      <c r="A22" s="448" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="427" t="s">
+      <c r="B22" s="419" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -9968,8 +10076,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="445"/>
-      <c r="B23" s="439"/>
+      <c r="A23" s="449"/>
+      <c r="B23" s="440"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -9979,54 +10087,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="445"/>
-      <c r="B24" s="439"/>
+      <c r="A24" s="449"/>
+      <c r="B24" s="440"/>
       <c r="C24" s="413" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="402"/>
-      <c r="F24" s="402"/>
-      <c r="G24" s="405"/>
+      <c r="E24" s="398"/>
+      <c r="F24" s="398"/>
+      <c r="G24" s="401"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="445"/>
-      <c r="B25" s="439"/>
+      <c r="A25" s="449"/>
+      <c r="B25" s="440"/>
       <c r="C25" s="413"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="402"/>
-      <c r="F25" s="402"/>
-      <c r="G25" s="405"/>
+      <c r="E25" s="398"/>
+      <c r="F25" s="398"/>
+      <c r="G25" s="401"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="445"/>
-      <c r="B26" s="439"/>
+      <c r="A26" s="449"/>
+      <c r="B26" s="440"/>
       <c r="C26" s="413"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="402"/>
-      <c r="F26" s="402"/>
-      <c r="G26" s="405"/>
+      <c r="E26" s="398"/>
+      <c r="F26" s="398"/>
+      <c r="G26" s="401"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="445"/>
-      <c r="B27" s="440"/>
-      <c r="C27" s="441"/>
+      <c r="A27" s="449"/>
+      <c r="B27" s="436"/>
+      <c r="C27" s="443"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="442"/>
-      <c r="F27" s="442"/>
-      <c r="G27" s="443"/>
+      <c r="E27" s="447"/>
+      <c r="F27" s="447"/>
+      <c r="G27" s="441"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="445"/>
-      <c r="B28" s="439" t="s">
+      <c r="A28" s="449"/>
+      <c r="B28" s="440" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10038,50 +10146,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="445"/>
-      <c r="B29" s="439"/>
+      <c r="A29" s="449"/>
+      <c r="B29" s="440"/>
       <c r="C29" s="413" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="402"/>
-      <c r="F29" s="402"/>
-      <c r="G29" s="405"/>
+      <c r="E29" s="398"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="401"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="445"/>
-      <c r="B30" s="439"/>
+      <c r="A30" s="449"/>
+      <c r="B30" s="440"/>
       <c r="C30" s="413"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="402"/>
-      <c r="F30" s="402"/>
-      <c r="G30" s="405"/>
+      <c r="E30" s="398"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="401"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="445"/>
-      <c r="B31" s="439"/>
+      <c r="A31" s="449"/>
+      <c r="B31" s="440"/>
       <c r="C31" s="413"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="402"/>
-      <c r="F31" s="402"/>
-      <c r="G31" s="405"/>
+      <c r="E31" s="398"/>
+      <c r="F31" s="398"/>
+      <c r="G31" s="401"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="446"/>
-      <c r="B32" s="426"/>
-      <c r="C32" s="447"/>
+      <c r="A32" s="450"/>
+      <c r="B32" s="418"/>
+      <c r="C32" s="451"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="448"/>
-      <c r="F32" s="448"/>
-      <c r="G32" s="449"/>
+      <c r="E32" s="452"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10097,10 +10205,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="436" t="s">
+      <c r="A34" s="434" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="450" t="s">
+      <c r="B34" s="444" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10112,8 +10220,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="437"/>
-      <c r="B35" s="451"/>
+      <c r="A35" s="435"/>
+      <c r="B35" s="445"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10123,53 +10231,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="437"/>
-      <c r="B36" s="451"/>
-      <c r="C36" s="441" t="s">
+      <c r="A36" s="435"/>
+      <c r="B36" s="445"/>
+      <c r="C36" s="443" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="402"/>
-      <c r="F36" s="402"/>
-      <c r="G36" s="405"/>
+      <c r="E36" s="398"/>
+      <c r="F36" s="398"/>
+      <c r="G36" s="401"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="437"/>
-      <c r="B37" s="451"/>
-      <c r="C37" s="452"/>
+      <c r="A37" s="435"/>
+      <c r="B37" s="445"/>
+      <c r="C37" s="446"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="402"/>
-      <c r="F37" s="402"/>
-      <c r="G37" s="405"/>
+      <c r="E37" s="398"/>
+      <c r="F37" s="398"/>
+      <c r="G37" s="401"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="437"/>
-      <c r="B38" s="451"/>
-      <c r="C38" s="452"/>
+      <c r="A38" s="435"/>
+      <c r="B38" s="445"/>
+      <c r="C38" s="446"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="402"/>
-      <c r="F38" s="402"/>
-      <c r="G38" s="405"/>
+      <c r="E38" s="398"/>
+      <c r="F38" s="398"/>
+      <c r="G38" s="401"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="437"/>
-      <c r="B39" s="451"/>
-      <c r="C39" s="452"/>
+      <c r="A39" s="435"/>
+      <c r="B39" s="445"/>
+      <c r="C39" s="446"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="442"/>
-      <c r="F39" s="442"/>
-      <c r="G39" s="443"/>
+      <c r="E39" s="447"/>
+      <c r="F39" s="447"/>
+      <c r="G39" s="441"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="437"/>
+      <c r="A40" s="435"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10180,7 +10288,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="437"/>
+      <c r="A41" s="435"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10191,7 +10299,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="438"/>
+      <c r="A42" s="442"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10202,7 +10310,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="436" t="s">
+      <c r="A43" s="434" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10215,8 +10323,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="437"/>
-      <c r="B44" s="425" t="s">
+      <c r="A44" s="435"/>
+      <c r="B44" s="417" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10228,8 +10336,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="437"/>
-      <c r="B45" s="439"/>
+      <c r="A45" s="435"/>
+      <c r="B45" s="440"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10239,8 +10347,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="437"/>
-      <c r="B46" s="439"/>
+      <c r="A46" s="435"/>
+      <c r="B46" s="440"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10250,8 +10358,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="437"/>
-      <c r="B47" s="439"/>
+      <c r="A47" s="435"/>
+      <c r="B47" s="440"/>
       <c r="C47" s="413" t="s">
         <v>58</v>
       </c>
@@ -10263,8 +10371,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="437"/>
-      <c r="B48" s="439"/>
+      <c r="A48" s="435"/>
+      <c r="B48" s="440"/>
       <c r="C48" s="413"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10274,8 +10382,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="437"/>
-      <c r="B49" s="439"/>
+      <c r="A49" s="435"/>
+      <c r="B49" s="440"/>
       <c r="C49" s="413"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10285,9 +10393,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="437"/>
-      <c r="B50" s="440"/>
-      <c r="C50" s="441"/>
+      <c r="A50" s="435"/>
+      <c r="B50" s="436"/>
+      <c r="C50" s="443"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10296,8 +10404,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="437"/>
-      <c r="B51" s="425" t="s">
+      <c r="A51" s="435"/>
+      <c r="B51" s="417" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="412" t="s">
@@ -10311,8 +10419,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="437"/>
-      <c r="B52" s="439"/>
+      <c r="A52" s="435"/>
+      <c r="B52" s="440"/>
       <c r="C52" s="413"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10322,8 +10430,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="437"/>
-      <c r="B53" s="439"/>
+      <c r="A53" s="435"/>
+      <c r="B53" s="440"/>
       <c r="C53" s="413"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10333,8 +10441,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="437"/>
-      <c r="B54" s="439"/>
+      <c r="A54" s="435"/>
+      <c r="B54" s="440"/>
       <c r="C54" s="414"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10344,8 +10452,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="437"/>
-      <c r="B55" s="439"/>
+      <c r="A55" s="435"/>
+      <c r="B55" s="440"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10355,8 +10463,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="437"/>
-      <c r="B56" s="440"/>
+      <c r="A56" s="435"/>
+      <c r="B56" s="436"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10366,8 +10474,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="437"/>
-      <c r="B57" s="439" t="s">
+      <c r="A57" s="435"/>
+      <c r="B57" s="440" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10379,8 +10487,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="437"/>
-      <c r="B58" s="439"/>
+      <c r="A58" s="435"/>
+      <c r="B58" s="440"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10390,8 +10498,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="438"/>
-      <c r="B59" s="426"/>
+      <c r="A59" s="442"/>
+      <c r="B59" s="418"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10401,7 +10509,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="436" t="s">
+      <c r="A60" s="434" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10414,8 +10522,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="437"/>
-      <c r="B61" s="425" t="s">
+      <c r="A61" s="435"/>
+      <c r="B61" s="417" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10427,8 +10535,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="437"/>
-      <c r="B62" s="440"/>
+      <c r="A62" s="435"/>
+      <c r="B62" s="436"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10438,7 +10546,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="437"/>
+      <c r="A63" s="435"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10449,7 +10557,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="437"/>
+      <c r="A64" s="435"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10460,7 +10568,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="453" t="s">
+      <c r="A65" s="437" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10473,8 +10581,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="454"/>
-      <c r="B66" s="425" t="s">
+      <c r="A66" s="438"/>
+      <c r="B66" s="417" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10486,8 +10594,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="454"/>
-      <c r="B67" s="439"/>
+      <c r="A67" s="438"/>
+      <c r="B67" s="440"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10497,8 +10605,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="454"/>
-      <c r="B68" s="440"/>
+      <c r="A68" s="438"/>
+      <c r="B68" s="436"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10508,7 +10616,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="454"/>
+      <c r="A69" s="438"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10519,8 +10627,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="454"/>
-      <c r="B70" s="425" t="s">
+      <c r="A70" s="438"/>
+      <c r="B70" s="417" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10532,8 +10640,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="454"/>
-      <c r="B71" s="439"/>
+      <c r="A71" s="438"/>
+      <c r="B71" s="440"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10543,8 +10651,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="455"/>
-      <c r="B72" s="426"/>
+      <c r="A72" s="439"/>
+      <c r="B72" s="418"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10594,35 +10702,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10639,6 +10718,35 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10708,7 +10816,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -10721,7 +10829,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -10732,7 +10840,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -10743,7 +10851,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -10756,7 +10864,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -10780,7 +10888,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -10793,7 +10901,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -10804,7 +10912,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
+      <c r="A11" s="404"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -10817,7 +10925,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="389"/>
+      <c r="A12" s="405"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -10841,7 +10949,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
+      <c r="A14" s="404"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -10852,7 +10960,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -10865,7 +10973,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -10876,7 +10984,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="388" t="s">
+      <c r="A17" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -10889,7 +10997,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="388"/>
+      <c r="A18" s="404"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -10900,7 +11008,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -10911,7 +11019,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -10922,7 +11030,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="388" t="s">
+      <c r="A21" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -10935,7 +11043,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="388"/>
+      <c r="A22" s="404"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -10946,7 +11054,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -10957,7 +11065,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC763A8-E87B-4D44-AA1B-7F1DC5CBE20C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D0C2A-E7E7-4787-94A7-2E6EB399D4F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="247">
   <si>
     <t>ENG 251</t>
   </si>
@@ -780,9 +780,6 @@
     <t>Lexile Level Text Assignment #356</t>
   </si>
   <si>
-    <t>Literacy I or II (Syllabus) #ED344-346</t>
-  </si>
-  <si>
     <t>Literature Circles - Sociological Role #356</t>
   </si>
   <si>
@@ -814,9 +811,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Lit I or Lit II (Syllabus)  #331-336</t>
   </si>
   <si>
     <t>PowerPoint on code of ethics #329</t>
@@ -853,9 +847,6 @@
     </r>
   </si>
   <si>
-    <t>It wasn't used last semester and it looks like this one too. Any substitute? Should I contact Bro Chandler?</t>
-  </si>
-  <si>
     <t>Annotated Bibliography #329 (literacy strategies _1B/ dialect &amp; inclusivity_2A/3A)</t>
   </si>
   <si>
@@ -900,33 +891,15 @@
     <t xml:space="preserve">Unit Lesson Plan #430 </t>
   </si>
   <si>
-    <t xml:space="preserve"> !!!</t>
-  </si>
-  <si>
-    <t>I wrote Sister Moen, see if she can provide the same thing again.</t>
-  </si>
-  <si>
-    <t>I Contacted brother Glenn Dayley</t>
-  </si>
-  <si>
-    <t>I asked brother J Harrell</t>
-  </si>
-  <si>
     <t>Sent email to Sister Tobler</t>
   </si>
   <si>
-    <t>Sent email to Brother Benitez</t>
-  </si>
-  <si>
     <t>Grading writing powerpoint or handout #329</t>
   </si>
   <si>
     <t xml:space="preserve">avergae and poor samples none (students hardly chose this topic and they got A). </t>
   </si>
   <si>
-    <t>poor sample missing</t>
-  </si>
-  <si>
     <t>Mini-Lesson #329</t>
   </si>
   <si>
@@ -949,6 +922,33 @@
   </si>
   <si>
     <t>Solved</t>
+  </si>
+  <si>
+    <t>It wasn't used last semester and it looks like this one too. Any substitute? Should I contact Bro Chandler? (solution: just add a note for now)</t>
+  </si>
+  <si>
+    <t>I wrote Sister Moen, see if she can provide the same thing again (solution: she emailed samples from 335, check email)</t>
+  </si>
+  <si>
+    <t>I Contacted brother Glenn Dayley (solution: Sister Moen helped, check email)</t>
+  </si>
+  <si>
+    <t>I asked brother J Harrell (solution: check for his email)</t>
+  </si>
+  <si>
+    <t>poor sample missing (solution: added a note)</t>
+  </si>
+  <si>
+    <t>solved</t>
+  </si>
+  <si>
+    <t>Sent email to Brother Benitez (solution: check email)</t>
+  </si>
+  <si>
+    <t>Literacy I or II (Syllabus) #ED 344-346</t>
+  </si>
+  <si>
+    <t>Literacy I or Literacy II (Syllabus)  #ED 344-346</t>
   </si>
 </sst>
 </file>
@@ -2827,6 +2827,93 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2839,95 +2926,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2977,18 +2989,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3019,6 +3019,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3028,30 +3052,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3070,15 +3070,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3087,54 +3135,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4048,7 +4048,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,15 +4062,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="374" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="366"/>
-      <c r="C1" s="367"/>
+      <c r="B1" s="375"/>
+      <c r="C1" s="376"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="N1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -4088,17 +4088,17 @@
       </c>
       <c r="E2" s="346"/>
       <c r="F2" s="347" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G2" s="347" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="368" t="s">
+      <c r="B3" s="377" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4112,8 +4112,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="378"/>
-      <c r="B4" s="369"/>
+      <c r="A4" s="357"/>
+      <c r="B4" s="378"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4125,8 +4125,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="378"/>
-      <c r="B5" s="370"/>
+      <c r="A5" s="357"/>
+      <c r="B5" s="379"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4137,35 +4137,38 @@
         <v>188</v>
       </c>
       <c r="G5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="357"/>
+      <c r="B6" s="377" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="340" t="s">
         <v>214</v>
       </c>
-      <c r="H5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="378"/>
-      <c r="B6" s="368" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="340" t="s">
-        <v>217</v>
-      </c>
       <c r="D6" t="s">
         <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="H6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="378"/>
-      <c r="B7" s="369"/>
+      <c r="A7" s="357"/>
+      <c r="B7" s="378"/>
       <c r="C7" s="341" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
         <v>188</v>
@@ -4175,8 +4178,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="378"/>
-      <c r="B8" s="370"/>
+      <c r="A8" s="357"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4188,8 +4191,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="378"/>
-      <c r="B9" s="368" t="s">
+      <c r="A9" s="357"/>
+      <c r="B9" s="377" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4199,17 +4202,20 @@
         <v>188</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>238</v>
+      </c>
+      <c r="H9" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="378"/>
-      <c r="B10" s="369"/>
+      <c r="A10" s="357"/>
+      <c r="B10" s="378"/>
       <c r="C10" s="334" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D10" t="s">
         <v>188</v>
@@ -4218,12 +4224,12 @@
         <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="379"/>
-      <c r="B11" s="371"/>
+      <c r="A11" s="358"/>
+      <c r="B11" s="380"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4235,14 +4241,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="380" t="s">
+      <c r="A12" s="359" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="372" t="s">
+      <c r="B12" s="381" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
         <v>188</v>
@@ -4252,8 +4258,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="378"/>
-      <c r="B13" s="369"/>
+      <c r="A13" s="357"/>
+      <c r="B13" s="378"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4265,10 +4271,10 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="378"/>
-      <c r="B14" s="370"/>
+      <c r="A14" s="357"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="333" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D14" t="s">
         <v>188</v>
@@ -4278,8 +4284,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="378"/>
-      <c r="B15" s="353" t="s">
+      <c r="A15" s="357"/>
+      <c r="B15" s="382" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4292,14 +4298,17 @@
         <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>223</v>
+        <v>220</v>
+      </c>
+      <c r="H15" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="378"/>
-      <c r="B16" s="354"/>
+      <c r="A16" s="357"/>
+      <c r="B16" s="383"/>
       <c r="C16" s="334" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
         <v>188</v>
@@ -4308,9 +4317,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="379"/>
-      <c r="B17" s="355"/>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="358"/>
+      <c r="B17" s="384"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4321,15 +4330,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="380" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="359" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="356" t="s">
+      <c r="B18" s="385" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
         <v>188</v>
@@ -4338,11 +4347,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="378"/>
-      <c r="B19" s="357"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="357"/>
+      <c r="B19" s="367"/>
       <c r="C19" s="334" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
         <v>193</v>
@@ -4351,9 +4360,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="379"/>
-      <c r="B20" s="358"/>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="358"/>
+      <c r="B20" s="386"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4364,11 +4373,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="380" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="359" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="359" t="s">
+      <c r="B21" s="353" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4378,17 +4387,20 @@
         <v>188</v>
       </c>
       <c r="F21" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="378"/>
-      <c r="B22" s="360"/>
+        <v>239</v>
+      </c>
+      <c r="H21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="357"/>
+      <c r="B22" s="354"/>
       <c r="C22" s="334" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
         <v>188</v>
@@ -4397,9 +4409,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="378"/>
-      <c r="B23" s="361"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="357"/>
+      <c r="B23" s="370"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4410,9 +4422,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="378"/>
-      <c r="B24" s="362" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="357"/>
+      <c r="B24" s="369" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4422,15 +4434,18 @@
         <v>188</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="378"/>
-      <c r="B25" s="360"/>
+        <v>240</v>
+      </c>
+      <c r="H24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="357"/>
+      <c r="B25" s="354"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4438,15 +4453,18 @@
         <v>188</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="378"/>
-      <c r="B26" s="361"/>
+        <v>240</v>
+      </c>
+      <c r="H25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="357"/>
+      <c r="B26" s="370"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4454,15 +4472,18 @@
         <v>188</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G26" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="378"/>
-      <c r="B27" s="363" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="357"/>
+      <c r="B27" s="366" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4472,15 +4493,12 @@
         <v>188</v>
       </c>
       <c r="F27" t="s">
-        <v>211</v>
-      </c>
-      <c r="G27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="378"/>
-      <c r="B28" s="357"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="357"/>
+      <c r="B28" s="367"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4488,15 +4506,12 @@
         <v>188</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="378"/>
-      <c r="B29" s="364"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="357"/>
+      <c r="B29" s="368"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4507,9 +4522,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="378"/>
-      <c r="B30" s="362" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="357"/>
+      <c r="B30" s="369" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4522,11 +4537,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="378"/>
-      <c r="B31" s="360"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="357"/>
+      <c r="B31" s="354"/>
       <c r="C31" s="334" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
         <v>188</v>
@@ -4535,14 +4550,17 @@
         <v>188</v>
       </c>
       <c r="G31" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="379"/>
-      <c r="B32" s="373"/>
+        <v>242</v>
+      </c>
+      <c r="H31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="358"/>
+      <c r="B32" s="355"/>
       <c r="C32" s="337" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" t="s">
         <v>188</v>
@@ -4551,11 +4569,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="381" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="360" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="359" t="s">
+      <c r="B33" s="353" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4568,9 +4586,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="382"/>
-      <c r="B34" s="360"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="361"/>
+      <c r="B34" s="354"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4581,9 +4599,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="382"/>
-      <c r="B35" s="361"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="361"/>
+      <c r="B35" s="370"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
@@ -4591,46 +4609,46 @@
         <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="382"/>
-      <c r="B36" s="362" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="361"/>
+      <c r="B36" s="369" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="361"/>
+      <c r="B37" s="354"/>
+      <c r="C37" s="334" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="361"/>
+      <c r="B38" s="370"/>
+      <c r="C38" s="333" t="s">
         <v>199</v>
       </c>
-      <c r="D36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="382"/>
-      <c r="B37" s="360"/>
-      <c r="C37" s="334" t="s">
-        <v>219</v>
-      </c>
-      <c r="D37" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="382"/>
-      <c r="B38" s="361"/>
-      <c r="C38" s="333" t="s">
-        <v>200</v>
-      </c>
       <c r="D38" t="s">
         <v>188</v>
       </c>
@@ -4638,9 +4656,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="382"/>
-      <c r="B39" s="362" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="361"/>
+      <c r="B39" s="369" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4650,51 +4668,54 @@
         <v>190</v>
       </c>
       <c r="E39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F39" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="382"/>
-      <c r="B40" s="360"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="361"/>
+      <c r="B40" s="354"/>
       <c r="C40" s="334" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
         <v>188</v>
       </c>
       <c r="F40" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="382"/>
-      <c r="B41" s="361"/>
+        <v>244</v>
+      </c>
+      <c r="H40" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="361"/>
+      <c r="B41" s="370"/>
       <c r="C41" s="333" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="D41" t="s">
         <v>188</v>
       </c>
       <c r="F41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G41" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="382"/>
-      <c r="B42" s="362" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="361"/>
+      <c r="B42" s="369" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="334" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D42" t="s">
         <v>188</v>
@@ -4703,11 +4724,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="382"/>
-      <c r="B43" s="360"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="361"/>
+      <c r="B43" s="354"/>
       <c r="C43" s="334" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" t="s">
         <v>188</v>
@@ -4716,9 +4737,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="383"/>
-      <c r="B44" s="373"/>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="362"/>
+      <c r="B44" s="355"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4729,11 +4750,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="380" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="359" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="359" t="s">
+      <c r="B45" s="353" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4746,11 +4767,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="378"/>
-      <c r="B46" s="360"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="357"/>
+      <c r="B46" s="354"/>
       <c r="C46" s="334" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D46" t="s">
         <v>188</v>
@@ -4759,11 +4780,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="378"/>
-      <c r="B47" s="361"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="357"/>
+      <c r="B47" s="370"/>
       <c r="C47" s="333" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -4772,13 +4793,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="378"/>
-      <c r="B48" s="362" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="357"/>
+      <c r="B48" s="369" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
         <v>188</v>
@@ -4787,28 +4808,28 @@
         <v>188</v>
       </c>
       <c r="G48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H48" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="378"/>
-      <c r="B49" s="360"/>
+      <c r="A49" s="357"/>
+      <c r="B49" s="354"/>
       <c r="C49" s="334" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
         <v>188</v>
       </c>
       <c r="F49" t="s">
-        <v>211</v>
-      </c>
-      <c r="G49" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="378"/>
-      <c r="B50" s="361"/>
+      <c r="A50" s="357"/>
+      <c r="B50" s="370"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -4820,8 +4841,8 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="378"/>
-      <c r="B51" s="362" t="s">
+      <c r="A51" s="357"/>
+      <c r="B51" s="369" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -4835,24 +4856,24 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="378"/>
-      <c r="B52" s="360"/>
+      <c r="A52" s="357"/>
+      <c r="B52" s="354"/>
       <c r="C52" s="334" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D52" t="s">
         <v>188</v>
       </c>
       <c r="F52" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="378"/>
-      <c r="B53" s="361"/>
+      <c r="A53" s="357"/>
+      <c r="B53" s="370"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
@@ -4864,26 +4885,26 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="378"/>
-      <c r="B54" s="362" t="s">
+      <c r="A54" s="357"/>
+      <c r="B54" s="369" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D54" t="s">
         <v>188</v>
       </c>
       <c r="F54" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="378"/>
-      <c r="B55" s="360"/>
+      <c r="A55" s="357"/>
+      <c r="B55" s="354"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -4895,26 +4916,26 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="379"/>
-      <c r="B56" s="373"/>
+      <c r="A56" s="358"/>
+      <c r="B56" s="355"/>
       <c r="C56" s="337" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D56" t="s">
         <v>188</v>
       </c>
       <c r="F56" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G56" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="384" t="s">
+      <c r="A57" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="374" t="s">
+      <c r="B57" s="371" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -4928,8 +4949,8 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="385"/>
-      <c r="B58" s="375"/>
+      <c r="A58" s="364"/>
+      <c r="B58" s="372"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -4937,17 +4958,17 @@
         <v>190</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F58" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="385"/>
-      <c r="B59" s="376"/>
+      <c r="A59" s="364"/>
+      <c r="B59" s="373"/>
       <c r="C59" s="333" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D59" t="s">
         <v>188</v>
@@ -4957,8 +4978,8 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="385"/>
-      <c r="B60" s="363" t="s">
+      <c r="A60" s="364"/>
+      <c r="B60" s="366" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -4968,15 +4989,15 @@
         <v>190</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F60" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="385"/>
-      <c r="B61" s="357"/>
+      <c r="A61" s="364"/>
+      <c r="B61" s="367"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -4984,31 +5005,28 @@
         <v>188</v>
       </c>
       <c r="F61" t="s">
-        <v>211</v>
-      </c>
-      <c r="G61" t="s">
-        <v>235</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="385"/>
-      <c r="B62" s="364"/>
+      <c r="A62" s="364"/>
+      <c r="B62" s="368"/>
       <c r="C62" s="333" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="D62" t="s">
         <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="385"/>
-      <c r="B63" s="362" t="s">
+      <c r="A63" s="364"/>
+      <c r="B63" s="369" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -5022,26 +5040,26 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="385"/>
-      <c r="B64" s="360"/>
+      <c r="A64" s="364"/>
+      <c r="B64" s="354"/>
       <c r="C64" s="334" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D64" t="s">
         <v>190</v>
       </c>
       <c r="E64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F64" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="385"/>
-      <c r="B65" s="361"/>
+      <c r="A65" s="364"/>
+      <c r="B65" s="370"/>
       <c r="C65" s="333" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D65" t="s">
         <v>188</v>
@@ -5051,12 +5069,12 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="385"/>
-      <c r="B66" s="362" t="s">
+      <c r="A66" s="364"/>
+      <c r="B66" s="369" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
         <v>188</v>
@@ -5066,8 +5084,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="385"/>
-      <c r="B67" s="360"/>
+      <c r="A67" s="364"/>
+      <c r="B67" s="354"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -5075,17 +5093,17 @@
         <v>190</v>
       </c>
       <c r="E67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F67" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="386"/>
-      <c r="B68" s="373"/>
+      <c r="A68" s="365"/>
+      <c r="B68" s="355"/>
       <c r="C68" s="334" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
         <v>193</v>
@@ -5095,10 +5113,10 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="380" t="s">
+      <c r="A69" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="359" t="s">
+      <c r="B69" s="353" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5112,8 +5130,8 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="378"/>
-      <c r="B70" s="360"/>
+      <c r="A70" s="357"/>
+      <c r="B70" s="354"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
@@ -5125,8 +5143,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="379"/>
-      <c r="B71" s="373"/>
+      <c r="A71" s="358"/>
+      <c r="B71" s="355"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
@@ -5134,21 +5152,21 @@
         <v>188</v>
       </c>
       <c r="F71" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="381" t="s">
+      <c r="A72" s="360" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="359" t="s">
+      <c r="B72" s="353" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D72" t="s">
         <v>188</v>
@@ -5158,10 +5176,10 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="382"/>
-      <c r="B73" s="360"/>
+      <c r="A73" s="361"/>
+      <c r="B73" s="354"/>
       <c r="C73" s="341" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s">
         <v>188</v>
@@ -5170,14 +5188,14 @@
         <v>188</v>
       </c>
       <c r="G73" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="382"/>
-      <c r="B74" s="360"/>
+      <c r="A74" s="361"/>
+      <c r="B74" s="354"/>
       <c r="C74" s="341" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D74" t="s">
         <v>188</v>
@@ -5187,8 +5205,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="383"/>
-      <c r="B75" s="373"/>
+      <c r="A75" s="362"/>
+      <c r="B75" s="355"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
@@ -5199,34 +5217,34 @@
         <v>188</v>
       </c>
       <c r="G75" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="381" t="s">
+      <c r="A76" s="360" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="359" t="s">
+      <c r="B76" s="353" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D76" t="s">
         <v>188</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F76" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="382"/>
-      <c r="B77" s="360"/>
+      <c r="A77" s="361"/>
+      <c r="B77" s="354"/>
       <c r="C77" s="341" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
         <v>188</v>
@@ -5236,10 +5254,10 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="383"/>
-      <c r="B78" s="373"/>
+      <c r="A78" s="362"/>
+      <c r="B78" s="355"/>
       <c r="C78" s="335" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D78" t="s">
         <v>188</v>
@@ -5250,6 +5268,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5266,26 +5304,6 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5407,15 +5425,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="391" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="389"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="393"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5445,7 +5463,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5458,7 +5476,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5469,7 +5487,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5480,7 +5498,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="403" t="s">
+      <c r="A6" s="387" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5493,7 +5511,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5517,7 +5535,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="403" t="s">
+      <c r="A9" s="387" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5530,7 +5548,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5541,7 +5559,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
+      <c r="A11" s="388"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5554,7 +5572,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="405"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5565,7 +5583,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="406" t="s">
+      <c r="A13" s="390" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5578,7 +5596,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5589,7 +5607,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5611,19 +5629,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="404"/>
-      <c r="B16" s="393" t="s">
+      <c r="A16" s="388"/>
+      <c r="B16" s="397" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="390" t="s">
+      <c r="C16" s="394" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="397"/>
-      <c r="G16" s="400"/>
+      <c r="F16" s="401"/>
+      <c r="G16" s="404"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5635,15 +5653,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="404"/>
-      <c r="B17" s="394"/>
-      <c r="C17" s="391"/>
+      <c r="A17" s="388"/>
+      <c r="B17" s="398"/>
+      <c r="C17" s="395"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="398"/>
-      <c r="G17" s="401"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="405"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5655,15 +5673,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
-      <c r="B18" s="394"/>
-      <c r="C18" s="391"/>
+      <c r="A18" s="388"/>
+      <c r="B18" s="398"/>
+      <c r="C18" s="395"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="398"/>
-      <c r="G18" s="401"/>
+      <c r="F18" s="402"/>
+      <c r="G18" s="405"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5675,15 +5693,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
-      <c r="B19" s="394"/>
-      <c r="C19" s="392"/>
+      <c r="A19" s="388"/>
+      <c r="B19" s="398"/>
+      <c r="C19" s="396"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="399"/>
-      <c r="G19" s="402"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="406"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5695,8 +5713,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
-      <c r="B20" s="395"/>
+      <c r="A20" s="388"/>
+      <c r="B20" s="399"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5717,8 +5735,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405"/>
-      <c r="B21" s="396"/>
+      <c r="A21" s="389"/>
+      <c r="B21" s="400"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5739,7 +5757,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="403" t="s">
+      <c r="A22" s="387" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5761,7 +5779,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5781,7 +5799,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="404"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5801,7 +5819,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5812,7 +5830,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="403" t="s">
+      <c r="A26" s="387" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -5825,7 +5843,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="404"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -5836,7 +5854,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -5847,7 +5865,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6222,17 +6240,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6302,7 +6320,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="403" t="s">
+      <c r="A3" s="387" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6315,7 +6333,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6326,7 +6344,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6337,7 +6355,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="403" t="s">
+      <c r="A6" s="387" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6350,7 +6368,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6374,7 +6392,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="403" t="s">
+      <c r="A9" s="387" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6387,7 +6405,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
@@ -6398,45 +6416,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="397"/>
-      <c r="G10" s="400"/>
+      <c r="F10" s="401"/>
+      <c r="G10" s="404"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
-      <c r="B11" s="395"/>
+      <c r="A11" s="388"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
-      <c r="B12" s="395"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="399"/>
       <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="398"/>
-      <c r="G12" s="401"/>
+      <c r="F12" s="402"/>
+      <c r="G12" s="405"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
-      <c r="B13" s="395"/>
+      <c r="A13" s="388"/>
+      <c r="B13" s="399"/>
       <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="402"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="411"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6449,7 +6467,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6464,7 +6482,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6475,7 +6493,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="406" t="s">
+      <c r="A17" s="390" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6488,7 +6506,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
+      <c r="A18" s="388"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6499,7 +6517,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6512,7 +6530,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="410" t="s">
         <v>32</v>
       </c>
@@ -6523,46 +6541,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="397"/>
-      <c r="G20" s="400"/>
+      <c r="F20" s="401"/>
+      <c r="G20" s="404"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="404"/>
-      <c r="B21" s="395"/>
+      <c r="A21" s="388"/>
+      <c r="B21" s="399"/>
       <c r="C21" s="413"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="401"/>
+      <c r="F21" s="402"/>
+      <c r="G21" s="405"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="404"/>
-      <c r="B22" s="395"/>
+      <c r="A22" s="388"/>
+      <c r="B22" s="399"/>
       <c r="C22" s="413"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="401"/>
+      <c r="F22" s="402"/>
+      <c r="G22" s="405"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
-      <c r="B23" s="395"/>
+      <c r="A23" s="388"/>
+      <c r="B23" s="399"/>
       <c r="C23" s="414"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="399"/>
-      <c r="G23" s="402"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="406"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="404"/>
-      <c r="B24" s="395"/>
+      <c r="A24" s="388"/>
+      <c r="B24" s="399"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6574,8 +6592,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="404"/>
-      <c r="B25" s="395"/>
+      <c r="A25" s="388"/>
+      <c r="B25" s="399"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6587,7 +6605,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="405"/>
+      <c r="A26" s="389"/>
       <c r="B26" s="415"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6601,7 +6619,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="403" t="s">
+      <c r="A27" s="387" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6615,7 +6633,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6626,7 +6644,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="404"/>
+      <c r="A29" s="388"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6637,7 +6655,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="405"/>
+      <c r="A30" s="389"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6648,7 +6666,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="403" t="s">
+      <c r="A31" s="387" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6661,7 +6679,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="404"/>
+      <c r="A32" s="388"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6672,7 +6690,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="404"/>
+      <c r="A33" s="388"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6683,7 +6701,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="405"/>
+      <c r="A34" s="389"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7066,12 +7084,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -7081,6 +7093,12 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7150,7 +7168,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7163,7 +7181,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7174,7 +7192,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7185,7 +7203,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7198,7 +7216,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7222,7 +7240,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7235,7 +7253,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
@@ -7246,45 +7264,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="397"/>
-      <c r="G10" s="400"/>
+      <c r="F10" s="401"/>
+      <c r="G10" s="404"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
-      <c r="B11" s="395"/>
+      <c r="A11" s="388"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
-      <c r="B12" s="395"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="399"/>
       <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="398"/>
-      <c r="G12" s="401"/>
+      <c r="F12" s="402"/>
+      <c r="G12" s="405"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
-      <c r="B13" s="395"/>
+      <c r="A13" s="388"/>
+      <c r="B13" s="399"/>
       <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="402"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
-      <c r="B14" s="395"/>
+      <c r="A14" s="388"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7296,7 +7314,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="411"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7309,7 +7327,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="404"/>
+      <c r="A16" s="388"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7320,7 +7338,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="405"/>
+      <c r="A17" s="389"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7344,7 +7362,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7355,7 +7373,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7366,7 +7384,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="404"/>
+      <c r="A21" s="388"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7377,7 +7395,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="403" t="s">
+      <c r="A22" s="387" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7390,7 +7408,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7401,7 +7419,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="404"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7412,7 +7430,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7423,7 +7441,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="404" t="s">
+      <c r="A26" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7436,7 +7454,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="404"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7447,7 +7465,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7458,7 +7476,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -7862,17 +7880,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7946,7 +7964,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="403" t="s">
+      <c r="A3" s="387" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -7967,7 +7985,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -7978,8 +7996,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="404"/>
-      <c r="B5" s="417" t="s">
+      <c r="A5" s="388"/>
+      <c r="B5" s="425" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -7993,8 +8011,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="405"/>
-      <c r="B6" s="418"/>
+      <c r="A6" s="389"/>
+      <c r="B6" s="426"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8006,7 +8024,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="404" t="s">
+      <c r="A7" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8019,7 +8037,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="405"/>
+      <c r="A8" s="389"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8033,7 +8051,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="419" t="s">
+      <c r="B9" s="427" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8048,7 +8066,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="418"/>
+      <c r="B10" s="426"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8060,7 +8078,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="404" t="s">
+      <c r="A11" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8073,7 +8091,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
+      <c r="A12" s="388"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8088,7 +8106,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
+      <c r="A13" s="388"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8099,7 +8117,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8131,7 +8149,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="404"/>
+      <c r="A16" s="388"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8142,7 +8160,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="404"/>
+      <c r="A17" s="388"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8153,7 +8171,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="405"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8164,7 +8182,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="404" t="s">
+      <c r="A19" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8181,7 +8199,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8192,7 +8210,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="404"/>
+      <c r="A21" s="388"/>
       <c r="B21" s="410" t="s">
         <v>81</v>
       </c>
@@ -8207,7 +8225,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="404"/>
+      <c r="A22" s="388"/>
       <c r="B22" s="411"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8220,7 +8238,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8235,7 +8253,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="404" t="s">
+      <c r="A24" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8252,7 +8270,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="404"/>
+      <c r="A25" s="388"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8263,7 +8281,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="404"/>
+      <c r="A26" s="388"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8278,7 +8296,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8289,13 +8307,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="425" t="s">
+      <c r="A28" s="422" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="423" t="s">
+      <c r="B28" s="420" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="424" t="s">
+      <c r="C28" s="421" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8306,8 +8324,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="426"/>
-      <c r="B29" s="395"/>
+      <c r="A29" s="423"/>
+      <c r="B29" s="399"/>
       <c r="C29" s="413"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8317,8 +8335,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="426"/>
-      <c r="B30" s="395"/>
+      <c r="A30" s="423"/>
+      <c r="B30" s="399"/>
       <c r="C30" s="413"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8328,8 +8346,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="426"/>
-      <c r="B31" s="395"/>
+      <c r="A31" s="423"/>
+      <c r="B31" s="399"/>
       <c r="C31" s="414"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8339,8 +8357,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="426"/>
-      <c r="B32" s="395"/>
+      <c r="A32" s="423"/>
+      <c r="B32" s="399"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8352,7 +8370,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="427"/>
+      <c r="A33" s="424"/>
       <c r="B33" s="415"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8365,13 +8383,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="420" t="s">
+      <c r="A34" s="417" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="423" t="s">
+      <c r="B34" s="420" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="424" t="s">
+      <c r="C34" s="421" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8382,8 +8400,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="421"/>
-      <c r="B35" s="395"/>
+      <c r="A35" s="418"/>
+      <c r="B35" s="399"/>
       <c r="C35" s="413"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8393,8 +8411,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="421"/>
-      <c r="B36" s="395"/>
+      <c r="A36" s="418"/>
+      <c r="B36" s="399"/>
       <c r="C36" s="413"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8404,8 +8422,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="421"/>
-      <c r="B37" s="395"/>
+      <c r="A37" s="418"/>
+      <c r="B37" s="399"/>
       <c r="C37" s="414"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8415,8 +8433,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="421"/>
-      <c r="B38" s="395"/>
+      <c r="A38" s="418"/>
+      <c r="B38" s="399"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8428,8 +8446,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="421"/>
-      <c r="B39" s="395"/>
+      <c r="A39" s="418"/>
+      <c r="B39" s="399"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8441,8 +8459,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="421"/>
-      <c r="B40" s="395"/>
+      <c r="A40" s="418"/>
+      <c r="B40" s="399"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8454,8 +8472,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="421"/>
-      <c r="B41" s="395"/>
+      <c r="A41" s="418"/>
+      <c r="B41" s="399"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8467,7 +8485,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="422"/>
+      <c r="A42" s="419"/>
       <c r="B42" s="415"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8480,13 +8498,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="420" t="s">
+      <c r="A43" s="417" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="423" t="s">
+      <c r="B43" s="420" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="424" t="s">
+      <c r="C43" s="421" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8497,8 +8515,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="421"/>
-      <c r="B44" s="395"/>
+      <c r="A44" s="418"/>
+      <c r="B44" s="399"/>
       <c r="C44" s="413"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8508,8 +8526,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="421"/>
-      <c r="B45" s="395"/>
+      <c r="A45" s="418"/>
+      <c r="B45" s="399"/>
       <c r="C45" s="413"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8519,8 +8537,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="421"/>
-      <c r="B46" s="395"/>
+      <c r="A46" s="418"/>
+      <c r="B46" s="399"/>
       <c r="C46" s="414"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8530,8 +8548,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="421"/>
-      <c r="B47" s="395"/>
+      <c r="A47" s="418"/>
+      <c r="B47" s="399"/>
       <c r="C47" s="413" t="s">
         <v>133</v>
       </c>
@@ -8543,8 +8561,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="421"/>
-      <c r="B48" s="395"/>
+      <c r="A48" s="418"/>
+      <c r="B48" s="399"/>
       <c r="C48" s="413"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8554,8 +8572,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="421"/>
-      <c r="B49" s="395"/>
+      <c r="A49" s="418"/>
+      <c r="B49" s="399"/>
       <c r="C49" s="413"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8565,8 +8583,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="421"/>
-      <c r="B50" s="395"/>
+      <c r="A50" s="418"/>
+      <c r="B50" s="399"/>
       <c r="C50" s="414"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8576,8 +8594,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="421"/>
-      <c r="B51" s="395"/>
+      <c r="A51" s="418"/>
+      <c r="B51" s="399"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8589,7 +8607,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="422"/>
+      <c r="A52" s="419"/>
       <c r="B52" s="415"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -8986,6 +9004,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -8996,17 +9025,6 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9076,7 +9094,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9089,7 +9107,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9100,7 +9118,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9111,7 +9129,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9124,7 +9142,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9151,10 +9169,10 @@
       <c r="A9" s="430" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="395" t="s">
+      <c r="B9" s="399" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="391" t="s">
+      <c r="C9" s="395" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9166,40 +9184,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="430"/>
-      <c r="B10" s="395"/>
-      <c r="C10" s="391"/>
+      <c r="B10" s="399"/>
+      <c r="C10" s="395"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="430"/>
-      <c r="B11" s="395"/>
-      <c r="C11" s="391"/>
+      <c r="B11" s="399"/>
+      <c r="C11" s="395"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="430"/>
-      <c r="B12" s="395"/>
-      <c r="C12" s="392"/>
+      <c r="B12" s="399"/>
+      <c r="C12" s="396"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="430"/>
-      <c r="B13" s="395"/>
+      <c r="B13" s="399"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9272,7 +9290,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9283,7 +9301,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9296,7 +9314,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9307,7 +9325,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9320,7 +9338,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9331,7 +9349,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="404"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9342,7 +9360,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9353,7 +9371,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="404" t="s">
+      <c r="A26" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9366,7 +9384,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="404"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9377,7 +9395,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9388,7 +9406,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9759,17 +9777,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9800,15 +9818,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="434" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="454"/>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="455"/>
+      <c r="B1" s="434"/>
+      <c r="C1" s="434"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="435"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9834,13 +9852,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="436" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="419" t="s">
+      <c r="B3" s="427" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="424" t="s">
+      <c r="C3" s="421" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -9851,8 +9869,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="435"/>
-      <c r="B4" s="440"/>
+      <c r="A4" s="437"/>
+      <c r="B4" s="439"/>
       <c r="C4" s="413"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -9862,8 +9880,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="435"/>
-      <c r="B5" s="440"/>
+      <c r="A5" s="437"/>
+      <c r="B5" s="439"/>
       <c r="C5" s="413"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -9873,8 +9891,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="435"/>
-      <c r="B6" s="440"/>
+      <c r="A6" s="437"/>
+      <c r="B6" s="439"/>
       <c r="C6" s="414"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -9884,8 +9902,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="435"/>
-      <c r="B7" s="440"/>
+      <c r="A7" s="437"/>
+      <c r="B7" s="439"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -9897,8 +9915,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="435"/>
-      <c r="B8" s="436"/>
+      <c r="A8" s="437"/>
+      <c r="B8" s="440"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -9910,8 +9928,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="435"/>
-      <c r="B9" s="417" t="s">
+      <c r="A9" s="437"/>
+      <c r="B9" s="425" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="412" t="s">
@@ -9920,137 +9938,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="397"/>
-      <c r="F9" s="397"/>
-      <c r="G9" s="400"/>
+      <c r="E9" s="401"/>
+      <c r="F9" s="401"/>
+      <c r="G9" s="404"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="435"/>
-      <c r="B10" s="440"/>
+      <c r="A10" s="437"/>
+      <c r="B10" s="439"/>
       <c r="C10" s="413"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="398"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="E10" s="402"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="435"/>
-      <c r="B11" s="440"/>
+      <c r="A11" s="437"/>
+      <c r="B11" s="439"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="398"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="E11" s="402"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="435"/>
-      <c r="B12" s="440"/>
+      <c r="A12" s="437"/>
+      <c r="B12" s="439"/>
       <c r="C12" s="414"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="399"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="E12" s="403"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="435"/>
-      <c r="B13" s="440"/>
+      <c r="A13" s="437"/>
+      <c r="B13" s="439"/>
       <c r="C13" s="413" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="398"/>
-      <c r="F13" s="398"/>
-      <c r="G13" s="401"/>
+      <c r="E13" s="402"/>
+      <c r="F13" s="402"/>
+      <c r="G13" s="405"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="435"/>
-      <c r="B14" s="440"/>
+      <c r="A14" s="437"/>
+      <c r="B14" s="439"/>
       <c r="C14" s="413"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="398"/>
-      <c r="F14" s="398"/>
-      <c r="G14" s="401"/>
+      <c r="E14" s="402"/>
+      <c r="F14" s="402"/>
+      <c r="G14" s="405"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="435"/>
-      <c r="B15" s="440"/>
+      <c r="A15" s="437"/>
+      <c r="B15" s="439"/>
       <c r="C15" s="413"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="398"/>
-      <c r="F15" s="398"/>
-      <c r="G15" s="401"/>
+      <c r="E15" s="402"/>
+      <c r="F15" s="402"/>
+      <c r="G15" s="405"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="435"/>
-      <c r="B16" s="440"/>
+      <c r="A16" s="437"/>
+      <c r="B16" s="439"/>
       <c r="C16" s="414"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="399"/>
-      <c r="F16" s="399"/>
-      <c r="G16" s="402"/>
+      <c r="E16" s="403"/>
+      <c r="F16" s="403"/>
+      <c r="G16" s="406"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="435"/>
-      <c r="B17" s="440"/>
+      <c r="A17" s="437"/>
+      <c r="B17" s="439"/>
       <c r="C17" s="413" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="398"/>
-      <c r="F17" s="398"/>
-      <c r="G17" s="401"/>
+      <c r="E17" s="402"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="405"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="435"/>
-      <c r="B18" s="440"/>
+      <c r="A18" s="437"/>
+      <c r="B18" s="439"/>
       <c r="C18" s="413"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="398"/>
-      <c r="F18" s="398"/>
-      <c r="G18" s="401"/>
+      <c r="E18" s="402"/>
+      <c r="F18" s="402"/>
+      <c r="G18" s="405"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="435"/>
-      <c r="B19" s="440"/>
+      <c r="A19" s="437"/>
+      <c r="B19" s="439"/>
       <c r="C19" s="413"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="398"/>
-      <c r="F19" s="398"/>
-      <c r="G19" s="401"/>
+      <c r="E19" s="402"/>
+      <c r="F19" s="402"/>
+      <c r="G19" s="405"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="435"/>
-      <c r="B20" s="440"/>
-      <c r="C20" s="443"/>
+      <c r="A20" s="437"/>
+      <c r="B20" s="439"/>
+      <c r="C20" s="441"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="447"/>
-      <c r="F20" s="447"/>
-      <c r="G20" s="441"/>
+      <c r="E20" s="442"/>
+      <c r="F20" s="442"/>
+      <c r="G20" s="443"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="442"/>
+      <c r="A21" s="438"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -10061,10 +10079,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="448" t="s">
+      <c r="A22" s="444" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="419" t="s">
+      <c r="B22" s="427" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -10076,8 +10094,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="449"/>
-      <c r="B23" s="440"/>
+      <c r="A23" s="445"/>
+      <c r="B23" s="439"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -10087,54 +10105,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="449"/>
-      <c r="B24" s="440"/>
+      <c r="A24" s="445"/>
+      <c r="B24" s="439"/>
       <c r="C24" s="413" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="398"/>
-      <c r="F24" s="398"/>
-      <c r="G24" s="401"/>
+      <c r="E24" s="402"/>
+      <c r="F24" s="402"/>
+      <c r="G24" s="405"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="449"/>
-      <c r="B25" s="440"/>
+      <c r="A25" s="445"/>
+      <c r="B25" s="439"/>
       <c r="C25" s="413"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="398"/>
-      <c r="F25" s="398"/>
-      <c r="G25" s="401"/>
+      <c r="E25" s="402"/>
+      <c r="F25" s="402"/>
+      <c r="G25" s="405"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="449"/>
-      <c r="B26" s="440"/>
+      <c r="A26" s="445"/>
+      <c r="B26" s="439"/>
       <c r="C26" s="413"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="398"/>
-      <c r="F26" s="398"/>
-      <c r="G26" s="401"/>
+      <c r="E26" s="402"/>
+      <c r="F26" s="402"/>
+      <c r="G26" s="405"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="449"/>
-      <c r="B27" s="436"/>
-      <c r="C27" s="443"/>
+      <c r="A27" s="445"/>
+      <c r="B27" s="440"/>
+      <c r="C27" s="441"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="447"/>
-      <c r="F27" s="447"/>
-      <c r="G27" s="441"/>
+      <c r="E27" s="442"/>
+      <c r="F27" s="442"/>
+      <c r="G27" s="443"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="449"/>
-      <c r="B28" s="440" t="s">
+      <c r="A28" s="445"/>
+      <c r="B28" s="439" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10146,50 +10164,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="449"/>
-      <c r="B29" s="440"/>
+      <c r="A29" s="445"/>
+      <c r="B29" s="439"/>
       <c r="C29" s="413" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="398"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="401"/>
+      <c r="E29" s="402"/>
+      <c r="F29" s="402"/>
+      <c r="G29" s="405"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="449"/>
-      <c r="B30" s="440"/>
+      <c r="A30" s="445"/>
+      <c r="B30" s="439"/>
       <c r="C30" s="413"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="398"/>
-      <c r="F30" s="398"/>
-      <c r="G30" s="401"/>
+      <c r="E30" s="402"/>
+      <c r="F30" s="402"/>
+      <c r="G30" s="405"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="449"/>
-      <c r="B31" s="440"/>
+      <c r="A31" s="445"/>
+      <c r="B31" s="439"/>
       <c r="C31" s="413"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="398"/>
-      <c r="F31" s="398"/>
-      <c r="G31" s="401"/>
+      <c r="E31" s="402"/>
+      <c r="F31" s="402"/>
+      <c r="G31" s="405"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="450"/>
-      <c r="B32" s="418"/>
-      <c r="C32" s="451"/>
+      <c r="A32" s="446"/>
+      <c r="B32" s="426"/>
+      <c r="C32" s="447"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="452"/>
-      <c r="F32" s="452"/>
-      <c r="G32" s="453"/>
+      <c r="E32" s="448"/>
+      <c r="F32" s="448"/>
+      <c r="G32" s="449"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10205,10 +10223,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="434" t="s">
+      <c r="A34" s="436" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="444" t="s">
+      <c r="B34" s="450" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10220,8 +10238,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="435"/>
-      <c r="B35" s="445"/>
+      <c r="A35" s="437"/>
+      <c r="B35" s="451"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10231,53 +10249,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="435"/>
-      <c r="B36" s="445"/>
-      <c r="C36" s="443" t="s">
+      <c r="A36" s="437"/>
+      <c r="B36" s="451"/>
+      <c r="C36" s="441" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="398"/>
-      <c r="F36" s="398"/>
-      <c r="G36" s="401"/>
+      <c r="E36" s="402"/>
+      <c r="F36" s="402"/>
+      <c r="G36" s="405"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="435"/>
-      <c r="B37" s="445"/>
-      <c r="C37" s="446"/>
+      <c r="A37" s="437"/>
+      <c r="B37" s="451"/>
+      <c r="C37" s="452"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="398"/>
-      <c r="F37" s="398"/>
-      <c r="G37" s="401"/>
+      <c r="E37" s="402"/>
+      <c r="F37" s="402"/>
+      <c r="G37" s="405"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="435"/>
-      <c r="B38" s="445"/>
-      <c r="C38" s="446"/>
+      <c r="A38" s="437"/>
+      <c r="B38" s="451"/>
+      <c r="C38" s="452"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="398"/>
-      <c r="F38" s="398"/>
-      <c r="G38" s="401"/>
+      <c r="E38" s="402"/>
+      <c r="F38" s="402"/>
+      <c r="G38" s="405"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="435"/>
-      <c r="B39" s="445"/>
-      <c r="C39" s="446"/>
+      <c r="A39" s="437"/>
+      <c r="B39" s="451"/>
+      <c r="C39" s="452"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="447"/>
-      <c r="F39" s="447"/>
-      <c r="G39" s="441"/>
+      <c r="E39" s="442"/>
+      <c r="F39" s="442"/>
+      <c r="G39" s="443"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="435"/>
+      <c r="A40" s="437"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10288,7 +10306,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="435"/>
+      <c r="A41" s="437"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10299,7 +10317,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="442"/>
+      <c r="A42" s="438"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10310,7 +10328,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="434" t="s">
+      <c r="A43" s="436" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10323,8 +10341,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="435"/>
-      <c r="B44" s="417" t="s">
+      <c r="A44" s="437"/>
+      <c r="B44" s="425" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10336,8 +10354,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="435"/>
-      <c r="B45" s="440"/>
+      <c r="A45" s="437"/>
+      <c r="B45" s="439"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10347,8 +10365,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="435"/>
-      <c r="B46" s="440"/>
+      <c r="A46" s="437"/>
+      <c r="B46" s="439"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10358,8 +10376,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="435"/>
-      <c r="B47" s="440"/>
+      <c r="A47" s="437"/>
+      <c r="B47" s="439"/>
       <c r="C47" s="413" t="s">
         <v>58</v>
       </c>
@@ -10371,8 +10389,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="435"/>
-      <c r="B48" s="440"/>
+      <c r="A48" s="437"/>
+      <c r="B48" s="439"/>
       <c r="C48" s="413"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10382,8 +10400,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="435"/>
-      <c r="B49" s="440"/>
+      <c r="A49" s="437"/>
+      <c r="B49" s="439"/>
       <c r="C49" s="413"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10393,9 +10411,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="435"/>
-      <c r="B50" s="436"/>
-      <c r="C50" s="443"/>
+      <c r="A50" s="437"/>
+      <c r="B50" s="440"/>
+      <c r="C50" s="441"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10404,8 +10422,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="435"/>
-      <c r="B51" s="417" t="s">
+      <c r="A51" s="437"/>
+      <c r="B51" s="425" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="412" t="s">
@@ -10419,8 +10437,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="435"/>
-      <c r="B52" s="440"/>
+      <c r="A52" s="437"/>
+      <c r="B52" s="439"/>
       <c r="C52" s="413"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10430,8 +10448,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="435"/>
-      <c r="B53" s="440"/>
+      <c r="A53" s="437"/>
+      <c r="B53" s="439"/>
       <c r="C53" s="413"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10441,8 +10459,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="435"/>
-      <c r="B54" s="440"/>
+      <c r="A54" s="437"/>
+      <c r="B54" s="439"/>
       <c r="C54" s="414"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10452,8 +10470,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="435"/>
-      <c r="B55" s="440"/>
+      <c r="A55" s="437"/>
+      <c r="B55" s="439"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10463,8 +10481,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="435"/>
-      <c r="B56" s="436"/>
+      <c r="A56" s="437"/>
+      <c r="B56" s="440"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10474,8 +10492,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="435"/>
-      <c r="B57" s="440" t="s">
+      <c r="A57" s="437"/>
+      <c r="B57" s="439" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10487,8 +10505,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="435"/>
-      <c r="B58" s="440"/>
+      <c r="A58" s="437"/>
+      <c r="B58" s="439"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10498,8 +10516,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="442"/>
-      <c r="B59" s="418"/>
+      <c r="A59" s="438"/>
+      <c r="B59" s="426"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10509,7 +10527,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="434" t="s">
+      <c r="A60" s="436" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10522,8 +10540,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="435"/>
-      <c r="B61" s="417" t="s">
+      <c r="A61" s="437"/>
+      <c r="B61" s="425" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10535,8 +10553,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="435"/>
-      <c r="B62" s="436"/>
+      <c r="A62" s="437"/>
+      <c r="B62" s="440"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10546,7 +10564,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="435"/>
+      <c r="A63" s="437"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10557,7 +10575,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="435"/>
+      <c r="A64" s="437"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10568,7 +10586,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="437" t="s">
+      <c r="A65" s="453" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10581,8 +10599,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="438"/>
-      <c r="B66" s="417" t="s">
+      <c r="A66" s="454"/>
+      <c r="B66" s="425" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10594,8 +10612,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="438"/>
-      <c r="B67" s="440"/>
+      <c r="A67" s="454"/>
+      <c r="B67" s="439"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10605,8 +10623,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="438"/>
-      <c r="B68" s="436"/>
+      <c r="A68" s="454"/>
+      <c r="B68" s="440"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10616,7 +10634,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="438"/>
+      <c r="A69" s="454"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10627,8 +10645,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="438"/>
-      <c r="B70" s="417" t="s">
+      <c r="A70" s="454"/>
+      <c r="B70" s="425" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10640,8 +10658,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="438"/>
-      <c r="B71" s="440"/>
+      <c r="A71" s="454"/>
+      <c r="B71" s="439"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10651,8 +10669,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="439"/>
-      <c r="B72" s="418"/>
+      <c r="A72" s="455"/>
+      <c r="B72" s="426"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10702,6 +10720,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10718,35 +10765,6 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10816,7 +10834,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -10829,7 +10847,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -10840,7 +10858,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -10851,7 +10869,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -10864,7 +10882,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -10888,7 +10906,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -10901,7 +10919,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -10912,7 +10930,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
+      <c r="A11" s="388"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -10925,7 +10943,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="405"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -10949,7 +10967,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -10960,7 +10978,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -10973,7 +10991,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -10984,7 +11002,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="404" t="s">
+      <c r="A17" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -10997,7 +11015,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
+      <c r="A18" s="388"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -11008,7 +11026,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -11019,7 +11037,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -11030,7 +11048,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="404" t="s">
+      <c r="A21" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -11043,7 +11061,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="404"/>
+      <c r="A22" s="388"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -11054,7 +11072,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -11065,7 +11083,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13D0C2A-E7E7-4787-94A7-2E6EB399D4F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9CCE6-B0D1-4C26-9956-03CA92C0C0E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="248">
   <si>
     <t>ENG 251</t>
   </si>
@@ -891,9 +891,6 @@
     <t xml:space="preserve">Unit Lesson Plan #430 </t>
   </si>
   <si>
-    <t>Sent email to Sister Tobler</t>
-  </si>
-  <si>
     <t>Grading writing powerpoint or handout #329</t>
   </si>
   <si>
@@ -903,24 +900,9 @@
     <t>Mini-Lesson #329</t>
   </si>
   <si>
-    <t>Don't know what to add for Fall 2020, but at least we got three samples already (2 pptx from Fall 2019 and 1 from Winter 20)</t>
-  </si>
-  <si>
-    <t>Contact bro Chandler too: what evidence use this semester? It looks like they didn't have an assignment similar to  Grading packet</t>
-  </si>
-  <si>
-    <t>What can I use? I haven't seen material to teach how to grade writing this semester</t>
-  </si>
-  <si>
-    <t>Chandler too: Which powerpoint this time? Didn't see any on Canvas</t>
-  </si>
-  <si>
     <t xml:space="preserve">I went ahead and added a professional disposition assessment I found on canvas. </t>
   </si>
   <si>
-    <t xml:space="preserve">attendance is not available on canvas. </t>
-  </si>
-  <si>
     <t>Solved</t>
   </si>
   <si>
@@ -949,6 +931,27 @@
   </si>
   <si>
     <t>Literacy I or Literacy II (Syllabus)  #ED 344-346</t>
+  </si>
+  <si>
+    <t>What can I use? I haven't seen material to teach how to grade writing this semester (solution: Durfee sent a powerpoint)</t>
+  </si>
+  <si>
+    <t>Contact bro Chandler too: what evidence use this semester? It looks like they didn't have an assignment similar to  Grading packet (Solution: Durfee didn't use this last Fall; she said a student attempted to create a Rubric tho: Jessica Smith's -Argumentative Sequence Fall 2020).</t>
+  </si>
+  <si>
+    <t>Chandler too: Which powerpoint this time? Didn't see any on Canvas (solution: used the one Durfee sent for 6.4)</t>
+  </si>
+  <si>
+    <t>attendance is not available on canvas</t>
+  </si>
+  <si>
+    <t>Sent email to Sister Glenn. Don't know what to add for Fall 2020, but at least we got three samples already (2 pptx from Fall 2019 and 1 from Winter 20)</t>
+  </si>
+  <si>
+    <t>Contact bro Chandler too: what evidence use this semester? It looks like they didn't have an assignment similar to  Grading packet. Durfee said she didn't use any last semester. Solution: I just added a not).</t>
+  </si>
+  <si>
+    <t>Sent email to Sister Tobler/ Sent email to Glenn to see what's up.</t>
   </si>
 </sst>
 </file>
@@ -2827,15 +2830,78 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2866,68 +2932,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2941,54 +2992,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3019,6 +3022,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3043,15 +3055,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3070,71 +3073,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4048,7 +4051,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4062,11 +4065,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="365" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="376"/>
+      <c r="B1" s="366"/>
+      <c r="C1" s="367"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="N1" t="s">
@@ -4095,10 +4098,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="377" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="368" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4112,8 +4115,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="357"/>
-      <c r="B4" s="378"/>
+      <c r="A4" s="378"/>
+      <c r="B4" s="369"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4125,8 +4128,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="357"/>
-      <c r="B5" s="379"/>
+      <c r="A5" s="378"/>
+      <c r="B5" s="370"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4140,12 +4143,12 @@
         <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="357"/>
-      <c r="B6" s="377" t="s">
+      <c r="A6" s="378"/>
+      <c r="B6" s="368" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
@@ -4161,12 +4164,12 @@
         <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="357"/>
-      <c r="B7" s="378"/>
+      <c r="A7" s="378"/>
+      <c r="B7" s="369"/>
       <c r="C7" s="341" t="s">
         <v>210</v>
       </c>
@@ -4178,8 +4181,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="357"/>
-      <c r="B8" s="379"/>
+      <c r="A8" s="378"/>
+      <c r="B8" s="370"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4191,8 +4194,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="357"/>
-      <c r="B9" s="377" t="s">
+      <c r="A9" s="378"/>
+      <c r="B9" s="368" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4205,15 +4208,15 @@
         <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="357"/>
-      <c r="B10" s="378"/>
+      <c r="A10" s="378"/>
+      <c r="B10" s="369"/>
       <c r="C10" s="334" t="s">
         <v>213</v>
       </c>
@@ -4228,8 +4231,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="358"/>
-      <c r="B11" s="380"/>
+      <c r="A11" s="379"/>
+      <c r="B11" s="371"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4241,10 +4244,10 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="380" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="381" t="s">
+      <c r="B12" s="372" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
@@ -4258,8 +4261,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="357"/>
-      <c r="B13" s="378"/>
+      <c r="A13" s="378"/>
+      <c r="B13" s="369"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4271,8 +4274,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="357"/>
-      <c r="B14" s="379"/>
+      <c r="A14" s="378"/>
+      <c r="B14" s="370"/>
       <c r="C14" s="333" t="s">
         <v>195</v>
       </c>
@@ -4284,8 +4287,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="357"/>
-      <c r="B15" s="382" t="s">
+      <c r="A15" s="378"/>
+      <c r="B15" s="353" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4301,12 +4304,12 @@
         <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="357"/>
-      <c r="B16" s="383"/>
+      <c r="A16" s="378"/>
+      <c r="B16" s="354"/>
       <c r="C16" s="334" t="s">
         <v>211</v>
       </c>
@@ -4318,8 +4321,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358"/>
-      <c r="B17" s="384"/>
+      <c r="A17" s="379"/>
+      <c r="B17" s="355"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4331,10 +4334,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="359" t="s">
+      <c r="A18" s="380" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="385" t="s">
+      <c r="B18" s="356" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
@@ -4348,8 +4351,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="357"/>
-      <c r="B19" s="367"/>
+      <c r="A19" s="378"/>
+      <c r="B19" s="357"/>
       <c r="C19" s="334" t="s">
         <v>215</v>
       </c>
@@ -4361,8 +4364,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="358"/>
-      <c r="B20" s="386"/>
+      <c r="A20" s="379"/>
+      <c r="B20" s="358"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4374,10 +4377,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="359" t="s">
+      <c r="A21" s="380" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="353" t="s">
+      <c r="B21" s="359" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4390,15 +4393,15 @@
         <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H21" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="357"/>
-      <c r="B22" s="354"/>
+      <c r="A22" s="378"/>
+      <c r="B22" s="360"/>
       <c r="C22" s="334" t="s">
         <v>196</v>
       </c>
@@ -4410,8 +4413,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="357"/>
-      <c r="B23" s="370"/>
+      <c r="A23" s="378"/>
+      <c r="B23" s="361"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4423,8 +4426,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="369" t="s">
+      <c r="A24" s="378"/>
+      <c r="B24" s="362" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4437,15 +4440,15 @@
         <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H24" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="357"/>
-      <c r="B25" s="354"/>
+      <c r="A25" s="378"/>
+      <c r="B25" s="360"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4456,15 +4459,15 @@
         <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H25" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="357"/>
-      <c r="B26" s="370"/>
+      <c r="A26" s="378"/>
+      <c r="B26" s="361"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4475,15 +4478,15 @@
         <v>188</v>
       </c>
       <c r="G26" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H26" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="357"/>
-      <c r="B27" s="366" t="s">
+      <c r="A27" s="378"/>
+      <c r="B27" s="363" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4497,8 +4500,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="357"/>
-      <c r="B28" s="367"/>
+      <c r="A28" s="378"/>
+      <c r="B28" s="357"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4510,8 +4513,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="357"/>
-      <c r="B29" s="368"/>
+      <c r="A29" s="378"/>
+      <c r="B29" s="364"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4523,8 +4526,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="357"/>
-      <c r="B30" s="369" t="s">
+      <c r="A30" s="378"/>
+      <c r="B30" s="362" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4538,8 +4541,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="357"/>
-      <c r="B31" s="354"/>
+      <c r="A31" s="378"/>
+      <c r="B31" s="360"/>
       <c r="C31" s="334" t="s">
         <v>217</v>
       </c>
@@ -4550,15 +4553,15 @@
         <v>188</v>
       </c>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H31" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="358"/>
-      <c r="B32" s="355"/>
+      <c r="A32" s="379"/>
+      <c r="B32" s="373"/>
       <c r="C32" s="337" t="s">
         <v>197</v>
       </c>
@@ -4570,10 +4573,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="360" t="s">
+      <c r="A33" s="381" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="353" t="s">
+      <c r="B33" s="359" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4587,8 +4590,8 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="361"/>
-      <c r="B34" s="354"/>
+      <c r="A34" s="382"/>
+      <c r="B34" s="360"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4600,8 +4603,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="361"/>
-      <c r="B35" s="370"/>
+      <c r="A35" s="382"/>
+      <c r="B35" s="361"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
@@ -4612,12 +4615,12 @@
         <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="361"/>
-      <c r="B36" s="369" t="s">
+      <c r="A36" s="382"/>
+      <c r="B36" s="362" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
@@ -4631,8 +4634,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="361"/>
-      <c r="B37" s="354"/>
+      <c r="A37" s="382"/>
+      <c r="B37" s="360"/>
       <c r="C37" s="334" t="s">
         <v>216</v>
       </c>
@@ -4644,8 +4647,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="361"/>
-      <c r="B38" s="370"/>
+      <c r="A38" s="382"/>
+      <c r="B38" s="361"/>
       <c r="C38" s="333" t="s">
         <v>199</v>
       </c>
@@ -4657,8 +4660,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="361"/>
-      <c r="B39" s="369" t="s">
+      <c r="A39" s="382"/>
+      <c r="B39" s="362" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4675,8 +4678,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="361"/>
-      <c r="B40" s="354"/>
+      <c r="A40" s="382"/>
+      <c r="B40" s="360"/>
       <c r="C40" s="334" t="s">
         <v>200</v>
       </c>
@@ -4687,17 +4690,17 @@
         <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H40" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="361"/>
-      <c r="B41" s="370"/>
+      <c r="A41" s="382"/>
+      <c r="B41" s="361"/>
       <c r="C41" s="333" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D41" t="s">
         <v>188</v>
@@ -4706,12 +4709,12 @@
         <v>209</v>
       </c>
       <c r="G41" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="361"/>
-      <c r="B42" s="369" t="s">
+      <c r="A42" s="382"/>
+      <c r="B42" s="362" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="334" t="s">
@@ -4725,8 +4728,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="361"/>
-      <c r="B43" s="354"/>
+      <c r="A43" s="382"/>
+      <c r="B43" s="360"/>
       <c r="C43" s="334" t="s">
         <v>197</v>
       </c>
@@ -4738,8 +4741,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="362"/>
-      <c r="B44" s="355"/>
+      <c r="A44" s="383"/>
+      <c r="B44" s="373"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4751,10 +4754,10 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="359" t="s">
+      <c r="A45" s="380" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="353" t="s">
+      <c r="B45" s="359" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4768,10 +4771,10 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="357"/>
-      <c r="B46" s="354"/>
+      <c r="A46" s="378"/>
+      <c r="B46" s="360"/>
       <c r="C46" s="334" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D46" t="s">
         <v>188</v>
@@ -4781,8 +4784,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="357"/>
-      <c r="B47" s="370"/>
+      <c r="A47" s="378"/>
+      <c r="B47" s="361"/>
       <c r="C47" s="333" t="s">
         <v>210</v>
       </c>
@@ -4794,8 +4797,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="357"/>
-      <c r="B48" s="369" t="s">
+      <c r="A48" s="378"/>
+      <c r="B48" s="362" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
@@ -4808,15 +4811,15 @@
         <v>188</v>
       </c>
       <c r="G48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H48" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="357"/>
-      <c r="B49" s="354"/>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="378"/>
+      <c r="B49" s="360"/>
       <c r="C49" s="334" t="s">
         <v>175</v>
       </c>
@@ -4827,9 +4830,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="357"/>
-      <c r="B50" s="370"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="378"/>
+      <c r="B50" s="361"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -4840,9 +4843,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="357"/>
-      <c r="B51" s="369" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="378"/>
+      <c r="B51" s="362" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -4855,9 +4858,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="357"/>
-      <c r="B52" s="354"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="378"/>
+      <c r="B52" s="360"/>
       <c r="C52" s="334" t="s">
         <v>201</v>
       </c>
@@ -4865,15 +4868,18 @@
         <v>188</v>
       </c>
       <c r="F52" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G52" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="357"/>
-      <c r="B53" s="370"/>
+        <v>246</v>
+      </c>
+      <c r="H52" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="378"/>
+      <c r="B53" s="361"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
@@ -4884,9 +4890,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="357"/>
-      <c r="B54" s="369" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="378"/>
+      <c r="B54" s="362" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
@@ -4896,15 +4902,18 @@
         <v>188</v>
       </c>
       <c r="F54" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="357"/>
-      <c r="B55" s="354"/>
+        <v>242</v>
+      </c>
+      <c r="H54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="378"/>
+      <c r="B55" s="360"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -4915,27 +4924,30 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="358"/>
-      <c r="B56" s="355"/>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="379"/>
+      <c r="B56" s="373"/>
       <c r="C56" s="337" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D56" t="s">
         <v>188</v>
       </c>
       <c r="F56" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G56" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="363" t="s">
+        <v>241</v>
+      </c>
+      <c r="H56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="384" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="371" t="s">
+      <c r="B57" s="374" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -4948,9 +4960,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="364"/>
-      <c r="B58" s="372"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="385"/>
+      <c r="B58" s="375"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -4964,11 +4976,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="364"/>
-      <c r="B59" s="373"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="385"/>
+      <c r="B59" s="376"/>
       <c r="C59" s="333" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D59" t="s">
         <v>188</v>
@@ -4977,9 +4989,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="364"/>
-      <c r="B60" s="366" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="385"/>
+      <c r="B60" s="363" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -4995,9 +5007,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="364"/>
-      <c r="B61" s="367"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="385"/>
+      <c r="B61" s="357"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -5008,11 +5020,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="364"/>
-      <c r="B62" s="368"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="385"/>
+      <c r="B62" s="364"/>
       <c r="C62" s="333" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D62" t="s">
         <v>188</v>
@@ -5021,12 +5033,12 @@
         <v>209</v>
       </c>
       <c r="G62" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="364"/>
-      <c r="B63" s="369" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="385"/>
+      <c r="B63" s="362" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -5039,9 +5051,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="364"/>
-      <c r="B64" s="354"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="385"/>
+      <c r="B64" s="360"/>
       <c r="C64" s="334" t="s">
         <v>226</v>
       </c>
@@ -5055,9 +5067,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="364"/>
-      <c r="B65" s="370"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="385"/>
+      <c r="B65" s="361"/>
       <c r="C65" s="333" t="s">
         <v>210</v>
       </c>
@@ -5068,9 +5080,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="364"/>
-      <c r="B66" s="369" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="385"/>
+      <c r="B66" s="362" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
@@ -5083,9 +5095,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="364"/>
-      <c r="B67" s="354"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="385"/>
+      <c r="B67" s="360"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -5099,9 +5111,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="365"/>
-      <c r="B68" s="355"/>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="386"/>
+      <c r="B68" s="373"/>
       <c r="C68" s="334" t="s">
         <v>210</v>
       </c>
@@ -5112,11 +5124,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="359" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="380" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="353" t="s">
+      <c r="B69" s="359" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5129,9 +5141,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="357"/>
-      <c r="B70" s="354"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="378"/>
+      <c r="B70" s="360"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
@@ -5142,9 +5154,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="358"/>
-      <c r="B71" s="355"/>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="379"/>
+      <c r="B71" s="373"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
@@ -5152,21 +5164,24 @@
         <v>188</v>
       </c>
       <c r="F71" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G71" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="360" t="s">
+        <v>243</v>
+      </c>
+      <c r="H71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="381" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="353" t="s">
+      <c r="B72" s="359" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
         <v>188</v>
@@ -5175,9 +5190,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="361"/>
-      <c r="B73" s="354"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="382"/>
+      <c r="B73" s="360"/>
       <c r="C73" s="341" t="s">
         <v>206</v>
       </c>
@@ -5188,12 +5203,15 @@
         <v>188</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="361"/>
-      <c r="B74" s="354"/>
+        <v>230</v>
+      </c>
+      <c r="H73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="382"/>
+      <c r="B74" s="360"/>
       <c r="C74" s="341" t="s">
         <v>224</v>
       </c>
@@ -5204,9 +5222,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="362"/>
-      <c r="B75" s="355"/>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="383"/>
+      <c r="B75" s="373"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
@@ -5217,14 +5235,17 @@
         <v>188</v>
       </c>
       <c r="G75" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="360" t="s">
+        <v>244</v>
+      </c>
+      <c r="H75" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="381" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="353" t="s">
+      <c r="B76" s="359" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
@@ -5240,9 +5261,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="361"/>
-      <c r="B77" s="354"/>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="382"/>
+      <c r="B77" s="360"/>
       <c r="C77" s="341" t="s">
         <v>203</v>
       </c>
@@ -5253,9 +5274,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="362"/>
-      <c r="B78" s="355"/>
+    <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="383"/>
+      <c r="B78" s="373"/>
       <c r="C78" s="335" t="s">
         <v>222</v>
       </c>
@@ -5268,26 +5289,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5304,6 +5305,26 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5425,15 +5446,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="391" t="s">
+      <c r="A1" s="387" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="393"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
+      <c r="G1" s="389"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5463,7 +5484,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5476,7 +5497,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5487,7 +5508,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5498,7 +5519,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="387" t="s">
+      <c r="A6" s="403" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5511,7 +5532,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5535,7 +5556,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="387" t="s">
+      <c r="A9" s="403" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5548,7 +5569,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5559,7 +5580,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
+      <c r="A11" s="404"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5572,7 +5593,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="389"/>
+      <c r="A12" s="405"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5583,7 +5604,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="390" t="s">
+      <c r="A13" s="406" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5596,7 +5617,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
+      <c r="A14" s="404"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5607,7 +5628,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5629,19 +5650,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="388"/>
-      <c r="B16" s="397" t="s">
+      <c r="A16" s="404"/>
+      <c r="B16" s="393" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="394" t="s">
+      <c r="C16" s="390" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="401"/>
-      <c r="G16" s="404"/>
+      <c r="F16" s="397"/>
+      <c r="G16" s="400"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5653,15 +5674,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="388"/>
-      <c r="B17" s="398"/>
-      <c r="C17" s="395"/>
+      <c r="A17" s="404"/>
+      <c r="B17" s="394"/>
+      <c r="C17" s="391"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="405"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="401"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5673,15 +5694,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="388"/>
-      <c r="B18" s="398"/>
-      <c r="C18" s="395"/>
+      <c r="A18" s="404"/>
+      <c r="B18" s="394"/>
+      <c r="C18" s="391"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="402"/>
-      <c r="G18" s="405"/>
+      <c r="F18" s="398"/>
+      <c r="G18" s="401"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5693,15 +5714,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
-      <c r="B19" s="398"/>
-      <c r="C19" s="396"/>
+      <c r="A19" s="404"/>
+      <c r="B19" s="394"/>
+      <c r="C19" s="392"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="406"/>
+      <c r="F19" s="399"/>
+      <c r="G19" s="402"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5713,8 +5734,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
-      <c r="B20" s="399"/>
+      <c r="A20" s="404"/>
+      <c r="B20" s="395"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5735,8 +5756,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="389"/>
-      <c r="B21" s="400"/>
+      <c r="A21" s="405"/>
+      <c r="B21" s="396"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5757,7 +5778,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="387" t="s">
+      <c r="A22" s="403" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5779,7 +5800,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5799,7 +5820,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="388"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5819,7 +5840,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="389"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5830,7 +5851,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="387" t="s">
+      <c r="A26" s="403" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -5843,7 +5864,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="388"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -5854,7 +5875,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -5865,7 +5886,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="389"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6240,17 +6261,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6320,7 +6341,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="387" t="s">
+      <c r="A3" s="403" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6333,7 +6354,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6344,7 +6365,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6355,7 +6376,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="387" t="s">
+      <c r="A6" s="403" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6368,7 +6389,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6392,7 +6413,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="387" t="s">
+      <c r="A9" s="403" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6405,7 +6426,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
@@ -6416,45 +6437,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="401"/>
-      <c r="G10" s="404"/>
+      <c r="F10" s="397"/>
+      <c r="G10" s="400"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
-      <c r="B11" s="399"/>
+      <c r="A11" s="404"/>
+      <c r="B11" s="395"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
-      <c r="B12" s="399"/>
+      <c r="A12" s="404"/>
+      <c r="B12" s="395"/>
       <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="402"/>
-      <c r="G12" s="405"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="401"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
-      <c r="B13" s="399"/>
+      <c r="A13" s="404"/>
+      <c r="B13" s="395"/>
       <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="406"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
+      <c r="A14" s="404"/>
       <c r="B14" s="411"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6467,7 +6488,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6482,7 +6503,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6493,7 +6514,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="390" t="s">
+      <c r="A17" s="406" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6506,7 +6527,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="388"/>
+      <c r="A18" s="404"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6517,7 +6538,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6530,7 +6551,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="410" t="s">
         <v>32</v>
       </c>
@@ -6541,46 +6562,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="401"/>
-      <c r="G20" s="404"/>
+      <c r="F20" s="397"/>
+      <c r="G20" s="400"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="388"/>
-      <c r="B21" s="399"/>
+      <c r="A21" s="404"/>
+      <c r="B21" s="395"/>
       <c r="C21" s="413"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="402"/>
-      <c r="G21" s="405"/>
+      <c r="F21" s="398"/>
+      <c r="G21" s="401"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="388"/>
-      <c r="B22" s="399"/>
+      <c r="A22" s="404"/>
+      <c r="B22" s="395"/>
       <c r="C22" s="413"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="402"/>
-      <c r="G22" s="405"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="401"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
-      <c r="B23" s="399"/>
+      <c r="A23" s="404"/>
+      <c r="B23" s="395"/>
       <c r="C23" s="414"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="406"/>
+      <c r="F23" s="399"/>
+      <c r="G23" s="402"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="388"/>
-      <c r="B24" s="399"/>
+      <c r="A24" s="404"/>
+      <c r="B24" s="395"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6592,8 +6613,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="388"/>
-      <c r="B25" s="399"/>
+      <c r="A25" s="404"/>
+      <c r="B25" s="395"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6605,7 +6626,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="389"/>
+      <c r="A26" s="405"/>
       <c r="B26" s="415"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6619,7 +6640,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="387" t="s">
+      <c r="A27" s="403" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6633,7 +6654,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6644,7 +6665,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="388"/>
+      <c r="A29" s="404"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6655,7 +6676,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="389"/>
+      <c r="A30" s="405"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6666,7 +6687,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="387" t="s">
+      <c r="A31" s="403" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6679,7 +6700,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="388"/>
+      <c r="A32" s="404"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6690,7 +6711,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="388"/>
+      <c r="A33" s="404"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6701,7 +6722,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="389"/>
+      <c r="A34" s="405"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7084,6 +7105,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -7093,12 +7120,6 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7168,7 +7189,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7181,7 +7202,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7192,7 +7213,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7203,7 +7224,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7216,7 +7237,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7240,7 +7261,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7253,7 +7274,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
@@ -7264,45 +7285,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="401"/>
-      <c r="G10" s="404"/>
+      <c r="F10" s="397"/>
+      <c r="G10" s="400"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
-      <c r="B11" s="399"/>
+      <c r="A11" s="404"/>
+      <c r="B11" s="395"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
-      <c r="B12" s="399"/>
+      <c r="A12" s="404"/>
+      <c r="B12" s="395"/>
       <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="402"/>
-      <c r="G12" s="405"/>
+      <c r="F12" s="398"/>
+      <c r="G12" s="401"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
-      <c r="B13" s="399"/>
+      <c r="A13" s="404"/>
+      <c r="B13" s="395"/>
       <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="406"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
-      <c r="B14" s="399"/>
+      <c r="A14" s="404"/>
+      <c r="B14" s="395"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7314,7 +7335,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="411"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7327,7 +7348,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="388"/>
+      <c r="A16" s="404"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7338,7 +7359,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="389"/>
+      <c r="A17" s="405"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7362,7 +7383,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7373,7 +7394,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7384,7 +7405,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="388"/>
+      <c r="A21" s="404"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7395,7 +7416,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="387" t="s">
+      <c r="A22" s="403" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7408,7 +7429,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7419,7 +7440,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="388"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7430,7 +7451,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="389"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7441,7 +7462,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7454,7 +7475,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="388"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7465,7 +7486,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7476,7 +7497,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="389"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -7880,17 +7901,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7964,7 +7985,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="387" t="s">
+      <c r="A3" s="403" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -7985,7 +8006,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -7996,8 +8017,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="388"/>
-      <c r="B5" s="425" t="s">
+      <c r="A5" s="404"/>
+      <c r="B5" s="417" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -8011,8 +8032,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="389"/>
-      <c r="B6" s="426"/>
+      <c r="A6" s="405"/>
+      <c r="B6" s="418"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8024,7 +8045,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="388" t="s">
+      <c r="A7" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8037,7 +8058,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="389"/>
+      <c r="A8" s="405"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8051,7 +8072,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="427" t="s">
+      <c r="B9" s="419" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8066,7 +8087,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="426"/>
+      <c r="B10" s="418"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8078,7 +8099,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="388" t="s">
+      <c r="A11" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8091,7 +8112,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
+      <c r="A12" s="404"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8106,7 +8127,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
+      <c r="A13" s="404"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8117,7 +8138,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8149,7 +8170,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="388"/>
+      <c r="A16" s="404"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8160,7 +8181,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="388"/>
+      <c r="A17" s="404"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8171,7 +8192,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="389"/>
+      <c r="A18" s="405"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8182,7 +8203,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="388" t="s">
+      <c r="A19" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8199,7 +8220,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8210,7 +8231,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="388"/>
+      <c r="A21" s="404"/>
       <c r="B21" s="410" t="s">
         <v>81</v>
       </c>
@@ -8225,7 +8246,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="388"/>
+      <c r="A22" s="404"/>
       <c r="B22" s="411"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8238,7 +8259,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8253,7 +8274,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="388" t="s">
+      <c r="A24" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8270,7 +8291,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="388"/>
+      <c r="A25" s="404"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8281,7 +8302,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="388"/>
+      <c r="A26" s="404"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8296,7 +8317,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8307,13 +8328,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="422" t="s">
+      <c r="A28" s="425" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="420" t="s">
+      <c r="B28" s="423" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="421" t="s">
+      <c r="C28" s="424" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8324,8 +8345,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="423"/>
-      <c r="B29" s="399"/>
+      <c r="A29" s="426"/>
+      <c r="B29" s="395"/>
       <c r="C29" s="413"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8335,8 +8356,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="423"/>
-      <c r="B30" s="399"/>
+      <c r="A30" s="426"/>
+      <c r="B30" s="395"/>
       <c r="C30" s="413"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8346,8 +8367,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="423"/>
-      <c r="B31" s="399"/>
+      <c r="A31" s="426"/>
+      <c r="B31" s="395"/>
       <c r="C31" s="414"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8357,8 +8378,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="423"/>
-      <c r="B32" s="399"/>
+      <c r="A32" s="426"/>
+      <c r="B32" s="395"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8370,7 +8391,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="424"/>
+      <c r="A33" s="427"/>
       <c r="B33" s="415"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8383,13 +8404,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="417" t="s">
+      <c r="A34" s="420" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="420" t="s">
+      <c r="B34" s="423" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="421" t="s">
+      <c r="C34" s="424" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8400,8 +8421,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="418"/>
-      <c r="B35" s="399"/>
+      <c r="A35" s="421"/>
+      <c r="B35" s="395"/>
       <c r="C35" s="413"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8411,8 +8432,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="418"/>
-      <c r="B36" s="399"/>
+      <c r="A36" s="421"/>
+      <c r="B36" s="395"/>
       <c r="C36" s="413"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8422,8 +8443,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="418"/>
-      <c r="B37" s="399"/>
+      <c r="A37" s="421"/>
+      <c r="B37" s="395"/>
       <c r="C37" s="414"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8433,8 +8454,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="418"/>
-      <c r="B38" s="399"/>
+      <c r="A38" s="421"/>
+      <c r="B38" s="395"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8446,8 +8467,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="418"/>
-      <c r="B39" s="399"/>
+      <c r="A39" s="421"/>
+      <c r="B39" s="395"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8459,8 +8480,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="418"/>
-      <c r="B40" s="399"/>
+      <c r="A40" s="421"/>
+      <c r="B40" s="395"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8472,8 +8493,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="418"/>
-      <c r="B41" s="399"/>
+      <c r="A41" s="421"/>
+      <c r="B41" s="395"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8485,7 +8506,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="419"/>
+      <c r="A42" s="422"/>
       <c r="B42" s="415"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8498,13 +8519,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="417" t="s">
+      <c r="A43" s="420" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="420" t="s">
+      <c r="B43" s="423" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="421" t="s">
+      <c r="C43" s="424" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8515,8 +8536,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="418"/>
-      <c r="B44" s="399"/>
+      <c r="A44" s="421"/>
+      <c r="B44" s="395"/>
       <c r="C44" s="413"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8526,8 +8547,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="418"/>
-      <c r="B45" s="399"/>
+      <c r="A45" s="421"/>
+      <c r="B45" s="395"/>
       <c r="C45" s="413"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8537,8 +8558,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="418"/>
-      <c r="B46" s="399"/>
+      <c r="A46" s="421"/>
+      <c r="B46" s="395"/>
       <c r="C46" s="414"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8548,8 +8569,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="418"/>
-      <c r="B47" s="399"/>
+      <c r="A47" s="421"/>
+      <c r="B47" s="395"/>
       <c r="C47" s="413" t="s">
         <v>133</v>
       </c>
@@ -8561,8 +8582,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="418"/>
-      <c r="B48" s="399"/>
+      <c r="A48" s="421"/>
+      <c r="B48" s="395"/>
       <c r="C48" s="413"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8572,8 +8593,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="418"/>
-      <c r="B49" s="399"/>
+      <c r="A49" s="421"/>
+      <c r="B49" s="395"/>
       <c r="C49" s="413"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8583,8 +8604,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="418"/>
-      <c r="B50" s="399"/>
+      <c r="A50" s="421"/>
+      <c r="B50" s="395"/>
       <c r="C50" s="414"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8594,8 +8615,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="418"/>
-      <c r="B51" s="399"/>
+      <c r="A51" s="421"/>
+      <c r="B51" s="395"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8607,7 +8628,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="419"/>
+      <c r="A52" s="422"/>
       <c r="B52" s="415"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -9004,17 +9025,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -9025,6 +9035,17 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9094,7 +9115,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9107,7 +9128,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9118,7 +9139,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9129,7 +9150,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9142,7 +9163,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9169,10 +9190,10 @@
       <c r="A9" s="430" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="399" t="s">
+      <c r="B9" s="395" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="395" t="s">
+      <c r="C9" s="391" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9184,40 +9205,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="430"/>
-      <c r="B10" s="399"/>
-      <c r="C10" s="395"/>
+      <c r="B10" s="395"/>
+      <c r="C10" s="391"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="430"/>
-      <c r="B11" s="399"/>
-      <c r="C11" s="395"/>
+      <c r="B11" s="395"/>
+      <c r="C11" s="391"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="430"/>
-      <c r="B12" s="399"/>
-      <c r="C12" s="396"/>
+      <c r="B12" s="395"/>
+      <c r="C12" s="392"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="430"/>
-      <c r="B13" s="399"/>
+      <c r="B13" s="395"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9290,7 +9311,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9301,7 +9322,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="404"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9314,7 +9335,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="389"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9325,7 +9346,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9338,7 +9359,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9349,7 +9370,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="388"/>
+      <c r="A24" s="404"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9360,7 +9381,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="389"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9371,7 +9392,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9384,7 +9405,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="388"/>
+      <c r="A27" s="404"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9395,7 +9416,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="404"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9406,7 +9427,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="389"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9777,17 +9798,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9818,15 +9839,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="434" t="s">
+      <c r="A1" s="454" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="435"/>
+      <c r="B1" s="454"/>
+      <c r="C1" s="454"/>
+      <c r="D1" s="454"/>
+      <c r="E1" s="454"/>
+      <c r="F1" s="454"/>
+      <c r="G1" s="455"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9852,13 +9873,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="436" t="s">
+      <c r="A3" s="434" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="427" t="s">
+      <c r="B3" s="419" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="421" t="s">
+      <c r="C3" s="424" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -9869,8 +9890,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="437"/>
-      <c r="B4" s="439"/>
+      <c r="A4" s="435"/>
+      <c r="B4" s="440"/>
       <c r="C4" s="413"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -9880,8 +9901,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="437"/>
-      <c r="B5" s="439"/>
+      <c r="A5" s="435"/>
+      <c r="B5" s="440"/>
       <c r="C5" s="413"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -9891,8 +9912,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="437"/>
-      <c r="B6" s="439"/>
+      <c r="A6" s="435"/>
+      <c r="B6" s="440"/>
       <c r="C6" s="414"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -9902,8 +9923,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="437"/>
-      <c r="B7" s="439"/>
+      <c r="A7" s="435"/>
+      <c r="B7" s="440"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -9915,8 +9936,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="437"/>
-      <c r="B8" s="440"/>
+      <c r="A8" s="435"/>
+      <c r="B8" s="436"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -9928,8 +9949,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="437"/>
-      <c r="B9" s="425" t="s">
+      <c r="A9" s="435"/>
+      <c r="B9" s="417" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="412" t="s">
@@ -9938,137 +9959,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="401"/>
-      <c r="F9" s="401"/>
-      <c r="G9" s="404"/>
+      <c r="E9" s="397"/>
+      <c r="F9" s="397"/>
+      <c r="G9" s="400"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="437"/>
-      <c r="B10" s="439"/>
+      <c r="A10" s="435"/>
+      <c r="B10" s="440"/>
       <c r="C10" s="413"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="402"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="E10" s="398"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="437"/>
-      <c r="B11" s="439"/>
+      <c r="A11" s="435"/>
+      <c r="B11" s="440"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="402"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="E11" s="398"/>
+      <c r="F11" s="398"/>
+      <c r="G11" s="401"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="437"/>
-      <c r="B12" s="439"/>
+      <c r="A12" s="435"/>
+      <c r="B12" s="440"/>
       <c r="C12" s="414"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="403"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="E12" s="399"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="437"/>
-      <c r="B13" s="439"/>
+      <c r="A13" s="435"/>
+      <c r="B13" s="440"/>
       <c r="C13" s="413" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="402"/>
-      <c r="F13" s="402"/>
-      <c r="G13" s="405"/>
+      <c r="E13" s="398"/>
+      <c r="F13" s="398"/>
+      <c r="G13" s="401"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="437"/>
-      <c r="B14" s="439"/>
+      <c r="A14" s="435"/>
+      <c r="B14" s="440"/>
       <c r="C14" s="413"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="402"/>
-      <c r="F14" s="402"/>
-      <c r="G14" s="405"/>
+      <c r="E14" s="398"/>
+      <c r="F14" s="398"/>
+      <c r="G14" s="401"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="437"/>
-      <c r="B15" s="439"/>
+      <c r="A15" s="435"/>
+      <c r="B15" s="440"/>
       <c r="C15" s="413"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="402"/>
-      <c r="F15" s="402"/>
-      <c r="G15" s="405"/>
+      <c r="E15" s="398"/>
+      <c r="F15" s="398"/>
+      <c r="G15" s="401"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="437"/>
-      <c r="B16" s="439"/>
+      <c r="A16" s="435"/>
+      <c r="B16" s="440"/>
       <c r="C16" s="414"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
-      <c r="G16" s="406"/>
+      <c r="E16" s="399"/>
+      <c r="F16" s="399"/>
+      <c r="G16" s="402"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="437"/>
-      <c r="B17" s="439"/>
+      <c r="A17" s="435"/>
+      <c r="B17" s="440"/>
       <c r="C17" s="413" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="402"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="405"/>
+      <c r="E17" s="398"/>
+      <c r="F17" s="398"/>
+      <c r="G17" s="401"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="437"/>
-      <c r="B18" s="439"/>
+      <c r="A18" s="435"/>
+      <c r="B18" s="440"/>
       <c r="C18" s="413"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="402"/>
-      <c r="F18" s="402"/>
-      <c r="G18" s="405"/>
+      <c r="E18" s="398"/>
+      <c r="F18" s="398"/>
+      <c r="G18" s="401"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="437"/>
-      <c r="B19" s="439"/>
+      <c r="A19" s="435"/>
+      <c r="B19" s="440"/>
       <c r="C19" s="413"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="402"/>
-      <c r="F19" s="402"/>
-      <c r="G19" s="405"/>
+      <c r="E19" s="398"/>
+      <c r="F19" s="398"/>
+      <c r="G19" s="401"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="437"/>
-      <c r="B20" s="439"/>
-      <c r="C20" s="441"/>
+      <c r="A20" s="435"/>
+      <c r="B20" s="440"/>
+      <c r="C20" s="443"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="442"/>
-      <c r="F20" s="442"/>
-      <c r="G20" s="443"/>
+      <c r="E20" s="447"/>
+      <c r="F20" s="447"/>
+      <c r="G20" s="441"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="438"/>
+      <c r="A21" s="442"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -10079,10 +10100,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="444" t="s">
+      <c r="A22" s="448" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="427" t="s">
+      <c r="B22" s="419" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -10094,8 +10115,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="445"/>
-      <c r="B23" s="439"/>
+      <c r="A23" s="449"/>
+      <c r="B23" s="440"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -10105,54 +10126,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="445"/>
-      <c r="B24" s="439"/>
+      <c r="A24" s="449"/>
+      <c r="B24" s="440"/>
       <c r="C24" s="413" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="402"/>
-      <c r="F24" s="402"/>
-      <c r="G24" s="405"/>
+      <c r="E24" s="398"/>
+      <c r="F24" s="398"/>
+      <c r="G24" s="401"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="445"/>
-      <c r="B25" s="439"/>
+      <c r="A25" s="449"/>
+      <c r="B25" s="440"/>
       <c r="C25" s="413"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="402"/>
-      <c r="F25" s="402"/>
-      <c r="G25" s="405"/>
+      <c r="E25" s="398"/>
+      <c r="F25" s="398"/>
+      <c r="G25" s="401"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="445"/>
-      <c r="B26" s="439"/>
+      <c r="A26" s="449"/>
+      <c r="B26" s="440"/>
       <c r="C26" s="413"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="402"/>
-      <c r="F26" s="402"/>
-      <c r="G26" s="405"/>
+      <c r="E26" s="398"/>
+      <c r="F26" s="398"/>
+      <c r="G26" s="401"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="445"/>
-      <c r="B27" s="440"/>
-      <c r="C27" s="441"/>
+      <c r="A27" s="449"/>
+      <c r="B27" s="436"/>
+      <c r="C27" s="443"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="442"/>
-      <c r="F27" s="442"/>
-      <c r="G27" s="443"/>
+      <c r="E27" s="447"/>
+      <c r="F27" s="447"/>
+      <c r="G27" s="441"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="445"/>
-      <c r="B28" s="439" t="s">
+      <c r="A28" s="449"/>
+      <c r="B28" s="440" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10164,50 +10185,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="445"/>
-      <c r="B29" s="439"/>
+      <c r="A29" s="449"/>
+      <c r="B29" s="440"/>
       <c r="C29" s="413" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="402"/>
-      <c r="F29" s="402"/>
-      <c r="G29" s="405"/>
+      <c r="E29" s="398"/>
+      <c r="F29" s="398"/>
+      <c r="G29" s="401"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="445"/>
-      <c r="B30" s="439"/>
+      <c r="A30" s="449"/>
+      <c r="B30" s="440"/>
       <c r="C30" s="413"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="402"/>
-      <c r="F30" s="402"/>
-      <c r="G30" s="405"/>
+      <c r="E30" s="398"/>
+      <c r="F30" s="398"/>
+      <c r="G30" s="401"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="445"/>
-      <c r="B31" s="439"/>
+      <c r="A31" s="449"/>
+      <c r="B31" s="440"/>
       <c r="C31" s="413"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="402"/>
-      <c r="F31" s="402"/>
-      <c r="G31" s="405"/>
+      <c r="E31" s="398"/>
+      <c r="F31" s="398"/>
+      <c r="G31" s="401"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="446"/>
-      <c r="B32" s="426"/>
-      <c r="C32" s="447"/>
+      <c r="A32" s="450"/>
+      <c r="B32" s="418"/>
+      <c r="C32" s="451"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="448"/>
-      <c r="F32" s="448"/>
-      <c r="G32" s="449"/>
+      <c r="E32" s="452"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="453"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10223,10 +10244,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="436" t="s">
+      <c r="A34" s="434" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="450" t="s">
+      <c r="B34" s="444" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10238,8 +10259,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="437"/>
-      <c r="B35" s="451"/>
+      <c r="A35" s="435"/>
+      <c r="B35" s="445"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10249,53 +10270,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="437"/>
-      <c r="B36" s="451"/>
-      <c r="C36" s="441" t="s">
+      <c r="A36" s="435"/>
+      <c r="B36" s="445"/>
+      <c r="C36" s="443" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="402"/>
-      <c r="F36" s="402"/>
-      <c r="G36" s="405"/>
+      <c r="E36" s="398"/>
+      <c r="F36" s="398"/>
+      <c r="G36" s="401"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="437"/>
-      <c r="B37" s="451"/>
-      <c r="C37" s="452"/>
+      <c r="A37" s="435"/>
+      <c r="B37" s="445"/>
+      <c r="C37" s="446"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="402"/>
-      <c r="F37" s="402"/>
-      <c r="G37" s="405"/>
+      <c r="E37" s="398"/>
+      <c r="F37" s="398"/>
+      <c r="G37" s="401"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="437"/>
-      <c r="B38" s="451"/>
-      <c r="C38" s="452"/>
+      <c r="A38" s="435"/>
+      <c r="B38" s="445"/>
+      <c r="C38" s="446"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="402"/>
-      <c r="F38" s="402"/>
-      <c r="G38" s="405"/>
+      <c r="E38" s="398"/>
+      <c r="F38" s="398"/>
+      <c r="G38" s="401"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="437"/>
-      <c r="B39" s="451"/>
-      <c r="C39" s="452"/>
+      <c r="A39" s="435"/>
+      <c r="B39" s="445"/>
+      <c r="C39" s="446"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="442"/>
-      <c r="F39" s="442"/>
-      <c r="G39" s="443"/>
+      <c r="E39" s="447"/>
+      <c r="F39" s="447"/>
+      <c r="G39" s="441"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="437"/>
+      <c r="A40" s="435"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10306,7 +10327,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="437"/>
+      <c r="A41" s="435"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10317,7 +10338,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="438"/>
+      <c r="A42" s="442"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10328,7 +10349,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="436" t="s">
+      <c r="A43" s="434" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10341,8 +10362,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="437"/>
-      <c r="B44" s="425" t="s">
+      <c r="A44" s="435"/>
+      <c r="B44" s="417" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10354,8 +10375,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="437"/>
-      <c r="B45" s="439"/>
+      <c r="A45" s="435"/>
+      <c r="B45" s="440"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10365,8 +10386,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="437"/>
-      <c r="B46" s="439"/>
+      <c r="A46" s="435"/>
+      <c r="B46" s="440"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10376,8 +10397,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="437"/>
-      <c r="B47" s="439"/>
+      <c r="A47" s="435"/>
+      <c r="B47" s="440"/>
       <c r="C47" s="413" t="s">
         <v>58</v>
       </c>
@@ -10389,8 +10410,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="437"/>
-      <c r="B48" s="439"/>
+      <c r="A48" s="435"/>
+      <c r="B48" s="440"/>
       <c r="C48" s="413"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10400,8 +10421,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="437"/>
-      <c r="B49" s="439"/>
+      <c r="A49" s="435"/>
+      <c r="B49" s="440"/>
       <c r="C49" s="413"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10411,9 +10432,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="437"/>
-      <c r="B50" s="440"/>
-      <c r="C50" s="441"/>
+      <c r="A50" s="435"/>
+      <c r="B50" s="436"/>
+      <c r="C50" s="443"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10422,8 +10443,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="437"/>
-      <c r="B51" s="425" t="s">
+      <c r="A51" s="435"/>
+      <c r="B51" s="417" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="412" t="s">
@@ -10437,8 +10458,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="437"/>
-      <c r="B52" s="439"/>
+      <c r="A52" s="435"/>
+      <c r="B52" s="440"/>
       <c r="C52" s="413"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10448,8 +10469,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="437"/>
-      <c r="B53" s="439"/>
+      <c r="A53" s="435"/>
+      <c r="B53" s="440"/>
       <c r="C53" s="413"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10459,8 +10480,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="437"/>
-      <c r="B54" s="439"/>
+      <c r="A54" s="435"/>
+      <c r="B54" s="440"/>
       <c r="C54" s="414"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10470,8 +10491,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="437"/>
-      <c r="B55" s="439"/>
+      <c r="A55" s="435"/>
+      <c r="B55" s="440"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10481,8 +10502,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="437"/>
-      <c r="B56" s="440"/>
+      <c r="A56" s="435"/>
+      <c r="B56" s="436"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10492,8 +10513,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="437"/>
-      <c r="B57" s="439" t="s">
+      <c r="A57" s="435"/>
+      <c r="B57" s="440" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10505,8 +10526,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="437"/>
-      <c r="B58" s="439"/>
+      <c r="A58" s="435"/>
+      <c r="B58" s="440"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10516,8 +10537,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="438"/>
-      <c r="B59" s="426"/>
+      <c r="A59" s="442"/>
+      <c r="B59" s="418"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10527,7 +10548,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="436" t="s">
+      <c r="A60" s="434" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10540,8 +10561,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="437"/>
-      <c r="B61" s="425" t="s">
+      <c r="A61" s="435"/>
+      <c r="B61" s="417" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10553,8 +10574,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="437"/>
-      <c r="B62" s="440"/>
+      <c r="A62" s="435"/>
+      <c r="B62" s="436"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10564,7 +10585,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="437"/>
+      <c r="A63" s="435"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10575,7 +10596,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="437"/>
+      <c r="A64" s="435"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10586,7 +10607,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="453" t="s">
+      <c r="A65" s="437" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10599,8 +10620,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="454"/>
-      <c r="B66" s="425" t="s">
+      <c r="A66" s="438"/>
+      <c r="B66" s="417" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10612,8 +10633,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="454"/>
-      <c r="B67" s="439"/>
+      <c r="A67" s="438"/>
+      <c r="B67" s="440"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10623,8 +10644,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="454"/>
-      <c r="B68" s="440"/>
+      <c r="A68" s="438"/>
+      <c r="B68" s="436"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10634,7 +10655,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="454"/>
+      <c r="A69" s="438"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10645,8 +10666,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="454"/>
-      <c r="B70" s="425" t="s">
+      <c r="A70" s="438"/>
+      <c r="B70" s="417" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10658,8 +10679,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="454"/>
-      <c r="B71" s="439"/>
+      <c r="A71" s="438"/>
+      <c r="B71" s="440"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10669,8 +10690,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="455"/>
-      <c r="B72" s="426"/>
+      <c r="A72" s="439"/>
+      <c r="B72" s="418"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10720,35 +10741,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10765,6 +10757,35 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10834,7 +10855,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -10847,7 +10868,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="404"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -10858,7 +10879,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="405"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -10869,7 +10890,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -10882,7 +10903,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="405"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -10906,7 +10927,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -10919,7 +10940,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="404"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -10930,7 +10951,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
+      <c r="A11" s="404"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -10943,7 +10964,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="389"/>
+      <c r="A12" s="405"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -10967,7 +10988,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
+      <c r="A14" s="404"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -10978,7 +10999,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="404"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -10991,7 +11012,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -11002,7 +11023,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="388" t="s">
+      <c r="A17" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -11015,7 +11036,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="388"/>
+      <c r="A18" s="404"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -11026,7 +11047,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="404"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -11037,7 +11058,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -11048,7 +11069,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="388" t="s">
+      <c r="A21" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -11061,7 +11082,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="388"/>
+      <c r="A22" s="404"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -11072,7 +11093,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="404"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -11083,7 +11104,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A9CCE6-B0D1-4C26-9956-03CA92C0C0E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2934DD7-BF4C-4935-B35E-58AF1028D5F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 github user:  byui-english-ed</t>
       </text>
     </comment>
-    <comment ref="N1" authorId="2" shapeId="0" xr:uid="{BF08BEFD-057D-45EF-9016-3B13D59DEEEB}">
+    <comment ref="M1" authorId="2" shapeId="0" xr:uid="{BF08BEFD-057D-45EF-9016-3B13D59DEEEB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="251">
   <si>
     <t>ENG 251</t>
   </si>
@@ -820,9 +820,6 @@
   </si>
   <si>
     <t>Google Drive Access</t>
-  </si>
-  <si>
-    <t>!!!</t>
   </si>
   <si>
     <t>Literature Circles - LitLinks role #356</t>
@@ -903,9 +900,6 @@
     <t xml:space="preserve">I went ahead and added a professional disposition assessment I found on canvas. </t>
   </si>
   <si>
-    <t>Solved</t>
-  </si>
-  <si>
     <t>It wasn't used last semester and it looks like this one too. Any substitute? Should I contact Bro Chandler? (solution: just add a note for now)</t>
   </si>
   <si>
@@ -921,9 +915,6 @@
     <t>poor sample missing (solution: added a note)</t>
   </si>
   <si>
-    <t>solved</t>
-  </si>
-  <si>
     <t>Sent email to Brother Benitez (solution: check email)</t>
   </si>
   <si>
@@ -945,13 +936,31 @@
     <t>attendance is not available on canvas</t>
   </si>
   <si>
-    <t>Sent email to Sister Glenn. Don't know what to add for Fall 2020, but at least we got three samples already (2 pptx from Fall 2019 and 1 from Winter 20)</t>
-  </si>
-  <si>
     <t>Contact bro Chandler too: what evidence use this semester? It looks like they didn't have an assignment similar to  Grading packet. Durfee said she didn't use any last semester. Solution: I just added a not).</t>
   </si>
   <si>
     <t>Sent email to Sister Tobler/ Sent email to Glenn to see what's up.</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>Highlighting</t>
+  </si>
+  <si>
+    <t>New Copy/Path</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Sent email to Sister Tobler/ Sent email to Glenn to see what's up (Solution: got the email from Sis. Tobler)</t>
+  </si>
+  <si>
+    <t>Sent email to Sister Glenn. Don't know what to add for Fall 2020, but at least we got three samples already (2 pptx from Fall 2019 and 1 from Winter 20) (Solution: Sis Durfee sent a power point)</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2830,6 +2839,93 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2842,95 +2938,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2980,18 +3001,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3022,6 +3031,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3031,30 +3064,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3073,15 +3082,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3091,53 +3148,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3555,7 +3567,7 @@
     <text>gmail/goodreads/github (byui.english.ed@gmail.com, password:byui2019)
 github user:  byui-english-ed</text>
   </threadedComment>
-  <threadedComment ref="N1" dT="2021-01-31T14:16:50.66" personId="{00000000-0000-0000-0000-000000000000}" id="{BF08BEFD-057D-45EF-9016-3B13D59DEEEB}">
+  <threadedComment ref="M1" dT="2021-01-31T14:16:50.66" personId="{00000000-0000-0000-0000-000000000000}" id="{BF08BEFD-057D-45EF-9016-3B13D59DEEEB}">
     <text>byui.english.ed@gmail.com
 password: byui2019</text>
   </threadedComment>
@@ -4045,13 +4057,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4061,22 +4073,25 @@
     <col min="3" max="3" width="83" style="330" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="365" t="s">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="374" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="366"/>
-      <c r="C1" s="367"/>
+      <c r="B1" s="375"/>
+      <c r="C1" s="376"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
-      <c r="N1" t="s">
+      <c r="M1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="331" t="s">
         <v>6</v>
       </c>
@@ -4094,14 +4109,23 @@
         <v>207</v>
       </c>
       <c r="G2" s="347" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="377" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="347" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="347" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="347" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="368" t="s">
+      <c r="B3" s="377" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4113,10 +4137,19 @@
       <c r="F3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="378"/>
-      <c r="B4" s="369"/>
+      <c r="H3" s="456" t="s">
+        <v>247</v>
+      </c>
+      <c r="I3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="357"/>
+      <c r="B4" s="378"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4126,10 +4159,17 @@
       <c r="F4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="378"/>
-      <c r="B5" s="370"/>
+      <c r="H4" s="456"/>
+      <c r="I4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="357"/>
+      <c r="B5" s="379"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4140,19 +4180,23 @@
         <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
-      </c>
-      <c r="H5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="378"/>
-      <c r="B6" s="368" t="s">
+        <v>211</v>
+      </c>
+      <c r="H5" s="456"/>
+      <c r="I5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="357"/>
+      <c r="B6" s="377" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
         <v>188</v>
@@ -4161,17 +4205,17 @@
         <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="378"/>
-      <c r="B7" s="369"/>
+        <v>218</v>
+      </c>
+      <c r="H6" s="456" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="357"/>
+      <c r="B7" s="378"/>
       <c r="C7" s="341" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" t="s">
         <v>188</v>
@@ -4179,10 +4223,11 @@
       <c r="F7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="378"/>
-      <c r="B8" s="370"/>
+      <c r="H7" s="456"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="357"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4192,10 +4237,11 @@
       <c r="F8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="378"/>
-      <c r="B9" s="368" t="s">
+      <c r="H8" s="456"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="357"/>
+      <c r="B9" s="377" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4208,17 +4254,17 @@
         <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="378"/>
-      <c r="B10" s="369"/>
+        <v>230</v>
+      </c>
+      <c r="H9" s="456" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="357"/>
+      <c r="B10" s="378"/>
       <c r="C10" s="334" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
         <v>188</v>
@@ -4229,10 +4275,11 @@
       <c r="G10" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="379"/>
-      <c r="B11" s="371"/>
+      <c r="H10" s="456"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="358"/>
+      <c r="B11" s="380"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4242,16 +4289,17 @@
       <c r="F11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="380" t="s">
+      <c r="H11" s="456"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="359" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="372" t="s">
+      <c r="B12" s="381" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
         <v>188</v>
@@ -4259,10 +4307,11 @@
       <c r="F12" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="378"/>
-      <c r="B13" s="369"/>
+      <c r="H12" s="456"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="357"/>
+      <c r="B13" s="378"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4272,10 +4321,11 @@
       <c r="F13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="378"/>
-      <c r="B14" s="370"/>
+      <c r="H13" s="456"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="357"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="333" t="s">
         <v>195</v>
       </c>
@@ -4285,10 +4335,11 @@
       <c r="F14" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="378"/>
-      <c r="B15" s="353" t="s">
+      <c r="H14" s="456"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="357"/>
+      <c r="B15" s="382" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4301,17 +4352,15 @@
         <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>220</v>
-      </c>
-      <c r="H15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="378"/>
-      <c r="B16" s="354"/>
+        <v>219</v>
+      </c>
+      <c r="H15" s="456"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="357"/>
+      <c r="B16" s="383"/>
       <c r="C16" s="334" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s">
         <v>188</v>
@@ -4319,10 +4368,11 @@
       <c r="F16" t="s">
         <v>188</v>
       </c>
+      <c r="H16" s="456"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="379"/>
-      <c r="B17" s="355"/>
+      <c r="A17" s="358"/>
+      <c r="B17" s="384"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4332,16 +4382,17 @@
       <c r="F17" t="s">
         <v>188</v>
       </c>
+      <c r="H17" s="456"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="380" t="s">
+      <c r="A18" s="359" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="356" t="s">
+      <c r="B18" s="385" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
         <v>188</v>
@@ -4349,12 +4400,13 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
+      <c r="H18" s="456"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="378"/>
-      <c r="B19" s="357"/>
+      <c r="A19" s="357"/>
+      <c r="B19" s="367"/>
       <c r="C19" s="334" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" t="s">
         <v>193</v>
@@ -4362,10 +4414,11 @@
       <c r="F19" t="s">
         <v>188</v>
       </c>
+      <c r="H19" s="456"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="379"/>
-      <c r="B20" s="358"/>
+      <c r="A20" s="358"/>
+      <c r="B20" s="386"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4375,12 +4428,13 @@
       <c r="F20" t="s">
         <v>188</v>
       </c>
+      <c r="H20" s="456"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="380" t="s">
+      <c r="A21" s="359" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="359" t="s">
+      <c r="B21" s="353" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4393,15 +4447,13 @@
         <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>233</v>
-      </c>
-      <c r="H21" t="s">
         <v>231</v>
       </c>
+      <c r="H21" s="456"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="378"/>
-      <c r="B22" s="360"/>
+      <c r="A22" s="357"/>
+      <c r="B22" s="354"/>
       <c r="C22" s="334" t="s">
         <v>196</v>
       </c>
@@ -4411,10 +4463,11 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
+      <c r="H22" s="456"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="378"/>
-      <c r="B23" s="361"/>
+      <c r="A23" s="357"/>
+      <c r="B23" s="370"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4424,10 +4477,11 @@
       <c r="F23" t="s">
         <v>188</v>
       </c>
+      <c r="H23" s="456"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="378"/>
-      <c r="B24" s="362" t="s">
+      <c r="A24" s="357"/>
+      <c r="B24" s="369" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4440,15 +4494,13 @@
         <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>234</v>
-      </c>
-      <c r="H24" t="s">
-        <v>231</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="H24" s="456"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="378"/>
-      <c r="B25" s="360"/>
+      <c r="A25" s="357"/>
+      <c r="B25" s="354"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4459,15 +4511,13 @@
         <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>234</v>
-      </c>
-      <c r="H25" t="s">
-        <v>231</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="H25" s="456"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="378"/>
-      <c r="B26" s="361"/>
+      <c r="A26" s="357"/>
+      <c r="B26" s="370"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4478,15 +4528,13 @@
         <v>188</v>
       </c>
       <c r="G26" t="s">
-        <v>235</v>
-      </c>
-      <c r="H26" t="s">
-        <v>231</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="H26" s="456"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="378"/>
-      <c r="B27" s="363" t="s">
+      <c r="A27" s="357"/>
+      <c r="B27" s="366" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4498,10 +4546,11 @@
       <c r="F27" t="s">
         <v>188</v>
       </c>
+      <c r="H27" s="456"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="378"/>
-      <c r="B28" s="357"/>
+      <c r="A28" s="357"/>
+      <c r="B28" s="367"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4511,10 +4560,11 @@
       <c r="F28" t="s">
         <v>188</v>
       </c>
+      <c r="H28" s="456"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="378"/>
-      <c r="B29" s="364"/>
+      <c r="A29" s="357"/>
+      <c r="B29" s="368"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4524,10 +4574,11 @@
       <c r="F29" t="s">
         <v>188</v>
       </c>
+      <c r="H29" s="456"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="378"/>
-      <c r="B30" s="362" t="s">
+      <c r="A30" s="357"/>
+      <c r="B30" s="369" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4539,12 +4590,13 @@
       <c r="F30" t="s">
         <v>188</v>
       </c>
+      <c r="H30" s="456"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="378"/>
-      <c r="B31" s="360"/>
+      <c r="A31" s="357"/>
+      <c r="B31" s="354"/>
       <c r="C31" s="334" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D31" t="s">
         <v>188</v>
@@ -4553,15 +4605,13 @@
         <v>188</v>
       </c>
       <c r="G31" t="s">
-        <v>236</v>
-      </c>
-      <c r="H31" t="s">
-        <v>237</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="H31" s="456"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="379"/>
-      <c r="B32" s="373"/>
+      <c r="A32" s="358"/>
+      <c r="B32" s="355"/>
       <c r="C32" s="337" t="s">
         <v>197</v>
       </c>
@@ -4571,12 +4621,13 @@
       <c r="F32" t="s">
         <v>188</v>
       </c>
+      <c r="H32" s="456"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="381" t="s">
+      <c r="A33" s="360" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="359" t="s">
+      <c r="B33" s="353" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4588,10 +4639,11 @@
       <c r="F33" t="s">
         <v>188</v>
       </c>
+      <c r="H33" s="456"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="382"/>
-      <c r="B34" s="360"/>
+      <c r="A34" s="361"/>
+      <c r="B34" s="354"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4601,10 +4653,11 @@
       <c r="F34" t="s">
         <v>188</v>
       </c>
+      <c r="H34" s="456"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="382"/>
-      <c r="B35" s="361"/>
+      <c r="A35" s="361"/>
+      <c r="B35" s="370"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
@@ -4612,15 +4665,16 @@
         <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G35" t="s">
-        <v>245</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="H35" s="456"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="382"/>
-      <c r="B36" s="362" t="s">
+      <c r="A36" s="361"/>
+      <c r="B36" s="369" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
@@ -4632,12 +4686,13 @@
       <c r="F36" t="s">
         <v>188</v>
       </c>
+      <c r="H36" s="456"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="382"/>
-      <c r="B37" s="360"/>
+      <c r="A37" s="361"/>
+      <c r="B37" s="354"/>
       <c r="C37" s="334" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
         <v>188</v>
@@ -4645,10 +4700,11 @@
       <c r="F37" t="s">
         <v>188</v>
       </c>
+      <c r="H37" s="456"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="382"/>
-      <c r="B38" s="361"/>
+      <c r="A38" s="361"/>
+      <c r="B38" s="370"/>
       <c r="C38" s="333" t="s">
         <v>199</v>
       </c>
@@ -4658,10 +4714,11 @@
       <c r="F38" t="s">
         <v>188</v>
       </c>
+      <c r="H38" s="456"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="382"/>
-      <c r="B39" s="362" t="s">
+      <c r="A39" s="361"/>
+      <c r="B39" s="369" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4676,10 +4733,11 @@
       <c r="F39" t="s">
         <v>188</v>
       </c>
+      <c r="H39" s="456"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="382"/>
-      <c r="B40" s="360"/>
+      <c r="A40" s="361"/>
+      <c r="B40" s="354"/>
       <c r="C40" s="334" t="s">
         <v>200</v>
       </c>
@@ -4690,46 +4748,46 @@
         <v>188</v>
       </c>
       <c r="G40" t="s">
-        <v>238</v>
-      </c>
-      <c r="H40" t="s">
-        <v>231</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="H40" s="456"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="382"/>
-      <c r="B41" s="361"/>
+      <c r="A41" s="361"/>
+      <c r="B41" s="370"/>
       <c r="C41" s="333" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D41" t="s">
         <v>188</v>
       </c>
       <c r="F41" t="s">
+        <v>188</v>
+      </c>
+      <c r="G41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H41" s="456"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="361"/>
+      <c r="B42" s="369" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" s="334" t="s">
         <v>209</v>
       </c>
-      <c r="G41" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="382"/>
-      <c r="B42" s="362" t="s">
-        <v>182</v>
-      </c>
-      <c r="C42" s="334" t="s">
-        <v>210</v>
-      </c>
       <c r="D42" t="s">
         <v>188</v>
       </c>
       <c r="F42" t="s">
         <v>188</v>
       </c>
+      <c r="H42" s="456"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="382"/>
-      <c r="B43" s="360"/>
+      <c r="A43" s="361"/>
+      <c r="B43" s="354"/>
       <c r="C43" s="334" t="s">
         <v>197</v>
       </c>
@@ -4739,10 +4797,11 @@
       <c r="F43" t="s">
         <v>188</v>
       </c>
+      <c r="H43" s="456"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="383"/>
-      <c r="B44" s="373"/>
+      <c r="A44" s="362"/>
+      <c r="B44" s="355"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4752,12 +4811,13 @@
       <c r="F44" t="s">
         <v>188</v>
       </c>
+      <c r="H44" s="456"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="380" t="s">
+      <c r="A45" s="359" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="359" t="s">
+      <c r="B45" s="353" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4769,12 +4829,13 @@
       <c r="F45" t="s">
         <v>188</v>
       </c>
+      <c r="H45" s="456"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="378"/>
-      <c r="B46" s="360"/>
+      <c r="A46" s="357"/>
+      <c r="B46" s="354"/>
       <c r="C46" s="334" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
         <v>188</v>
@@ -4782,12 +4843,13 @@
       <c r="F46" t="s">
         <v>188</v>
       </c>
+      <c r="H46" s="456"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="378"/>
-      <c r="B47" s="361"/>
+      <c r="A47" s="357"/>
+      <c r="B47" s="370"/>
       <c r="C47" s="333" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D47" t="s">
         <v>188</v>
@@ -4795,14 +4857,15 @@
       <c r="F47" t="s">
         <v>188</v>
       </c>
+      <c r="H47" s="456"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="378"/>
-      <c r="B48" s="362" t="s">
+      <c r="A48" s="357"/>
+      <c r="B48" s="369" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" t="s">
         <v>188</v>
@@ -4811,15 +4874,13 @@
         <v>188</v>
       </c>
       <c r="G48" t="s">
-        <v>228</v>
-      </c>
-      <c r="H48" t="s">
-        <v>231</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="H48" s="456"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="378"/>
-      <c r="B49" s="360"/>
+      <c r="A49" s="357"/>
+      <c r="B49" s="354"/>
       <c r="C49" s="334" t="s">
         <v>175</v>
       </c>
@@ -4829,10 +4890,11 @@
       <c r="F49" t="s">
         <v>188</v>
       </c>
+      <c r="H49" s="456"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="378"/>
-      <c r="B50" s="361"/>
+      <c r="A50" s="357"/>
+      <c r="B50" s="370"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -4842,10 +4904,11 @@
       <c r="F50" t="s">
         <v>188</v>
       </c>
+      <c r="H50" s="456"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="378"/>
-      <c r="B51" s="362" t="s">
+      <c r="A51" s="357"/>
+      <c r="B51" s="369" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -4857,10 +4920,11 @@
       <c r="F51" t="s">
         <v>188</v>
       </c>
+      <c r="H51" s="456"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="378"/>
-      <c r="B52" s="360"/>
+      <c r="A52" s="357"/>
+      <c r="B52" s="354"/>
       <c r="C52" s="334" t="s">
         <v>201</v>
       </c>
@@ -4871,15 +4935,13 @@
         <v>188</v>
       </c>
       <c r="G52" t="s">
-        <v>246</v>
-      </c>
-      <c r="H52" t="s">
-        <v>231</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="H52" s="456"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="378"/>
-      <c r="B53" s="361"/>
+      <c r="A53" s="357"/>
+      <c r="B53" s="370"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
@@ -4889,10 +4951,11 @@
       <c r="F53" t="s">
         <v>188</v>
       </c>
+      <c r="H53" s="456"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="378"/>
-      <c r="B54" s="362" t="s">
+      <c r="A54" s="357"/>
+      <c r="B54" s="369" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
@@ -4905,15 +4968,13 @@
         <v>188</v>
       </c>
       <c r="G54" t="s">
-        <v>242</v>
-      </c>
-      <c r="H54" t="s">
-        <v>231</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="H54" s="456"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="378"/>
-      <c r="B55" s="360"/>
+      <c r="A55" s="357"/>
+      <c r="B55" s="354"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -4923,12 +4984,13 @@
       <c r="F55" t="s">
         <v>188</v>
       </c>
+      <c r="H55" s="456"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="379"/>
-      <c r="B56" s="373"/>
+      <c r="A56" s="358"/>
+      <c r="B56" s="355"/>
       <c r="C56" s="337" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D56" t="s">
         <v>188</v>
@@ -4937,17 +4999,15 @@
         <v>188</v>
       </c>
       <c r="G56" t="s">
-        <v>241</v>
-      </c>
-      <c r="H56" t="s">
-        <v>231</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="H56" s="456"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="384" t="s">
+      <c r="A57" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="374" t="s">
+      <c r="B57" s="371" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -4959,10 +5019,11 @@
       <c r="F57" t="s">
         <v>188</v>
       </c>
+      <c r="H57" s="456"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="385"/>
-      <c r="B58" s="375"/>
+      <c r="A58" s="364"/>
+      <c r="B58" s="372"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -4975,12 +5036,13 @@
       <c r="F58" t="s">
         <v>188</v>
       </c>
+      <c r="H58" s="456"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="385"/>
-      <c r="B59" s="376"/>
+      <c r="A59" s="364"/>
+      <c r="B59" s="373"/>
       <c r="C59" s="333" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D59" t="s">
         <v>188</v>
@@ -4988,10 +5050,11 @@
       <c r="F59" t="s">
         <v>188</v>
       </c>
+      <c r="H59" s="456"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="385"/>
-      <c r="B60" s="363" t="s">
+      <c r="A60" s="364"/>
+      <c r="B60" s="366" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -5006,10 +5069,11 @@
       <c r="F60" t="s">
         <v>188</v>
       </c>
+      <c r="H60" s="456"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="385"/>
-      <c r="B61" s="357"/>
+      <c r="A61" s="364"/>
+      <c r="B61" s="367"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -5019,26 +5083,28 @@
       <c r="F61" t="s">
         <v>188</v>
       </c>
+      <c r="H61" s="456"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="385"/>
-      <c r="B62" s="364"/>
+      <c r="A62" s="364"/>
+      <c r="B62" s="368"/>
       <c r="C62" s="333" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D62" t="s">
         <v>188</v>
       </c>
       <c r="F62" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="G62" t="s">
-        <v>247</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H62" s="456"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="385"/>
-      <c r="B63" s="362" t="s">
+      <c r="A63" s="364"/>
+      <c r="B63" s="369" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -5050,12 +5116,13 @@
       <c r="F63" t="s">
         <v>188</v>
       </c>
+      <c r="H63" s="456"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="385"/>
-      <c r="B64" s="360"/>
+      <c r="A64" s="364"/>
+      <c r="B64" s="354"/>
       <c r="C64" s="334" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D64" t="s">
         <v>190</v>
@@ -5066,12 +5133,13 @@
       <c r="F64" t="s">
         <v>188</v>
       </c>
+      <c r="H64" s="456"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="385"/>
-      <c r="B65" s="361"/>
+      <c r="A65" s="364"/>
+      <c r="B65" s="370"/>
       <c r="C65" s="333" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
         <v>188</v>
@@ -5079,10 +5147,11 @@
       <c r="F65" t="s">
         <v>188</v>
       </c>
+      <c r="H65" s="456"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="385"/>
-      <c r="B66" s="362" t="s">
+      <c r="A66" s="364"/>
+      <c r="B66" s="369" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
@@ -5094,10 +5163,11 @@
       <c r="F66" t="s">
         <v>188</v>
       </c>
+      <c r="H66" s="456"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="385"/>
-      <c r="B67" s="360"/>
+      <c r="A67" s="364"/>
+      <c r="B67" s="354"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -5110,12 +5180,13 @@
       <c r="F67" t="s">
         <v>188</v>
       </c>
+      <c r="H67" s="456"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="386"/>
-      <c r="B68" s="373"/>
+      <c r="A68" s="365"/>
+      <c r="B68" s="355"/>
       <c r="C68" s="334" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68" t="s">
         <v>193</v>
@@ -5123,12 +5194,13 @@
       <c r="F68" t="s">
         <v>188</v>
       </c>
+      <c r="H68" s="456"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="380" t="s">
+      <c r="A69" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="359" t="s">
+      <c r="B69" s="353" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5140,10 +5212,11 @@
       <c r="F69" t="s">
         <v>188</v>
       </c>
+      <c r="H69" s="456"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="378"/>
-      <c r="B70" s="360"/>
+      <c r="A70" s="357"/>
+      <c r="B70" s="354"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
@@ -5153,10 +5226,11 @@
       <c r="F70" t="s">
         <v>188</v>
       </c>
+      <c r="H70" s="456"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="379"/>
-      <c r="B71" s="373"/>
+      <c r="A71" s="358"/>
+      <c r="B71" s="355"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
@@ -5167,21 +5241,19 @@
         <v>188</v>
       </c>
       <c r="G71" t="s">
-        <v>243</v>
-      </c>
-      <c r="H71" t="s">
-        <v>231</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="H71" s="456"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="381" t="s">
+      <c r="A72" s="360" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="359" t="s">
+      <c r="B72" s="353" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
         <v>188</v>
@@ -5189,10 +5261,11 @@
       <c r="F72" t="s">
         <v>188</v>
       </c>
+      <c r="H72" s="456"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="382"/>
-      <c r="B73" s="360"/>
+      <c r="A73" s="361"/>
+      <c r="B73" s="354"/>
       <c r="C73" s="341" t="s">
         <v>206</v>
       </c>
@@ -5203,17 +5276,15 @@
         <v>188</v>
       </c>
       <c r="G73" t="s">
-        <v>230</v>
-      </c>
-      <c r="H73" t="s">
-        <v>231</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H73" s="456"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="382"/>
-      <c r="B74" s="360"/>
+      <c r="A74" s="361"/>
+      <c r="B74" s="354"/>
       <c r="C74" s="341" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" t="s">
         <v>188</v>
@@ -5221,10 +5292,11 @@
       <c r="F74" t="s">
         <v>188</v>
       </c>
+      <c r="H74" s="456"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="383"/>
-      <c r="B75" s="373"/>
+      <c r="A75" s="362"/>
+      <c r="B75" s="355"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
@@ -5235,21 +5307,19 @@
         <v>188</v>
       </c>
       <c r="G75" t="s">
-        <v>244</v>
-      </c>
-      <c r="H75" t="s">
-        <v>231</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="H75" s="456"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="381" t="s">
+      <c r="A76" s="360" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="359" t="s">
+      <c r="B76" s="353" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" t="s">
         <v>188</v>
@@ -5260,10 +5330,11 @@
       <c r="F76" t="s">
         <v>188</v>
       </c>
+      <c r="H76" s="456"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="382"/>
-      <c r="B77" s="360"/>
+      <c r="A77" s="361"/>
+      <c r="B77" s="354"/>
       <c r="C77" s="341" t="s">
         <v>203</v>
       </c>
@@ -5273,12 +5344,13 @@
       <c r="F77" t="s">
         <v>188</v>
       </c>
+      <c r="H77" s="456"/>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="383"/>
-      <c r="B78" s="373"/>
+      <c r="A78" s="362"/>
+      <c r="B78" s="355"/>
       <c r="C78" s="335" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" t="s">
         <v>188</v>
@@ -5286,9 +5358,55 @@
       <c r="F78" t="s">
         <v>188</v>
       </c>
+      <c r="H78" s="456"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="61">
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5305,26 +5423,6 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5446,15 +5544,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="391" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="388"/>
-      <c r="C1" s="388"/>
-      <c r="D1" s="388"/>
-      <c r="E1" s="388"/>
-      <c r="F1" s="388"/>
-      <c r="G1" s="389"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="393"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5484,7 +5582,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5497,7 +5595,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5508,7 +5606,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5519,7 +5617,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="403" t="s">
+      <c r="A6" s="387" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5532,7 +5630,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5556,7 +5654,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="403" t="s">
+      <c r="A9" s="387" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5569,7 +5667,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5580,7 +5678,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
+      <c r="A11" s="388"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5593,7 +5691,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="405"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5604,7 +5702,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="406" t="s">
+      <c r="A13" s="390" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5617,7 +5715,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5628,7 +5726,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5650,19 +5748,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="404"/>
-      <c r="B16" s="393" t="s">
+      <c r="A16" s="388"/>
+      <c r="B16" s="397" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="390" t="s">
+      <c r="C16" s="394" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="397"/>
-      <c r="G16" s="400"/>
+      <c r="F16" s="401"/>
+      <c r="G16" s="404"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5674,15 +5772,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="404"/>
-      <c r="B17" s="394"/>
-      <c r="C17" s="391"/>
+      <c r="A17" s="388"/>
+      <c r="B17" s="398"/>
+      <c r="C17" s="395"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="398"/>
-      <c r="G17" s="401"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="405"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5694,15 +5792,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
-      <c r="B18" s="394"/>
-      <c r="C18" s="391"/>
+      <c r="A18" s="388"/>
+      <c r="B18" s="398"/>
+      <c r="C18" s="395"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="398"/>
-      <c r="G18" s="401"/>
+      <c r="F18" s="402"/>
+      <c r="G18" s="405"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5714,15 +5812,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
-      <c r="B19" s="394"/>
-      <c r="C19" s="392"/>
+      <c r="A19" s="388"/>
+      <c r="B19" s="398"/>
+      <c r="C19" s="396"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="399"/>
-      <c r="G19" s="402"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="406"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5734,8 +5832,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
-      <c r="B20" s="395"/>
+      <c r="A20" s="388"/>
+      <c r="B20" s="399"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5756,8 +5854,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405"/>
-      <c r="B21" s="396"/>
+      <c r="A21" s="389"/>
+      <c r="B21" s="400"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5778,7 +5876,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="403" t="s">
+      <c r="A22" s="387" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5800,7 +5898,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5820,7 +5918,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="404"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5840,7 +5938,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5851,7 +5949,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="403" t="s">
+      <c r="A26" s="387" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -5864,7 +5962,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="404"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -5875,7 +5973,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -5886,7 +5984,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6261,17 +6359,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6341,7 +6439,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="403" t="s">
+      <c r="A3" s="387" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6354,7 +6452,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6365,7 +6463,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6376,7 +6474,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="403" t="s">
+      <c r="A6" s="387" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6389,7 +6487,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6413,7 +6511,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="403" t="s">
+      <c r="A9" s="387" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6426,7 +6524,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
@@ -6437,45 +6535,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="397"/>
-      <c r="G10" s="400"/>
+      <c r="F10" s="401"/>
+      <c r="G10" s="404"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
-      <c r="B11" s="395"/>
+      <c r="A11" s="388"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
-      <c r="B12" s="395"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="399"/>
       <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="398"/>
-      <c r="G12" s="401"/>
+      <c r="F12" s="402"/>
+      <c r="G12" s="405"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
-      <c r="B13" s="395"/>
+      <c r="A13" s="388"/>
+      <c r="B13" s="399"/>
       <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="402"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="411"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6488,7 +6586,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6503,7 +6601,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6514,7 +6612,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="406" t="s">
+      <c r="A17" s="390" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6527,7 +6625,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
+      <c r="A18" s="388"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6538,7 +6636,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6551,7 +6649,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="410" t="s">
         <v>32</v>
       </c>
@@ -6562,46 +6660,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="397"/>
-      <c r="G20" s="400"/>
+      <c r="F20" s="401"/>
+      <c r="G20" s="404"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="404"/>
-      <c r="B21" s="395"/>
+      <c r="A21" s="388"/>
+      <c r="B21" s="399"/>
       <c r="C21" s="413"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="398"/>
-      <c r="G21" s="401"/>
+      <c r="F21" s="402"/>
+      <c r="G21" s="405"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="404"/>
-      <c r="B22" s="395"/>
+      <c r="A22" s="388"/>
+      <c r="B22" s="399"/>
       <c r="C22" s="413"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="401"/>
+      <c r="F22" s="402"/>
+      <c r="G22" s="405"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
-      <c r="B23" s="395"/>
+      <c r="A23" s="388"/>
+      <c r="B23" s="399"/>
       <c r="C23" s="414"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="399"/>
-      <c r="G23" s="402"/>
+      <c r="F23" s="403"/>
+      <c r="G23" s="406"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="404"/>
-      <c r="B24" s="395"/>
+      <c r="A24" s="388"/>
+      <c r="B24" s="399"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6613,8 +6711,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="404"/>
-      <c r="B25" s="395"/>
+      <c r="A25" s="388"/>
+      <c r="B25" s="399"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6626,7 +6724,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="405"/>
+      <c r="A26" s="389"/>
       <c r="B26" s="415"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6640,7 +6738,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="403" t="s">
+      <c r="A27" s="387" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6654,7 +6752,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6665,7 +6763,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="404"/>
+      <c r="A29" s="388"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6676,7 +6774,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="405"/>
+      <c r="A30" s="389"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6687,7 +6785,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="403" t="s">
+      <c r="A31" s="387" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6700,7 +6798,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="404"/>
+      <c r="A32" s="388"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6711,7 +6809,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="404"/>
+      <c r="A33" s="388"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6722,7 +6820,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="405"/>
+      <c r="A34" s="389"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7105,12 +7203,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -7120,6 +7212,12 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7189,7 +7287,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7202,7 +7300,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7213,7 +7311,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7224,7 +7322,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7237,7 +7335,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7261,7 +7359,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7274,7 +7372,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="410" t="s">
         <v>26</v>
       </c>
@@ -7285,45 +7383,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="397"/>
-      <c r="G10" s="400"/>
+      <c r="F10" s="401"/>
+      <c r="G10" s="404"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
-      <c r="B11" s="395"/>
+      <c r="A11" s="388"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
-      <c r="B12" s="395"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="399"/>
       <c r="C12" s="413"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="398"/>
-      <c r="G12" s="401"/>
+      <c r="F12" s="402"/>
+      <c r="G12" s="405"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
-      <c r="B13" s="395"/>
+      <c r="A13" s="388"/>
+      <c r="B13" s="399"/>
       <c r="C13" s="414"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="402"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
-      <c r="B14" s="395"/>
+      <c r="A14" s="388"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7335,7 +7433,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="411"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7348,7 +7446,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="404"/>
+      <c r="A16" s="388"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7359,7 +7457,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="405"/>
+      <c r="A17" s="389"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7383,7 +7481,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7394,7 +7492,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7405,7 +7503,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="404"/>
+      <c r="A21" s="388"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7416,7 +7514,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="403" t="s">
+      <c r="A22" s="387" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7429,7 +7527,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7440,7 +7538,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="404"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7451,7 +7549,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7462,7 +7560,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="404" t="s">
+      <c r="A26" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7475,7 +7573,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="404"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7486,7 +7584,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7497,7 +7595,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -7901,17 +7999,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7985,7 +8083,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="403" t="s">
+      <c r="A3" s="387" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -8006,7 +8104,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -8017,8 +8115,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="404"/>
-      <c r="B5" s="417" t="s">
+      <c r="A5" s="388"/>
+      <c r="B5" s="425" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -8032,8 +8130,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="405"/>
-      <c r="B6" s="418"/>
+      <c r="A6" s="389"/>
+      <c r="B6" s="426"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8045,7 +8143,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="404" t="s">
+      <c r="A7" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8058,7 +8156,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="405"/>
+      <c r="A8" s="389"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8072,7 +8170,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="419" t="s">
+      <c r="B9" s="427" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8087,7 +8185,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="418"/>
+      <c r="B10" s="426"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8099,7 +8197,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="404" t="s">
+      <c r="A11" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8112,7 +8210,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="404"/>
+      <c r="A12" s="388"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8127,7 +8225,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="404"/>
+      <c r="A13" s="388"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8138,7 +8236,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8170,7 +8268,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="404"/>
+      <c r="A16" s="388"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8181,7 +8279,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="404"/>
+      <c r="A17" s="388"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8192,7 +8290,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="405"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8203,7 +8301,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="404" t="s">
+      <c r="A19" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8220,7 +8318,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8231,7 +8329,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="404"/>
+      <c r="A21" s="388"/>
       <c r="B21" s="410" t="s">
         <v>81</v>
       </c>
@@ -8246,7 +8344,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="404"/>
+      <c r="A22" s="388"/>
       <c r="B22" s="411"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8259,7 +8357,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8274,7 +8372,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="404" t="s">
+      <c r="A24" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8291,7 +8389,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="404"/>
+      <c r="A25" s="388"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8302,7 +8400,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="404"/>
+      <c r="A26" s="388"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8317,7 +8415,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8328,13 +8426,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="425" t="s">
+      <c r="A28" s="422" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="423" t="s">
+      <c r="B28" s="420" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="424" t="s">
+      <c r="C28" s="421" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8345,8 +8443,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="426"/>
-      <c r="B29" s="395"/>
+      <c r="A29" s="423"/>
+      <c r="B29" s="399"/>
       <c r="C29" s="413"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8356,8 +8454,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="426"/>
-      <c r="B30" s="395"/>
+      <c r="A30" s="423"/>
+      <c r="B30" s="399"/>
       <c r="C30" s="413"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8367,8 +8465,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="426"/>
-      <c r="B31" s="395"/>
+      <c r="A31" s="423"/>
+      <c r="B31" s="399"/>
       <c r="C31" s="414"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8378,8 +8476,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="426"/>
-      <c r="B32" s="395"/>
+      <c r="A32" s="423"/>
+      <c r="B32" s="399"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8391,7 +8489,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="427"/>
+      <c r="A33" s="424"/>
       <c r="B33" s="415"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8404,13 +8502,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="420" t="s">
+      <c r="A34" s="417" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="423" t="s">
+      <c r="B34" s="420" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="424" t="s">
+      <c r="C34" s="421" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8421,8 +8519,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="421"/>
-      <c r="B35" s="395"/>
+      <c r="A35" s="418"/>
+      <c r="B35" s="399"/>
       <c r="C35" s="413"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8432,8 +8530,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="421"/>
-      <c r="B36" s="395"/>
+      <c r="A36" s="418"/>
+      <c r="B36" s="399"/>
       <c r="C36" s="413"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8443,8 +8541,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="421"/>
-      <c r="B37" s="395"/>
+      <c r="A37" s="418"/>
+      <c r="B37" s="399"/>
       <c r="C37" s="414"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8454,8 +8552,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="421"/>
-      <c r="B38" s="395"/>
+      <c r="A38" s="418"/>
+      <c r="B38" s="399"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8467,8 +8565,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="421"/>
-      <c r="B39" s="395"/>
+      <c r="A39" s="418"/>
+      <c r="B39" s="399"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8480,8 +8578,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="421"/>
-      <c r="B40" s="395"/>
+      <c r="A40" s="418"/>
+      <c r="B40" s="399"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8493,8 +8591,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="421"/>
-      <c r="B41" s="395"/>
+      <c r="A41" s="418"/>
+      <c r="B41" s="399"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8506,7 +8604,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="422"/>
+      <c r="A42" s="419"/>
       <c r="B42" s="415"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8519,13 +8617,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="420" t="s">
+      <c r="A43" s="417" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="423" t="s">
+      <c r="B43" s="420" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="424" t="s">
+      <c r="C43" s="421" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8536,8 +8634,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="421"/>
-      <c r="B44" s="395"/>
+      <c r="A44" s="418"/>
+      <c r="B44" s="399"/>
       <c r="C44" s="413"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8547,8 +8645,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="421"/>
-      <c r="B45" s="395"/>
+      <c r="A45" s="418"/>
+      <c r="B45" s="399"/>
       <c r="C45" s="413"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8558,8 +8656,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="421"/>
-      <c r="B46" s="395"/>
+      <c r="A46" s="418"/>
+      <c r="B46" s="399"/>
       <c r="C46" s="414"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8569,8 +8667,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="421"/>
-      <c r="B47" s="395"/>
+      <c r="A47" s="418"/>
+      <c r="B47" s="399"/>
       <c r="C47" s="413" t="s">
         <v>133</v>
       </c>
@@ -8582,8 +8680,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="421"/>
-      <c r="B48" s="395"/>
+      <c r="A48" s="418"/>
+      <c r="B48" s="399"/>
       <c r="C48" s="413"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8593,8 +8691,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="421"/>
-      <c r="B49" s="395"/>
+      <c r="A49" s="418"/>
+      <c r="B49" s="399"/>
       <c r="C49" s="413"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8604,8 +8702,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="421"/>
-      <c r="B50" s="395"/>
+      <c r="A50" s="418"/>
+      <c r="B50" s="399"/>
       <c r="C50" s="414"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8615,8 +8713,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="421"/>
-      <c r="B51" s="395"/>
+      <c r="A51" s="418"/>
+      <c r="B51" s="399"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8628,7 +8726,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="422"/>
+      <c r="A52" s="419"/>
       <c r="B52" s="415"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -9025,6 +9123,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -9035,17 +9144,6 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9115,7 +9213,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9128,7 +9226,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9139,7 +9237,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9150,7 +9248,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9163,7 +9261,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9190,10 +9288,10 @@
       <c r="A9" s="430" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="395" t="s">
+      <c r="B9" s="399" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="391" t="s">
+      <c r="C9" s="395" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9205,40 +9303,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="430"/>
-      <c r="B10" s="395"/>
-      <c r="C10" s="391"/>
+      <c r="B10" s="399"/>
+      <c r="C10" s="395"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="430"/>
-      <c r="B11" s="395"/>
-      <c r="C11" s="391"/>
+      <c r="B11" s="399"/>
+      <c r="C11" s="395"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="430"/>
-      <c r="B12" s="395"/>
-      <c r="C12" s="392"/>
+      <c r="B12" s="399"/>
+      <c r="C12" s="396"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="430"/>
-      <c r="B13" s="395"/>
+      <c r="B13" s="399"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9311,7 +9409,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9322,7 +9420,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="404"/>
+      <c r="A20" s="388"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9335,7 +9433,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9346,7 +9444,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9359,7 +9457,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9370,7 +9468,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="404"/>
+      <c r="A24" s="388"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9381,7 +9479,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9392,7 +9490,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="404" t="s">
+      <c r="A26" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9405,7 +9503,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="404"/>
+      <c r="A27" s="388"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9416,7 +9514,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="404"/>
+      <c r="A28" s="388"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9427,7 +9525,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9798,17 +9896,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9839,15 +9937,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="434" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="454"/>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="455"/>
+      <c r="B1" s="434"/>
+      <c r="C1" s="434"/>
+      <c r="D1" s="434"/>
+      <c r="E1" s="434"/>
+      <c r="F1" s="434"/>
+      <c r="G1" s="435"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9873,13 +9971,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="434" t="s">
+      <c r="A3" s="436" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="419" t="s">
+      <c r="B3" s="427" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="424" t="s">
+      <c r="C3" s="421" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -9890,8 +9988,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="435"/>
-      <c r="B4" s="440"/>
+      <c r="A4" s="437"/>
+      <c r="B4" s="439"/>
       <c r="C4" s="413"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -9901,8 +9999,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="435"/>
-      <c r="B5" s="440"/>
+      <c r="A5" s="437"/>
+      <c r="B5" s="439"/>
       <c r="C5" s="413"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -9912,8 +10010,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="435"/>
-      <c r="B6" s="440"/>
+      <c r="A6" s="437"/>
+      <c r="B6" s="439"/>
       <c r="C6" s="414"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -9923,8 +10021,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="435"/>
-      <c r="B7" s="440"/>
+      <c r="A7" s="437"/>
+      <c r="B7" s="439"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -9936,8 +10034,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="435"/>
-      <c r="B8" s="436"/>
+      <c r="A8" s="437"/>
+      <c r="B8" s="440"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -9949,8 +10047,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="435"/>
-      <c r="B9" s="417" t="s">
+      <c r="A9" s="437"/>
+      <c r="B9" s="425" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="412" t="s">
@@ -9959,137 +10057,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="397"/>
-      <c r="F9" s="397"/>
-      <c r="G9" s="400"/>
+      <c r="E9" s="401"/>
+      <c r="F9" s="401"/>
+      <c r="G9" s="404"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="435"/>
-      <c r="B10" s="440"/>
+      <c r="A10" s="437"/>
+      <c r="B10" s="439"/>
       <c r="C10" s="413"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="398"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="E10" s="402"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="435"/>
-      <c r="B11" s="440"/>
+      <c r="A11" s="437"/>
+      <c r="B11" s="439"/>
       <c r="C11" s="413"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="398"/>
-      <c r="F11" s="398"/>
-      <c r="G11" s="401"/>
+      <c r="E11" s="402"/>
+      <c r="F11" s="402"/>
+      <c r="G11" s="405"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="435"/>
-      <c r="B12" s="440"/>
+      <c r="A12" s="437"/>
+      <c r="B12" s="439"/>
       <c r="C12" s="414"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="399"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="E12" s="403"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="435"/>
-      <c r="B13" s="440"/>
+      <c r="A13" s="437"/>
+      <c r="B13" s="439"/>
       <c r="C13" s="413" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="398"/>
-      <c r="F13" s="398"/>
-      <c r="G13" s="401"/>
+      <c r="E13" s="402"/>
+      <c r="F13" s="402"/>
+      <c r="G13" s="405"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="435"/>
-      <c r="B14" s="440"/>
+      <c r="A14" s="437"/>
+      <c r="B14" s="439"/>
       <c r="C14" s="413"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="398"/>
-      <c r="F14" s="398"/>
-      <c r="G14" s="401"/>
+      <c r="E14" s="402"/>
+      <c r="F14" s="402"/>
+      <c r="G14" s="405"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="435"/>
-      <c r="B15" s="440"/>
+      <c r="A15" s="437"/>
+      <c r="B15" s="439"/>
       <c r="C15" s="413"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="398"/>
-      <c r="F15" s="398"/>
-      <c r="G15" s="401"/>
+      <c r="E15" s="402"/>
+      <c r="F15" s="402"/>
+      <c r="G15" s="405"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="435"/>
-      <c r="B16" s="440"/>
+      <c r="A16" s="437"/>
+      <c r="B16" s="439"/>
       <c r="C16" s="414"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="399"/>
-      <c r="F16" s="399"/>
-      <c r="G16" s="402"/>
+      <c r="E16" s="403"/>
+      <c r="F16" s="403"/>
+      <c r="G16" s="406"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="435"/>
-      <c r="B17" s="440"/>
+      <c r="A17" s="437"/>
+      <c r="B17" s="439"/>
       <c r="C17" s="413" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="398"/>
-      <c r="F17" s="398"/>
-      <c r="G17" s="401"/>
+      <c r="E17" s="402"/>
+      <c r="F17" s="402"/>
+      <c r="G17" s="405"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="435"/>
-      <c r="B18" s="440"/>
+      <c r="A18" s="437"/>
+      <c r="B18" s="439"/>
       <c r="C18" s="413"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="398"/>
-      <c r="F18" s="398"/>
-      <c r="G18" s="401"/>
+      <c r="E18" s="402"/>
+      <c r="F18" s="402"/>
+      <c r="G18" s="405"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="435"/>
-      <c r="B19" s="440"/>
+      <c r="A19" s="437"/>
+      <c r="B19" s="439"/>
       <c r="C19" s="413"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="398"/>
-      <c r="F19" s="398"/>
-      <c r="G19" s="401"/>
+      <c r="E19" s="402"/>
+      <c r="F19" s="402"/>
+      <c r="G19" s="405"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="435"/>
-      <c r="B20" s="440"/>
-      <c r="C20" s="443"/>
+      <c r="A20" s="437"/>
+      <c r="B20" s="439"/>
+      <c r="C20" s="441"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="447"/>
-      <c r="F20" s="447"/>
-      <c r="G20" s="441"/>
+      <c r="E20" s="442"/>
+      <c r="F20" s="442"/>
+      <c r="G20" s="443"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="442"/>
+      <c r="A21" s="438"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -10100,10 +10198,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="448" t="s">
+      <c r="A22" s="444" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="419" t="s">
+      <c r="B22" s="427" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -10115,8 +10213,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="449"/>
-      <c r="B23" s="440"/>
+      <c r="A23" s="445"/>
+      <c r="B23" s="439"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -10126,54 +10224,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="449"/>
-      <c r="B24" s="440"/>
+      <c r="A24" s="445"/>
+      <c r="B24" s="439"/>
       <c r="C24" s="413" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="398"/>
-      <c r="F24" s="398"/>
-      <c r="G24" s="401"/>
+      <c r="E24" s="402"/>
+      <c r="F24" s="402"/>
+      <c r="G24" s="405"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="449"/>
-      <c r="B25" s="440"/>
+      <c r="A25" s="445"/>
+      <c r="B25" s="439"/>
       <c r="C25" s="413"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="398"/>
-      <c r="F25" s="398"/>
-      <c r="G25" s="401"/>
+      <c r="E25" s="402"/>
+      <c r="F25" s="402"/>
+      <c r="G25" s="405"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="449"/>
-      <c r="B26" s="440"/>
+      <c r="A26" s="445"/>
+      <c r="B26" s="439"/>
       <c r="C26" s="413"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="398"/>
-      <c r="F26" s="398"/>
-      <c r="G26" s="401"/>
+      <c r="E26" s="402"/>
+      <c r="F26" s="402"/>
+      <c r="G26" s="405"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="449"/>
-      <c r="B27" s="436"/>
-      <c r="C27" s="443"/>
+      <c r="A27" s="445"/>
+      <c r="B27" s="440"/>
+      <c r="C27" s="441"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="447"/>
-      <c r="F27" s="447"/>
-      <c r="G27" s="441"/>
+      <c r="E27" s="442"/>
+      <c r="F27" s="442"/>
+      <c r="G27" s="443"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="449"/>
-      <c r="B28" s="440" t="s">
+      <c r="A28" s="445"/>
+      <c r="B28" s="439" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10185,50 +10283,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="449"/>
-      <c r="B29" s="440"/>
+      <c r="A29" s="445"/>
+      <c r="B29" s="439"/>
       <c r="C29" s="413" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="398"/>
-      <c r="F29" s="398"/>
-      <c r="G29" s="401"/>
+      <c r="E29" s="402"/>
+      <c r="F29" s="402"/>
+      <c r="G29" s="405"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="449"/>
-      <c r="B30" s="440"/>
+      <c r="A30" s="445"/>
+      <c r="B30" s="439"/>
       <c r="C30" s="413"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="398"/>
-      <c r="F30" s="398"/>
-      <c r="G30" s="401"/>
+      <c r="E30" s="402"/>
+      <c r="F30" s="402"/>
+      <c r="G30" s="405"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="449"/>
-      <c r="B31" s="440"/>
+      <c r="A31" s="445"/>
+      <c r="B31" s="439"/>
       <c r="C31" s="413"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="398"/>
-      <c r="F31" s="398"/>
-      <c r="G31" s="401"/>
+      <c r="E31" s="402"/>
+      <c r="F31" s="402"/>
+      <c r="G31" s="405"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="450"/>
-      <c r="B32" s="418"/>
-      <c r="C32" s="451"/>
+      <c r="A32" s="446"/>
+      <c r="B32" s="426"/>
+      <c r="C32" s="447"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="452"/>
-      <c r="F32" s="452"/>
-      <c r="G32" s="453"/>
+      <c r="E32" s="448"/>
+      <c r="F32" s="448"/>
+      <c r="G32" s="449"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10244,10 +10342,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="434" t="s">
+      <c r="A34" s="436" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="444" t="s">
+      <c r="B34" s="450" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10259,8 +10357,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="435"/>
-      <c r="B35" s="445"/>
+      <c r="A35" s="437"/>
+      <c r="B35" s="451"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10270,53 +10368,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="435"/>
-      <c r="B36" s="445"/>
-      <c r="C36" s="443" t="s">
+      <c r="A36" s="437"/>
+      <c r="B36" s="451"/>
+      <c r="C36" s="441" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="398"/>
-      <c r="F36" s="398"/>
-      <c r="G36" s="401"/>
+      <c r="E36" s="402"/>
+      <c r="F36" s="402"/>
+      <c r="G36" s="405"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="435"/>
-      <c r="B37" s="445"/>
-      <c r="C37" s="446"/>
+      <c r="A37" s="437"/>
+      <c r="B37" s="451"/>
+      <c r="C37" s="452"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="398"/>
-      <c r="F37" s="398"/>
-      <c r="G37" s="401"/>
+      <c r="E37" s="402"/>
+      <c r="F37" s="402"/>
+      <c r="G37" s="405"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="435"/>
-      <c r="B38" s="445"/>
-      <c r="C38" s="446"/>
+      <c r="A38" s="437"/>
+      <c r="B38" s="451"/>
+      <c r="C38" s="452"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="398"/>
-      <c r="F38" s="398"/>
-      <c r="G38" s="401"/>
+      <c r="E38" s="402"/>
+      <c r="F38" s="402"/>
+      <c r="G38" s="405"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="435"/>
-      <c r="B39" s="445"/>
-      <c r="C39" s="446"/>
+      <c r="A39" s="437"/>
+      <c r="B39" s="451"/>
+      <c r="C39" s="452"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="447"/>
-      <c r="F39" s="447"/>
-      <c r="G39" s="441"/>
+      <c r="E39" s="442"/>
+      <c r="F39" s="442"/>
+      <c r="G39" s="443"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="435"/>
+      <c r="A40" s="437"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10327,7 +10425,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="435"/>
+      <c r="A41" s="437"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10338,7 +10436,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="442"/>
+      <c r="A42" s="438"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10349,7 +10447,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="434" t="s">
+      <c r="A43" s="436" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10362,8 +10460,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="435"/>
-      <c r="B44" s="417" t="s">
+      <c r="A44" s="437"/>
+      <c r="B44" s="425" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10375,8 +10473,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="435"/>
-      <c r="B45" s="440"/>
+      <c r="A45" s="437"/>
+      <c r="B45" s="439"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10386,8 +10484,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="435"/>
-      <c r="B46" s="440"/>
+      <c r="A46" s="437"/>
+      <c r="B46" s="439"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10397,8 +10495,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="435"/>
-      <c r="B47" s="440"/>
+      <c r="A47" s="437"/>
+      <c r="B47" s="439"/>
       <c r="C47" s="413" t="s">
         <v>58</v>
       </c>
@@ -10410,8 +10508,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="435"/>
-      <c r="B48" s="440"/>
+      <c r="A48" s="437"/>
+      <c r="B48" s="439"/>
       <c r="C48" s="413"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10421,8 +10519,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="435"/>
-      <c r="B49" s="440"/>
+      <c r="A49" s="437"/>
+      <c r="B49" s="439"/>
       <c r="C49" s="413"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10432,9 +10530,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="435"/>
-      <c r="B50" s="436"/>
-      <c r="C50" s="443"/>
+      <c r="A50" s="437"/>
+      <c r="B50" s="440"/>
+      <c r="C50" s="441"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10443,8 +10541,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="435"/>
-      <c r="B51" s="417" t="s">
+      <c r="A51" s="437"/>
+      <c r="B51" s="425" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="412" t="s">
@@ -10458,8 +10556,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="435"/>
-      <c r="B52" s="440"/>
+      <c r="A52" s="437"/>
+      <c r="B52" s="439"/>
       <c r="C52" s="413"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10469,8 +10567,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="435"/>
-      <c r="B53" s="440"/>
+      <c r="A53" s="437"/>
+      <c r="B53" s="439"/>
       <c r="C53" s="413"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10480,8 +10578,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="435"/>
-      <c r="B54" s="440"/>
+      <c r="A54" s="437"/>
+      <c r="B54" s="439"/>
       <c r="C54" s="414"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10491,8 +10589,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="435"/>
-      <c r="B55" s="440"/>
+      <c r="A55" s="437"/>
+      <c r="B55" s="439"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10502,8 +10600,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="435"/>
-      <c r="B56" s="436"/>
+      <c r="A56" s="437"/>
+      <c r="B56" s="440"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10513,8 +10611,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="435"/>
-      <c r="B57" s="440" t="s">
+      <c r="A57" s="437"/>
+      <c r="B57" s="439" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10526,8 +10624,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="435"/>
-      <c r="B58" s="440"/>
+      <c r="A58" s="437"/>
+      <c r="B58" s="439"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10537,8 +10635,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="442"/>
-      <c r="B59" s="418"/>
+      <c r="A59" s="438"/>
+      <c r="B59" s="426"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10548,7 +10646,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="434" t="s">
+      <c r="A60" s="436" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10561,8 +10659,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="435"/>
-      <c r="B61" s="417" t="s">
+      <c r="A61" s="437"/>
+      <c r="B61" s="425" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10574,8 +10672,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="435"/>
-      <c r="B62" s="436"/>
+      <c r="A62" s="437"/>
+      <c r="B62" s="440"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10585,7 +10683,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="435"/>
+      <c r="A63" s="437"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10596,7 +10694,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="435"/>
+      <c r="A64" s="437"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10607,7 +10705,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="437" t="s">
+      <c r="A65" s="453" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10620,8 +10718,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="438"/>
-      <c r="B66" s="417" t="s">
+      <c r="A66" s="454"/>
+      <c r="B66" s="425" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10633,8 +10731,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="438"/>
-      <c r="B67" s="440"/>
+      <c r="A67" s="454"/>
+      <c r="B67" s="439"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10644,8 +10742,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="438"/>
-      <c r="B68" s="436"/>
+      <c r="A68" s="454"/>
+      <c r="B68" s="440"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10655,7 +10753,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="438"/>
+      <c r="A69" s="454"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10666,8 +10764,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="438"/>
-      <c r="B70" s="417" t="s">
+      <c r="A70" s="454"/>
+      <c r="B70" s="425" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10679,8 +10777,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="438"/>
-      <c r="B71" s="440"/>
+      <c r="A71" s="454"/>
+      <c r="B71" s="439"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10690,8 +10788,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="439"/>
-      <c r="B72" s="418"/>
+      <c r="A72" s="455"/>
+      <c r="B72" s="426"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10741,6 +10839,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10757,35 +10884,6 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10855,7 +10953,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -10868,7 +10966,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="404"/>
+      <c r="A4" s="388"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -10879,7 +10977,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="405"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -10890,7 +10988,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -10903,7 +11001,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="405"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -10927,7 +11025,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -10940,7 +11038,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="404"/>
+      <c r="A10" s="388"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -10951,7 +11049,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="404"/>
+      <c r="A11" s="388"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -10964,7 +11062,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="405"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -10988,7 +11086,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="404"/>
+      <c r="A14" s="388"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -10999,7 +11097,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="404"/>
+      <c r="A15" s="388"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -11012,7 +11110,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -11023,7 +11121,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="404" t="s">
+      <c r="A17" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -11036,7 +11134,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="404"/>
+      <c r="A18" s="388"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -11047,7 +11145,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="404"/>
+      <c r="A19" s="388"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -11058,7 +11156,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -11069,7 +11167,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="404" t="s">
+      <c r="A21" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -11082,7 +11180,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="404"/>
+      <c r="A22" s="388"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -11093,7 +11191,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="404"/>
+      <c r="A23" s="388"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -11104,7 +11202,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2934DD7-BF4C-4935-B35E-58AF1028D5F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48499E-DC72-4740-ACAD-CF24AF329343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="253">
   <si>
     <t>ENG 251</t>
   </si>
@@ -961,6 +961,12 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>ok (left original link)</t>
+  </si>
+  <si>
+    <t>check for word doc you started</t>
   </si>
 </sst>
 </file>
@@ -2941,6 +2947,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3147,9 +3156,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4063,7 +4069,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4075,8 +4081,8 @@
     <col min="5" max="5" width="39.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="46.5703125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
@@ -4137,7 +4143,7 @@
       <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="456" t="s">
+      <c r="H3" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I3" t="s">
@@ -4159,7 +4165,7 @@
       <c r="F4" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="456"/>
+      <c r="H4" s="387"/>
       <c r="I4" t="s">
         <v>250</v>
       </c>
@@ -4182,7 +4188,7 @@
       <c r="G5" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="456"/>
+      <c r="H5" s="387"/>
       <c r="I5" t="s">
         <v>250</v>
       </c>
@@ -4207,7 +4213,13 @@
       <c r="G6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="456" t="s">
+      <c r="H6" s="387" t="s">
+        <v>247</v>
+      </c>
+      <c r="I6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4223,7 +4235,13 @@
       <c r="F7" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="456"/>
+      <c r="H7" s="387"/>
+      <c r="I7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="357"/>
@@ -4237,7 +4255,10 @@
       <c r="F8" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="456"/>
+      <c r="H8" s="387"/>
+      <c r="I8" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="357"/>
@@ -4256,7 +4277,7 @@
       <c r="G9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="456" t="s">
+      <c r="H9" s="387" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4275,7 +4296,7 @@
       <c r="G10" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="456"/>
+      <c r="H10" s="387"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="358"/>
@@ -4289,7 +4310,7 @@
       <c r="F11" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="456"/>
+      <c r="H11" s="387"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="359" t="s">
@@ -4307,7 +4328,7 @@
       <c r="F12" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="456"/>
+      <c r="H12" s="387"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="357"/>
@@ -4321,7 +4342,7 @@
       <c r="F13" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="456"/>
+      <c r="H13" s="387"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="357"/>
@@ -4335,7 +4356,7 @@
       <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="456"/>
+      <c r="H14" s="387"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="357"/>
@@ -4354,7 +4375,7 @@
       <c r="G15" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="456"/>
+      <c r="H15" s="387"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="357"/>
@@ -4368,7 +4389,7 @@
       <c r="F16" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="456"/>
+      <c r="H16" s="387"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="358"/>
@@ -4382,7 +4403,7 @@
       <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="456"/>
+      <c r="H17" s="387"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="359" t="s">
@@ -4400,7 +4421,7 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="456"/>
+      <c r="H18" s="387"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="357"/>
@@ -4414,7 +4435,7 @@
       <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="456"/>
+      <c r="H19" s="387"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="358"/>
@@ -4428,7 +4449,7 @@
       <c r="F20" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="456"/>
+      <c r="H20" s="387"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="359" t="s">
@@ -4449,7 +4470,7 @@
       <c r="G21" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="456"/>
+      <c r="H21" s="387"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="357"/>
@@ -4463,7 +4484,7 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="456"/>
+      <c r="H22" s="387"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="357"/>
@@ -4477,7 +4498,7 @@
       <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="456"/>
+      <c r="H23" s="387"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="357"/>
@@ -4496,7 +4517,7 @@
       <c r="G24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="456"/>
+      <c r="H24" s="387"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="357"/>
@@ -4513,7 +4534,7 @@
       <c r="G25" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="456"/>
+      <c r="H25" s="387"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="357"/>
@@ -4530,7 +4551,7 @@
       <c r="G26" t="s">
         <v>233</v>
       </c>
-      <c r="H26" s="456"/>
+      <c r="H26" s="387"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="357"/>
@@ -4546,7 +4567,7 @@
       <c r="F27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="456"/>
+      <c r="H27" s="387"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="357"/>
@@ -4560,7 +4581,7 @@
       <c r="F28" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="456"/>
+      <c r="H28" s="387"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="357"/>
@@ -4574,7 +4595,7 @@
       <c r="F29" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="456"/>
+      <c r="H29" s="387"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="357"/>
@@ -4590,7 +4611,7 @@
       <c r="F30" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="456"/>
+      <c r="H30" s="387"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="357"/>
@@ -4607,7 +4628,7 @@
       <c r="G31" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="456"/>
+      <c r="H31" s="387"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="358"/>
@@ -4621,7 +4642,7 @@
       <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="456"/>
+      <c r="H32" s="387"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="360" t="s">
@@ -4639,7 +4660,7 @@
       <c r="F33" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="456"/>
+      <c r="H33" s="387"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="361"/>
@@ -4653,7 +4674,7 @@
       <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="456"/>
+      <c r="H34" s="387"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="361"/>
@@ -4670,7 +4691,7 @@
       <c r="G35" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="456"/>
+      <c r="H35" s="387"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="361"/>
@@ -4686,7 +4707,7 @@
       <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="456"/>
+      <c r="H36" s="387"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="361"/>
@@ -4700,7 +4721,7 @@
       <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="456"/>
+      <c r="H37" s="387"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="361"/>
@@ -4714,7 +4735,7 @@
       <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="456"/>
+      <c r="H38" s="387"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="361"/>
@@ -4733,7 +4754,7 @@
       <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="456"/>
+      <c r="H39" s="387"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="361"/>
@@ -4750,7 +4771,7 @@
       <c r="G40" t="s">
         <v>235</v>
       </c>
-      <c r="H40" s="456"/>
+      <c r="H40" s="387"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="361"/>
@@ -4767,7 +4788,7 @@
       <c r="G41" t="s">
         <v>248</v>
       </c>
-      <c r="H41" s="456"/>
+      <c r="H41" s="387"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="361"/>
@@ -4783,7 +4804,7 @@
       <c r="F42" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="456"/>
+      <c r="H42" s="387"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="361"/>
@@ -4797,7 +4818,7 @@
       <c r="F43" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="456"/>
+      <c r="H43" s="387"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="362"/>
@@ -4811,7 +4832,7 @@
       <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="456"/>
+      <c r="H44" s="387"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="359" t="s">
@@ -4829,7 +4850,7 @@
       <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="456"/>
+      <c r="H45" s="387"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="357"/>
@@ -4843,7 +4864,7 @@
       <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="456"/>
+      <c r="H46" s="387"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="357"/>
@@ -4857,7 +4878,7 @@
       <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="456"/>
+      <c r="H47" s="387"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="357"/>
@@ -4876,7 +4897,7 @@
       <c r="G48" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="456"/>
+      <c r="H48" s="387"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="357"/>
@@ -4890,7 +4911,7 @@
       <c r="F49" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="456"/>
+      <c r="H49" s="387"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="357"/>
@@ -4904,7 +4925,7 @@
       <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="456"/>
+      <c r="H50" s="387"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="357"/>
@@ -4920,7 +4941,7 @@
       <c r="F51" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="456"/>
+      <c r="H51" s="387"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="357"/>
@@ -4937,7 +4958,7 @@
       <c r="G52" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="456"/>
+      <c r="H52" s="387"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="357"/>
@@ -4951,7 +4972,7 @@
       <c r="F53" t="s">
         <v>188</v>
       </c>
-      <c r="H53" s="456"/>
+      <c r="H53" s="387"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="357"/>
@@ -4970,7 +4991,7 @@
       <c r="G54" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="456"/>
+      <c r="H54" s="387"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="357"/>
@@ -4984,7 +5005,7 @@
       <c r="F55" t="s">
         <v>188</v>
       </c>
-      <c r="H55" s="456"/>
+      <c r="H55" s="387"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="358"/>
@@ -5001,7 +5022,7 @@
       <c r="G56" t="s">
         <v>238</v>
       </c>
-      <c r="H56" s="456"/>
+      <c r="H56" s="387"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="363" t="s">
@@ -5019,7 +5040,7 @@
       <c r="F57" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="456"/>
+      <c r="H57" s="387"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="364"/>
@@ -5036,7 +5057,7 @@
       <c r="F58" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="456"/>
+      <c r="H58" s="387"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="364"/>
@@ -5050,7 +5071,7 @@
       <c r="F59" t="s">
         <v>188</v>
       </c>
-      <c r="H59" s="456"/>
+      <c r="H59" s="387"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="364"/>
@@ -5069,7 +5090,7 @@
       <c r="F60" t="s">
         <v>188</v>
       </c>
-      <c r="H60" s="456"/>
+      <c r="H60" s="387"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="364"/>
@@ -5083,7 +5104,7 @@
       <c r="F61" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="456"/>
+      <c r="H61" s="387"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="364"/>
@@ -5100,7 +5121,7 @@
       <c r="G62" t="s">
         <v>243</v>
       </c>
-      <c r="H62" s="456"/>
+      <c r="H62" s="387"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="364"/>
@@ -5116,7 +5137,7 @@
       <c r="F63" t="s">
         <v>188</v>
       </c>
-      <c r="H63" s="456"/>
+      <c r="H63" s="387"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="364"/>
@@ -5133,7 +5154,7 @@
       <c r="F64" t="s">
         <v>188</v>
       </c>
-      <c r="H64" s="456"/>
+      <c r="H64" s="387"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="364"/>
@@ -5147,7 +5168,7 @@
       <c r="F65" t="s">
         <v>188</v>
       </c>
-      <c r="H65" s="456"/>
+      <c r="H65" s="387"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="364"/>
@@ -5163,7 +5184,7 @@
       <c r="F66" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="456"/>
+      <c r="H66" s="387"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="364"/>
@@ -5180,7 +5201,7 @@
       <c r="F67" t="s">
         <v>188</v>
       </c>
-      <c r="H67" s="456"/>
+      <c r="H67" s="387"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="365"/>
@@ -5194,7 +5215,7 @@
       <c r="F68" t="s">
         <v>188</v>
       </c>
-      <c r="H68" s="456"/>
+      <c r="H68" s="387"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="359" t="s">
@@ -5212,7 +5233,7 @@
       <c r="F69" t="s">
         <v>188</v>
       </c>
-      <c r="H69" s="456"/>
+      <c r="H69" s="387"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="357"/>
@@ -5226,7 +5247,7 @@
       <c r="F70" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="456"/>
+      <c r="H70" s="387"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="358"/>
@@ -5243,7 +5264,7 @@
       <c r="G71" t="s">
         <v>240</v>
       </c>
-      <c r="H71" s="456"/>
+      <c r="H71" s="387"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="360" t="s">
@@ -5261,7 +5282,7 @@
       <c r="F72" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="456"/>
+      <c r="H72" s="387"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="361"/>
@@ -5278,7 +5299,7 @@
       <c r="G73" t="s">
         <v>229</v>
       </c>
-      <c r="H73" s="456"/>
+      <c r="H73" s="387"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="361"/>
@@ -5292,7 +5313,7 @@
       <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="H74" s="456"/>
+      <c r="H74" s="387"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="362"/>
@@ -5309,7 +5330,7 @@
       <c r="G75" t="s">
         <v>241</v>
       </c>
-      <c r="H75" s="456"/>
+      <c r="H75" s="387"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="360" t="s">
@@ -5330,7 +5351,7 @@
       <c r="F76" t="s">
         <v>188</v>
       </c>
-      <c r="H76" s="456"/>
+      <c r="H76" s="387"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="361"/>
@@ -5344,7 +5365,7 @@
       <c r="F77" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="456"/>
+      <c r="H77" s="387"/>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="362"/>
@@ -5358,7 +5379,7 @@
       <c r="F78" t="s">
         <v>188</v>
       </c>
-      <c r="H78" s="456"/>
+      <c r="H78" s="387"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -5544,15 +5565,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="391" t="s">
+      <c r="A1" s="392" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="392"/>
-      <c r="C1" s="392"/>
-      <c r="D1" s="392"/>
-      <c r="E1" s="392"/>
-      <c r="F1" s="392"/>
-      <c r="G1" s="393"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="394"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5582,7 +5603,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5595,7 +5616,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5606,7 +5627,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5617,7 +5638,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="387" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5630,7 +5651,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5654,7 +5675,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="387" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5667,7 +5688,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5678,7 +5699,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5691,7 +5712,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="389"/>
+      <c r="A12" s="390"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5702,7 +5723,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="390" t="s">
+      <c r="A13" s="391" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5715,7 +5736,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5726,7 +5747,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5748,19 +5769,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="388"/>
-      <c r="B16" s="397" t="s">
+      <c r="A16" s="389"/>
+      <c r="B16" s="398" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="394" t="s">
+      <c r="C16" s="395" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="401"/>
-      <c r="G16" s="404"/>
+      <c r="F16" s="402"/>
+      <c r="G16" s="405"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5772,15 +5793,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="388"/>
-      <c r="B17" s="398"/>
-      <c r="C17" s="395"/>
+      <c r="A17" s="389"/>
+      <c r="B17" s="399"/>
+      <c r="C17" s="396"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="405"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="406"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5792,15 +5813,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="388"/>
-      <c r="B18" s="398"/>
-      <c r="C18" s="395"/>
+      <c r="A18" s="389"/>
+      <c r="B18" s="399"/>
+      <c r="C18" s="396"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="402"/>
-      <c r="G18" s="405"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="406"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5812,15 +5833,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
-      <c r="B19" s="398"/>
-      <c r="C19" s="396"/>
+      <c r="A19" s="389"/>
+      <c r="B19" s="399"/>
+      <c r="C19" s="397"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="406"/>
+      <c r="F19" s="404"/>
+      <c r="G19" s="407"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5832,8 +5853,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
-      <c r="B20" s="399"/>
+      <c r="A20" s="389"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5854,8 +5875,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="389"/>
-      <c r="B21" s="400"/>
+      <c r="A21" s="390"/>
+      <c r="B21" s="401"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5876,7 +5897,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="387" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5898,7 +5919,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5918,7 +5939,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="388"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5938,7 +5959,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="389"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5949,7 +5970,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="387" t="s">
+      <c r="A26" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -5962,7 +5983,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="388"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -5973,7 +5994,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -5984,7 +6005,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="389"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6401,15 +6422,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="407" t="s">
+      <c r="A1" s="408" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="408"/>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="409"/>
+      <c r="B1" s="409"/>
+      <c r="C1" s="409"/>
+      <c r="D1" s="409"/>
+      <c r="E1" s="409"/>
+      <c r="F1" s="409"/>
+      <c r="G1" s="410"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -6439,7 +6460,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="387" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6452,7 +6473,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6463,7 +6484,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6474,7 +6495,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="387" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6487,7 +6508,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6511,7 +6532,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="387" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6524,57 +6545,57 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
-      <c r="B10" s="410" t="s">
+      <c r="A10" s="389"/>
+      <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="412" t="s">
+      <c r="C10" s="413" t="s">
         <v>106</v>
       </c>
       <c r="D10" s="136" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="401"/>
-      <c r="G10" s="404"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
-      <c r="B11" s="399"/>
-      <c r="C11" s="413"/>
+      <c r="A11" s="389"/>
+      <c r="B11" s="400"/>
+      <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
-      <c r="B12" s="399"/>
-      <c r="C12" s="413"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="400"/>
+      <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="402"/>
-      <c r="G12" s="405"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
-      <c r="B13" s="399"/>
-      <c r="C13" s="414"/>
+      <c r="A13" s="389"/>
+      <c r="B13" s="400"/>
+      <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="406"/>
+      <c r="F13" s="404"/>
+      <c r="G13" s="407"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
-      <c r="B14" s="411"/>
+      <c r="A14" s="389"/>
+      <c r="B14" s="412"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
       </c>
@@ -6586,7 +6607,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6601,7 +6622,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="389"/>
+      <c r="A16" s="390"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6612,7 +6633,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="390" t="s">
+      <c r="A17" s="391" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6625,7 +6646,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="388"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6636,7 +6657,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6649,57 +6670,57 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
-      <c r="B20" s="410" t="s">
+      <c r="A20" s="389"/>
+      <c r="B20" s="411" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="412" t="s">
+      <c r="C20" s="413" t="s">
         <v>102</v>
       </c>
       <c r="D20" s="141" t="s">
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="401"/>
-      <c r="G20" s="404"/>
+      <c r="F20" s="402"/>
+      <c r="G20" s="405"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="388"/>
-      <c r="B21" s="399"/>
-      <c r="C21" s="413"/>
+      <c r="A21" s="389"/>
+      <c r="B21" s="400"/>
+      <c r="C21" s="414"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="402"/>
-      <c r="G21" s="405"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="406"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="388"/>
-      <c r="B22" s="399"/>
-      <c r="C22" s="413"/>
+      <c r="A22" s="389"/>
+      <c r="B22" s="400"/>
+      <c r="C22" s="414"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="402"/>
-      <c r="G22" s="405"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="406"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
-      <c r="B23" s="399"/>
-      <c r="C23" s="414"/>
+      <c r="A23" s="389"/>
+      <c r="B23" s="400"/>
+      <c r="C23" s="415"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="406"/>
+      <c r="F23" s="404"/>
+      <c r="G23" s="407"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="388"/>
-      <c r="B24" s="399"/>
+      <c r="A24" s="389"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6711,8 +6732,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="388"/>
-      <c r="B25" s="399"/>
+      <c r="A25" s="389"/>
+      <c r="B25" s="400"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6724,8 +6745,8 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="389"/>
-      <c r="B26" s="415"/>
+      <c r="A26" s="390"/>
+      <c r="B26" s="416"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
       </c>
@@ -6738,7 +6759,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="387" t="s">
+      <c r="A27" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6752,7 +6773,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6763,7 +6784,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="388"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6774,7 +6795,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="389"/>
+      <c r="A30" s="390"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6785,7 +6806,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="387" t="s">
+      <c r="A31" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6798,7 +6819,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="388"/>
+      <c r="A32" s="389"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6809,7 +6830,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="388"/>
+      <c r="A33" s="389"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6820,7 +6841,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="389"/>
+      <c r="A34" s="390"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7249,15 +7270,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="407" t="s">
+      <c r="A1" s="408" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="408"/>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="409"/>
+      <c r="B1" s="409"/>
+      <c r="C1" s="409"/>
+      <c r="D1" s="409"/>
+      <c r="E1" s="409"/>
+      <c r="F1" s="409"/>
+      <c r="G1" s="410"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -7287,7 +7308,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7300,7 +7321,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7311,7 +7332,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7322,7 +7343,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7335,7 +7356,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7359,7 +7380,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7372,56 +7393,56 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
-      <c r="B10" s="410" t="s">
+      <c r="A10" s="389"/>
+      <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="412" t="s">
+      <c r="C10" s="413" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="138" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="401"/>
-      <c r="G10" s="404"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
-      <c r="B11" s="399"/>
-      <c r="C11" s="413"/>
+      <c r="A11" s="389"/>
+      <c r="B11" s="400"/>
+      <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
-      <c r="B12" s="399"/>
-      <c r="C12" s="413"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="400"/>
+      <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="402"/>
-      <c r="G12" s="405"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
-      <c r="B13" s="399"/>
-      <c r="C13" s="414"/>
+      <c r="A13" s="389"/>
+      <c r="B13" s="400"/>
+      <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="406"/>
+      <c r="F13" s="404"/>
+      <c r="G13" s="407"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
-      <c r="B14" s="399"/>
+      <c r="A14" s="389"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7433,8 +7454,8 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
-      <c r="B15" s="411"/>
+      <c r="A15" s="389"/>
+      <c r="B15" s="412"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
       </c>
@@ -7446,7 +7467,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="388"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7457,7 +7478,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="389"/>
+      <c r="A17" s="390"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7468,7 +7489,7 @@
       <c r="G17" s="93"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="416" t="s">
+      <c r="A18" s="417" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="199" t="s">
@@ -7481,7 +7502,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7492,7 +7513,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7503,7 +7524,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="388"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7514,7 +7535,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="387" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7527,7 +7548,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7538,7 +7559,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="388"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7549,7 +7570,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="389"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7560,7 +7581,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7573,7 +7594,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="388"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7584,7 +7605,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7595,7 +7616,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="389"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -8041,15 +8062,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="407" t="s">
+      <c r="A1" s="408" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="408"/>
-      <c r="C1" s="408"/>
-      <c r="D1" s="408"/>
-      <c r="E1" s="408"/>
-      <c r="F1" s="408"/>
-      <c r="G1" s="409"/>
+      <c r="B1" s="409"/>
+      <c r="C1" s="409"/>
+      <c r="D1" s="409"/>
+      <c r="E1" s="409"/>
+      <c r="F1" s="409"/>
+      <c r="G1" s="410"/>
       <c r="H1"/>
       <c r="I1"/>
       <c r="J1"/>
@@ -8083,7 +8104,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="387" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -8104,7 +8125,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -8115,8 +8136,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="388"/>
-      <c r="B5" s="425" t="s">
+      <c r="A5" s="389"/>
+      <c r="B5" s="426" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -8130,8 +8151,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="389"/>
-      <c r="B6" s="426"/>
+      <c r="A6" s="390"/>
+      <c r="B6" s="427"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8143,7 +8164,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="388" t="s">
+      <c r="A7" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8156,7 +8177,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="389"/>
+      <c r="A8" s="390"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8170,7 +8191,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="427" t="s">
+      <c r="B9" s="428" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8185,7 +8206,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="426"/>
+      <c r="B10" s="427"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8197,7 +8218,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="388" t="s">
+      <c r="A11" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8210,7 +8231,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8225,7 +8246,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
+      <c r="A13" s="389"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8236,7 +8257,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="389"/>
+      <c r="A14" s="390"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8251,7 +8272,7 @@
       <c r="G14" s="150"/>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="416" t="s">
+      <c r="A15" s="417" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="203" t="s">
@@ -8268,7 +8289,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="388"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8279,7 +8300,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="388"/>
+      <c r="A17" s="389"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8290,7 +8311,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="389"/>
+      <c r="A18" s="390"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8301,7 +8322,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="388" t="s">
+      <c r="A19" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8318,7 +8339,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8329,8 +8350,8 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="388"/>
-      <c r="B21" s="410" t="s">
+      <c r="A21" s="389"/>
+      <c r="B21" s="411" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="180" t="s">
@@ -8344,8 +8365,8 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="388"/>
-      <c r="B22" s="411"/>
+      <c r="A22" s="389"/>
+      <c r="B22" s="412"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
       </c>
@@ -8357,7 +8378,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="389"/>
+      <c r="A23" s="390"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8372,7 +8393,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="388" t="s">
+      <c r="A24" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8389,7 +8410,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="388"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8400,7 +8421,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="388"/>
+      <c r="A26" s="389"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8415,7 +8436,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="389"/>
+      <c r="A27" s="390"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8426,13 +8447,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="422" t="s">
+      <c r="A28" s="423" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="420" t="s">
+      <c r="B28" s="421" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="421" t="s">
+      <c r="C28" s="422" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8443,9 +8464,9 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="423"/>
-      <c r="B29" s="399"/>
-      <c r="C29" s="413"/>
+      <c r="A29" s="424"/>
+      <c r="B29" s="400"/>
+      <c r="C29" s="414"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
       </c>
@@ -8454,9 +8475,9 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="423"/>
-      <c r="B30" s="399"/>
-      <c r="C30" s="413"/>
+      <c r="A30" s="424"/>
+      <c r="B30" s="400"/>
+      <c r="C30" s="414"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
       </c>
@@ -8465,9 +8486,9 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="423"/>
-      <c r="B31" s="399"/>
-      <c r="C31" s="414"/>
+      <c r="A31" s="424"/>
+      <c r="B31" s="400"/>
+      <c r="C31" s="415"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
       </c>
@@ -8476,8 +8497,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="423"/>
-      <c r="B32" s="399"/>
+      <c r="A32" s="424"/>
+      <c r="B32" s="400"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8489,8 +8510,8 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="424"/>
-      <c r="B33" s="415"/>
+      <c r="A33" s="425"/>
+      <c r="B33" s="416"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
       </c>
@@ -8502,13 +8523,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="417" t="s">
+      <c r="A34" s="418" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="420" t="s">
+      <c r="B34" s="421" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="421" t="s">
+      <c r="C34" s="422" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8519,9 +8540,9 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="418"/>
-      <c r="B35" s="399"/>
-      <c r="C35" s="413"/>
+      <c r="A35" s="419"/>
+      <c r="B35" s="400"/>
+      <c r="C35" s="414"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
       </c>
@@ -8530,9 +8551,9 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="418"/>
-      <c r="B36" s="399"/>
-      <c r="C36" s="413"/>
+      <c r="A36" s="419"/>
+      <c r="B36" s="400"/>
+      <c r="C36" s="414"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
       </c>
@@ -8541,9 +8562,9 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="418"/>
-      <c r="B37" s="399"/>
-      <c r="C37" s="414"/>
+      <c r="A37" s="419"/>
+      <c r="B37" s="400"/>
+      <c r="C37" s="415"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
       </c>
@@ -8552,8 +8573,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="418"/>
-      <c r="B38" s="399"/>
+      <c r="A38" s="419"/>
+      <c r="B38" s="400"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8565,8 +8586,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="418"/>
-      <c r="B39" s="399"/>
+      <c r="A39" s="419"/>
+      <c r="B39" s="400"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8578,8 +8599,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="418"/>
-      <c r="B40" s="399"/>
+      <c r="A40" s="419"/>
+      <c r="B40" s="400"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8591,8 +8612,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="418"/>
-      <c r="B41" s="399"/>
+      <c r="A41" s="419"/>
+      <c r="B41" s="400"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8604,8 +8625,8 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="419"/>
-      <c r="B42" s="415"/>
+      <c r="A42" s="420"/>
+      <c r="B42" s="416"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
       </c>
@@ -8617,13 +8638,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="417" t="s">
+      <c r="A43" s="418" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="420" t="s">
+      <c r="B43" s="421" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="421" t="s">
+      <c r="C43" s="422" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8634,9 +8655,9 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="418"/>
-      <c r="B44" s="399"/>
-      <c r="C44" s="413"/>
+      <c r="A44" s="419"/>
+      <c r="B44" s="400"/>
+      <c r="C44" s="414"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
       </c>
@@ -8645,9 +8666,9 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="418"/>
-      <c r="B45" s="399"/>
-      <c r="C45" s="413"/>
+      <c r="A45" s="419"/>
+      <c r="B45" s="400"/>
+      <c r="C45" s="414"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
       </c>
@@ -8656,9 +8677,9 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="418"/>
-      <c r="B46" s="399"/>
-      <c r="C46" s="414"/>
+      <c r="A46" s="419"/>
+      <c r="B46" s="400"/>
+      <c r="C46" s="415"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
       </c>
@@ -8667,9 +8688,9 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="418"/>
-      <c r="B47" s="399"/>
-      <c r="C47" s="413" t="s">
+      <c r="A47" s="419"/>
+      <c r="B47" s="400"/>
+      <c r="C47" s="414" t="s">
         <v>133</v>
       </c>
       <c r="D47" s="224" t="s">
@@ -8680,9 +8701,9 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="418"/>
-      <c r="B48" s="399"/>
-      <c r="C48" s="413"/>
+      <c r="A48" s="419"/>
+      <c r="B48" s="400"/>
+      <c r="C48" s="414"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
       </c>
@@ -8691,9 +8712,9 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="418"/>
-      <c r="B49" s="399"/>
-      <c r="C49" s="413"/>
+      <c r="A49" s="419"/>
+      <c r="B49" s="400"/>
+      <c r="C49" s="414"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
       </c>
@@ -8702,9 +8723,9 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="418"/>
-      <c r="B50" s="399"/>
-      <c r="C50" s="414"/>
+      <c r="A50" s="419"/>
+      <c r="B50" s="400"/>
+      <c r="C50" s="415"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
       </c>
@@ -8713,8 +8734,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="418"/>
-      <c r="B51" s="399"/>
+      <c r="A51" s="419"/>
+      <c r="B51" s="400"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8726,8 +8747,8 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="419"/>
-      <c r="B52" s="415"/>
+      <c r="A52" s="420"/>
+      <c r="B52" s="416"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
       </c>
@@ -9175,15 +9196,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="429" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="429"/>
-      <c r="C1" s="429"/>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -9213,7 +9234,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9226,7 +9247,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9237,7 +9258,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9248,7 +9269,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9261,7 +9282,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9285,58 +9306,58 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="430" t="s">
+      <c r="A9" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="399" t="s">
+      <c r="B9" s="400" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="395" t="s">
+      <c r="C9" s="396" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="270"/>
-      <c r="F9" s="433"/>
-      <c r="G9" s="432"/>
+      <c r="F9" s="434"/>
+      <c r="G9" s="433"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="430"/>
-      <c r="B10" s="399"/>
-      <c r="C10" s="395"/>
+      <c r="A10" s="431"/>
+      <c r="B10" s="400"/>
+      <c r="C10" s="396"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="406"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="430"/>
-      <c r="B11" s="399"/>
-      <c r="C11" s="395"/>
+      <c r="A11" s="431"/>
+      <c r="B11" s="400"/>
+      <c r="C11" s="396"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="430"/>
-      <c r="B12" s="399"/>
-      <c r="C12" s="396"/>
+      <c r="A12" s="431"/>
+      <c r="B12" s="400"/>
+      <c r="C12" s="397"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="407"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="430"/>
-      <c r="B13" s="399"/>
+      <c r="A13" s="431"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9348,8 +9369,8 @@
       <c r="G13" s="153"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="430"/>
-      <c r="B14" s="411"/>
+      <c r="A14" s="431"/>
+      <c r="B14" s="412"/>
       <c r="C14" s="265" t="s">
         <v>139</v>
       </c>
@@ -9361,7 +9382,7 @@
       <c r="G14" s="154"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="430"/>
+      <c r="A15" s="431"/>
       <c r="B15" s="204" t="s">
         <v>73</v>
       </c>
@@ -9372,7 +9393,7 @@
       <c r="G15" s="90"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="430"/>
+      <c r="A16" s="431"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -9385,7 +9406,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="431"/>
+      <c r="A17" s="432"/>
       <c r="B17" s="198" t="s">
         <v>74</v>
       </c>
@@ -9396,7 +9417,7 @@
       <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="416" t="s">
+      <c r="A18" s="417" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="199" t="s">
@@ -9409,7 +9430,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9420,7 +9441,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="388"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9433,7 +9454,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="389"/>
+      <c r="A21" s="390"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9444,7 +9465,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9457,7 +9478,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9468,7 +9489,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="388"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9479,7 +9500,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="389"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9490,7 +9511,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9503,7 +9524,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="388"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9514,7 +9535,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="388"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9525,7 +9546,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="389"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9937,15 +9958,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="434" t="s">
+      <c r="A1" s="435" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="434"/>
-      <c r="D1" s="434"/>
-      <c r="E1" s="434"/>
-      <c r="F1" s="434"/>
-      <c r="G1" s="435"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
+      <c r="G1" s="436"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9971,13 +9992,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="436" t="s">
+      <c r="A3" s="437" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="427" t="s">
+      <c r="B3" s="428" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="421" t="s">
+      <c r="C3" s="422" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -9988,9 +10009,9 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="437"/>
-      <c r="B4" s="439"/>
-      <c r="C4" s="413"/>
+      <c r="A4" s="438"/>
+      <c r="B4" s="440"/>
+      <c r="C4" s="414"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
       </c>
@@ -9999,9 +10020,9 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="437"/>
-      <c r="B5" s="439"/>
-      <c r="C5" s="413"/>
+      <c r="A5" s="438"/>
+      <c r="B5" s="440"/>
+      <c r="C5" s="414"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
       </c>
@@ -10010,9 +10031,9 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="437"/>
-      <c r="B6" s="439"/>
-      <c r="C6" s="414"/>
+      <c r="A6" s="438"/>
+      <c r="B6" s="440"/>
+      <c r="C6" s="415"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
       </c>
@@ -10021,8 +10042,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="437"/>
-      <c r="B7" s="439"/>
+      <c r="A7" s="438"/>
+      <c r="B7" s="440"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -10034,8 +10055,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="437"/>
-      <c r="B8" s="440"/>
+      <c r="A8" s="438"/>
+      <c r="B8" s="441"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -10047,147 +10068,147 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="437"/>
-      <c r="B9" s="425" t="s">
+      <c r="A9" s="438"/>
+      <c r="B9" s="426" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="412" t="s">
+      <c r="C9" s="413" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="401"/>
-      <c r="F9" s="401"/>
-      <c r="G9" s="404"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="402"/>
+      <c r="G9" s="405"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="437"/>
-      <c r="B10" s="439"/>
-      <c r="C10" s="413"/>
+      <c r="A10" s="438"/>
+      <c r="B10" s="440"/>
+      <c r="C10" s="414"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="402"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="E10" s="403"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="406"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="437"/>
-      <c r="B11" s="439"/>
-      <c r="C11" s="413"/>
+      <c r="A11" s="438"/>
+      <c r="B11" s="440"/>
+      <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="402"/>
-      <c r="F11" s="402"/>
-      <c r="G11" s="405"/>
+      <c r="E11" s="403"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="437"/>
-      <c r="B12" s="439"/>
-      <c r="C12" s="414"/>
+      <c r="A12" s="438"/>
+      <c r="B12" s="440"/>
+      <c r="C12" s="415"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="403"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="E12" s="404"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="407"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="437"/>
-      <c r="B13" s="439"/>
-      <c r="C13" s="413" t="s">
+      <c r="A13" s="438"/>
+      <c r="B13" s="440"/>
+      <c r="C13" s="414" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="402"/>
-      <c r="F13" s="402"/>
-      <c r="G13" s="405"/>
+      <c r="E13" s="403"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="437"/>
-      <c r="B14" s="439"/>
-      <c r="C14" s="413"/>
+      <c r="A14" s="438"/>
+      <c r="B14" s="440"/>
+      <c r="C14" s="414"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="402"/>
-      <c r="F14" s="402"/>
-      <c r="G14" s="405"/>
+      <c r="E14" s="403"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="406"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="437"/>
-      <c r="B15" s="439"/>
-      <c r="C15" s="413"/>
+      <c r="A15" s="438"/>
+      <c r="B15" s="440"/>
+      <c r="C15" s="414"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="402"/>
-      <c r="F15" s="402"/>
-      <c r="G15" s="405"/>
+      <c r="E15" s="403"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="406"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="437"/>
-      <c r="B16" s="439"/>
-      <c r="C16" s="414"/>
+      <c r="A16" s="438"/>
+      <c r="B16" s="440"/>
+      <c r="C16" s="415"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="403"/>
-      <c r="F16" s="403"/>
-      <c r="G16" s="406"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="404"/>
+      <c r="G16" s="407"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="437"/>
-      <c r="B17" s="439"/>
-      <c r="C17" s="413" t="s">
+      <c r="A17" s="438"/>
+      <c r="B17" s="440"/>
+      <c r="C17" s="414" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="402"/>
-      <c r="F17" s="402"/>
-      <c r="G17" s="405"/>
+      <c r="E17" s="403"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="406"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="437"/>
-      <c r="B18" s="439"/>
-      <c r="C18" s="413"/>
+      <c r="A18" s="438"/>
+      <c r="B18" s="440"/>
+      <c r="C18" s="414"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="402"/>
-      <c r="F18" s="402"/>
-      <c r="G18" s="405"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="406"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="437"/>
-      <c r="B19" s="439"/>
-      <c r="C19" s="413"/>
+      <c r="A19" s="438"/>
+      <c r="B19" s="440"/>
+      <c r="C19" s="414"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="402"/>
-      <c r="F19" s="402"/>
-      <c r="G19" s="405"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="406"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="437"/>
-      <c r="B20" s="439"/>
-      <c r="C20" s="441"/>
+      <c r="A20" s="438"/>
+      <c r="B20" s="440"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="442"/>
-      <c r="F20" s="442"/>
-      <c r="G20" s="443"/>
+      <c r="E20" s="443"/>
+      <c r="F20" s="443"/>
+      <c r="G20" s="444"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="438"/>
+      <c r="A21" s="439"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -10198,10 +10219,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="444" t="s">
+      <c r="A22" s="445" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="427" t="s">
+      <c r="B22" s="428" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -10213,8 +10234,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="445"/>
-      <c r="B23" s="439"/>
+      <c r="A23" s="446"/>
+      <c r="B23" s="440"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -10224,54 +10245,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="445"/>
-      <c r="B24" s="439"/>
-      <c r="C24" s="413" t="s">
+      <c r="A24" s="446"/>
+      <c r="B24" s="440"/>
+      <c r="C24" s="414" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="402"/>
-      <c r="F24" s="402"/>
-      <c r="G24" s="405"/>
+      <c r="E24" s="403"/>
+      <c r="F24" s="403"/>
+      <c r="G24" s="406"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="445"/>
-      <c r="B25" s="439"/>
-      <c r="C25" s="413"/>
+      <c r="A25" s="446"/>
+      <c r="B25" s="440"/>
+      <c r="C25" s="414"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="402"/>
-      <c r="F25" s="402"/>
-      <c r="G25" s="405"/>
+      <c r="E25" s="403"/>
+      <c r="F25" s="403"/>
+      <c r="G25" s="406"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="445"/>
-      <c r="B26" s="439"/>
-      <c r="C26" s="413"/>
+      <c r="A26" s="446"/>
+      <c r="B26" s="440"/>
+      <c r="C26" s="414"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="402"/>
-      <c r="F26" s="402"/>
-      <c r="G26" s="405"/>
+      <c r="E26" s="403"/>
+      <c r="F26" s="403"/>
+      <c r="G26" s="406"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="445"/>
-      <c r="B27" s="440"/>
-      <c r="C27" s="441"/>
+      <c r="A27" s="446"/>
+      <c r="B27" s="441"/>
+      <c r="C27" s="442"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="442"/>
-      <c r="F27" s="442"/>
-      <c r="G27" s="443"/>
+      <c r="E27" s="443"/>
+      <c r="F27" s="443"/>
+      <c r="G27" s="444"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="445"/>
-      <c r="B28" s="439" t="s">
+      <c r="A28" s="446"/>
+      <c r="B28" s="440" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10283,50 +10304,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="445"/>
-      <c r="B29" s="439"/>
-      <c r="C29" s="413" t="s">
+      <c r="A29" s="446"/>
+      <c r="B29" s="440"/>
+      <c r="C29" s="414" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="402"/>
-      <c r="F29" s="402"/>
-      <c r="G29" s="405"/>
+      <c r="E29" s="403"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="406"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="445"/>
-      <c r="B30" s="439"/>
-      <c r="C30" s="413"/>
+      <c r="A30" s="446"/>
+      <c r="B30" s="440"/>
+      <c r="C30" s="414"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="402"/>
-      <c r="F30" s="402"/>
-      <c r="G30" s="405"/>
+      <c r="E30" s="403"/>
+      <c r="F30" s="403"/>
+      <c r="G30" s="406"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="445"/>
-      <c r="B31" s="439"/>
-      <c r="C31" s="413"/>
+      <c r="A31" s="446"/>
+      <c r="B31" s="440"/>
+      <c r="C31" s="414"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="402"/>
-      <c r="F31" s="402"/>
-      <c r="G31" s="405"/>
+      <c r="E31" s="403"/>
+      <c r="F31" s="403"/>
+      <c r="G31" s="406"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="446"/>
-      <c r="B32" s="426"/>
-      <c r="C32" s="447"/>
+      <c r="A32" s="447"/>
+      <c r="B32" s="427"/>
+      <c r="C32" s="448"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="448"/>
-      <c r="F32" s="448"/>
-      <c r="G32" s="449"/>
+      <c r="E32" s="449"/>
+      <c r="F32" s="449"/>
+      <c r="G32" s="450"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10342,10 +10363,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="436" t="s">
+      <c r="A34" s="437" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="450" t="s">
+      <c r="B34" s="451" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10357,8 +10378,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="437"/>
-      <c r="B35" s="451"/>
+      <c r="A35" s="438"/>
+      <c r="B35" s="452"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10368,53 +10389,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="437"/>
-      <c r="B36" s="451"/>
-      <c r="C36" s="441" t="s">
+      <c r="A36" s="438"/>
+      <c r="B36" s="452"/>
+      <c r="C36" s="442" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="402"/>
-      <c r="F36" s="402"/>
-      <c r="G36" s="405"/>
+      <c r="E36" s="403"/>
+      <c r="F36" s="403"/>
+      <c r="G36" s="406"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="437"/>
-      <c r="B37" s="451"/>
-      <c r="C37" s="452"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="452"/>
+      <c r="C37" s="453"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="402"/>
-      <c r="F37" s="402"/>
-      <c r="G37" s="405"/>
+      <c r="E37" s="403"/>
+      <c r="F37" s="403"/>
+      <c r="G37" s="406"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="437"/>
-      <c r="B38" s="451"/>
-      <c r="C38" s="452"/>
+      <c r="A38" s="438"/>
+      <c r="B38" s="452"/>
+      <c r="C38" s="453"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="402"/>
-      <c r="F38" s="402"/>
-      <c r="G38" s="405"/>
+      <c r="E38" s="403"/>
+      <c r="F38" s="403"/>
+      <c r="G38" s="406"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="437"/>
-      <c r="B39" s="451"/>
-      <c r="C39" s="452"/>
+      <c r="A39" s="438"/>
+      <c r="B39" s="452"/>
+      <c r="C39" s="453"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="442"/>
-      <c r="F39" s="442"/>
-      <c r="G39" s="443"/>
+      <c r="E39" s="443"/>
+      <c r="F39" s="443"/>
+      <c r="G39" s="444"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="437"/>
+      <c r="A40" s="438"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10425,7 +10446,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="437"/>
+      <c r="A41" s="438"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10436,7 +10457,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="438"/>
+      <c r="A42" s="439"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10447,7 +10468,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="436" t="s">
+      <c r="A43" s="437" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10460,8 +10481,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="437"/>
-      <c r="B44" s="425" t="s">
+      <c r="A44" s="438"/>
+      <c r="B44" s="426" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10473,8 +10494,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="437"/>
-      <c r="B45" s="439"/>
+      <c r="A45" s="438"/>
+      <c r="B45" s="440"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10484,8 +10505,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="437"/>
-      <c r="B46" s="439"/>
+      <c r="A46" s="438"/>
+      <c r="B46" s="440"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10495,9 +10516,9 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="437"/>
-      <c r="B47" s="439"/>
-      <c r="C47" s="413" t="s">
+      <c r="A47" s="438"/>
+      <c r="B47" s="440"/>
+      <c r="C47" s="414" t="s">
         <v>58</v>
       </c>
       <c r="D47" s="305" t="s">
@@ -10508,9 +10529,9 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="437"/>
-      <c r="B48" s="439"/>
-      <c r="C48" s="413"/>
+      <c r="A48" s="438"/>
+      <c r="B48" s="440"/>
+      <c r="C48" s="414"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
       </c>
@@ -10519,9 +10540,9 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="437"/>
-      <c r="B49" s="439"/>
-      <c r="C49" s="413"/>
+      <c r="A49" s="438"/>
+      <c r="B49" s="440"/>
+      <c r="C49" s="414"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
       </c>
@@ -10530,9 +10551,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="437"/>
-      <c r="B50" s="440"/>
-      <c r="C50" s="441"/>
+      <c r="A50" s="438"/>
+      <c r="B50" s="441"/>
+      <c r="C50" s="442"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10541,11 +10562,11 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="437"/>
-      <c r="B51" s="425" t="s">
+      <c r="A51" s="438"/>
+      <c r="B51" s="426" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="412" t="s">
+      <c r="C51" s="413" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="309" t="s">
@@ -10556,9 +10577,9 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="437"/>
-      <c r="B52" s="439"/>
-      <c r="C52" s="413"/>
+      <c r="A52" s="438"/>
+      <c r="B52" s="440"/>
+      <c r="C52" s="414"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
       </c>
@@ -10567,9 +10588,9 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="437"/>
-      <c r="B53" s="439"/>
-      <c r="C53" s="413"/>
+      <c r="A53" s="438"/>
+      <c r="B53" s="440"/>
+      <c r="C53" s="414"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
       </c>
@@ -10578,9 +10599,9 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="437"/>
-      <c r="B54" s="439"/>
-      <c r="C54" s="414"/>
+      <c r="A54" s="438"/>
+      <c r="B54" s="440"/>
+      <c r="C54" s="415"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
       </c>
@@ -10589,8 +10610,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="437"/>
-      <c r="B55" s="439"/>
+      <c r="A55" s="438"/>
+      <c r="B55" s="440"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10600,8 +10621,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="437"/>
-      <c r="B56" s="440"/>
+      <c r="A56" s="438"/>
+      <c r="B56" s="441"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10611,8 +10632,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="437"/>
-      <c r="B57" s="439" t="s">
+      <c r="A57" s="438"/>
+      <c r="B57" s="440" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10624,8 +10645,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="437"/>
-      <c r="B58" s="439"/>
+      <c r="A58" s="438"/>
+      <c r="B58" s="440"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10635,8 +10656,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="438"/>
-      <c r="B59" s="426"/>
+      <c r="A59" s="439"/>
+      <c r="B59" s="427"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10646,7 +10667,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="436" t="s">
+      <c r="A60" s="437" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10659,8 +10680,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="437"/>
-      <c r="B61" s="425" t="s">
+      <c r="A61" s="438"/>
+      <c r="B61" s="426" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10672,8 +10693,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="437"/>
-      <c r="B62" s="440"/>
+      <c r="A62" s="438"/>
+      <c r="B62" s="441"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10683,7 +10704,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="437"/>
+      <c r="A63" s="438"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10694,7 +10715,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="437"/>
+      <c r="A64" s="438"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10705,7 +10726,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="453" t="s">
+      <c r="A65" s="454" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10718,8 +10739,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="454"/>
-      <c r="B66" s="425" t="s">
+      <c r="A66" s="455"/>
+      <c r="B66" s="426" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10731,8 +10752,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="454"/>
-      <c r="B67" s="439"/>
+      <c r="A67" s="455"/>
+      <c r="B67" s="440"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10742,8 +10763,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="454"/>
-      <c r="B68" s="440"/>
+      <c r="A68" s="455"/>
+      <c r="B68" s="441"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10753,7 +10774,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="454"/>
+      <c r="A69" s="455"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10764,8 +10785,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="454"/>
-      <c r="B70" s="425" t="s">
+      <c r="A70" s="455"/>
+      <c r="B70" s="426" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10777,8 +10798,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="454"/>
-      <c r="B71" s="439"/>
+      <c r="A71" s="455"/>
+      <c r="B71" s="440"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10788,8 +10809,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="455"/>
-      <c r="B72" s="426"/>
+      <c r="A72" s="456"/>
+      <c r="B72" s="427"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10915,15 +10936,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="428" t="s">
+      <c r="A1" s="429" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="429"/>
-      <c r="C1" s="429"/>
-      <c r="D1" s="429"/>
-      <c r="E1" s="429"/>
-      <c r="F1" s="429"/>
-      <c r="G1" s="429"/>
+      <c r="B1" s="430"/>
+      <c r="C1" s="430"/>
+      <c r="D1" s="430"/>
+      <c r="E1" s="430"/>
+      <c r="F1" s="430"/>
+      <c r="G1" s="430"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -10953,7 +10974,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -10966,7 +10987,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="388"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -10977,7 +10998,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -10988,7 +11009,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -11001,7 +11022,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="389"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -11025,7 +11046,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -11038,7 +11059,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="388"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -11049,7 +11070,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="388"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -11062,7 +11083,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="389"/>
+      <c r="A12" s="390"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -11073,7 +11094,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="416" t="s">
+      <c r="A13" s="417" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="158" t="s">
@@ -11086,7 +11107,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="388"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -11097,7 +11118,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="388"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -11110,7 +11131,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="389"/>
+      <c r="A16" s="390"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -11121,7 +11142,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="388" t="s">
+      <c r="A17" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -11134,7 +11155,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="388"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -11145,7 +11166,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="388"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -11156,7 +11177,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="389"/>
+      <c r="A20" s="390"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -11167,7 +11188,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="388" t="s">
+      <c r="A21" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -11180,7 +11201,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="388"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -11191,7 +11212,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="388"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -11202,7 +11223,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="389"/>
+      <c r="A24" s="390"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD48499E-DC72-4740-ACAD-CF24AF329343}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703C0EA-20D7-4DD5-9951-C70BAB4BB014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="252">
   <si>
     <t>ENG 251</t>
   </si>
@@ -964,9 +964,6 @@
   </si>
   <si>
     <t>ok (left original link)</t>
-  </si>
-  <si>
-    <t>check for word doc you started</t>
   </si>
 </sst>
 </file>
@@ -2845,15 +2842,81 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2884,70 +2947,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2962,54 +3007,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3040,6 +3037,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3064,15 +3070,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3091,71 +3088,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4069,7 +4066,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,11 +4083,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="366" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="376"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="368"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="M1" t="s">
@@ -4128,10 +4125,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="369" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4143,7 +4140,7 @@
       <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I3" t="s">
@@ -4154,8 +4151,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="357"/>
-      <c r="B4" s="378"/>
+      <c r="A4" s="379"/>
+      <c r="B4" s="370"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4165,7 +4162,7 @@
       <c r="F4" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="387"/>
+      <c r="H4" s="353"/>
       <c r="I4" t="s">
         <v>250</v>
       </c>
@@ -4174,8 +4171,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="357"/>
-      <c r="B5" s="379"/>
+      <c r="A5" s="379"/>
+      <c r="B5" s="371"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4188,7 +4185,7 @@
       <c r="G5" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="387"/>
+      <c r="H5" s="353"/>
       <c r="I5" t="s">
         <v>250</v>
       </c>
@@ -4197,8 +4194,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="357"/>
-      <c r="B6" s="377" t="s">
+      <c r="A6" s="379"/>
+      <c r="B6" s="369" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
@@ -4213,7 +4210,7 @@
       <c r="G6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="387" t="s">
+      <c r="H6" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I6" t="s">
@@ -4224,8 +4221,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="357"/>
-      <c r="B7" s="378"/>
+      <c r="A7" s="379"/>
+      <c r="B7" s="370"/>
       <c r="C7" s="341" t="s">
         <v>209</v>
       </c>
@@ -4235,7 +4232,7 @@
       <c r="F7" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="387"/>
+      <c r="H7" s="353"/>
       <c r="I7" t="s">
         <v>251</v>
       </c>
@@ -4244,8 +4241,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="357"/>
-      <c r="B8" s="379"/>
+      <c r="A8" s="379"/>
+      <c r="B8" s="371"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4255,14 +4252,17 @@
       <c r="F8" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="387"/>
+      <c r="H8" s="353"/>
       <c r="I8" t="s">
-        <v>252</v>
+        <v>250</v>
+      </c>
+      <c r="J8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="357"/>
-      <c r="B9" s="377" t="s">
+      <c r="A9" s="379"/>
+      <c r="B9" s="369" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4277,13 +4277,13 @@
       <c r="G9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="387" t="s">
+      <c r="H9" s="353" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="357"/>
-      <c r="B10" s="378"/>
+      <c r="A10" s="379"/>
+      <c r="B10" s="370"/>
       <c r="C10" s="334" t="s">
         <v>212</v>
       </c>
@@ -4296,11 +4296,11 @@
       <c r="G10" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="387"/>
+      <c r="H10" s="353"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="358"/>
-      <c r="B11" s="380"/>
+      <c r="A11" s="380"/>
+      <c r="B11" s="372"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4310,13 +4310,13 @@
       <c r="F11" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="387"/>
+      <c r="H11" s="353"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="381" t="s">
+      <c r="B12" s="373" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
@@ -4328,11 +4328,11 @@
       <c r="F12" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="387"/>
+      <c r="H12" s="353"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="357"/>
-      <c r="B13" s="378"/>
+      <c r="A13" s="379"/>
+      <c r="B13" s="370"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4342,11 +4342,11 @@
       <c r="F13" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="387"/>
+      <c r="H13" s="353"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="357"/>
-      <c r="B14" s="379"/>
+      <c r="A14" s="379"/>
+      <c r="B14" s="371"/>
       <c r="C14" s="333" t="s">
         <v>195</v>
       </c>
@@ -4356,11 +4356,11 @@
       <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="387"/>
+      <c r="H14" s="353"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="357"/>
-      <c r="B15" s="382" t="s">
+      <c r="A15" s="379"/>
+      <c r="B15" s="354" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4375,11 +4375,11 @@
       <c r="G15" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="387"/>
+      <c r="H15" s="353"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="357"/>
-      <c r="B16" s="383"/>
+      <c r="A16" s="379"/>
+      <c r="B16" s="355"/>
       <c r="C16" s="334" t="s">
         <v>210</v>
       </c>
@@ -4389,11 +4389,11 @@
       <c r="F16" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="387"/>
+      <c r="H16" s="353"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358"/>
-      <c r="B17" s="384"/>
+      <c r="A17" s="380"/>
+      <c r="B17" s="356"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4403,13 +4403,13 @@
       <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="387"/>
+      <c r="H17" s="353"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="359" t="s">
+      <c r="A18" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="385" t="s">
+      <c r="B18" s="357" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
@@ -4421,11 +4421,11 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="387"/>
+      <c r="H18" s="353"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="357"/>
-      <c r="B19" s="367"/>
+      <c r="A19" s="379"/>
+      <c r="B19" s="358"/>
       <c r="C19" s="334" t="s">
         <v>214</v>
       </c>
@@ -4435,11 +4435,11 @@
       <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="387"/>
+      <c r="H19" s="353"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="358"/>
-      <c r="B20" s="386"/>
+      <c r="A20" s="380"/>
+      <c r="B20" s="359"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4449,13 +4449,13 @@
       <c r="F20" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="387"/>
+      <c r="H20" s="353"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="359" t="s">
+      <c r="A21" s="381" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="353" t="s">
+      <c r="B21" s="360" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4470,11 +4470,11 @@
       <c r="G21" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="387"/>
+      <c r="H21" s="353"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="357"/>
-      <c r="B22" s="354"/>
+      <c r="A22" s="379"/>
+      <c r="B22" s="361"/>
       <c r="C22" s="334" t="s">
         <v>196</v>
       </c>
@@ -4484,11 +4484,11 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="387"/>
+      <c r="H22" s="353"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="357"/>
-      <c r="B23" s="370"/>
+      <c r="A23" s="379"/>
+      <c r="B23" s="362"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4498,11 +4498,11 @@
       <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="387"/>
+      <c r="H23" s="353"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="369" t="s">
+      <c r="A24" s="379"/>
+      <c r="B24" s="363" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4517,11 +4517,11 @@
       <c r="G24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="387"/>
+      <c r="H24" s="353"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="357"/>
-      <c r="B25" s="354"/>
+      <c r="A25" s="379"/>
+      <c r="B25" s="361"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4534,11 +4534,11 @@
       <c r="G25" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="387"/>
+      <c r="H25" s="353"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="357"/>
-      <c r="B26" s="370"/>
+      <c r="A26" s="379"/>
+      <c r="B26" s="362"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4551,11 +4551,11 @@
       <c r="G26" t="s">
         <v>233</v>
       </c>
-      <c r="H26" s="387"/>
+      <c r="H26" s="353"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="357"/>
-      <c r="B27" s="366" t="s">
+      <c r="A27" s="379"/>
+      <c r="B27" s="364" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4567,11 +4567,11 @@
       <c r="F27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="387"/>
+      <c r="H27" s="353"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="357"/>
-      <c r="B28" s="367"/>
+      <c r="A28" s="379"/>
+      <c r="B28" s="358"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4581,11 +4581,11 @@
       <c r="F28" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="387"/>
+      <c r="H28" s="353"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="357"/>
-      <c r="B29" s="368"/>
+      <c r="A29" s="379"/>
+      <c r="B29" s="365"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4595,11 +4595,11 @@
       <c r="F29" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="387"/>
+      <c r="H29" s="353"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="357"/>
-      <c r="B30" s="369" t="s">
+      <c r="A30" s="379"/>
+      <c r="B30" s="363" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4611,11 +4611,11 @@
       <c r="F30" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="387"/>
+      <c r="H30" s="353"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="357"/>
-      <c r="B31" s="354"/>
+      <c r="A31" s="379"/>
+      <c r="B31" s="361"/>
       <c r="C31" s="334" t="s">
         <v>216</v>
       </c>
@@ -4628,11 +4628,11 @@
       <c r="G31" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="387"/>
+      <c r="H31" s="353"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="358"/>
-      <c r="B32" s="355"/>
+      <c r="A32" s="380"/>
+      <c r="B32" s="374"/>
       <c r="C32" s="337" t="s">
         <v>197</v>
       </c>
@@ -4642,13 +4642,13 @@
       <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="387"/>
+      <c r="H32" s="353"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="360" t="s">
+      <c r="A33" s="382" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="353" t="s">
+      <c r="B33" s="360" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4660,11 +4660,11 @@
       <c r="F33" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="387"/>
+      <c r="H33" s="353"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="361"/>
-      <c r="B34" s="354"/>
+      <c r="A34" s="383"/>
+      <c r="B34" s="361"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4674,11 +4674,11 @@
       <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="387"/>
+      <c r="H34" s="353"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="361"/>
-      <c r="B35" s="370"/>
+      <c r="A35" s="383"/>
+      <c r="B35" s="362"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
@@ -4691,11 +4691,11 @@
       <c r="G35" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="387"/>
+      <c r="H35" s="353"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="361"/>
-      <c r="B36" s="369" t="s">
+      <c r="A36" s="383"/>
+      <c r="B36" s="363" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
@@ -4707,11 +4707,11 @@
       <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="387"/>
+      <c r="H36" s="353"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="361"/>
-      <c r="B37" s="354"/>
+      <c r="A37" s="383"/>
+      <c r="B37" s="361"/>
       <c r="C37" s="334" t="s">
         <v>215</v>
       </c>
@@ -4721,11 +4721,11 @@
       <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="387"/>
+      <c r="H37" s="353"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="361"/>
-      <c r="B38" s="370"/>
+      <c r="A38" s="383"/>
+      <c r="B38" s="362"/>
       <c r="C38" s="333" t="s">
         <v>199</v>
       </c>
@@ -4735,11 +4735,11 @@
       <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="387"/>
+      <c r="H38" s="353"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="361"/>
-      <c r="B39" s="369" t="s">
+      <c r="A39" s="383"/>
+      <c r="B39" s="363" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4754,11 +4754,11 @@
       <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="387"/>
+      <c r="H39" s="353"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="361"/>
-      <c r="B40" s="354"/>
+      <c r="A40" s="383"/>
+      <c r="B40" s="361"/>
       <c r="C40" s="334" t="s">
         <v>200</v>
       </c>
@@ -4771,11 +4771,11 @@
       <c r="G40" t="s">
         <v>235</v>
       </c>
-      <c r="H40" s="387"/>
+      <c r="H40" s="353"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="361"/>
-      <c r="B41" s="370"/>
+      <c r="A41" s="383"/>
+      <c r="B41" s="362"/>
       <c r="C41" s="333" t="s">
         <v>236</v>
       </c>
@@ -4788,11 +4788,11 @@
       <c r="G41" t="s">
         <v>248</v>
       </c>
-      <c r="H41" s="387"/>
+      <c r="H41" s="353"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="361"/>
-      <c r="B42" s="369" t="s">
+      <c r="A42" s="383"/>
+      <c r="B42" s="363" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="334" t="s">
@@ -4804,11 +4804,11 @@
       <c r="F42" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="387"/>
+      <c r="H42" s="353"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="361"/>
-      <c r="B43" s="354"/>
+      <c r="A43" s="383"/>
+      <c r="B43" s="361"/>
       <c r="C43" s="334" t="s">
         <v>197</v>
       </c>
@@ -4818,11 +4818,11 @@
       <c r="F43" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="387"/>
+      <c r="H43" s="353"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="362"/>
-      <c r="B44" s="355"/>
+      <c r="A44" s="384"/>
+      <c r="B44" s="374"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4832,13 +4832,13 @@
       <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="387"/>
+      <c r="H44" s="353"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="359" t="s">
+      <c r="A45" s="381" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="353" t="s">
+      <c r="B45" s="360" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4850,11 +4850,11 @@
       <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="387"/>
+      <c r="H45" s="353"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="357"/>
-      <c r="B46" s="354"/>
+      <c r="A46" s="379"/>
+      <c r="B46" s="361"/>
       <c r="C46" s="334" t="s">
         <v>228</v>
       </c>
@@ -4864,11 +4864,11 @@
       <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="387"/>
+      <c r="H46" s="353"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="357"/>
-      <c r="B47" s="370"/>
+      <c r="A47" s="379"/>
+      <c r="B47" s="362"/>
       <c r="C47" s="333" t="s">
         <v>209</v>
       </c>
@@ -4878,11 +4878,11 @@
       <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="387"/>
+      <c r="H47" s="353"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="357"/>
-      <c r="B48" s="369" t="s">
+      <c r="A48" s="379"/>
+      <c r="B48" s="363" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
@@ -4897,11 +4897,11 @@
       <c r="G48" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="387"/>
+      <c r="H48" s="353"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="357"/>
-      <c r="B49" s="354"/>
+      <c r="A49" s="379"/>
+      <c r="B49" s="361"/>
       <c r="C49" s="334" t="s">
         <v>175</v>
       </c>
@@ -4911,11 +4911,11 @@
       <c r="F49" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="387"/>
+      <c r="H49" s="353"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="357"/>
-      <c r="B50" s="370"/>
+      <c r="A50" s="379"/>
+      <c r="B50" s="362"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -4925,11 +4925,11 @@
       <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="387"/>
+      <c r="H50" s="353"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="357"/>
-      <c r="B51" s="369" t="s">
+      <c r="A51" s="379"/>
+      <c r="B51" s="363" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -4941,11 +4941,11 @@
       <c r="F51" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="387"/>
+      <c r="H51" s="353"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="357"/>
-      <c r="B52" s="354"/>
+      <c r="A52" s="379"/>
+      <c r="B52" s="361"/>
       <c r="C52" s="334" t="s">
         <v>201</v>
       </c>
@@ -4958,11 +4958,11 @@
       <c r="G52" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="387"/>
+      <c r="H52" s="353"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="357"/>
-      <c r="B53" s="370"/>
+      <c r="A53" s="379"/>
+      <c r="B53" s="362"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
@@ -4972,11 +4972,11 @@
       <c r="F53" t="s">
         <v>188</v>
       </c>
-      <c r="H53" s="387"/>
+      <c r="H53" s="353"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="357"/>
-      <c r="B54" s="369" t="s">
+      <c r="A54" s="379"/>
+      <c r="B54" s="363" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
@@ -4991,11 +4991,11 @@
       <c r="G54" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="387"/>
+      <c r="H54" s="353"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="357"/>
-      <c r="B55" s="354"/>
+      <c r="A55" s="379"/>
+      <c r="B55" s="361"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -5005,11 +5005,11 @@
       <c r="F55" t="s">
         <v>188</v>
       </c>
-      <c r="H55" s="387"/>
+      <c r="H55" s="353"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="358"/>
-      <c r="B56" s="355"/>
+      <c r="A56" s="380"/>
+      <c r="B56" s="374"/>
       <c r="C56" s="337" t="s">
         <v>226</v>
       </c>
@@ -5022,13 +5022,13 @@
       <c r="G56" t="s">
         <v>238</v>
       </c>
-      <c r="H56" s="387"/>
+      <c r="H56" s="353"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="363" t="s">
+      <c r="A57" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="371" t="s">
+      <c r="B57" s="375" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -5040,11 +5040,11 @@
       <c r="F57" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="387"/>
+      <c r="H57" s="353"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="364"/>
-      <c r="B58" s="372"/>
+      <c r="A58" s="386"/>
+      <c r="B58" s="376"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -5057,11 +5057,11 @@
       <c r="F58" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="387"/>
+      <c r="H58" s="353"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="364"/>
-      <c r="B59" s="373"/>
+      <c r="A59" s="386"/>
+      <c r="B59" s="377"/>
       <c r="C59" s="333" t="s">
         <v>228</v>
       </c>
@@ -5071,11 +5071,11 @@
       <c r="F59" t="s">
         <v>188</v>
       </c>
-      <c r="H59" s="387"/>
+      <c r="H59" s="353"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="364"/>
-      <c r="B60" s="366" t="s">
+      <c r="A60" s="386"/>
+      <c r="B60" s="364" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -5090,11 +5090,11 @@
       <c r="F60" t="s">
         <v>188</v>
       </c>
-      <c r="H60" s="387"/>
+      <c r="H60" s="353"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="364"/>
-      <c r="B61" s="367"/>
+      <c r="A61" s="386"/>
+      <c r="B61" s="358"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -5104,11 +5104,11 @@
       <c r="F61" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="387"/>
+      <c r="H61" s="353"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="364"/>
-      <c r="B62" s="368"/>
+      <c r="A62" s="386"/>
+      <c r="B62" s="365"/>
       <c r="C62" s="333" t="s">
         <v>237</v>
       </c>
@@ -5121,11 +5121,11 @@
       <c r="G62" t="s">
         <v>243</v>
       </c>
-      <c r="H62" s="387"/>
+      <c r="H62" s="353"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="364"/>
-      <c r="B63" s="369" t="s">
+      <c r="A63" s="386"/>
+      <c r="B63" s="363" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -5137,11 +5137,11 @@
       <c r="F63" t="s">
         <v>188</v>
       </c>
-      <c r="H63" s="387"/>
+      <c r="H63" s="353"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="364"/>
-      <c r="B64" s="354"/>
+      <c r="A64" s="386"/>
+      <c r="B64" s="361"/>
       <c r="C64" s="334" t="s">
         <v>225</v>
       </c>
@@ -5154,11 +5154,11 @@
       <c r="F64" t="s">
         <v>188</v>
       </c>
-      <c r="H64" s="387"/>
+      <c r="H64" s="353"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="364"/>
-      <c r="B65" s="370"/>
+      <c r="A65" s="386"/>
+      <c r="B65" s="362"/>
       <c r="C65" s="333" t="s">
         <v>209</v>
       </c>
@@ -5168,11 +5168,11 @@
       <c r="F65" t="s">
         <v>188</v>
       </c>
-      <c r="H65" s="387"/>
+      <c r="H65" s="353"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="364"/>
-      <c r="B66" s="369" t="s">
+      <c r="A66" s="386"/>
+      <c r="B66" s="363" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
@@ -5184,11 +5184,11 @@
       <c r="F66" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="387"/>
+      <c r="H66" s="353"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="364"/>
-      <c r="B67" s="354"/>
+      <c r="A67" s="386"/>
+      <c r="B67" s="361"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -5201,11 +5201,11 @@
       <c r="F67" t="s">
         <v>188</v>
       </c>
-      <c r="H67" s="387"/>
+      <c r="H67" s="353"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="365"/>
-      <c r="B68" s="355"/>
+      <c r="A68" s="387"/>
+      <c r="B68" s="374"/>
       <c r="C68" s="334" t="s">
         <v>209</v>
       </c>
@@ -5215,13 +5215,13 @@
       <c r="F68" t="s">
         <v>188</v>
       </c>
-      <c r="H68" s="387"/>
+      <c r="H68" s="353"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="359" t="s">
+      <c r="A69" s="381" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="353" t="s">
+      <c r="B69" s="360" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5233,11 +5233,11 @@
       <c r="F69" t="s">
         <v>188</v>
       </c>
-      <c r="H69" s="387"/>
+      <c r="H69" s="353"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="357"/>
-      <c r="B70" s="354"/>
+      <c r="A70" s="379"/>
+      <c r="B70" s="361"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
@@ -5247,11 +5247,11 @@
       <c r="F70" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="387"/>
+      <c r="H70" s="353"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="358"/>
-      <c r="B71" s="355"/>
+      <c r="A71" s="380"/>
+      <c r="B71" s="374"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
@@ -5264,13 +5264,13 @@
       <c r="G71" t="s">
         <v>240</v>
       </c>
-      <c r="H71" s="387"/>
+      <c r="H71" s="353"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="360" t="s">
+      <c r="A72" s="382" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="353" t="s">
+      <c r="B72" s="360" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
@@ -5282,11 +5282,11 @@
       <c r="F72" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="387"/>
+      <c r="H72" s="353"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="361"/>
-      <c r="B73" s="354"/>
+      <c r="A73" s="383"/>
+      <c r="B73" s="361"/>
       <c r="C73" s="341" t="s">
         <v>206</v>
       </c>
@@ -5299,11 +5299,11 @@
       <c r="G73" t="s">
         <v>229</v>
       </c>
-      <c r="H73" s="387"/>
+      <c r="H73" s="353"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="361"/>
-      <c r="B74" s="354"/>
+      <c r="A74" s="383"/>
+      <c r="B74" s="361"/>
       <c r="C74" s="341" t="s">
         <v>223</v>
       </c>
@@ -5313,11 +5313,11 @@
       <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="H74" s="387"/>
+      <c r="H74" s="353"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="362"/>
-      <c r="B75" s="355"/>
+      <c r="A75" s="384"/>
+      <c r="B75" s="374"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
@@ -5330,13 +5330,13 @@
       <c r="G75" t="s">
         <v>241</v>
       </c>
-      <c r="H75" s="387"/>
+      <c r="H75" s="353"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="360" t="s">
+      <c r="A76" s="382" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="353" t="s">
+      <c r="B76" s="360" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
@@ -5351,11 +5351,11 @@
       <c r="F76" t="s">
         <v>188</v>
       </c>
-      <c r="H76" s="387"/>
+      <c r="H76" s="353"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="361"/>
-      <c r="B77" s="354"/>
+      <c r="A77" s="383"/>
+      <c r="B77" s="361"/>
       <c r="C77" s="341" t="s">
         <v>203</v>
       </c>
@@ -5365,11 +5365,11 @@
       <c r="F77" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="387"/>
+      <c r="H77" s="353"/>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="362"/>
-      <c r="B78" s="355"/>
+      <c r="A78" s="384"/>
+      <c r="B78" s="374"/>
       <c r="C78" s="335" t="s">
         <v>221</v>
       </c>
@@ -5379,55 +5379,10 @@
       <c r="F78" t="s">
         <v>188</v>
       </c>
-      <c r="H78" s="387"/>
+      <c r="H78" s="353"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5444,6 +5399,51 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H76:H78"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5565,15 +5565,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="388" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="394"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="390"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5603,7 +5603,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5616,7 +5616,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5627,7 +5627,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5638,7 +5638,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5651,7 +5651,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5675,7 +5675,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5688,7 +5688,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
+      <c r="A11" s="405"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5712,7 +5712,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="390"/>
+      <c r="A12" s="406"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="391" t="s">
+      <c r="A13" s="407" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5736,7 +5736,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5747,7 +5747,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5769,19 +5769,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
-      <c r="B16" s="398" t="s">
+      <c r="A16" s="405"/>
+      <c r="B16" s="394" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="395" t="s">
+      <c r="C16" s="391" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="402"/>
-      <c r="G16" s="405"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="401"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5793,15 +5793,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="389"/>
-      <c r="B17" s="399"/>
-      <c r="C17" s="396"/>
+      <c r="A17" s="405"/>
+      <c r="B17" s="395"/>
+      <c r="C17" s="392"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="406"/>
+      <c r="F17" s="399"/>
+      <c r="G17" s="402"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5813,15 +5813,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
-      <c r="B18" s="399"/>
-      <c r="C18" s="396"/>
+      <c r="A18" s="405"/>
+      <c r="B18" s="395"/>
+      <c r="C18" s="392"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="406"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="402"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5833,15 +5833,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
-      <c r="B19" s="399"/>
-      <c r="C19" s="397"/>
+      <c r="A19" s="405"/>
+      <c r="B19" s="395"/>
+      <c r="C19" s="393"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="404"/>
-      <c r="G19" s="407"/>
+      <c r="F19" s="400"/>
+      <c r="G19" s="403"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5853,8 +5853,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
-      <c r="B20" s="400"/>
+      <c r="A20" s="405"/>
+      <c r="B20" s="396"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5875,8 +5875,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="390"/>
-      <c r="B21" s="401"/>
+      <c r="A21" s="406"/>
+      <c r="B21" s="397"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5897,7 +5897,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5919,7 +5919,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5959,7 +5959,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -5983,7 +5983,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6380,17 +6380,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6460,7 +6460,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6473,7 +6473,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6484,7 +6484,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6495,7 +6495,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6508,7 +6508,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6545,7 +6545,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -6556,45 +6556,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
-      <c r="B11" s="400"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="405"/>
+      <c r="B12" s="396"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
-      <c r="B13" s="400"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="404"/>
-      <c r="G13" s="407"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="403"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="412"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6607,7 +6607,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6622,7 +6622,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390"/>
+      <c r="A16" s="406"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6633,7 +6633,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="391" t="s">
+      <c r="A17" s="407" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6646,7 +6646,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
+      <c r="A18" s="405"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6670,7 +6670,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="411" t="s">
         <v>32</v>
       </c>
@@ -6681,46 +6681,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="402"/>
-      <c r="G20" s="405"/>
+      <c r="F20" s="398"/>
+      <c r="G20" s="401"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="389"/>
-      <c r="B21" s="400"/>
+      <c r="A21" s="405"/>
+      <c r="B21" s="396"/>
       <c r="C21" s="414"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="403"/>
-      <c r="G21" s="406"/>
+      <c r="F21" s="399"/>
+      <c r="G21" s="402"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
-      <c r="B22" s="400"/>
+      <c r="A22" s="405"/>
+      <c r="B22" s="396"/>
       <c r="C22" s="414"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="403"/>
-      <c r="G22" s="406"/>
+      <c r="F22" s="399"/>
+      <c r="G22" s="402"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
-      <c r="B23" s="400"/>
+      <c r="A23" s="405"/>
+      <c r="B23" s="396"/>
       <c r="C23" s="415"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="404"/>
-      <c r="G23" s="407"/>
+      <c r="F23" s="400"/>
+      <c r="G23" s="403"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
-      <c r="B24" s="400"/>
+      <c r="A24" s="405"/>
+      <c r="B24" s="396"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6732,8 +6732,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="389"/>
-      <c r="B25" s="400"/>
+      <c r="A25" s="405"/>
+      <c r="B25" s="396"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="390"/>
+      <c r="A26" s="406"/>
       <c r="B26" s="416"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6759,7 +6759,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="388" t="s">
+      <c r="A27" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6773,7 +6773,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="389"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6795,7 +6795,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="390"/>
+      <c r="A30" s="406"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6806,7 +6806,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="388" t="s">
+      <c r="A31" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6819,7 +6819,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="389"/>
+      <c r="A32" s="405"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="389"/>
+      <c r="A33" s="405"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="390"/>
+      <c r="A34" s="406"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7224,6 +7224,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -7233,12 +7239,6 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7308,7 +7308,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7321,7 +7321,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7332,7 +7332,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7343,7 +7343,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7356,7 +7356,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="389" t="s">
+      <c r="A9" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7393,7 +7393,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -7404,45 +7404,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
-      <c r="B11" s="400"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="405"/>
+      <c r="B12" s="396"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
-      <c r="B13" s="400"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="404"/>
-      <c r="G13" s="407"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="403"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
-      <c r="B14" s="400"/>
+      <c r="A14" s="405"/>
+      <c r="B14" s="396"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7454,7 +7454,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="412"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7467,7 +7467,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7478,7 +7478,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="390"/>
+      <c r="A17" s="406"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7502,7 +7502,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7513,7 +7513,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="389"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7535,7 +7535,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7548,7 +7548,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7559,7 +7559,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7570,7 +7570,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7581,7 +7581,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="389" t="s">
+      <c r="A26" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7594,7 +7594,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -8020,17 +8020,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8104,7 +8104,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -8125,7 +8125,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -8136,8 +8136,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="389"/>
-      <c r="B5" s="426" t="s">
+      <c r="A5" s="405"/>
+      <c r="B5" s="418" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -8151,8 +8151,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="390"/>
-      <c r="B6" s="427"/>
+      <c r="A6" s="406"/>
+      <c r="B6" s="419"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8164,7 +8164,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="389" t="s">
+      <c r="A7" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8177,7 +8177,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="390"/>
+      <c r="A8" s="406"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="428" t="s">
+      <c r="B9" s="420" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8206,7 +8206,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="427"/>
+      <c r="B10" s="419"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8218,7 +8218,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389" t="s">
+      <c r="A11" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8231,7 +8231,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
+      <c r="A12" s="405"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8246,7 +8246,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
+      <c r="A13" s="405"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8257,7 +8257,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="390"/>
+      <c r="A14" s="406"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8289,7 +8289,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8300,7 +8300,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="389"/>
+      <c r="A17" s="405"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8311,7 +8311,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="390"/>
+      <c r="A18" s="406"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8322,7 +8322,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389" t="s">
+      <c r="A19" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8339,7 +8339,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8350,7 +8350,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="389"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="411" t="s">
         <v>81</v>
       </c>
@@ -8365,7 +8365,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
+      <c r="A22" s="405"/>
       <c r="B22" s="412"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8378,7 +8378,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="390"/>
+      <c r="A23" s="406"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8393,7 +8393,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389" t="s">
+      <c r="A24" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8410,7 +8410,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="389"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8421,7 +8421,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="389"/>
+      <c r="A26" s="405"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8436,7 +8436,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="390"/>
+      <c r="A27" s="406"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8447,13 +8447,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="423" t="s">
+      <c r="A28" s="426" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="421" t="s">
+      <c r="B28" s="424" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="422" t="s">
+      <c r="C28" s="425" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8464,8 +8464,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="424"/>
-      <c r="B29" s="400"/>
+      <c r="A29" s="427"/>
+      <c r="B29" s="396"/>
       <c r="C29" s="414"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8475,8 +8475,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="424"/>
-      <c r="B30" s="400"/>
+      <c r="A30" s="427"/>
+      <c r="B30" s="396"/>
       <c r="C30" s="414"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8486,8 +8486,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="424"/>
-      <c r="B31" s="400"/>
+      <c r="A31" s="427"/>
+      <c r="B31" s="396"/>
       <c r="C31" s="415"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8497,8 +8497,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="424"/>
-      <c r="B32" s="400"/>
+      <c r="A32" s="427"/>
+      <c r="B32" s="396"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8510,7 +8510,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="425"/>
+      <c r="A33" s="428"/>
       <c r="B33" s="416"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8523,13 +8523,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="418" t="s">
+      <c r="A34" s="421" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="421" t="s">
+      <c r="B34" s="424" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="422" t="s">
+      <c r="C34" s="425" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8540,8 +8540,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="419"/>
-      <c r="B35" s="400"/>
+      <c r="A35" s="422"/>
+      <c r="B35" s="396"/>
       <c r="C35" s="414"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8551,8 +8551,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="419"/>
-      <c r="B36" s="400"/>
+      <c r="A36" s="422"/>
+      <c r="B36" s="396"/>
       <c r="C36" s="414"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8562,8 +8562,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="419"/>
-      <c r="B37" s="400"/>
+      <c r="A37" s="422"/>
+      <c r="B37" s="396"/>
       <c r="C37" s="415"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8573,8 +8573,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="419"/>
-      <c r="B38" s="400"/>
+      <c r="A38" s="422"/>
+      <c r="B38" s="396"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8586,8 +8586,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="419"/>
-      <c r="B39" s="400"/>
+      <c r="A39" s="422"/>
+      <c r="B39" s="396"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8599,8 +8599,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="419"/>
-      <c r="B40" s="400"/>
+      <c r="A40" s="422"/>
+      <c r="B40" s="396"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8612,8 +8612,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="419"/>
-      <c r="B41" s="400"/>
+      <c r="A41" s="422"/>
+      <c r="B41" s="396"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8625,7 +8625,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="420"/>
+      <c r="A42" s="423"/>
       <c r="B42" s="416"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8638,13 +8638,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="418" t="s">
+      <c r="A43" s="421" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="421" t="s">
+      <c r="B43" s="424" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="422" t="s">
+      <c r="C43" s="425" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8655,8 +8655,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="419"/>
-      <c r="B44" s="400"/>
+      <c r="A44" s="422"/>
+      <c r="B44" s="396"/>
       <c r="C44" s="414"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8666,8 +8666,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="419"/>
-      <c r="B45" s="400"/>
+      <c r="A45" s="422"/>
+      <c r="B45" s="396"/>
       <c r="C45" s="414"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8677,8 +8677,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="419"/>
-      <c r="B46" s="400"/>
+      <c r="A46" s="422"/>
+      <c r="B46" s="396"/>
       <c r="C46" s="415"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8688,8 +8688,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="419"/>
-      <c r="B47" s="400"/>
+      <c r="A47" s="422"/>
+      <c r="B47" s="396"/>
       <c r="C47" s="414" t="s">
         <v>133</v>
       </c>
@@ -8701,8 +8701,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="419"/>
-      <c r="B48" s="400"/>
+      <c r="A48" s="422"/>
+      <c r="B48" s="396"/>
       <c r="C48" s="414"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8712,8 +8712,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="419"/>
-      <c r="B49" s="400"/>
+      <c r="A49" s="422"/>
+      <c r="B49" s="396"/>
       <c r="C49" s="414"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8723,8 +8723,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="419"/>
-      <c r="B50" s="400"/>
+      <c r="A50" s="422"/>
+      <c r="B50" s="396"/>
       <c r="C50" s="415"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8734,8 +8734,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="419"/>
-      <c r="B51" s="400"/>
+      <c r="A51" s="422"/>
+      <c r="B51" s="396"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8747,7 +8747,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="420"/>
+      <c r="A52" s="423"/>
       <c r="B52" s="416"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -9144,17 +9144,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -9165,6 +9154,17 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9234,7 +9234,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9247,7 +9247,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9258,7 +9258,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9269,7 +9269,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9282,7 +9282,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9309,10 +9309,10 @@
       <c r="A9" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="400" t="s">
+      <c r="B9" s="396" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="396" t="s">
+      <c r="C9" s="392" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9324,40 +9324,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="431"/>
-      <c r="B10" s="400"/>
-      <c r="C10" s="396"/>
+      <c r="B10" s="396"/>
+      <c r="C10" s="392"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="406"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="402"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="431"/>
-      <c r="B11" s="400"/>
-      <c r="C11" s="396"/>
+      <c r="B11" s="396"/>
+      <c r="C11" s="392"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="431"/>
-      <c r="B12" s="400"/>
-      <c r="C12" s="397"/>
+      <c r="B12" s="396"/>
+      <c r="C12" s="393"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="407"/>
+      <c r="F12" s="400"/>
+      <c r="G12" s="403"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="431"/>
-      <c r="B13" s="400"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9430,7 +9430,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9454,7 +9454,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="390"/>
+      <c r="A21" s="406"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9465,7 +9465,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="389" t="s">
+      <c r="A22" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9478,7 +9478,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9489,7 +9489,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9500,7 +9500,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9511,7 +9511,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="389" t="s">
+      <c r="A26" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9524,7 +9524,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9535,7 +9535,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9546,7 +9546,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9917,17 +9917,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9958,15 +9958,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="435" t="s">
+      <c r="A1" s="455" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="436"/>
+      <c r="B1" s="455"/>
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="456"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9992,13 +9992,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="437" t="s">
+      <c r="A3" s="435" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="428" t="s">
+      <c r="B3" s="420" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="422" t="s">
+      <c r="C3" s="425" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -10009,8 +10009,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="438"/>
-      <c r="B4" s="440"/>
+      <c r="A4" s="436"/>
+      <c r="B4" s="441"/>
       <c r="C4" s="414"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -10020,8 +10020,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="438"/>
-      <c r="B5" s="440"/>
+      <c r="A5" s="436"/>
+      <c r="B5" s="441"/>
       <c r="C5" s="414"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -10031,8 +10031,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="438"/>
-      <c r="B6" s="440"/>
+      <c r="A6" s="436"/>
+      <c r="B6" s="441"/>
       <c r="C6" s="415"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -10042,8 +10042,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="438"/>
-      <c r="B7" s="440"/>
+      <c r="A7" s="436"/>
+      <c r="B7" s="441"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -10055,8 +10055,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="438"/>
-      <c r="B8" s="441"/>
+      <c r="A8" s="436"/>
+      <c r="B8" s="437"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -10068,8 +10068,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="438"/>
-      <c r="B9" s="426" t="s">
+      <c r="A9" s="436"/>
+      <c r="B9" s="418" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="413" t="s">
@@ -10078,137 +10078,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="402"/>
-      <c r="F9" s="402"/>
-      <c r="G9" s="405"/>
+      <c r="E9" s="398"/>
+      <c r="F9" s="398"/>
+      <c r="G9" s="401"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="438"/>
-      <c r="B10" s="440"/>
+      <c r="A10" s="436"/>
+      <c r="B10" s="441"/>
       <c r="C10" s="414"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="403"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="406"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="402"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="438"/>
-      <c r="B11" s="440"/>
+      <c r="A11" s="436"/>
+      <c r="B11" s="441"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="403"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="E11" s="399"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="438"/>
-      <c r="B12" s="440"/>
+      <c r="A12" s="436"/>
+      <c r="B12" s="441"/>
       <c r="C12" s="415"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="404"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="407"/>
+      <c r="E12" s="400"/>
+      <c r="F12" s="400"/>
+      <c r="G12" s="403"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="438"/>
-      <c r="B13" s="440"/>
+      <c r="A13" s="436"/>
+      <c r="B13" s="441"/>
       <c r="C13" s="414" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="403"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="406"/>
+      <c r="E13" s="399"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="438"/>
-      <c r="B14" s="440"/>
+      <c r="A14" s="436"/>
+      <c r="B14" s="441"/>
       <c r="C14" s="414"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="403"/>
-      <c r="F14" s="403"/>
-      <c r="G14" s="406"/>
+      <c r="E14" s="399"/>
+      <c r="F14" s="399"/>
+      <c r="G14" s="402"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="438"/>
-      <c r="B15" s="440"/>
+      <c r="A15" s="436"/>
+      <c r="B15" s="441"/>
       <c r="C15" s="414"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="403"/>
-      <c r="F15" s="403"/>
-      <c r="G15" s="406"/>
+      <c r="E15" s="399"/>
+      <c r="F15" s="399"/>
+      <c r="G15" s="402"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="438"/>
-      <c r="B16" s="440"/>
+      <c r="A16" s="436"/>
+      <c r="B16" s="441"/>
       <c r="C16" s="415"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="404"/>
-      <c r="F16" s="404"/>
-      <c r="G16" s="407"/>
+      <c r="E16" s="400"/>
+      <c r="F16" s="400"/>
+      <c r="G16" s="403"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="438"/>
-      <c r="B17" s="440"/>
+      <c r="A17" s="436"/>
+      <c r="B17" s="441"/>
       <c r="C17" s="414" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="406"/>
+      <c r="E17" s="399"/>
+      <c r="F17" s="399"/>
+      <c r="G17" s="402"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="438"/>
-      <c r="B18" s="440"/>
+      <c r="A18" s="436"/>
+      <c r="B18" s="441"/>
       <c r="C18" s="414"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="406"/>
+      <c r="E18" s="399"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="402"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="438"/>
-      <c r="B19" s="440"/>
+      <c r="A19" s="436"/>
+      <c r="B19" s="441"/>
       <c r="C19" s="414"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="403"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="406"/>
+      <c r="E19" s="399"/>
+      <c r="F19" s="399"/>
+      <c r="G19" s="402"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="438"/>
-      <c r="B20" s="440"/>
-      <c r="C20" s="442"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="444"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="443"/>
-      <c r="F20" s="443"/>
-      <c r="G20" s="444"/>
+      <c r="E20" s="448"/>
+      <c r="F20" s="448"/>
+      <c r="G20" s="442"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="439"/>
+      <c r="A21" s="443"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -10219,10 +10219,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="445" t="s">
+      <c r="A22" s="449" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="428" t="s">
+      <c r="B22" s="420" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -10234,8 +10234,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="446"/>
-      <c r="B23" s="440"/>
+      <c r="A23" s="450"/>
+      <c r="B23" s="441"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -10245,54 +10245,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="446"/>
-      <c r="B24" s="440"/>
+      <c r="A24" s="450"/>
+      <c r="B24" s="441"/>
       <c r="C24" s="414" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="403"/>
-      <c r="F24" s="403"/>
-      <c r="G24" s="406"/>
+      <c r="E24" s="399"/>
+      <c r="F24" s="399"/>
+      <c r="G24" s="402"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="446"/>
-      <c r="B25" s="440"/>
+      <c r="A25" s="450"/>
+      <c r="B25" s="441"/>
       <c r="C25" s="414"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="403"/>
-      <c r="F25" s="403"/>
-      <c r="G25" s="406"/>
+      <c r="E25" s="399"/>
+      <c r="F25" s="399"/>
+      <c r="G25" s="402"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="446"/>
-      <c r="B26" s="440"/>
+      <c r="A26" s="450"/>
+      <c r="B26" s="441"/>
       <c r="C26" s="414"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="403"/>
-      <c r="F26" s="403"/>
-      <c r="G26" s="406"/>
+      <c r="E26" s="399"/>
+      <c r="F26" s="399"/>
+      <c r="G26" s="402"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="446"/>
-      <c r="B27" s="441"/>
-      <c r="C27" s="442"/>
+      <c r="A27" s="450"/>
+      <c r="B27" s="437"/>
+      <c r="C27" s="444"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="443"/>
-      <c r="F27" s="443"/>
-      <c r="G27" s="444"/>
+      <c r="E27" s="448"/>
+      <c r="F27" s="448"/>
+      <c r="G27" s="442"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="446"/>
-      <c r="B28" s="440" t="s">
+      <c r="A28" s="450"/>
+      <c r="B28" s="441" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10304,50 +10304,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="446"/>
-      <c r="B29" s="440"/>
+      <c r="A29" s="450"/>
+      <c r="B29" s="441"/>
       <c r="C29" s="414" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="403"/>
-      <c r="F29" s="403"/>
-      <c r="G29" s="406"/>
+      <c r="E29" s="399"/>
+      <c r="F29" s="399"/>
+      <c r="G29" s="402"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="446"/>
-      <c r="B30" s="440"/>
+      <c r="A30" s="450"/>
+      <c r="B30" s="441"/>
       <c r="C30" s="414"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="403"/>
-      <c r="F30" s="403"/>
-      <c r="G30" s="406"/>
+      <c r="E30" s="399"/>
+      <c r="F30" s="399"/>
+      <c r="G30" s="402"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="446"/>
-      <c r="B31" s="440"/>
+      <c r="A31" s="450"/>
+      <c r="B31" s="441"/>
       <c r="C31" s="414"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="403"/>
-      <c r="F31" s="403"/>
-      <c r="G31" s="406"/>
+      <c r="E31" s="399"/>
+      <c r="F31" s="399"/>
+      <c r="G31" s="402"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="447"/>
-      <c r="B32" s="427"/>
-      <c r="C32" s="448"/>
+      <c r="A32" s="451"/>
+      <c r="B32" s="419"/>
+      <c r="C32" s="452"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="449"/>
-      <c r="F32" s="449"/>
-      <c r="G32" s="450"/>
+      <c r="E32" s="453"/>
+      <c r="F32" s="453"/>
+      <c r="G32" s="454"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10363,10 +10363,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="437" t="s">
+      <c r="A34" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="451" t="s">
+      <c r="B34" s="445" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10378,8 +10378,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="438"/>
-      <c r="B35" s="452"/>
+      <c r="A35" s="436"/>
+      <c r="B35" s="446"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10389,53 +10389,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="438"/>
-      <c r="B36" s="452"/>
-      <c r="C36" s="442" t="s">
+      <c r="A36" s="436"/>
+      <c r="B36" s="446"/>
+      <c r="C36" s="444" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="403"/>
-      <c r="F36" s="403"/>
-      <c r="G36" s="406"/>
+      <c r="E36" s="399"/>
+      <c r="F36" s="399"/>
+      <c r="G36" s="402"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="438"/>
-      <c r="B37" s="452"/>
-      <c r="C37" s="453"/>
+      <c r="A37" s="436"/>
+      <c r="B37" s="446"/>
+      <c r="C37" s="447"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="403"/>
-      <c r="F37" s="403"/>
-      <c r="G37" s="406"/>
+      <c r="E37" s="399"/>
+      <c r="F37" s="399"/>
+      <c r="G37" s="402"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="438"/>
-      <c r="B38" s="452"/>
-      <c r="C38" s="453"/>
+      <c r="A38" s="436"/>
+      <c r="B38" s="446"/>
+      <c r="C38" s="447"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="403"/>
-      <c r="F38" s="403"/>
-      <c r="G38" s="406"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="399"/>
+      <c r="G38" s="402"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="438"/>
-      <c r="B39" s="452"/>
-      <c r="C39" s="453"/>
+      <c r="A39" s="436"/>
+      <c r="B39" s="446"/>
+      <c r="C39" s="447"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="443"/>
-      <c r="F39" s="443"/>
-      <c r="G39" s="444"/>
+      <c r="E39" s="448"/>
+      <c r="F39" s="448"/>
+      <c r="G39" s="442"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="438"/>
+      <c r="A40" s="436"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10446,7 +10446,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="438"/>
+      <c r="A41" s="436"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10457,7 +10457,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="439"/>
+      <c r="A42" s="443"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10468,7 +10468,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="437" t="s">
+      <c r="A43" s="435" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10481,8 +10481,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="438"/>
-      <c r="B44" s="426" t="s">
+      <c r="A44" s="436"/>
+      <c r="B44" s="418" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10494,8 +10494,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="438"/>
-      <c r="B45" s="440"/>
+      <c r="A45" s="436"/>
+      <c r="B45" s="441"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10505,8 +10505,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="438"/>
-      <c r="B46" s="440"/>
+      <c r="A46" s="436"/>
+      <c r="B46" s="441"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10516,8 +10516,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="438"/>
-      <c r="B47" s="440"/>
+      <c r="A47" s="436"/>
+      <c r="B47" s="441"/>
       <c r="C47" s="414" t="s">
         <v>58</v>
       </c>
@@ -10529,8 +10529,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="438"/>
-      <c r="B48" s="440"/>
+      <c r="A48" s="436"/>
+      <c r="B48" s="441"/>
       <c r="C48" s="414"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10540,8 +10540,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="438"/>
-      <c r="B49" s="440"/>
+      <c r="A49" s="436"/>
+      <c r="B49" s="441"/>
       <c r="C49" s="414"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10551,9 +10551,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="438"/>
-      <c r="B50" s="441"/>
-      <c r="C50" s="442"/>
+      <c r="A50" s="436"/>
+      <c r="B50" s="437"/>
+      <c r="C50" s="444"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10562,8 +10562,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="438"/>
-      <c r="B51" s="426" t="s">
+      <c r="A51" s="436"/>
+      <c r="B51" s="418" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="413" t="s">
@@ -10577,8 +10577,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="438"/>
-      <c r="B52" s="440"/>
+      <c r="A52" s="436"/>
+      <c r="B52" s="441"/>
       <c r="C52" s="414"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10588,8 +10588,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="438"/>
-      <c r="B53" s="440"/>
+      <c r="A53" s="436"/>
+      <c r="B53" s="441"/>
       <c r="C53" s="414"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10599,8 +10599,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="438"/>
-      <c r="B54" s="440"/>
+      <c r="A54" s="436"/>
+      <c r="B54" s="441"/>
       <c r="C54" s="415"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10610,8 +10610,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="438"/>
-      <c r="B55" s="440"/>
+      <c r="A55" s="436"/>
+      <c r="B55" s="441"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10621,8 +10621,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="438"/>
-      <c r="B56" s="441"/>
+      <c r="A56" s="436"/>
+      <c r="B56" s="437"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10632,8 +10632,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="438"/>
-      <c r="B57" s="440" t="s">
+      <c r="A57" s="436"/>
+      <c r="B57" s="441" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10645,8 +10645,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="438"/>
-      <c r="B58" s="440"/>
+      <c r="A58" s="436"/>
+      <c r="B58" s="441"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10656,8 +10656,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="439"/>
-      <c r="B59" s="427"/>
+      <c r="A59" s="443"/>
+      <c r="B59" s="419"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="437" t="s">
+      <c r="A60" s="435" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10680,8 +10680,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="438"/>
-      <c r="B61" s="426" t="s">
+      <c r="A61" s="436"/>
+      <c r="B61" s="418" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10693,8 +10693,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="438"/>
-      <c r="B62" s="441"/>
+      <c r="A62" s="436"/>
+      <c r="B62" s="437"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10704,7 +10704,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="438"/>
+      <c r="A63" s="436"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10715,7 +10715,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="438"/>
+      <c r="A64" s="436"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10726,7 +10726,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="454" t="s">
+      <c r="A65" s="438" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10739,8 +10739,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="455"/>
-      <c r="B66" s="426" t="s">
+      <c r="A66" s="439"/>
+      <c r="B66" s="418" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10752,8 +10752,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="455"/>
-      <c r="B67" s="440"/>
+      <c r="A67" s="439"/>
+      <c r="B67" s="441"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10763,8 +10763,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="455"/>
-      <c r="B68" s="441"/>
+      <c r="A68" s="439"/>
+      <c r="B68" s="437"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10774,7 +10774,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="455"/>
+      <c r="A69" s="439"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10785,8 +10785,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="455"/>
-      <c r="B70" s="426" t="s">
+      <c r="A70" s="439"/>
+      <c r="B70" s="418" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10798,8 +10798,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="455"/>
-      <c r="B71" s="440"/>
+      <c r="A71" s="439"/>
+      <c r="B71" s="441"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10809,8 +10809,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="456"/>
-      <c r="B72" s="427"/>
+      <c r="A72" s="440"/>
+      <c r="B72" s="419"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10860,35 +10860,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10905,6 +10876,35 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10974,7 +10974,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -10987,7 +10987,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -10998,7 +10998,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -11009,7 +11009,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -11022,7 +11022,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -11046,7 +11046,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="389" t="s">
+      <c r="A9" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -11059,7 +11059,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -11070,7 +11070,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
+      <c r="A11" s="405"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -11083,7 +11083,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="390"/>
+      <c r="A12" s="406"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -11107,7 +11107,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -11118,7 +11118,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -11131,7 +11131,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390"/>
+      <c r="A16" s="406"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -11142,7 +11142,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="389" t="s">
+      <c r="A17" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -11155,7 +11155,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
+      <c r="A18" s="405"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -11166,7 +11166,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -11177,7 +11177,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="390"/>
+      <c r="A20" s="406"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -11188,7 +11188,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="389" t="s">
+      <c r="A21" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -11201,7 +11201,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
+      <c r="A22" s="405"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -11212,7 +11212,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -11223,7 +11223,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="390"/>
+      <c r="A24" s="406"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703C0EA-20D7-4DD5-9951-C70BAB4BB014}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA14611A-1AF2-4C09-8728-7789493A9728}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="252">
   <si>
     <t>ENG 251</t>
   </si>
@@ -2842,110 +2842,122 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2995,18 +3007,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3037,6 +3037,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3046,30 +3070,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3088,15 +3088,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3105,54 +3153,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4063,10 +4063,10 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,11 +4083,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="366" t="s">
+      <c r="A1" s="374" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="367"/>
-      <c r="C1" s="368"/>
+      <c r="B1" s="375"/>
+      <c r="C1" s="376"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="M1" t="s">
@@ -4125,10 +4125,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="378" t="s">
+      <c r="A3" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="377" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4140,7 +4140,7 @@
       <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I3" t="s">
@@ -4151,8 +4151,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="379"/>
-      <c r="B4" s="370"/>
+      <c r="A4" s="357"/>
+      <c r="B4" s="378"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="F4" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="353"/>
+      <c r="H4" s="387"/>
       <c r="I4" t="s">
         <v>250</v>
       </c>
@@ -4171,8 +4171,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="379"/>
-      <c r="B5" s="371"/>
+      <c r="A5" s="357"/>
+      <c r="B5" s="379"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4185,7 +4185,7 @@
       <c r="G5" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="353"/>
+      <c r="H5" s="387"/>
       <c r="I5" t="s">
         <v>250</v>
       </c>
@@ -4194,8 +4194,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="379"/>
-      <c r="B6" s="369" t="s">
+      <c r="A6" s="357"/>
+      <c r="B6" s="377" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
@@ -4210,7 +4210,7 @@
       <c r="G6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="353" t="s">
+      <c r="H6" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I6" t="s">
@@ -4221,8 +4221,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="379"/>
-      <c r="B7" s="370"/>
+      <c r="A7" s="357"/>
+      <c r="B7" s="378"/>
       <c r="C7" s="341" t="s">
         <v>209</v>
       </c>
@@ -4232,7 +4232,7 @@
       <c r="F7" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="353"/>
+      <c r="H7" s="387"/>
       <c r="I7" t="s">
         <v>251</v>
       </c>
@@ -4241,8 +4241,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="379"/>
-      <c r="B8" s="371"/>
+      <c r="A8" s="357"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4252,7 +4252,7 @@
       <c r="F8" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="353"/>
+      <c r="H8" s="387"/>
       <c r="I8" t="s">
         <v>250</v>
       </c>
@@ -4261,8 +4261,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="379"/>
-      <c r="B9" s="369" t="s">
+      <c r="A9" s="357"/>
+      <c r="B9" s="377" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4277,13 +4277,13 @@
       <c r="G9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="353" t="s">
+      <c r="H9" s="387" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="379"/>
-      <c r="B10" s="370"/>
+      <c r="A10" s="357"/>
+      <c r="B10" s="378"/>
       <c r="C10" s="334" t="s">
         <v>212</v>
       </c>
@@ -4296,11 +4296,11 @@
       <c r="G10" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="353"/>
+      <c r="H10" s="387"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="380"/>
-      <c r="B11" s="372"/>
+      <c r="A11" s="358"/>
+      <c r="B11" s="380"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4310,13 +4310,13 @@
       <c r="F11" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="353"/>
+      <c r="H11" s="387"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="381" t="s">
+      <c r="A12" s="359" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="373" t="s">
+      <c r="B12" s="381" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
@@ -4328,11 +4328,11 @@
       <c r="F12" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="353"/>
+      <c r="H12" s="387"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="379"/>
-      <c r="B13" s="370"/>
+      <c r="A13" s="357"/>
+      <c r="B13" s="378"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4342,11 +4342,11 @@
       <c r="F13" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="353"/>
+      <c r="H13" s="387"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="379"/>
-      <c r="B14" s="371"/>
+      <c r="A14" s="357"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="333" t="s">
         <v>195</v>
       </c>
@@ -4356,11 +4356,11 @@
       <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="353"/>
+      <c r="H14" s="387"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="379"/>
-      <c r="B15" s="354" t="s">
+      <c r="A15" s="357"/>
+      <c r="B15" s="382" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4375,11 +4375,11 @@
       <c r="G15" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="353"/>
+      <c r="H15" s="387"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="379"/>
-      <c r="B16" s="355"/>
+      <c r="A16" s="357"/>
+      <c r="B16" s="383"/>
       <c r="C16" s="334" t="s">
         <v>210</v>
       </c>
@@ -4389,11 +4389,11 @@
       <c r="F16" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="353"/>
+      <c r="H16" s="387"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="380"/>
-      <c r="B17" s="356"/>
+      <c r="A17" s="358"/>
+      <c r="B17" s="384"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4403,13 +4403,13 @@
       <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="353"/>
+      <c r="H17" s="387"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="381" t="s">
+      <c r="A18" s="359" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="357" t="s">
+      <c r="B18" s="385" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
@@ -4421,11 +4421,11 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="353"/>
+      <c r="H18" s="387"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="379"/>
-      <c r="B19" s="358"/>
+      <c r="A19" s="357"/>
+      <c r="B19" s="367"/>
       <c r="C19" s="334" t="s">
         <v>214</v>
       </c>
@@ -4435,11 +4435,11 @@
       <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="353"/>
+      <c r="H19" s="387"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="380"/>
-      <c r="B20" s="359"/>
+      <c r="A20" s="358"/>
+      <c r="B20" s="386"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4449,13 +4449,13 @@
       <c r="F20" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="353"/>
+      <c r="H20" s="387"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="381" t="s">
+      <c r="A21" s="359" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="360" t="s">
+      <c r="B21" s="353" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4470,11 +4470,13 @@
       <c r="G21" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="353"/>
+      <c r="H21" s="387" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="379"/>
-      <c r="B22" s="361"/>
+      <c r="A22" s="357"/>
+      <c r="B22" s="354"/>
       <c r="C22" s="334" t="s">
         <v>196</v>
       </c>
@@ -4484,11 +4486,11 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="353"/>
+      <c r="H22" s="387"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="379"/>
-      <c r="B23" s="362"/>
+      <c r="A23" s="357"/>
+      <c r="B23" s="370"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4498,11 +4500,11 @@
       <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="353"/>
+      <c r="H23" s="387"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="379"/>
-      <c r="B24" s="363" t="s">
+      <c r="A24" s="357"/>
+      <c r="B24" s="369" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4517,11 +4519,13 @@
       <c r="G24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="353"/>
+      <c r="H24" s="387" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="379"/>
-      <c r="B25" s="361"/>
+      <c r="A25" s="357"/>
+      <c r="B25" s="354"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4534,11 +4538,11 @@
       <c r="G25" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="353"/>
+      <c r="H25" s="387"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="379"/>
-      <c r="B26" s="362"/>
+      <c r="A26" s="357"/>
+      <c r="B26" s="370"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4551,11 +4555,11 @@
       <c r="G26" t="s">
         <v>233</v>
       </c>
-      <c r="H26" s="353"/>
+      <c r="H26" s="387"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="379"/>
-      <c r="B27" s="364" t="s">
+      <c r="A27" s="357"/>
+      <c r="B27" s="366" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4567,11 +4571,13 @@
       <c r="F27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="353"/>
+      <c r="H27" s="387" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="379"/>
-      <c r="B28" s="358"/>
+      <c r="A28" s="357"/>
+      <c r="B28" s="367"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4581,11 +4587,11 @@
       <c r="F28" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="353"/>
+      <c r="H28" s="387"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="379"/>
-      <c r="B29" s="365"/>
+      <c r="A29" s="357"/>
+      <c r="B29" s="368"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4595,11 +4601,11 @@
       <c r="F29" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="353"/>
+      <c r="H29" s="387"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="379"/>
-      <c r="B30" s="363" t="s">
+      <c r="A30" s="357"/>
+      <c r="B30" s="369" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4611,11 +4617,13 @@
       <c r="F30" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="353"/>
+      <c r="H30" s="387" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="379"/>
-      <c r="B31" s="361"/>
+      <c r="A31" s="357"/>
+      <c r="B31" s="354"/>
       <c r="C31" s="334" t="s">
         <v>216</v>
       </c>
@@ -4628,11 +4636,11 @@
       <c r="G31" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="353"/>
+      <c r="H31" s="387"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="380"/>
-      <c r="B32" s="374"/>
+      <c r="A32" s="358"/>
+      <c r="B32" s="355"/>
       <c r="C32" s="337" t="s">
         <v>197</v>
       </c>
@@ -4642,13 +4650,13 @@
       <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="353"/>
+      <c r="H32" s="387"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="382" t="s">
+      <c r="A33" s="360" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="360" t="s">
+      <c r="B33" s="353" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4660,11 +4668,11 @@
       <c r="F33" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="353"/>
+      <c r="H33" s="387"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="383"/>
-      <c r="B34" s="361"/>
+      <c r="A34" s="361"/>
+      <c r="B34" s="354"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4674,11 +4682,11 @@
       <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="353"/>
+      <c r="H34" s="387"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="383"/>
-      <c r="B35" s="362"/>
+      <c r="A35" s="361"/>
+      <c r="B35" s="370"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
@@ -4691,11 +4699,11 @@
       <c r="G35" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="353"/>
+      <c r="H35" s="387"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="383"/>
-      <c r="B36" s="363" t="s">
+      <c r="A36" s="361"/>
+      <c r="B36" s="369" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
@@ -4707,11 +4715,11 @@
       <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="353"/>
+      <c r="H36" s="387"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="383"/>
-      <c r="B37" s="361"/>
+      <c r="A37" s="361"/>
+      <c r="B37" s="354"/>
       <c r="C37" s="334" t="s">
         <v>215</v>
       </c>
@@ -4721,11 +4729,11 @@
       <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="353"/>
+      <c r="H37" s="387"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="383"/>
-      <c r="B38" s="362"/>
+      <c r="A38" s="361"/>
+      <c r="B38" s="370"/>
       <c r="C38" s="333" t="s">
         <v>199</v>
       </c>
@@ -4735,11 +4743,11 @@
       <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="353"/>
+      <c r="H38" s="387"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="383"/>
-      <c r="B39" s="363" t="s">
+      <c r="A39" s="361"/>
+      <c r="B39" s="369" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4754,11 +4762,11 @@
       <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="353"/>
+      <c r="H39" s="387"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="383"/>
-      <c r="B40" s="361"/>
+      <c r="A40" s="361"/>
+      <c r="B40" s="354"/>
       <c r="C40" s="334" t="s">
         <v>200</v>
       </c>
@@ -4771,11 +4779,11 @@
       <c r="G40" t="s">
         <v>235</v>
       </c>
-      <c r="H40" s="353"/>
+      <c r="H40" s="387"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="383"/>
-      <c r="B41" s="362"/>
+      <c r="A41" s="361"/>
+      <c r="B41" s="370"/>
       <c r="C41" s="333" t="s">
         <v>236</v>
       </c>
@@ -4788,11 +4796,11 @@
       <c r="G41" t="s">
         <v>248</v>
       </c>
-      <c r="H41" s="353"/>
+      <c r="H41" s="387"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="383"/>
-      <c r="B42" s="363" t="s">
+      <c r="A42" s="361"/>
+      <c r="B42" s="369" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="334" t="s">
@@ -4804,11 +4812,11 @@
       <c r="F42" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="353"/>
+      <c r="H42" s="387"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="383"/>
-      <c r="B43" s="361"/>
+      <c r="A43" s="361"/>
+      <c r="B43" s="354"/>
       <c r="C43" s="334" t="s">
         <v>197</v>
       </c>
@@ -4818,11 +4826,11 @@
       <c r="F43" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="353"/>
+      <c r="H43" s="387"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="384"/>
-      <c r="B44" s="374"/>
+      <c r="A44" s="362"/>
+      <c r="B44" s="355"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4832,13 +4840,13 @@
       <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="353"/>
+      <c r="H44" s="387"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="381" t="s">
+      <c r="A45" s="359" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="360" t="s">
+      <c r="B45" s="353" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4850,11 +4858,11 @@
       <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="353"/>
+      <c r="H45" s="387"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="379"/>
-      <c r="B46" s="361"/>
+      <c r="A46" s="357"/>
+      <c r="B46" s="354"/>
       <c r="C46" s="334" t="s">
         <v>228</v>
       </c>
@@ -4864,11 +4872,11 @@
       <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="353"/>
+      <c r="H46" s="387"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="379"/>
-      <c r="B47" s="362"/>
+      <c r="A47" s="357"/>
+      <c r="B47" s="370"/>
       <c r="C47" s="333" t="s">
         <v>209</v>
       </c>
@@ -4878,11 +4886,11 @@
       <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="353"/>
+      <c r="H47" s="387"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="379"/>
-      <c r="B48" s="363" t="s">
+      <c r="A48" s="357"/>
+      <c r="B48" s="369" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
@@ -4897,11 +4905,11 @@
       <c r="G48" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="353"/>
+      <c r="H48" s="387"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="379"/>
-      <c r="B49" s="361"/>
+      <c r="A49" s="357"/>
+      <c r="B49" s="354"/>
       <c r="C49" s="334" t="s">
         <v>175</v>
       </c>
@@ -4911,11 +4919,11 @@
       <c r="F49" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="353"/>
+      <c r="H49" s="387"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="379"/>
-      <c r="B50" s="362"/>
+      <c r="A50" s="357"/>
+      <c r="B50" s="370"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -4925,11 +4933,11 @@
       <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="353"/>
+      <c r="H50" s="387"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="379"/>
-      <c r="B51" s="363" t="s">
+      <c r="A51" s="357"/>
+      <c r="B51" s="369" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -4941,11 +4949,11 @@
       <c r="F51" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="353"/>
+      <c r="H51" s="387"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="379"/>
-      <c r="B52" s="361"/>
+      <c r="A52" s="357"/>
+      <c r="B52" s="354"/>
       <c r="C52" s="334" t="s">
         <v>201</v>
       </c>
@@ -4958,11 +4966,11 @@
       <c r="G52" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="353"/>
+      <c r="H52" s="387"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="379"/>
-      <c r="B53" s="362"/>
+      <c r="A53" s="357"/>
+      <c r="B53" s="370"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
@@ -4972,11 +4980,11 @@
       <c r="F53" t="s">
         <v>188</v>
       </c>
-      <c r="H53" s="353"/>
+      <c r="H53" s="387"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="379"/>
-      <c r="B54" s="363" t="s">
+      <c r="A54" s="357"/>
+      <c r="B54" s="369" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
@@ -4991,11 +4999,11 @@
       <c r="G54" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="353"/>
+      <c r="H54" s="387"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="379"/>
-      <c r="B55" s="361"/>
+      <c r="A55" s="357"/>
+      <c r="B55" s="354"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -5005,11 +5013,11 @@
       <c r="F55" t="s">
         <v>188</v>
       </c>
-      <c r="H55" s="353"/>
+      <c r="H55" s="387"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="380"/>
-      <c r="B56" s="374"/>
+      <c r="A56" s="358"/>
+      <c r="B56" s="355"/>
       <c r="C56" s="337" t="s">
         <v>226</v>
       </c>
@@ -5022,13 +5030,13 @@
       <c r="G56" t="s">
         <v>238</v>
       </c>
-      <c r="H56" s="353"/>
+      <c r="H56" s="387"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="385" t="s">
+      <c r="A57" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="375" t="s">
+      <c r="B57" s="371" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -5040,11 +5048,11 @@
       <c r="F57" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="353"/>
+      <c r="H57" s="387"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="386"/>
-      <c r="B58" s="376"/>
+      <c r="A58" s="364"/>
+      <c r="B58" s="372"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -5057,11 +5065,11 @@
       <c r="F58" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="353"/>
+      <c r="H58" s="387"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="386"/>
-      <c r="B59" s="377"/>
+      <c r="A59" s="364"/>
+      <c r="B59" s="373"/>
       <c r="C59" s="333" t="s">
         <v>228</v>
       </c>
@@ -5071,11 +5079,11 @@
       <c r="F59" t="s">
         <v>188</v>
       </c>
-      <c r="H59" s="353"/>
+      <c r="H59" s="387"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="386"/>
-      <c r="B60" s="364" t="s">
+      <c r="A60" s="364"/>
+      <c r="B60" s="366" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -5090,11 +5098,11 @@
       <c r="F60" t="s">
         <v>188</v>
       </c>
-      <c r="H60" s="353"/>
+      <c r="H60" s="387"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="386"/>
-      <c r="B61" s="358"/>
+      <c r="A61" s="364"/>
+      <c r="B61" s="367"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -5104,11 +5112,11 @@
       <c r="F61" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="353"/>
+      <c r="H61" s="387"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="386"/>
-      <c r="B62" s="365"/>
+      <c r="A62" s="364"/>
+      <c r="B62" s="368"/>
       <c r="C62" s="333" t="s">
         <v>237</v>
       </c>
@@ -5121,11 +5129,11 @@
       <c r="G62" t="s">
         <v>243</v>
       </c>
-      <c r="H62" s="353"/>
+      <c r="H62" s="387"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="386"/>
-      <c r="B63" s="363" t="s">
+      <c r="A63" s="364"/>
+      <c r="B63" s="369" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -5137,11 +5145,11 @@
       <c r="F63" t="s">
         <v>188</v>
       </c>
-      <c r="H63" s="353"/>
+      <c r="H63" s="387"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="386"/>
-      <c r="B64" s="361"/>
+      <c r="A64" s="364"/>
+      <c r="B64" s="354"/>
       <c r="C64" s="334" t="s">
         <v>225</v>
       </c>
@@ -5154,11 +5162,11 @@
       <c r="F64" t="s">
         <v>188</v>
       </c>
-      <c r="H64" s="353"/>
+      <c r="H64" s="387"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="386"/>
-      <c r="B65" s="362"/>
+      <c r="A65" s="364"/>
+      <c r="B65" s="370"/>
       <c r="C65" s="333" t="s">
         <v>209</v>
       </c>
@@ -5168,11 +5176,11 @@
       <c r="F65" t="s">
         <v>188</v>
       </c>
-      <c r="H65" s="353"/>
+      <c r="H65" s="387"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="386"/>
-      <c r="B66" s="363" t="s">
+      <c r="A66" s="364"/>
+      <c r="B66" s="369" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
@@ -5184,11 +5192,11 @@
       <c r="F66" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="353"/>
+      <c r="H66" s="387"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="386"/>
-      <c r="B67" s="361"/>
+      <c r="A67" s="364"/>
+      <c r="B67" s="354"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -5201,11 +5209,11 @@
       <c r="F67" t="s">
         <v>188</v>
       </c>
-      <c r="H67" s="353"/>
+      <c r="H67" s="387"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="387"/>
-      <c r="B68" s="374"/>
+      <c r="A68" s="365"/>
+      <c r="B68" s="355"/>
       <c r="C68" s="334" t="s">
         <v>209</v>
       </c>
@@ -5215,13 +5223,13 @@
       <c r="F68" t="s">
         <v>188</v>
       </c>
-      <c r="H68" s="353"/>
+      <c r="H68" s="387"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="381" t="s">
+      <c r="A69" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="360" t="s">
+      <c r="B69" s="353" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5233,11 +5241,11 @@
       <c r="F69" t="s">
         <v>188</v>
       </c>
-      <c r="H69" s="353"/>
+      <c r="H69" s="387"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="379"/>
-      <c r="B70" s="361"/>
+      <c r="A70" s="357"/>
+      <c r="B70" s="354"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
@@ -5247,11 +5255,11 @@
       <c r="F70" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="353"/>
+      <c r="H70" s="387"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="380"/>
-      <c r="B71" s="374"/>
+      <c r="A71" s="358"/>
+      <c r="B71" s="355"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
@@ -5264,13 +5272,13 @@
       <c r="G71" t="s">
         <v>240</v>
       </c>
-      <c r="H71" s="353"/>
+      <c r="H71" s="387"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="382" t="s">
+      <c r="A72" s="360" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="360" t="s">
+      <c r="B72" s="353" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
@@ -5282,11 +5290,11 @@
       <c r="F72" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="353"/>
+      <c r="H72" s="387"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="383"/>
-      <c r="B73" s="361"/>
+      <c r="A73" s="361"/>
+      <c r="B73" s="354"/>
       <c r="C73" s="341" t="s">
         <v>206</v>
       </c>
@@ -5299,11 +5307,11 @@
       <c r="G73" t="s">
         <v>229</v>
       </c>
-      <c r="H73" s="353"/>
+      <c r="H73" s="387"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="383"/>
-      <c r="B74" s="361"/>
+      <c r="A74" s="361"/>
+      <c r="B74" s="354"/>
       <c r="C74" s="341" t="s">
         <v>223</v>
       </c>
@@ -5313,11 +5321,11 @@
       <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="H74" s="353"/>
+      <c r="H74" s="387"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="384"/>
-      <c r="B75" s="374"/>
+      <c r="A75" s="362"/>
+      <c r="B75" s="355"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
@@ -5330,13 +5338,13 @@
       <c r="G75" t="s">
         <v>241</v>
       </c>
-      <c r="H75" s="353"/>
+      <c r="H75" s="387"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="382" t="s">
+      <c r="A76" s="360" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="360" t="s">
+      <c r="B76" s="353" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
@@ -5351,11 +5359,11 @@
       <c r="F76" t="s">
         <v>188</v>
       </c>
-      <c r="H76" s="353"/>
+      <c r="H76" s="387"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="383"/>
-      <c r="B77" s="361"/>
+      <c r="A77" s="361"/>
+      <c r="B77" s="354"/>
       <c r="C77" s="341" t="s">
         <v>203</v>
       </c>
@@ -5365,11 +5373,11 @@
       <c r="F77" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="353"/>
+      <c r="H77" s="387"/>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="384"/>
-      <c r="B78" s="374"/>
+      <c r="A78" s="362"/>
+      <c r="B78" s="355"/>
       <c r="C78" s="335" t="s">
         <v>221</v>
       </c>
@@ -5379,10 +5387,55 @@
       <c r="F78" t="s">
         <v>188</v>
       </c>
-      <c r="H78" s="353"/>
+      <c r="H78" s="387"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5399,51 +5452,6 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H76:H78"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5565,15 +5573,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="392" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="389"/>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
-      <c r="G1" s="390"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="394"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5603,7 +5611,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5616,7 +5624,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5627,7 +5635,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5638,7 +5646,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5651,7 +5659,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5675,7 +5683,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5688,7 +5696,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5699,7 +5707,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5712,7 +5720,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="406"/>
+      <c r="A12" s="390"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5723,7 +5731,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="407" t="s">
+      <c r="A13" s="391" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5736,7 +5744,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5747,7 +5755,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5769,19 +5777,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
-      <c r="B16" s="394" t="s">
+      <c r="A16" s="389"/>
+      <c r="B16" s="398" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="391" t="s">
+      <c r="C16" s="395" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="398"/>
-      <c r="G16" s="401"/>
+      <c r="F16" s="402"/>
+      <c r="G16" s="405"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5793,15 +5801,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="405"/>
-      <c r="B17" s="395"/>
-      <c r="C17" s="392"/>
+      <c r="A17" s="389"/>
+      <c r="B17" s="399"/>
+      <c r="C17" s="396"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="399"/>
-      <c r="G17" s="402"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="406"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5813,15 +5821,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
-      <c r="B18" s="395"/>
-      <c r="C18" s="392"/>
+      <c r="A18" s="389"/>
+      <c r="B18" s="399"/>
+      <c r="C18" s="396"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="402"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="406"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5833,15 +5841,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
-      <c r="B19" s="395"/>
-      <c r="C19" s="393"/>
+      <c r="A19" s="389"/>
+      <c r="B19" s="399"/>
+      <c r="C19" s="397"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="400"/>
-      <c r="G19" s="403"/>
+      <c r="F19" s="404"/>
+      <c r="G19" s="407"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5853,8 +5861,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
-      <c r="B20" s="396"/>
+      <c r="A20" s="389"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5875,8 +5883,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="406"/>
-      <c r="B21" s="397"/>
+      <c r="A21" s="390"/>
+      <c r="B21" s="401"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5897,7 +5905,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5919,7 +5927,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5939,7 +5947,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5959,7 +5967,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="406"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5970,7 +5978,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="404" t="s">
+      <c r="A26" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -5983,7 +5991,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -5994,7 +6002,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -6005,7 +6013,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="406"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6380,17 +6388,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6460,7 +6468,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6473,7 +6481,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6484,7 +6492,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6495,7 +6503,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6508,7 +6516,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6532,7 +6540,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6545,7 +6553,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -6556,45 +6564,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
-      <c r="B11" s="396"/>
+      <c r="A11" s="389"/>
+      <c r="B11" s="400"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
-      <c r="B12" s="396"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
-      <c r="B13" s="396"/>
+      <c r="A13" s="389"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="400"/>
-      <c r="G13" s="403"/>
+      <c r="F13" s="404"/>
+      <c r="G13" s="407"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="412"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6607,7 +6615,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6622,7 +6630,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="406"/>
+      <c r="A16" s="390"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6633,7 +6641,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="407" t="s">
+      <c r="A17" s="391" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6646,7 +6654,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6657,7 +6665,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6670,7 +6678,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="411" t="s">
         <v>32</v>
       </c>
@@ -6681,46 +6689,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="398"/>
-      <c r="G20" s="401"/>
+      <c r="F20" s="402"/>
+      <c r="G20" s="405"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="405"/>
-      <c r="B21" s="396"/>
+      <c r="A21" s="389"/>
+      <c r="B21" s="400"/>
       <c r="C21" s="414"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="399"/>
-      <c r="G21" s="402"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="406"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
-      <c r="B22" s="396"/>
+      <c r="A22" s="389"/>
+      <c r="B22" s="400"/>
       <c r="C22" s="414"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="399"/>
-      <c r="G22" s="402"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="406"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
-      <c r="B23" s="396"/>
+      <c r="A23" s="389"/>
+      <c r="B23" s="400"/>
       <c r="C23" s="415"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="400"/>
-      <c r="G23" s="403"/>
+      <c r="F23" s="404"/>
+      <c r="G23" s="407"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="405"/>
-      <c r="B24" s="396"/>
+      <c r="A24" s="389"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6732,8 +6740,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="405"/>
-      <c r="B25" s="396"/>
+      <c r="A25" s="389"/>
+      <c r="B25" s="400"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6745,7 +6753,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="406"/>
+      <c r="A26" s="390"/>
       <c r="B26" s="416"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6759,7 +6767,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="404" t="s">
+      <c r="A27" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6773,7 +6781,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6784,7 +6792,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6795,7 +6803,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="406"/>
+      <c r="A30" s="390"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6806,7 +6814,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="404" t="s">
+      <c r="A31" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6819,7 +6827,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="405"/>
+      <c r="A32" s="389"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6830,7 +6838,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="405"/>
+      <c r="A33" s="389"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6841,7 +6849,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="406"/>
+      <c r="A34" s="390"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7224,12 +7232,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -7239,6 +7241,12 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7308,7 +7316,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7321,7 +7329,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7332,7 +7340,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7343,7 +7351,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7356,7 +7364,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7380,7 +7388,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="405" t="s">
+      <c r="A9" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7393,7 +7401,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -7404,45 +7412,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
-      <c r="B11" s="396"/>
+      <c r="A11" s="389"/>
+      <c r="B11" s="400"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
-      <c r="B12" s="396"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
-      <c r="B13" s="396"/>
+      <c r="A13" s="389"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="400"/>
-      <c r="G13" s="403"/>
+      <c r="F13" s="404"/>
+      <c r="G13" s="407"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
-      <c r="B14" s="396"/>
+      <c r="A14" s="389"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7454,7 +7462,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="412"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7467,7 +7475,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7478,7 +7486,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="406"/>
+      <c r="A17" s="390"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7502,7 +7510,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7513,7 +7521,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7524,7 +7532,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7535,7 +7543,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7548,7 +7556,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7559,7 +7567,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7570,7 +7578,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="406"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7581,7 +7589,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="405" t="s">
+      <c r="A26" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7594,7 +7602,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7605,7 +7613,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7616,7 +7624,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="406"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -8020,17 +8028,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8104,7 +8112,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -8125,7 +8133,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -8136,8 +8144,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="405"/>
-      <c r="B5" s="418" t="s">
+      <c r="A5" s="389"/>
+      <c r="B5" s="426" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -8151,8 +8159,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="406"/>
-      <c r="B6" s="419"/>
+      <c r="A6" s="390"/>
+      <c r="B6" s="427"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8164,7 +8172,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="405" t="s">
+      <c r="A7" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8177,7 +8185,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="406"/>
+      <c r="A8" s="390"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8191,7 +8199,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="420" t="s">
+      <c r="B9" s="428" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8206,7 +8214,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="419"/>
+      <c r="B10" s="427"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8218,7 +8226,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="405" t="s">
+      <c r="A11" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8231,7 +8239,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8246,7 +8254,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
+      <c r="A13" s="389"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8257,7 +8265,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="406"/>
+      <c r="A14" s="390"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8289,7 +8297,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8300,7 +8308,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="405"/>
+      <c r="A17" s="389"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8311,7 +8319,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="406"/>
+      <c r="A18" s="390"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8322,7 +8330,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="405" t="s">
+      <c r="A19" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8339,7 +8347,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8350,7 +8358,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="405"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="411" t="s">
         <v>81</v>
       </c>
@@ -8365,7 +8373,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="412"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8378,7 +8386,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="406"/>
+      <c r="A23" s="390"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8393,7 +8401,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="405" t="s">
+      <c r="A24" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8410,7 +8418,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8421,7 +8429,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="405"/>
+      <c r="A26" s="389"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8436,7 +8444,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="406"/>
+      <c r="A27" s="390"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8447,13 +8455,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="426" t="s">
+      <c r="A28" s="423" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="424" t="s">
+      <c r="B28" s="421" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="425" t="s">
+      <c r="C28" s="422" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8464,8 +8472,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="427"/>
-      <c r="B29" s="396"/>
+      <c r="A29" s="424"/>
+      <c r="B29" s="400"/>
       <c r="C29" s="414"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8475,8 +8483,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="427"/>
-      <c r="B30" s="396"/>
+      <c r="A30" s="424"/>
+      <c r="B30" s="400"/>
       <c r="C30" s="414"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8486,8 +8494,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="427"/>
-      <c r="B31" s="396"/>
+      <c r="A31" s="424"/>
+      <c r="B31" s="400"/>
       <c r="C31" s="415"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8497,8 +8505,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="427"/>
-      <c r="B32" s="396"/>
+      <c r="A32" s="424"/>
+      <c r="B32" s="400"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8510,7 +8518,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="428"/>
+      <c r="A33" s="425"/>
       <c r="B33" s="416"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8523,13 +8531,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="421" t="s">
+      <c r="A34" s="418" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="424" t="s">
+      <c r="B34" s="421" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="425" t="s">
+      <c r="C34" s="422" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8540,8 +8548,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="422"/>
-      <c r="B35" s="396"/>
+      <c r="A35" s="419"/>
+      <c r="B35" s="400"/>
       <c r="C35" s="414"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8551,8 +8559,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="422"/>
-      <c r="B36" s="396"/>
+      <c r="A36" s="419"/>
+      <c r="B36" s="400"/>
       <c r="C36" s="414"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8562,8 +8570,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="422"/>
-      <c r="B37" s="396"/>
+      <c r="A37" s="419"/>
+      <c r="B37" s="400"/>
       <c r="C37" s="415"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8573,8 +8581,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="422"/>
-      <c r="B38" s="396"/>
+      <c r="A38" s="419"/>
+      <c r="B38" s="400"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8586,8 +8594,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="422"/>
-      <c r="B39" s="396"/>
+      <c r="A39" s="419"/>
+      <c r="B39" s="400"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8599,8 +8607,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="422"/>
-      <c r="B40" s="396"/>
+      <c r="A40" s="419"/>
+      <c r="B40" s="400"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8612,8 +8620,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="422"/>
-      <c r="B41" s="396"/>
+      <c r="A41" s="419"/>
+      <c r="B41" s="400"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8625,7 +8633,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="423"/>
+      <c r="A42" s="420"/>
       <c r="B42" s="416"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8638,13 +8646,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="421" t="s">
+      <c r="A43" s="418" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="424" t="s">
+      <c r="B43" s="421" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="425" t="s">
+      <c r="C43" s="422" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8655,8 +8663,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="422"/>
-      <c r="B44" s="396"/>
+      <c r="A44" s="419"/>
+      <c r="B44" s="400"/>
       <c r="C44" s="414"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8666,8 +8674,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="422"/>
-      <c r="B45" s="396"/>
+      <c r="A45" s="419"/>
+      <c r="B45" s="400"/>
       <c r="C45" s="414"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8677,8 +8685,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="422"/>
-      <c r="B46" s="396"/>
+      <c r="A46" s="419"/>
+      <c r="B46" s="400"/>
       <c r="C46" s="415"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8688,8 +8696,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="422"/>
-      <c r="B47" s="396"/>
+      <c r="A47" s="419"/>
+      <c r="B47" s="400"/>
       <c r="C47" s="414" t="s">
         <v>133</v>
       </c>
@@ -8701,8 +8709,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="422"/>
-      <c r="B48" s="396"/>
+      <c r="A48" s="419"/>
+      <c r="B48" s="400"/>
       <c r="C48" s="414"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8712,8 +8720,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="422"/>
-      <c r="B49" s="396"/>
+      <c r="A49" s="419"/>
+      <c r="B49" s="400"/>
       <c r="C49" s="414"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8723,8 +8731,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="422"/>
-      <c r="B50" s="396"/>
+      <c r="A50" s="419"/>
+      <c r="B50" s="400"/>
       <c r="C50" s="415"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8734,8 +8742,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="422"/>
-      <c r="B51" s="396"/>
+      <c r="A51" s="419"/>
+      <c r="B51" s="400"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8747,7 +8755,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="423"/>
+      <c r="A52" s="420"/>
       <c r="B52" s="416"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -9144,6 +9152,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -9154,17 +9173,6 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9234,7 +9242,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9247,7 +9255,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9258,7 +9266,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9269,7 +9277,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9282,7 +9290,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9309,10 +9317,10 @@
       <c r="A9" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="396" t="s">
+      <c r="B9" s="400" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="392" t="s">
+      <c r="C9" s="396" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9324,40 +9332,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="431"/>
-      <c r="B10" s="396"/>
-      <c r="C10" s="392"/>
+      <c r="B10" s="400"/>
+      <c r="C10" s="396"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="402"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="406"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="431"/>
-      <c r="B11" s="396"/>
-      <c r="C11" s="392"/>
+      <c r="B11" s="400"/>
+      <c r="C11" s="396"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="431"/>
-      <c r="B12" s="396"/>
-      <c r="C12" s="393"/>
+      <c r="B12" s="400"/>
+      <c r="C12" s="397"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="400"/>
-      <c r="G12" s="403"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="407"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="431"/>
-      <c r="B13" s="396"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9430,7 +9438,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9441,7 +9449,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9454,7 +9462,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="406"/>
+      <c r="A21" s="390"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9465,7 +9473,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="405" t="s">
+      <c r="A22" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9478,7 +9486,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9489,7 +9497,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9500,7 +9508,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="406"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9511,7 +9519,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="405" t="s">
+      <c r="A26" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9524,7 +9532,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9535,7 +9543,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9546,7 +9554,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="406"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9917,17 +9925,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9958,15 +9966,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="455" t="s">
+      <c r="A1" s="435" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="456"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
+      <c r="G1" s="436"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -9992,13 +10000,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="435" t="s">
+      <c r="A3" s="437" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="420" t="s">
+      <c r="B3" s="428" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="425" t="s">
+      <c r="C3" s="422" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -10009,8 +10017,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="436"/>
-      <c r="B4" s="441"/>
+      <c r="A4" s="438"/>
+      <c r="B4" s="440"/>
       <c r="C4" s="414"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -10020,8 +10028,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="436"/>
-      <c r="B5" s="441"/>
+      <c r="A5" s="438"/>
+      <c r="B5" s="440"/>
       <c r="C5" s="414"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -10031,8 +10039,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="436"/>
-      <c r="B6" s="441"/>
+      <c r="A6" s="438"/>
+      <c r="B6" s="440"/>
       <c r="C6" s="415"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -10042,8 +10050,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="436"/>
-      <c r="B7" s="441"/>
+      <c r="A7" s="438"/>
+      <c r="B7" s="440"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -10055,8 +10063,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="436"/>
-      <c r="B8" s="437"/>
+      <c r="A8" s="438"/>
+      <c r="B8" s="441"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -10068,8 +10076,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="436"/>
-      <c r="B9" s="418" t="s">
+      <c r="A9" s="438"/>
+      <c r="B9" s="426" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="413" t="s">
@@ -10078,137 +10086,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="398"/>
-      <c r="F9" s="398"/>
-      <c r="G9" s="401"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="402"/>
+      <c r="G9" s="405"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="436"/>
-      <c r="B10" s="441"/>
+      <c r="A10" s="438"/>
+      <c r="B10" s="440"/>
       <c r="C10" s="414"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="402"/>
+      <c r="E10" s="403"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="406"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="436"/>
-      <c r="B11" s="441"/>
+      <c r="A11" s="438"/>
+      <c r="B11" s="440"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="399"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="E11" s="403"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="436"/>
-      <c r="B12" s="441"/>
+      <c r="A12" s="438"/>
+      <c r="B12" s="440"/>
       <c r="C12" s="415"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="400"/>
-      <c r="F12" s="400"/>
-      <c r="G12" s="403"/>
+      <c r="E12" s="404"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="407"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="436"/>
-      <c r="B13" s="441"/>
+      <c r="A13" s="438"/>
+      <c r="B13" s="440"/>
       <c r="C13" s="414" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="399"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="402"/>
+      <c r="E13" s="403"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="436"/>
-      <c r="B14" s="441"/>
+      <c r="A14" s="438"/>
+      <c r="B14" s="440"/>
       <c r="C14" s="414"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="399"/>
-      <c r="F14" s="399"/>
-      <c r="G14" s="402"/>
+      <c r="E14" s="403"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="406"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="436"/>
-      <c r="B15" s="441"/>
+      <c r="A15" s="438"/>
+      <c r="B15" s="440"/>
       <c r="C15" s="414"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="399"/>
-      <c r="F15" s="399"/>
-      <c r="G15" s="402"/>
+      <c r="E15" s="403"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="406"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="436"/>
-      <c r="B16" s="441"/>
+      <c r="A16" s="438"/>
+      <c r="B16" s="440"/>
       <c r="C16" s="415"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="400"/>
-      <c r="F16" s="400"/>
-      <c r="G16" s="403"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="404"/>
+      <c r="G16" s="407"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="436"/>
-      <c r="B17" s="441"/>
+      <c r="A17" s="438"/>
+      <c r="B17" s="440"/>
       <c r="C17" s="414" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="399"/>
-      <c r="F17" s="399"/>
-      <c r="G17" s="402"/>
+      <c r="E17" s="403"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="406"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="436"/>
-      <c r="B18" s="441"/>
+      <c r="A18" s="438"/>
+      <c r="B18" s="440"/>
       <c r="C18" s="414"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="402"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="406"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="436"/>
-      <c r="B19" s="441"/>
+      <c r="A19" s="438"/>
+      <c r="B19" s="440"/>
       <c r="C19" s="414"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="399"/>
-      <c r="F19" s="399"/>
-      <c r="G19" s="402"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="406"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="436"/>
-      <c r="B20" s="441"/>
-      <c r="C20" s="444"/>
+      <c r="A20" s="438"/>
+      <c r="B20" s="440"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="448"/>
-      <c r="F20" s="448"/>
-      <c r="G20" s="442"/>
+      <c r="E20" s="443"/>
+      <c r="F20" s="443"/>
+      <c r="G20" s="444"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="443"/>
+      <c r="A21" s="439"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -10219,10 +10227,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="449" t="s">
+      <c r="A22" s="445" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="420" t="s">
+      <c r="B22" s="428" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -10234,8 +10242,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="450"/>
-      <c r="B23" s="441"/>
+      <c r="A23" s="446"/>
+      <c r="B23" s="440"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -10245,54 +10253,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="450"/>
-      <c r="B24" s="441"/>
+      <c r="A24" s="446"/>
+      <c r="B24" s="440"/>
       <c r="C24" s="414" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="399"/>
-      <c r="F24" s="399"/>
-      <c r="G24" s="402"/>
+      <c r="E24" s="403"/>
+      <c r="F24" s="403"/>
+      <c r="G24" s="406"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="450"/>
-      <c r="B25" s="441"/>
+      <c r="A25" s="446"/>
+      <c r="B25" s="440"/>
       <c r="C25" s="414"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="399"/>
-      <c r="F25" s="399"/>
-      <c r="G25" s="402"/>
+      <c r="E25" s="403"/>
+      <c r="F25" s="403"/>
+      <c r="G25" s="406"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="450"/>
-      <c r="B26" s="441"/>
+      <c r="A26" s="446"/>
+      <c r="B26" s="440"/>
       <c r="C26" s="414"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="399"/>
-      <c r="F26" s="399"/>
-      <c r="G26" s="402"/>
+      <c r="E26" s="403"/>
+      <c r="F26" s="403"/>
+      <c r="G26" s="406"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="450"/>
-      <c r="B27" s="437"/>
-      <c r="C27" s="444"/>
+      <c r="A27" s="446"/>
+      <c r="B27" s="441"/>
+      <c r="C27" s="442"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="448"/>
-      <c r="F27" s="448"/>
-      <c r="G27" s="442"/>
+      <c r="E27" s="443"/>
+      <c r="F27" s="443"/>
+      <c r="G27" s="444"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="450"/>
-      <c r="B28" s="441" t="s">
+      <c r="A28" s="446"/>
+      <c r="B28" s="440" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10304,50 +10312,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="450"/>
-      <c r="B29" s="441"/>
+      <c r="A29" s="446"/>
+      <c r="B29" s="440"/>
       <c r="C29" s="414" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="399"/>
-      <c r="F29" s="399"/>
-      <c r="G29" s="402"/>
+      <c r="E29" s="403"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="406"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="450"/>
-      <c r="B30" s="441"/>
+      <c r="A30" s="446"/>
+      <c r="B30" s="440"/>
       <c r="C30" s="414"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="399"/>
-      <c r="F30" s="399"/>
-      <c r="G30" s="402"/>
+      <c r="E30" s="403"/>
+      <c r="F30" s="403"/>
+      <c r="G30" s="406"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="450"/>
-      <c r="B31" s="441"/>
+      <c r="A31" s="446"/>
+      <c r="B31" s="440"/>
       <c r="C31" s="414"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="399"/>
-      <c r="F31" s="399"/>
-      <c r="G31" s="402"/>
+      <c r="E31" s="403"/>
+      <c r="F31" s="403"/>
+      <c r="G31" s="406"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="451"/>
-      <c r="B32" s="419"/>
-      <c r="C32" s="452"/>
+      <c r="A32" s="447"/>
+      <c r="B32" s="427"/>
+      <c r="C32" s="448"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="453"/>
-      <c r="F32" s="453"/>
-      <c r="G32" s="454"/>
+      <c r="E32" s="449"/>
+      <c r="F32" s="449"/>
+      <c r="G32" s="450"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10363,10 +10371,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="435" t="s">
+      <c r="A34" s="437" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="445" t="s">
+      <c r="B34" s="451" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10378,8 +10386,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="436"/>
-      <c r="B35" s="446"/>
+      <c r="A35" s="438"/>
+      <c r="B35" s="452"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10389,53 +10397,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="436"/>
-      <c r="B36" s="446"/>
-      <c r="C36" s="444" t="s">
+      <c r="A36" s="438"/>
+      <c r="B36" s="452"/>
+      <c r="C36" s="442" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="399"/>
-      <c r="F36" s="399"/>
-      <c r="G36" s="402"/>
+      <c r="E36" s="403"/>
+      <c r="F36" s="403"/>
+      <c r="G36" s="406"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="436"/>
-      <c r="B37" s="446"/>
-      <c r="C37" s="447"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="452"/>
+      <c r="C37" s="453"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="399"/>
-      <c r="F37" s="399"/>
-      <c r="G37" s="402"/>
+      <c r="E37" s="403"/>
+      <c r="F37" s="403"/>
+      <c r="G37" s="406"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="436"/>
-      <c r="B38" s="446"/>
-      <c r="C38" s="447"/>
+      <c r="A38" s="438"/>
+      <c r="B38" s="452"/>
+      <c r="C38" s="453"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="399"/>
-      <c r="F38" s="399"/>
-      <c r="G38" s="402"/>
+      <c r="E38" s="403"/>
+      <c r="F38" s="403"/>
+      <c r="G38" s="406"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="436"/>
-      <c r="B39" s="446"/>
-      <c r="C39" s="447"/>
+      <c r="A39" s="438"/>
+      <c r="B39" s="452"/>
+      <c r="C39" s="453"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="448"/>
-      <c r="F39" s="448"/>
-      <c r="G39" s="442"/>
+      <c r="E39" s="443"/>
+      <c r="F39" s="443"/>
+      <c r="G39" s="444"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="436"/>
+      <c r="A40" s="438"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10446,7 +10454,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="436"/>
+      <c r="A41" s="438"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10457,7 +10465,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="443"/>
+      <c r="A42" s="439"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10468,7 +10476,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="435" t="s">
+      <c r="A43" s="437" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10481,8 +10489,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="436"/>
-      <c r="B44" s="418" t="s">
+      <c r="A44" s="438"/>
+      <c r="B44" s="426" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10494,8 +10502,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="436"/>
-      <c r="B45" s="441"/>
+      <c r="A45" s="438"/>
+      <c r="B45" s="440"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10505,8 +10513,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="436"/>
-      <c r="B46" s="441"/>
+      <c r="A46" s="438"/>
+      <c r="B46" s="440"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10516,8 +10524,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="436"/>
-      <c r="B47" s="441"/>
+      <c r="A47" s="438"/>
+      <c r="B47" s="440"/>
       <c r="C47" s="414" t="s">
         <v>58</v>
       </c>
@@ -10529,8 +10537,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="436"/>
-      <c r="B48" s="441"/>
+      <c r="A48" s="438"/>
+      <c r="B48" s="440"/>
       <c r="C48" s="414"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10540,8 +10548,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="436"/>
-      <c r="B49" s="441"/>
+      <c r="A49" s="438"/>
+      <c r="B49" s="440"/>
       <c r="C49" s="414"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10551,9 +10559,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="436"/>
-      <c r="B50" s="437"/>
-      <c r="C50" s="444"/>
+      <c r="A50" s="438"/>
+      <c r="B50" s="441"/>
+      <c r="C50" s="442"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10562,8 +10570,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="436"/>
-      <c r="B51" s="418" t="s">
+      <c r="A51" s="438"/>
+      <c r="B51" s="426" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="413" t="s">
@@ -10577,8 +10585,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="436"/>
-      <c r="B52" s="441"/>
+      <c r="A52" s="438"/>
+      <c r="B52" s="440"/>
       <c r="C52" s="414"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10588,8 +10596,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="436"/>
-      <c r="B53" s="441"/>
+      <c r="A53" s="438"/>
+      <c r="B53" s="440"/>
       <c r="C53" s="414"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10599,8 +10607,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="436"/>
-      <c r="B54" s="441"/>
+      <c r="A54" s="438"/>
+      <c r="B54" s="440"/>
       <c r="C54" s="415"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10610,8 +10618,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="436"/>
-      <c r="B55" s="441"/>
+      <c r="A55" s="438"/>
+      <c r="B55" s="440"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10621,8 +10629,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="436"/>
-      <c r="B56" s="437"/>
+      <c r="A56" s="438"/>
+      <c r="B56" s="441"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10632,8 +10640,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="436"/>
-      <c r="B57" s="441" t="s">
+      <c r="A57" s="438"/>
+      <c r="B57" s="440" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10645,8 +10653,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="436"/>
-      <c r="B58" s="441"/>
+      <c r="A58" s="438"/>
+      <c r="B58" s="440"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10656,8 +10664,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="443"/>
-      <c r="B59" s="419"/>
+      <c r="A59" s="439"/>
+      <c r="B59" s="427"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10667,7 +10675,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="435" t="s">
+      <c r="A60" s="437" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10680,8 +10688,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="436"/>
-      <c r="B61" s="418" t="s">
+      <c r="A61" s="438"/>
+      <c r="B61" s="426" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10693,8 +10701,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="436"/>
-      <c r="B62" s="437"/>
+      <c r="A62" s="438"/>
+      <c r="B62" s="441"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10704,7 +10712,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="436"/>
+      <c r="A63" s="438"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10715,7 +10723,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="436"/>
+      <c r="A64" s="438"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10726,7 +10734,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="438" t="s">
+      <c r="A65" s="454" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10739,8 +10747,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="439"/>
-      <c r="B66" s="418" t="s">
+      <c r="A66" s="455"/>
+      <c r="B66" s="426" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10752,8 +10760,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="439"/>
-      <c r="B67" s="441"/>
+      <c r="A67" s="455"/>
+      <c r="B67" s="440"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10763,8 +10771,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="439"/>
-      <c r="B68" s="437"/>
+      <c r="A68" s="455"/>
+      <c r="B68" s="441"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10774,7 +10782,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="439"/>
+      <c r="A69" s="455"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10785,8 +10793,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="439"/>
-      <c r="B70" s="418" t="s">
+      <c r="A70" s="455"/>
+      <c r="B70" s="426" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10798,8 +10806,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="439"/>
-      <c r="B71" s="441"/>
+      <c r="A71" s="455"/>
+      <c r="B71" s="440"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10809,8 +10817,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="440"/>
-      <c r="B72" s="419"/>
+      <c r="A72" s="456"/>
+      <c r="B72" s="427"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10860,6 +10868,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10876,35 +10913,6 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10974,7 +10982,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -10987,7 +10995,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -10998,7 +11006,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -11009,7 +11017,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -11022,7 +11030,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -11046,7 +11054,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="405" t="s">
+      <c r="A9" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -11059,7 +11067,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -11070,7 +11078,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -11083,7 +11091,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="406"/>
+      <c r="A12" s="390"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -11107,7 +11115,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -11118,7 +11126,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -11131,7 +11139,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="406"/>
+      <c r="A16" s="390"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -11142,7 +11150,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="405" t="s">
+      <c r="A17" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -11155,7 +11163,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -11166,7 +11174,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -11177,7 +11185,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="406"/>
+      <c r="A20" s="390"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -11188,7 +11196,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="405" t="s">
+      <c r="A21" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -11201,7 +11209,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -11212,7 +11220,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -11223,7 +11231,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="406"/>
+      <c r="A24" s="390"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA14611A-1AF2-4C09-8728-7789493A9728}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751570A1-9CF0-463F-A572-0E5D5B8FD67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="253">
   <si>
     <t>ENG 251</t>
   </si>
@@ -964,6 +964,9 @@
   </si>
   <si>
     <t>ok (left original link)</t>
+  </si>
+  <si>
+    <t>exc</t>
   </si>
 </sst>
 </file>
@@ -2842,15 +2845,81 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2881,70 +2950,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2959,54 +3010,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3037,6 +3040,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3061,15 +3073,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3088,71 +3091,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4063,10 +4066,10 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33:H35"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,11 +4086,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="366" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="376"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="368"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="M1" t="s">
@@ -4125,10 +4128,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="369" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4140,7 +4143,7 @@
       <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I3" t="s">
@@ -4151,8 +4154,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="357"/>
-      <c r="B4" s="378"/>
+      <c r="A4" s="379"/>
+      <c r="B4" s="370"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4162,7 +4165,7 @@
       <c r="F4" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="387"/>
+      <c r="H4" s="353"/>
       <c r="I4" t="s">
         <v>250</v>
       </c>
@@ -4171,8 +4174,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="357"/>
-      <c r="B5" s="379"/>
+      <c r="A5" s="379"/>
+      <c r="B5" s="371"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4185,7 +4188,7 @@
       <c r="G5" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="387"/>
+      <c r="H5" s="353"/>
       <c r="I5" t="s">
         <v>250</v>
       </c>
@@ -4194,8 +4197,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="357"/>
-      <c r="B6" s="377" t="s">
+      <c r="A6" s="379"/>
+      <c r="B6" s="369" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
@@ -4210,7 +4213,7 @@
       <c r="G6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="387" t="s">
+      <c r="H6" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I6" t="s">
@@ -4221,8 +4224,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="357"/>
-      <c r="B7" s="378"/>
+      <c r="A7" s="379"/>
+      <c r="B7" s="370"/>
       <c r="C7" s="341" t="s">
         <v>209</v>
       </c>
@@ -4232,7 +4235,7 @@
       <c r="F7" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="387"/>
+      <c r="H7" s="353"/>
       <c r="I7" t="s">
         <v>251</v>
       </c>
@@ -4241,8 +4244,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="357"/>
-      <c r="B8" s="379"/>
+      <c r="A8" s="379"/>
+      <c r="B8" s="371"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4252,7 +4255,7 @@
       <c r="F8" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="387"/>
+      <c r="H8" s="353"/>
       <c r="I8" t="s">
         <v>250</v>
       </c>
@@ -4261,8 +4264,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="357"/>
-      <c r="B9" s="377" t="s">
+      <c r="A9" s="379"/>
+      <c r="B9" s="369" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4277,13 +4280,19 @@
       <c r="G9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="387" t="s">
+      <c r="H9" s="353" t="s">
         <v>247</v>
       </c>
+      <c r="I9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J9" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="357"/>
-      <c r="B10" s="378"/>
+      <c r="A10" s="379"/>
+      <c r="B10" s="370"/>
       <c r="C10" s="334" t="s">
         <v>212</v>
       </c>
@@ -4296,11 +4305,17 @@
       <c r="G10" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="387"/>
+      <c r="H10" s="353"/>
+      <c r="I10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J10" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="358"/>
-      <c r="B11" s="380"/>
+      <c r="A11" s="380"/>
+      <c r="B11" s="372"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4310,13 +4325,19 @@
       <c r="F11" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="387"/>
+      <c r="H11" s="353"/>
+      <c r="I11" t="s">
+        <v>250</v>
+      </c>
+      <c r="J11" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="381" t="s">
+      <c r="B12" s="373" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
@@ -4328,11 +4349,11 @@
       <c r="F12" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="387"/>
+      <c r="H12" s="353"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="357"/>
-      <c r="B13" s="378"/>
+      <c r="A13" s="379"/>
+      <c r="B13" s="370"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4342,11 +4363,11 @@
       <c r="F13" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="387"/>
+      <c r="H13" s="353"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="357"/>
-      <c r="B14" s="379"/>
+      <c r="A14" s="379"/>
+      <c r="B14" s="371"/>
       <c r="C14" s="333" t="s">
         <v>195</v>
       </c>
@@ -4356,11 +4377,11 @@
       <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="387"/>
+      <c r="H14" s="353"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="357"/>
-      <c r="B15" s="382" t="s">
+      <c r="A15" s="379"/>
+      <c r="B15" s="354" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4375,11 +4396,11 @@
       <c r="G15" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="387"/>
+      <c r="H15" s="353"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="357"/>
-      <c r="B16" s="383"/>
+      <c r="A16" s="379"/>
+      <c r="B16" s="355"/>
       <c r="C16" s="334" t="s">
         <v>210</v>
       </c>
@@ -4389,11 +4410,11 @@
       <c r="F16" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="387"/>
+      <c r="H16" s="353"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358"/>
-      <c r="B17" s="384"/>
+      <c r="A17" s="380"/>
+      <c r="B17" s="356"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4403,13 +4424,13 @@
       <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="387"/>
+      <c r="H17" s="353"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="359" t="s">
+      <c r="A18" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="385" t="s">
+      <c r="B18" s="357" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
@@ -4421,11 +4442,11 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="387"/>
+      <c r="H18" s="353"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="357"/>
-      <c r="B19" s="367"/>
+      <c r="A19" s="379"/>
+      <c r="B19" s="358"/>
       <c r="C19" s="334" t="s">
         <v>214</v>
       </c>
@@ -4435,11 +4456,11 @@
       <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="387"/>
+      <c r="H19" s="353"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="358"/>
-      <c r="B20" s="386"/>
+      <c r="A20" s="380"/>
+      <c r="B20" s="359"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4449,13 +4470,13 @@
       <c r="F20" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="387"/>
+      <c r="H20" s="353"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="359" t="s">
+      <c r="A21" s="381" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="353" t="s">
+      <c r="B21" s="360" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4470,13 +4491,13 @@
       <c r="G21" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="387" t="s">
+      <c r="H21" s="353" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="357"/>
-      <c r="B22" s="354"/>
+      <c r="A22" s="379"/>
+      <c r="B22" s="361"/>
       <c r="C22" s="334" t="s">
         <v>196</v>
       </c>
@@ -4486,11 +4507,11 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="387"/>
+      <c r="H22" s="353"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="357"/>
-      <c r="B23" s="370"/>
+      <c r="A23" s="379"/>
+      <c r="B23" s="362"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4500,11 +4521,11 @@
       <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="387"/>
+      <c r="H23" s="353"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="369" t="s">
+      <c r="A24" s="379"/>
+      <c r="B24" s="363" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4519,13 +4540,13 @@
       <c r="G24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="387" t="s">
+      <c r="H24" s="353" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="357"/>
-      <c r="B25" s="354"/>
+      <c r="A25" s="379"/>
+      <c r="B25" s="361"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4538,11 +4559,11 @@
       <c r="G25" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="387"/>
+      <c r="H25" s="353"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="357"/>
-      <c r="B26" s="370"/>
+      <c r="A26" s="379"/>
+      <c r="B26" s="362"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4555,11 +4576,11 @@
       <c r="G26" t="s">
         <v>233</v>
       </c>
-      <c r="H26" s="387"/>
+      <c r="H26" s="353"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="357"/>
-      <c r="B27" s="366" t="s">
+      <c r="A27" s="379"/>
+      <c r="B27" s="364" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4571,13 +4592,13 @@
       <c r="F27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="387" t="s">
+      <c r="H27" s="353" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="357"/>
-      <c r="B28" s="367"/>
+      <c r="A28" s="379"/>
+      <c r="B28" s="358"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4587,11 +4608,11 @@
       <c r="F28" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="387"/>
+      <c r="H28" s="353"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="357"/>
-      <c r="B29" s="368"/>
+      <c r="A29" s="379"/>
+      <c r="B29" s="365"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4601,11 +4622,11 @@
       <c r="F29" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="387"/>
+      <c r="H29" s="353"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="357"/>
-      <c r="B30" s="369" t="s">
+      <c r="A30" s="379"/>
+      <c r="B30" s="363" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4617,13 +4638,13 @@
       <c r="F30" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="387" t="s">
+      <c r="H30" s="353" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="357"/>
-      <c r="B31" s="354"/>
+      <c r="A31" s="379"/>
+      <c r="B31" s="361"/>
       <c r="C31" s="334" t="s">
         <v>216</v>
       </c>
@@ -4636,11 +4657,11 @@
       <c r="G31" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="387"/>
+      <c r="H31" s="353"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="358"/>
-      <c r="B32" s="355"/>
+      <c r="A32" s="380"/>
+      <c r="B32" s="374"/>
       <c r="C32" s="337" t="s">
         <v>197</v>
       </c>
@@ -4650,13 +4671,13 @@
       <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="387"/>
+      <c r="H32" s="353"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="360" t="s">
+      <c r="A33" s="382" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="353" t="s">
+      <c r="B33" s="360" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4668,11 +4689,11 @@
       <c r="F33" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="387"/>
+      <c r="H33" s="353"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="361"/>
-      <c r="B34" s="354"/>
+      <c r="A34" s="383"/>
+      <c r="B34" s="361"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4682,11 +4703,11 @@
       <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="387"/>
+      <c r="H34" s="353"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="361"/>
-      <c r="B35" s="370"/>
+      <c r="A35" s="383"/>
+      <c r="B35" s="362"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
@@ -4699,11 +4720,11 @@
       <c r="G35" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="387"/>
+      <c r="H35" s="353"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="361"/>
-      <c r="B36" s="369" t="s">
+      <c r="A36" s="383"/>
+      <c r="B36" s="363" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
@@ -4715,11 +4736,11 @@
       <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="387"/>
+      <c r="H36" s="353"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="361"/>
-      <c r="B37" s="354"/>
+      <c r="A37" s="383"/>
+      <c r="B37" s="361"/>
       <c r="C37" s="334" t="s">
         <v>215</v>
       </c>
@@ -4729,11 +4750,11 @@
       <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="387"/>
+      <c r="H37" s="353"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="361"/>
-      <c r="B38" s="370"/>
+      <c r="A38" s="383"/>
+      <c r="B38" s="362"/>
       <c r="C38" s="333" t="s">
         <v>199</v>
       </c>
@@ -4743,11 +4764,11 @@
       <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="387"/>
+      <c r="H38" s="353"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="361"/>
-      <c r="B39" s="369" t="s">
+      <c r="A39" s="383"/>
+      <c r="B39" s="363" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4762,11 +4783,11 @@
       <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="387"/>
+      <c r="H39" s="353"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="361"/>
-      <c r="B40" s="354"/>
+      <c r="A40" s="383"/>
+      <c r="B40" s="361"/>
       <c r="C40" s="334" t="s">
         <v>200</v>
       </c>
@@ -4779,11 +4800,11 @@
       <c r="G40" t="s">
         <v>235</v>
       </c>
-      <c r="H40" s="387"/>
+      <c r="H40" s="353"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="361"/>
-      <c r="B41" s="370"/>
+      <c r="A41" s="383"/>
+      <c r="B41" s="362"/>
       <c r="C41" s="333" t="s">
         <v>236</v>
       </c>
@@ -4796,11 +4817,11 @@
       <c r="G41" t="s">
         <v>248</v>
       </c>
-      <c r="H41" s="387"/>
+      <c r="H41" s="353"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="361"/>
-      <c r="B42" s="369" t="s">
+      <c r="A42" s="383"/>
+      <c r="B42" s="363" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="334" t="s">
@@ -4812,11 +4833,11 @@
       <c r="F42" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="387"/>
+      <c r="H42" s="353"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="361"/>
-      <c r="B43" s="354"/>
+      <c r="A43" s="383"/>
+      <c r="B43" s="361"/>
       <c r="C43" s="334" t="s">
         <v>197</v>
       </c>
@@ -4826,11 +4847,11 @@
       <c r="F43" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="387"/>
+      <c r="H43" s="353"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="362"/>
-      <c r="B44" s="355"/>
+      <c r="A44" s="384"/>
+      <c r="B44" s="374"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4840,13 +4861,13 @@
       <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="387"/>
+      <c r="H44" s="353"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="359" t="s">
+      <c r="A45" s="381" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="353" t="s">
+      <c r="B45" s="360" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4858,11 +4879,11 @@
       <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="387"/>
+      <c r="H45" s="353"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="357"/>
-      <c r="B46" s="354"/>
+      <c r="A46" s="379"/>
+      <c r="B46" s="361"/>
       <c r="C46" s="334" t="s">
         <v>228</v>
       </c>
@@ -4872,11 +4893,11 @@
       <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="387"/>
+      <c r="H46" s="353"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="357"/>
-      <c r="B47" s="370"/>
+      <c r="A47" s="379"/>
+      <c r="B47" s="362"/>
       <c r="C47" s="333" t="s">
         <v>209</v>
       </c>
@@ -4886,11 +4907,11 @@
       <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="387"/>
+      <c r="H47" s="353"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="357"/>
-      <c r="B48" s="369" t="s">
+      <c r="A48" s="379"/>
+      <c r="B48" s="363" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
@@ -4905,11 +4926,11 @@
       <c r="G48" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="387"/>
+      <c r="H48" s="353"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="357"/>
-      <c r="B49" s="354"/>
+      <c r="A49" s="379"/>
+      <c r="B49" s="361"/>
       <c r="C49" s="334" t="s">
         <v>175</v>
       </c>
@@ -4919,11 +4940,11 @@
       <c r="F49" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="387"/>
+      <c r="H49" s="353"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="357"/>
-      <c r="B50" s="370"/>
+      <c r="A50" s="379"/>
+      <c r="B50" s="362"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -4933,11 +4954,11 @@
       <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="387"/>
+      <c r="H50" s="353"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="357"/>
-      <c r="B51" s="369" t="s">
+      <c r="A51" s="379"/>
+      <c r="B51" s="363" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -4949,11 +4970,11 @@
       <c r="F51" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="387"/>
+      <c r="H51" s="353"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="357"/>
-      <c r="B52" s="354"/>
+      <c r="A52" s="379"/>
+      <c r="B52" s="361"/>
       <c r="C52" s="334" t="s">
         <v>201</v>
       </c>
@@ -4966,11 +4987,11 @@
       <c r="G52" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="387"/>
+      <c r="H52" s="353"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="357"/>
-      <c r="B53" s="370"/>
+      <c r="A53" s="379"/>
+      <c r="B53" s="362"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
@@ -4980,11 +5001,11 @@
       <c r="F53" t="s">
         <v>188</v>
       </c>
-      <c r="H53" s="387"/>
+      <c r="H53" s="353"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="357"/>
-      <c r="B54" s="369" t="s">
+      <c r="A54" s="379"/>
+      <c r="B54" s="363" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
@@ -4999,11 +5020,11 @@
       <c r="G54" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="387"/>
+      <c r="H54" s="353"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="357"/>
-      <c r="B55" s="354"/>
+      <c r="A55" s="379"/>
+      <c r="B55" s="361"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -5013,11 +5034,11 @@
       <c r="F55" t="s">
         <v>188</v>
       </c>
-      <c r="H55" s="387"/>
+      <c r="H55" s="353"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="358"/>
-      <c r="B56" s="355"/>
+      <c r="A56" s="380"/>
+      <c r="B56" s="374"/>
       <c r="C56" s="337" t="s">
         <v>226</v>
       </c>
@@ -5030,13 +5051,13 @@
       <c r="G56" t="s">
         <v>238</v>
       </c>
-      <c r="H56" s="387"/>
+      <c r="H56" s="353"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="363" t="s">
+      <c r="A57" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="371" t="s">
+      <c r="B57" s="375" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -5048,11 +5069,11 @@
       <c r="F57" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="387"/>
+      <c r="H57" s="353"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="364"/>
-      <c r="B58" s="372"/>
+      <c r="A58" s="386"/>
+      <c r="B58" s="376"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -5065,11 +5086,11 @@
       <c r="F58" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="387"/>
+      <c r="H58" s="353"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="364"/>
-      <c r="B59" s="373"/>
+      <c r="A59" s="386"/>
+      <c r="B59" s="377"/>
       <c r="C59" s="333" t="s">
         <v>228</v>
       </c>
@@ -5079,11 +5100,11 @@
       <c r="F59" t="s">
         <v>188</v>
       </c>
-      <c r="H59" s="387"/>
+      <c r="H59" s="353"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="364"/>
-      <c r="B60" s="366" t="s">
+      <c r="A60" s="386"/>
+      <c r="B60" s="364" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -5098,11 +5119,11 @@
       <c r="F60" t="s">
         <v>188</v>
       </c>
-      <c r="H60" s="387"/>
+      <c r="H60" s="353"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="364"/>
-      <c r="B61" s="367"/>
+      <c r="A61" s="386"/>
+      <c r="B61" s="358"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -5112,11 +5133,11 @@
       <c r="F61" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="387"/>
+      <c r="H61" s="353"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="364"/>
-      <c r="B62" s="368"/>
+      <c r="A62" s="386"/>
+      <c r="B62" s="365"/>
       <c r="C62" s="333" t="s">
         <v>237</v>
       </c>
@@ -5129,11 +5150,11 @@
       <c r="G62" t="s">
         <v>243</v>
       </c>
-      <c r="H62" s="387"/>
+      <c r="H62" s="353"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="364"/>
-      <c r="B63" s="369" t="s">
+      <c r="A63" s="386"/>
+      <c r="B63" s="363" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -5145,11 +5166,11 @@
       <c r="F63" t="s">
         <v>188</v>
       </c>
-      <c r="H63" s="387"/>
+      <c r="H63" s="353"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="364"/>
-      <c r="B64" s="354"/>
+      <c r="A64" s="386"/>
+      <c r="B64" s="361"/>
       <c r="C64" s="334" t="s">
         <v>225</v>
       </c>
@@ -5162,11 +5183,11 @@
       <c r="F64" t="s">
         <v>188</v>
       </c>
-      <c r="H64" s="387"/>
+      <c r="H64" s="353"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="364"/>
-      <c r="B65" s="370"/>
+      <c r="A65" s="386"/>
+      <c r="B65" s="362"/>
       <c r="C65" s="333" t="s">
         <v>209</v>
       </c>
@@ -5176,11 +5197,11 @@
       <c r="F65" t="s">
         <v>188</v>
       </c>
-      <c r="H65" s="387"/>
+      <c r="H65" s="353"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="364"/>
-      <c r="B66" s="369" t="s">
+      <c r="A66" s="386"/>
+      <c r="B66" s="363" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
@@ -5192,11 +5213,11 @@
       <c r="F66" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="387"/>
+      <c r="H66" s="353"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="364"/>
-      <c r="B67" s="354"/>
+      <c r="A67" s="386"/>
+      <c r="B67" s="361"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -5209,11 +5230,11 @@
       <c r="F67" t="s">
         <v>188</v>
       </c>
-      <c r="H67" s="387"/>
+      <c r="H67" s="353"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="365"/>
-      <c r="B68" s="355"/>
+      <c r="A68" s="387"/>
+      <c r="B68" s="374"/>
       <c r="C68" s="334" t="s">
         <v>209</v>
       </c>
@@ -5223,13 +5244,13 @@
       <c r="F68" t="s">
         <v>188</v>
       </c>
-      <c r="H68" s="387"/>
+      <c r="H68" s="353"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="359" t="s">
+      <c r="A69" s="381" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="353" t="s">
+      <c r="B69" s="360" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5241,11 +5262,11 @@
       <c r="F69" t="s">
         <v>188</v>
       </c>
-      <c r="H69" s="387"/>
+      <c r="H69" s="353"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="357"/>
-      <c r="B70" s="354"/>
+      <c r="A70" s="379"/>
+      <c r="B70" s="361"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
@@ -5255,11 +5276,11 @@
       <c r="F70" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="387"/>
+      <c r="H70" s="353"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="358"/>
-      <c r="B71" s="355"/>
+      <c r="A71" s="380"/>
+      <c r="B71" s="374"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
@@ -5272,13 +5293,13 @@
       <c r="G71" t="s">
         <v>240</v>
       </c>
-      <c r="H71" s="387"/>
+      <c r="H71" s="353"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="360" t="s">
+      <c r="A72" s="382" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="353" t="s">
+      <c r="B72" s="360" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
@@ -5290,11 +5311,11 @@
       <c r="F72" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="387"/>
+      <c r="H72" s="353"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="361"/>
-      <c r="B73" s="354"/>
+      <c r="A73" s="383"/>
+      <c r="B73" s="361"/>
       <c r="C73" s="341" t="s">
         <v>206</v>
       </c>
@@ -5307,11 +5328,11 @@
       <c r="G73" t="s">
         <v>229</v>
       </c>
-      <c r="H73" s="387"/>
+      <c r="H73" s="353"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="361"/>
-      <c r="B74" s="354"/>
+      <c r="A74" s="383"/>
+      <c r="B74" s="361"/>
       <c r="C74" s="341" t="s">
         <v>223</v>
       </c>
@@ -5321,11 +5342,11 @@
       <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="H74" s="387"/>
+      <c r="H74" s="353"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="362"/>
-      <c r="B75" s="355"/>
+      <c r="A75" s="384"/>
+      <c r="B75" s="374"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
@@ -5338,13 +5359,13 @@
       <c r="G75" t="s">
         <v>241</v>
       </c>
-      <c r="H75" s="387"/>
+      <c r="H75" s="353"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="360" t="s">
+      <c r="A76" s="382" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="353" t="s">
+      <c r="B76" s="360" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
@@ -5359,11 +5380,11 @@
       <c r="F76" t="s">
         <v>188</v>
       </c>
-      <c r="H76" s="387"/>
+      <c r="H76" s="353"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="361"/>
-      <c r="B77" s="354"/>
+      <c r="A77" s="383"/>
+      <c r="B77" s="361"/>
       <c r="C77" s="341" t="s">
         <v>203</v>
       </c>
@@ -5373,11 +5394,11 @@
       <c r="F77" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="387"/>
+      <c r="H77" s="353"/>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="362"/>
-      <c r="B78" s="355"/>
+      <c r="A78" s="384"/>
+      <c r="B78" s="374"/>
       <c r="C78" s="335" t="s">
         <v>221</v>
       </c>
@@ -5387,55 +5408,10 @@
       <c r="F78" t="s">
         <v>188</v>
       </c>
-      <c r="H78" s="387"/>
+      <c r="H78" s="353"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5452,6 +5428,51 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H76:H78"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5573,15 +5594,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="388" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="394"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="390"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5611,7 +5632,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5624,7 +5645,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5635,7 +5656,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5646,7 +5667,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5659,7 +5680,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5683,7 +5704,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5696,7 +5717,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5707,7 +5728,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
+      <c r="A11" s="405"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5720,7 +5741,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="390"/>
+      <c r="A12" s="406"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5731,7 +5752,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="391" t="s">
+      <c r="A13" s="407" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5744,7 +5765,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5755,7 +5776,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5777,19 +5798,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
-      <c r="B16" s="398" t="s">
+      <c r="A16" s="405"/>
+      <c r="B16" s="394" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="395" t="s">
+      <c r="C16" s="391" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="402"/>
-      <c r="G16" s="405"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="401"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5801,15 +5822,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="389"/>
-      <c r="B17" s="399"/>
-      <c r="C17" s="396"/>
+      <c r="A17" s="405"/>
+      <c r="B17" s="395"/>
+      <c r="C17" s="392"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="406"/>
+      <c r="F17" s="399"/>
+      <c r="G17" s="402"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5821,15 +5842,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
-      <c r="B18" s="399"/>
-      <c r="C18" s="396"/>
+      <c r="A18" s="405"/>
+      <c r="B18" s="395"/>
+      <c r="C18" s="392"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="406"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="402"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5841,15 +5862,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
-      <c r="B19" s="399"/>
-      <c r="C19" s="397"/>
+      <c r="A19" s="405"/>
+      <c r="B19" s="395"/>
+      <c r="C19" s="393"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="404"/>
-      <c r="G19" s="407"/>
+      <c r="F19" s="400"/>
+      <c r="G19" s="403"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5861,8 +5882,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
-      <c r="B20" s="400"/>
+      <c r="A20" s="405"/>
+      <c r="B20" s="396"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5883,8 +5904,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="390"/>
-      <c r="B21" s="401"/>
+      <c r="A21" s="406"/>
+      <c r="B21" s="397"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5905,7 +5926,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5927,7 +5948,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5947,7 +5968,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5967,7 +5988,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5978,7 +5999,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -5991,7 +6012,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -6002,7 +6023,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -6013,7 +6034,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6388,17 +6409,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6468,7 +6489,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6481,7 +6502,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6492,7 +6513,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6503,7 +6524,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6516,7 +6537,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6540,7 +6561,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6553,7 +6574,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -6564,45 +6585,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
-      <c r="B11" s="400"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="405"/>
+      <c r="B12" s="396"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
-      <c r="B13" s="400"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="404"/>
-      <c r="G13" s="407"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="403"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="412"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6615,7 +6636,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6630,7 +6651,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390"/>
+      <c r="A16" s="406"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6641,7 +6662,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="391" t="s">
+      <c r="A17" s="407" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6654,7 +6675,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
+      <c r="A18" s="405"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6665,7 +6686,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6678,7 +6699,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="411" t="s">
         <v>32</v>
       </c>
@@ -6689,46 +6710,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="402"/>
-      <c r="G20" s="405"/>
+      <c r="F20" s="398"/>
+      <c r="G20" s="401"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="389"/>
-      <c r="B21" s="400"/>
+      <c r="A21" s="405"/>
+      <c r="B21" s="396"/>
       <c r="C21" s="414"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="403"/>
-      <c r="G21" s="406"/>
+      <c r="F21" s="399"/>
+      <c r="G21" s="402"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
-      <c r="B22" s="400"/>
+      <c r="A22" s="405"/>
+      <c r="B22" s="396"/>
       <c r="C22" s="414"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="403"/>
-      <c r="G22" s="406"/>
+      <c r="F22" s="399"/>
+      <c r="G22" s="402"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
-      <c r="B23" s="400"/>
+      <c r="A23" s="405"/>
+      <c r="B23" s="396"/>
       <c r="C23" s="415"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="404"/>
-      <c r="G23" s="407"/>
+      <c r="F23" s="400"/>
+      <c r="G23" s="403"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
-      <c r="B24" s="400"/>
+      <c r="A24" s="405"/>
+      <c r="B24" s="396"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6740,8 +6761,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="389"/>
-      <c r="B25" s="400"/>
+      <c r="A25" s="405"/>
+      <c r="B25" s="396"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6753,7 +6774,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="390"/>
+      <c r="A26" s="406"/>
       <c r="B26" s="416"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6767,7 +6788,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="388" t="s">
+      <c r="A27" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6781,7 +6802,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6792,7 +6813,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="389"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6803,7 +6824,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="390"/>
+      <c r="A30" s="406"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6814,7 +6835,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="388" t="s">
+      <c r="A31" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6827,7 +6848,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="389"/>
+      <c r="A32" s="405"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6838,7 +6859,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="389"/>
+      <c r="A33" s="405"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6849,7 +6870,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="390"/>
+      <c r="A34" s="406"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7232,6 +7253,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -7241,12 +7268,6 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7316,7 +7337,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7329,7 +7350,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7340,7 +7361,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7351,7 +7372,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7364,7 +7385,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7388,7 +7409,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="389" t="s">
+      <c r="A9" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7401,7 +7422,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -7412,45 +7433,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
-      <c r="B11" s="400"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="405"/>
+      <c r="B12" s="396"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
-      <c r="B13" s="400"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="404"/>
-      <c r="G13" s="407"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="403"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
-      <c r="B14" s="400"/>
+      <c r="A14" s="405"/>
+      <c r="B14" s="396"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7462,7 +7483,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="412"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7475,7 +7496,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7486,7 +7507,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="390"/>
+      <c r="A17" s="406"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7510,7 +7531,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7521,7 +7542,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7532,7 +7553,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="389"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7543,7 +7564,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7556,7 +7577,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7567,7 +7588,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7578,7 +7599,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7589,7 +7610,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="389" t="s">
+      <c r="A26" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7602,7 +7623,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7613,7 +7634,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7624,7 +7645,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -8028,17 +8049,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8112,7 +8133,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -8133,7 +8154,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -8144,8 +8165,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="389"/>
-      <c r="B5" s="426" t="s">
+      <c r="A5" s="405"/>
+      <c r="B5" s="418" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -8159,8 +8180,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="390"/>
-      <c r="B6" s="427"/>
+      <c r="A6" s="406"/>
+      <c r="B6" s="419"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8172,7 +8193,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="389" t="s">
+      <c r="A7" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8185,7 +8206,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="390"/>
+      <c r="A8" s="406"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8199,7 +8220,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="428" t="s">
+      <c r="B9" s="420" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8214,7 +8235,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="427"/>
+      <c r="B10" s="419"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8226,7 +8247,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389" t="s">
+      <c r="A11" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8239,7 +8260,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
+      <c r="A12" s="405"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8254,7 +8275,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
+      <c r="A13" s="405"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8265,7 +8286,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="390"/>
+      <c r="A14" s="406"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8297,7 +8318,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8308,7 +8329,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="389"/>
+      <c r="A17" s="405"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8319,7 +8340,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="390"/>
+      <c r="A18" s="406"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8330,7 +8351,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389" t="s">
+      <c r="A19" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8347,7 +8368,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8358,7 +8379,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="389"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="411" t="s">
         <v>81</v>
       </c>
@@ -8373,7 +8394,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
+      <c r="A22" s="405"/>
       <c r="B22" s="412"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8386,7 +8407,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="390"/>
+      <c r="A23" s="406"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8401,7 +8422,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389" t="s">
+      <c r="A24" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8418,7 +8439,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="389"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8429,7 +8450,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="389"/>
+      <c r="A26" s="405"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8444,7 +8465,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="390"/>
+      <c r="A27" s="406"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8455,13 +8476,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="423" t="s">
+      <c r="A28" s="426" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="421" t="s">
+      <c r="B28" s="424" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="422" t="s">
+      <c r="C28" s="425" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8472,8 +8493,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="424"/>
-      <c r="B29" s="400"/>
+      <c r="A29" s="427"/>
+      <c r="B29" s="396"/>
       <c r="C29" s="414"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8483,8 +8504,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="424"/>
-      <c r="B30" s="400"/>
+      <c r="A30" s="427"/>
+      <c r="B30" s="396"/>
       <c r="C30" s="414"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8494,8 +8515,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="424"/>
-      <c r="B31" s="400"/>
+      <c r="A31" s="427"/>
+      <c r="B31" s="396"/>
       <c r="C31" s="415"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8505,8 +8526,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="424"/>
-      <c r="B32" s="400"/>
+      <c r="A32" s="427"/>
+      <c r="B32" s="396"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8518,7 +8539,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="425"/>
+      <c r="A33" s="428"/>
       <c r="B33" s="416"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8531,13 +8552,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="418" t="s">
+      <c r="A34" s="421" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="421" t="s">
+      <c r="B34" s="424" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="422" t="s">
+      <c r="C34" s="425" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8548,8 +8569,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="419"/>
-      <c r="B35" s="400"/>
+      <c r="A35" s="422"/>
+      <c r="B35" s="396"/>
       <c r="C35" s="414"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8559,8 +8580,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="419"/>
-      <c r="B36" s="400"/>
+      <c r="A36" s="422"/>
+      <c r="B36" s="396"/>
       <c r="C36" s="414"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8570,8 +8591,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="419"/>
-      <c r="B37" s="400"/>
+      <c r="A37" s="422"/>
+      <c r="B37" s="396"/>
       <c r="C37" s="415"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8581,8 +8602,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="419"/>
-      <c r="B38" s="400"/>
+      <c r="A38" s="422"/>
+      <c r="B38" s="396"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8594,8 +8615,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="419"/>
-      <c r="B39" s="400"/>
+      <c r="A39" s="422"/>
+      <c r="B39" s="396"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8607,8 +8628,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="419"/>
-      <c r="B40" s="400"/>
+      <c r="A40" s="422"/>
+      <c r="B40" s="396"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8620,8 +8641,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="419"/>
-      <c r="B41" s="400"/>
+      <c r="A41" s="422"/>
+      <c r="B41" s="396"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8633,7 +8654,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="420"/>
+      <c r="A42" s="423"/>
       <c r="B42" s="416"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8646,13 +8667,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="418" t="s">
+      <c r="A43" s="421" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="421" t="s">
+      <c r="B43" s="424" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="422" t="s">
+      <c r="C43" s="425" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8663,8 +8684,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="419"/>
-      <c r="B44" s="400"/>
+      <c r="A44" s="422"/>
+      <c r="B44" s="396"/>
       <c r="C44" s="414"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8674,8 +8695,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="419"/>
-      <c r="B45" s="400"/>
+      <c r="A45" s="422"/>
+      <c r="B45" s="396"/>
       <c r="C45" s="414"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8685,8 +8706,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="419"/>
-      <c r="B46" s="400"/>
+      <c r="A46" s="422"/>
+      <c r="B46" s="396"/>
       <c r="C46" s="415"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8696,8 +8717,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="419"/>
-      <c r="B47" s="400"/>
+      <c r="A47" s="422"/>
+      <c r="B47" s="396"/>
       <c r="C47" s="414" t="s">
         <v>133</v>
       </c>
@@ -8709,8 +8730,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="419"/>
-      <c r="B48" s="400"/>
+      <c r="A48" s="422"/>
+      <c r="B48" s="396"/>
       <c r="C48" s="414"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8720,8 +8741,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="419"/>
-      <c r="B49" s="400"/>
+      <c r="A49" s="422"/>
+      <c r="B49" s="396"/>
       <c r="C49" s="414"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8731,8 +8752,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="419"/>
-      <c r="B50" s="400"/>
+      <c r="A50" s="422"/>
+      <c r="B50" s="396"/>
       <c r="C50" s="415"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8742,8 +8763,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="419"/>
-      <c r="B51" s="400"/>
+      <c r="A51" s="422"/>
+      <c r="B51" s="396"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8755,7 +8776,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="420"/>
+      <c r="A52" s="423"/>
       <c r="B52" s="416"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -9152,17 +9173,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -9173,6 +9183,17 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9242,7 +9263,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9255,7 +9276,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9266,7 +9287,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9277,7 +9298,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9290,7 +9311,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9317,10 +9338,10 @@
       <c r="A9" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="400" t="s">
+      <c r="B9" s="396" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="396" t="s">
+      <c r="C9" s="392" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9332,40 +9353,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="431"/>
-      <c r="B10" s="400"/>
-      <c r="C10" s="396"/>
+      <c r="B10" s="396"/>
+      <c r="C10" s="392"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="406"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="402"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="431"/>
-      <c r="B11" s="400"/>
-      <c r="C11" s="396"/>
+      <c r="B11" s="396"/>
+      <c r="C11" s="392"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="431"/>
-      <c r="B12" s="400"/>
-      <c r="C12" s="397"/>
+      <c r="B12" s="396"/>
+      <c r="C12" s="393"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="407"/>
+      <c r="F12" s="400"/>
+      <c r="G12" s="403"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="431"/>
-      <c r="B13" s="400"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9438,7 +9459,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9449,7 +9470,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9462,7 +9483,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="390"/>
+      <c r="A21" s="406"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9473,7 +9494,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="389" t="s">
+      <c r="A22" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9486,7 +9507,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9497,7 +9518,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9508,7 +9529,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9519,7 +9540,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="389" t="s">
+      <c r="A26" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9532,7 +9553,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9543,7 +9564,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9554,7 +9575,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9925,17 +9946,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9966,15 +9987,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="435" t="s">
+      <c r="A1" s="455" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="436"/>
+      <c r="B1" s="455"/>
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="456"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10000,13 +10021,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="437" t="s">
+      <c r="A3" s="435" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="428" t="s">
+      <c r="B3" s="420" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="422" t="s">
+      <c r="C3" s="425" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -10017,8 +10038,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="438"/>
-      <c r="B4" s="440"/>
+      <c r="A4" s="436"/>
+      <c r="B4" s="441"/>
       <c r="C4" s="414"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -10028,8 +10049,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="438"/>
-      <c r="B5" s="440"/>
+      <c r="A5" s="436"/>
+      <c r="B5" s="441"/>
       <c r="C5" s="414"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -10039,8 +10060,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="438"/>
-      <c r="B6" s="440"/>
+      <c r="A6" s="436"/>
+      <c r="B6" s="441"/>
       <c r="C6" s="415"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -10050,8 +10071,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="438"/>
-      <c r="B7" s="440"/>
+      <c r="A7" s="436"/>
+      <c r="B7" s="441"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -10063,8 +10084,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="438"/>
-      <c r="B8" s="441"/>
+      <c r="A8" s="436"/>
+      <c r="B8" s="437"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -10076,8 +10097,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="438"/>
-      <c r="B9" s="426" t="s">
+      <c r="A9" s="436"/>
+      <c r="B9" s="418" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="413" t="s">
@@ -10086,137 +10107,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="402"/>
-      <c r="F9" s="402"/>
-      <c r="G9" s="405"/>
+      <c r="E9" s="398"/>
+      <c r="F9" s="398"/>
+      <c r="G9" s="401"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="438"/>
-      <c r="B10" s="440"/>
+      <c r="A10" s="436"/>
+      <c r="B10" s="441"/>
       <c r="C10" s="414"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="403"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="406"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="402"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="438"/>
-      <c r="B11" s="440"/>
+      <c r="A11" s="436"/>
+      <c r="B11" s="441"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="403"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="E11" s="399"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="438"/>
-      <c r="B12" s="440"/>
+      <c r="A12" s="436"/>
+      <c r="B12" s="441"/>
       <c r="C12" s="415"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="404"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="407"/>
+      <c r="E12" s="400"/>
+      <c r="F12" s="400"/>
+      <c r="G12" s="403"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="438"/>
-      <c r="B13" s="440"/>
+      <c r="A13" s="436"/>
+      <c r="B13" s="441"/>
       <c r="C13" s="414" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="403"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="406"/>
+      <c r="E13" s="399"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="438"/>
-      <c r="B14" s="440"/>
+      <c r="A14" s="436"/>
+      <c r="B14" s="441"/>
       <c r="C14" s="414"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="403"/>
-      <c r="F14" s="403"/>
-      <c r="G14" s="406"/>
+      <c r="E14" s="399"/>
+      <c r="F14" s="399"/>
+      <c r="G14" s="402"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="438"/>
-      <c r="B15" s="440"/>
+      <c r="A15" s="436"/>
+      <c r="B15" s="441"/>
       <c r="C15" s="414"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="403"/>
-      <c r="F15" s="403"/>
-      <c r="G15" s="406"/>
+      <c r="E15" s="399"/>
+      <c r="F15" s="399"/>
+      <c r="G15" s="402"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="438"/>
-      <c r="B16" s="440"/>
+      <c r="A16" s="436"/>
+      <c r="B16" s="441"/>
       <c r="C16" s="415"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="404"/>
-      <c r="F16" s="404"/>
-      <c r="G16" s="407"/>
+      <c r="E16" s="400"/>
+      <c r="F16" s="400"/>
+      <c r="G16" s="403"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="438"/>
-      <c r="B17" s="440"/>
+      <c r="A17" s="436"/>
+      <c r="B17" s="441"/>
       <c r="C17" s="414" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="406"/>
+      <c r="E17" s="399"/>
+      <c r="F17" s="399"/>
+      <c r="G17" s="402"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="438"/>
-      <c r="B18" s="440"/>
+      <c r="A18" s="436"/>
+      <c r="B18" s="441"/>
       <c r="C18" s="414"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="406"/>
+      <c r="E18" s="399"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="402"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="438"/>
-      <c r="B19" s="440"/>
+      <c r="A19" s="436"/>
+      <c r="B19" s="441"/>
       <c r="C19" s="414"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="403"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="406"/>
+      <c r="E19" s="399"/>
+      <c r="F19" s="399"/>
+      <c r="G19" s="402"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="438"/>
-      <c r="B20" s="440"/>
-      <c r="C20" s="442"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="444"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="443"/>
-      <c r="F20" s="443"/>
-      <c r="G20" s="444"/>
+      <c r="E20" s="448"/>
+      <c r="F20" s="448"/>
+      <c r="G20" s="442"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="439"/>
+      <c r="A21" s="443"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -10227,10 +10248,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="445" t="s">
+      <c r="A22" s="449" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="428" t="s">
+      <c r="B22" s="420" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -10242,8 +10263,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="446"/>
-      <c r="B23" s="440"/>
+      <c r="A23" s="450"/>
+      <c r="B23" s="441"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -10253,54 +10274,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="446"/>
-      <c r="B24" s="440"/>
+      <c r="A24" s="450"/>
+      <c r="B24" s="441"/>
       <c r="C24" s="414" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="403"/>
-      <c r="F24" s="403"/>
-      <c r="G24" s="406"/>
+      <c r="E24" s="399"/>
+      <c r="F24" s="399"/>
+      <c r="G24" s="402"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="446"/>
-      <c r="B25" s="440"/>
+      <c r="A25" s="450"/>
+      <c r="B25" s="441"/>
       <c r="C25" s="414"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="403"/>
-      <c r="F25" s="403"/>
-      <c r="G25" s="406"/>
+      <c r="E25" s="399"/>
+      <c r="F25" s="399"/>
+      <c r="G25" s="402"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="446"/>
-      <c r="B26" s="440"/>
+      <c r="A26" s="450"/>
+      <c r="B26" s="441"/>
       <c r="C26" s="414"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="403"/>
-      <c r="F26" s="403"/>
-      <c r="G26" s="406"/>
+      <c r="E26" s="399"/>
+      <c r="F26" s="399"/>
+      <c r="G26" s="402"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="446"/>
-      <c r="B27" s="441"/>
-      <c r="C27" s="442"/>
+      <c r="A27" s="450"/>
+      <c r="B27" s="437"/>
+      <c r="C27" s="444"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="443"/>
-      <c r="F27" s="443"/>
-      <c r="G27" s="444"/>
+      <c r="E27" s="448"/>
+      <c r="F27" s="448"/>
+      <c r="G27" s="442"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="446"/>
-      <c r="B28" s="440" t="s">
+      <c r="A28" s="450"/>
+      <c r="B28" s="441" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10312,50 +10333,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="446"/>
-      <c r="B29" s="440"/>
+      <c r="A29" s="450"/>
+      <c r="B29" s="441"/>
       <c r="C29" s="414" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="403"/>
-      <c r="F29" s="403"/>
-      <c r="G29" s="406"/>
+      <c r="E29" s="399"/>
+      <c r="F29" s="399"/>
+      <c r="G29" s="402"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="446"/>
-      <c r="B30" s="440"/>
+      <c r="A30" s="450"/>
+      <c r="B30" s="441"/>
       <c r="C30" s="414"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="403"/>
-      <c r="F30" s="403"/>
-      <c r="G30" s="406"/>
+      <c r="E30" s="399"/>
+      <c r="F30" s="399"/>
+      <c r="G30" s="402"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="446"/>
-      <c r="B31" s="440"/>
+      <c r="A31" s="450"/>
+      <c r="B31" s="441"/>
       <c r="C31" s="414"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="403"/>
-      <c r="F31" s="403"/>
-      <c r="G31" s="406"/>
+      <c r="E31" s="399"/>
+      <c r="F31" s="399"/>
+      <c r="G31" s="402"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="447"/>
-      <c r="B32" s="427"/>
-      <c r="C32" s="448"/>
+      <c r="A32" s="451"/>
+      <c r="B32" s="419"/>
+      <c r="C32" s="452"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="449"/>
-      <c r="F32" s="449"/>
-      <c r="G32" s="450"/>
+      <c r="E32" s="453"/>
+      <c r="F32" s="453"/>
+      <c r="G32" s="454"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10371,10 +10392,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="437" t="s">
+      <c r="A34" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="451" t="s">
+      <c r="B34" s="445" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10386,8 +10407,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="438"/>
-      <c r="B35" s="452"/>
+      <c r="A35" s="436"/>
+      <c r="B35" s="446"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10397,53 +10418,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="438"/>
-      <c r="B36" s="452"/>
-      <c r="C36" s="442" t="s">
+      <c r="A36" s="436"/>
+      <c r="B36" s="446"/>
+      <c r="C36" s="444" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="403"/>
-      <c r="F36" s="403"/>
-      <c r="G36" s="406"/>
+      <c r="E36" s="399"/>
+      <c r="F36" s="399"/>
+      <c r="G36" s="402"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="438"/>
-      <c r="B37" s="452"/>
-      <c r="C37" s="453"/>
+      <c r="A37" s="436"/>
+      <c r="B37" s="446"/>
+      <c r="C37" s="447"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="403"/>
-      <c r="F37" s="403"/>
-      <c r="G37" s="406"/>
+      <c r="E37" s="399"/>
+      <c r="F37" s="399"/>
+      <c r="G37" s="402"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="438"/>
-      <c r="B38" s="452"/>
-      <c r="C38" s="453"/>
+      <c r="A38" s="436"/>
+      <c r="B38" s="446"/>
+      <c r="C38" s="447"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="403"/>
-      <c r="F38" s="403"/>
-      <c r="G38" s="406"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="399"/>
+      <c r="G38" s="402"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="438"/>
-      <c r="B39" s="452"/>
-      <c r="C39" s="453"/>
+      <c r="A39" s="436"/>
+      <c r="B39" s="446"/>
+      <c r="C39" s="447"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="443"/>
-      <c r="F39" s="443"/>
-      <c r="G39" s="444"/>
+      <c r="E39" s="448"/>
+      <c r="F39" s="448"/>
+      <c r="G39" s="442"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="438"/>
+      <c r="A40" s="436"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10454,7 +10475,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="438"/>
+      <c r="A41" s="436"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10465,7 +10486,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="439"/>
+      <c r="A42" s="443"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10476,7 +10497,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="437" t="s">
+      <c r="A43" s="435" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10489,8 +10510,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="438"/>
-      <c r="B44" s="426" t="s">
+      <c r="A44" s="436"/>
+      <c r="B44" s="418" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10502,8 +10523,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="438"/>
-      <c r="B45" s="440"/>
+      <c r="A45" s="436"/>
+      <c r="B45" s="441"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10513,8 +10534,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="438"/>
-      <c r="B46" s="440"/>
+      <c r="A46" s="436"/>
+      <c r="B46" s="441"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10524,8 +10545,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="438"/>
-      <c r="B47" s="440"/>
+      <c r="A47" s="436"/>
+      <c r="B47" s="441"/>
       <c r="C47" s="414" t="s">
         <v>58</v>
       </c>
@@ -10537,8 +10558,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="438"/>
-      <c r="B48" s="440"/>
+      <c r="A48" s="436"/>
+      <c r="B48" s="441"/>
       <c r="C48" s="414"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10548,8 +10569,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="438"/>
-      <c r="B49" s="440"/>
+      <c r="A49" s="436"/>
+      <c r="B49" s="441"/>
       <c r="C49" s="414"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10559,9 +10580,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="438"/>
-      <c r="B50" s="441"/>
-      <c r="C50" s="442"/>
+      <c r="A50" s="436"/>
+      <c r="B50" s="437"/>
+      <c r="C50" s="444"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10570,8 +10591,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="438"/>
-      <c r="B51" s="426" t="s">
+      <c r="A51" s="436"/>
+      <c r="B51" s="418" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="413" t="s">
@@ -10585,8 +10606,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="438"/>
-      <c r="B52" s="440"/>
+      <c r="A52" s="436"/>
+      <c r="B52" s="441"/>
       <c r="C52" s="414"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10596,8 +10617,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="438"/>
-      <c r="B53" s="440"/>
+      <c r="A53" s="436"/>
+      <c r="B53" s="441"/>
       <c r="C53" s="414"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10607,8 +10628,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="438"/>
-      <c r="B54" s="440"/>
+      <c r="A54" s="436"/>
+      <c r="B54" s="441"/>
       <c r="C54" s="415"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10618,8 +10639,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="438"/>
-      <c r="B55" s="440"/>
+      <c r="A55" s="436"/>
+      <c r="B55" s="441"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10629,8 +10650,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="438"/>
-      <c r="B56" s="441"/>
+      <c r="A56" s="436"/>
+      <c r="B56" s="437"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10640,8 +10661,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="438"/>
-      <c r="B57" s="440" t="s">
+      <c r="A57" s="436"/>
+      <c r="B57" s="441" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10653,8 +10674,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="438"/>
-      <c r="B58" s="440"/>
+      <c r="A58" s="436"/>
+      <c r="B58" s="441"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10664,8 +10685,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="439"/>
-      <c r="B59" s="427"/>
+      <c r="A59" s="443"/>
+      <c r="B59" s="419"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10675,7 +10696,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="437" t="s">
+      <c r="A60" s="435" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10688,8 +10709,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="438"/>
-      <c r="B61" s="426" t="s">
+      <c r="A61" s="436"/>
+      <c r="B61" s="418" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10701,8 +10722,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="438"/>
-      <c r="B62" s="441"/>
+      <c r="A62" s="436"/>
+      <c r="B62" s="437"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10712,7 +10733,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="438"/>
+      <c r="A63" s="436"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10723,7 +10744,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="438"/>
+      <c r="A64" s="436"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10734,7 +10755,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="454" t="s">
+      <c r="A65" s="438" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10747,8 +10768,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="455"/>
-      <c r="B66" s="426" t="s">
+      <c r="A66" s="439"/>
+      <c r="B66" s="418" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10760,8 +10781,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="455"/>
-      <c r="B67" s="440"/>
+      <c r="A67" s="439"/>
+      <c r="B67" s="441"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10771,8 +10792,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="455"/>
-      <c r="B68" s="441"/>
+      <c r="A68" s="439"/>
+      <c r="B68" s="437"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10782,7 +10803,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="455"/>
+      <c r="A69" s="439"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10793,8 +10814,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="455"/>
-      <c r="B70" s="426" t="s">
+      <c r="A70" s="439"/>
+      <c r="B70" s="418" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10806,8 +10827,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="455"/>
-      <c r="B71" s="440"/>
+      <c r="A71" s="439"/>
+      <c r="B71" s="441"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10817,8 +10838,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="456"/>
-      <c r="B72" s="427"/>
+      <c r="A72" s="440"/>
+      <c r="B72" s="419"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10868,35 +10889,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10913,6 +10905,35 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10982,7 +11003,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -10995,7 +11016,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -11006,7 +11027,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -11017,7 +11038,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -11030,7 +11051,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -11054,7 +11075,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="389" t="s">
+      <c r="A9" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -11067,7 +11088,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -11078,7 +11099,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
+      <c r="A11" s="405"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -11091,7 +11112,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="390"/>
+      <c r="A12" s="406"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -11115,7 +11136,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -11126,7 +11147,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -11139,7 +11160,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390"/>
+      <c r="A16" s="406"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -11150,7 +11171,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="389" t="s">
+      <c r="A17" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -11163,7 +11184,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
+      <c r="A18" s="405"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -11174,7 +11195,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -11185,7 +11206,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="390"/>
+      <c r="A20" s="406"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -11196,7 +11217,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="389" t="s">
+      <c r="A21" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -11209,7 +11230,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
+      <c r="A22" s="405"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -11220,7 +11241,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -11231,7 +11252,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="390"/>
+      <c r="A24" s="406"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751570A1-9CF0-463F-A572-0E5D5B8FD67B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378567C-8491-4CCD-8E16-48BF4F1EBEF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="254">
   <si>
     <t>ENG 251</t>
   </si>
@@ -966,7 +966,10 @@
     <t>ok (left original link)</t>
   </si>
   <si>
-    <t>exc</t>
+    <t>ok (original)</t>
+  </si>
+  <si>
+    <t>ok (copy from 1.2)</t>
   </si>
 </sst>
 </file>
@@ -2845,110 +2848,122 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2998,18 +3013,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3040,6 +3043,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3049,30 +3076,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3091,15 +3094,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3108,54 +3159,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4066,10 +4069,10 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,11 +4089,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="366" t="s">
+      <c r="A1" s="374" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="367"/>
-      <c r="C1" s="368"/>
+      <c r="B1" s="375"/>
+      <c r="C1" s="376"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="M1" t="s">
@@ -4128,10 +4131,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="378" t="s">
+      <c r="A3" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="377" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4143,7 +4146,7 @@
       <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I3" t="s">
@@ -4154,8 +4157,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="379"/>
-      <c r="B4" s="370"/>
+      <c r="A4" s="357"/>
+      <c r="B4" s="378"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4165,7 +4168,7 @@
       <c r="F4" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="353"/>
+      <c r="H4" s="387"/>
       <c r="I4" t="s">
         <v>250</v>
       </c>
@@ -4174,8 +4177,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="379"/>
-      <c r="B5" s="371"/>
+      <c r="A5" s="357"/>
+      <c r="B5" s="379"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4188,7 +4191,7 @@
       <c r="G5" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="353"/>
+      <c r="H5" s="387"/>
       <c r="I5" t="s">
         <v>250</v>
       </c>
@@ -4197,8 +4200,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="379"/>
-      <c r="B6" s="369" t="s">
+      <c r="A6" s="357"/>
+      <c r="B6" s="377" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
@@ -4213,7 +4216,7 @@
       <c r="G6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="353" t="s">
+      <c r="H6" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I6" t="s">
@@ -4224,8 +4227,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="379"/>
-      <c r="B7" s="370"/>
+      <c r="A7" s="357"/>
+      <c r="B7" s="378"/>
       <c r="C7" s="341" t="s">
         <v>209</v>
       </c>
@@ -4235,7 +4238,7 @@
       <c r="F7" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="353"/>
+      <c r="H7" s="387"/>
       <c r="I7" t="s">
         <v>251</v>
       </c>
@@ -4244,8 +4247,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="379"/>
-      <c r="B8" s="371"/>
+      <c r="A8" s="357"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4255,7 +4258,7 @@
       <c r="F8" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="353"/>
+      <c r="H8" s="387"/>
       <c r="I8" t="s">
         <v>250</v>
       </c>
@@ -4264,8 +4267,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="379"/>
-      <c r="B9" s="369" t="s">
+      <c r="A9" s="357"/>
+      <c r="B9" s="377" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4280,7 +4283,7 @@
       <c r="G9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="353" t="s">
+      <c r="H9" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I9" t="s">
@@ -4291,8 +4294,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="379"/>
-      <c r="B10" s="370"/>
+      <c r="A10" s="357"/>
+      <c r="B10" s="378"/>
       <c r="C10" s="334" t="s">
         <v>212</v>
       </c>
@@ -4305,7 +4308,7 @@
       <c r="G10" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="353"/>
+      <c r="H10" s="387"/>
       <c r="I10" t="s">
         <v>250</v>
       </c>
@@ -4314,8 +4317,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="380"/>
-      <c r="B11" s="372"/>
+      <c r="A11" s="358"/>
+      <c r="B11" s="380"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4325,19 +4328,19 @@
       <c r="F11" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="353"/>
+      <c r="H11" s="387"/>
       <c r="I11" t="s">
         <v>250</v>
       </c>
       <c r="J11" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="381" t="s">
+      <c r="A12" s="359" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="373" t="s">
+      <c r="B12" s="381" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
@@ -4349,11 +4352,11 @@
       <c r="F12" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="353"/>
+      <c r="H12" s="387"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="379"/>
-      <c r="B13" s="370"/>
+      <c r="A13" s="357"/>
+      <c r="B13" s="378"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4363,11 +4366,11 @@
       <c r="F13" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="353"/>
+      <c r="H13" s="387"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="379"/>
-      <c r="B14" s="371"/>
+      <c r="A14" s="357"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="333" t="s">
         <v>195</v>
       </c>
@@ -4377,11 +4380,11 @@
       <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="353"/>
+      <c r="H14" s="387"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="379"/>
-      <c r="B15" s="354" t="s">
+      <c r="A15" s="357"/>
+      <c r="B15" s="382" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4396,11 +4399,11 @@
       <c r="G15" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="353"/>
+      <c r="H15" s="387"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="379"/>
-      <c r="B16" s="355"/>
+      <c r="A16" s="357"/>
+      <c r="B16" s="383"/>
       <c r="C16" s="334" t="s">
         <v>210</v>
       </c>
@@ -4410,11 +4413,11 @@
       <c r="F16" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="353"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="380"/>
-      <c r="B17" s="356"/>
+      <c r="H16" s="387"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="358"/>
+      <c r="B17" s="384"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4424,13 +4427,13 @@
       <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="353"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="381" t="s">
+      <c r="H17" s="387"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="359" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="357" t="s">
+      <c r="B18" s="385" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
@@ -4442,11 +4445,11 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="353"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="379"/>
-      <c r="B19" s="358"/>
+      <c r="H18" s="387"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="357"/>
+      <c r="B19" s="367"/>
       <c r="C19" s="334" t="s">
         <v>214</v>
       </c>
@@ -4456,11 +4459,11 @@
       <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="353"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="380"/>
-      <c r="B20" s="359"/>
+      <c r="H19" s="387"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="358"/>
+      <c r="B20" s="386"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4470,13 +4473,13 @@
       <c r="F20" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="353"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="381" t="s">
+      <c r="H20" s="387"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="359" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="360" t="s">
+      <c r="B21" s="353" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4491,13 +4494,19 @@
       <c r="G21" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="353" t="s">
+      <c r="H21" s="387" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="379"/>
-      <c r="B22" s="361"/>
+      <c r="I21" t="s">
+        <v>252</v>
+      </c>
+      <c r="J21" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="357"/>
+      <c r="B22" s="354"/>
       <c r="C22" s="334" t="s">
         <v>196</v>
       </c>
@@ -4507,11 +4516,17 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="353"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="379"/>
-      <c r="B23" s="362"/>
+      <c r="H22" s="387"/>
+      <c r="I22" t="s">
+        <v>252</v>
+      </c>
+      <c r="J22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="357"/>
+      <c r="B23" s="370"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4521,11 +4536,17 @@
       <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="353"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="379"/>
-      <c r="B24" s="363" t="s">
+      <c r="H23" s="387"/>
+      <c r="I23" t="s">
+        <v>253</v>
+      </c>
+      <c r="J23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="357"/>
+      <c r="B24" s="369" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4540,13 +4561,13 @@
       <c r="G24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="353" t="s">
+      <c r="H24" s="387" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="379"/>
-      <c r="B25" s="361"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="357"/>
+      <c r="B25" s="354"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4559,11 +4580,11 @@
       <c r="G25" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="353"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="379"/>
-      <c r="B26" s="362"/>
+      <c r="H25" s="387"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="357"/>
+      <c r="B26" s="370"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4576,11 +4597,11 @@
       <c r="G26" t="s">
         <v>233</v>
       </c>
-      <c r="H26" s="353"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="379"/>
-      <c r="B27" s="364" t="s">
+      <c r="H26" s="387"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="357"/>
+      <c r="B27" s="366" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4592,13 +4613,13 @@
       <c r="F27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="353" t="s">
+      <c r="H27" s="387" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="379"/>
-      <c r="B28" s="358"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="357"/>
+      <c r="B28" s="367"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4608,11 +4629,11 @@
       <c r="F28" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="353"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="379"/>
-      <c r="B29" s="365"/>
+      <c r="H28" s="387"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="357"/>
+      <c r="B29" s="368"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4622,11 +4643,11 @@
       <c r="F29" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="353"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="379"/>
-      <c r="B30" s="363" t="s">
+      <c r="H29" s="387"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="357"/>
+      <c r="B30" s="369" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4638,13 +4659,13 @@
       <c r="F30" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="353" t="s">
+      <c r="H30" s="387" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="379"/>
-      <c r="B31" s="361"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="357"/>
+      <c r="B31" s="354"/>
       <c r="C31" s="334" t="s">
         <v>216</v>
       </c>
@@ -4657,11 +4678,11 @@
       <c r="G31" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="353"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="380"/>
-      <c r="B32" s="374"/>
+      <c r="H31" s="387"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="358"/>
+      <c r="B32" s="355"/>
       <c r="C32" s="337" t="s">
         <v>197</v>
       </c>
@@ -4671,13 +4692,13 @@
       <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="353"/>
+      <c r="H32" s="387"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="382" t="s">
+      <c r="A33" s="360" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="360" t="s">
+      <c r="B33" s="353" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4689,11 +4710,13 @@
       <c r="F33" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="353"/>
+      <c r="H33" s="387" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="383"/>
-      <c r="B34" s="361"/>
+      <c r="A34" s="361"/>
+      <c r="B34" s="354"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4703,11 +4726,11 @@
       <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="353"/>
+      <c r="H34" s="387"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="383"/>
-      <c r="B35" s="362"/>
+      <c r="A35" s="361"/>
+      <c r="B35" s="370"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
@@ -4720,11 +4743,11 @@
       <c r="G35" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="353"/>
+      <c r="H35" s="387"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="383"/>
-      <c r="B36" s="363" t="s">
+      <c r="A36" s="361"/>
+      <c r="B36" s="369" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
@@ -4736,11 +4759,13 @@
       <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="353"/>
+      <c r="H36" s="387" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="383"/>
-      <c r="B37" s="361"/>
+      <c r="A37" s="361"/>
+      <c r="B37" s="354"/>
       <c r="C37" s="334" t="s">
         <v>215</v>
       </c>
@@ -4750,11 +4775,11 @@
       <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="353"/>
+      <c r="H37" s="387"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="383"/>
-      <c r="B38" s="362"/>
+      <c r="A38" s="361"/>
+      <c r="B38" s="370"/>
       <c r="C38" s="333" t="s">
         <v>199</v>
       </c>
@@ -4764,11 +4789,11 @@
       <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="353"/>
+      <c r="H38" s="387"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="383"/>
-      <c r="B39" s="363" t="s">
+      <c r="A39" s="361"/>
+      <c r="B39" s="369" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4783,11 +4808,13 @@
       <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="353"/>
+      <c r="H39" s="387" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="383"/>
-      <c r="B40" s="361"/>
+      <c r="A40" s="361"/>
+      <c r="B40" s="354"/>
       <c r="C40" s="334" t="s">
         <v>200</v>
       </c>
@@ -4800,11 +4827,11 @@
       <c r="G40" t="s">
         <v>235</v>
       </c>
-      <c r="H40" s="353"/>
+      <c r="H40" s="387"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="383"/>
-      <c r="B41" s="362"/>
+      <c r="A41" s="361"/>
+      <c r="B41" s="370"/>
       <c r="C41" s="333" t="s">
         <v>236</v>
       </c>
@@ -4817,11 +4844,11 @@
       <c r="G41" t="s">
         <v>248</v>
       </c>
-      <c r="H41" s="353"/>
+      <c r="H41" s="387"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="383"/>
-      <c r="B42" s="363" t="s">
+      <c r="A42" s="361"/>
+      <c r="B42" s="369" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="334" t="s">
@@ -4833,11 +4860,13 @@
       <c r="F42" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="353"/>
+      <c r="H42" s="387" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="383"/>
-      <c r="B43" s="361"/>
+      <c r="A43" s="361"/>
+      <c r="B43" s="354"/>
       <c r="C43" s="334" t="s">
         <v>197</v>
       </c>
@@ -4847,11 +4876,11 @@
       <c r="F43" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="353"/>
+      <c r="H43" s="387"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="384"/>
-      <c r="B44" s="374"/>
+      <c r="A44" s="362"/>
+      <c r="B44" s="355"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4861,13 +4890,13 @@
       <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="353"/>
+      <c r="H44" s="387"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="381" t="s">
+      <c r="A45" s="359" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="360" t="s">
+      <c r="B45" s="353" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4879,11 +4908,11 @@
       <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="353"/>
+      <c r="H45" s="387"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="379"/>
-      <c r="B46" s="361"/>
+      <c r="A46" s="357"/>
+      <c r="B46" s="354"/>
       <c r="C46" s="334" t="s">
         <v>228</v>
       </c>
@@ -4893,11 +4922,11 @@
       <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="353"/>
+      <c r="H46" s="387"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="379"/>
-      <c r="B47" s="362"/>
+      <c r="A47" s="357"/>
+      <c r="B47" s="370"/>
       <c r="C47" s="333" t="s">
         <v>209</v>
       </c>
@@ -4907,11 +4936,11 @@
       <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="353"/>
+      <c r="H47" s="387"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="379"/>
-      <c r="B48" s="363" t="s">
+      <c r="A48" s="357"/>
+      <c r="B48" s="369" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
@@ -4926,11 +4955,11 @@
       <c r="G48" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="353"/>
+      <c r="H48" s="387"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="379"/>
-      <c r="B49" s="361"/>
+      <c r="A49" s="357"/>
+      <c r="B49" s="354"/>
       <c r="C49" s="334" t="s">
         <v>175</v>
       </c>
@@ -4940,11 +4969,11 @@
       <c r="F49" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="353"/>
+      <c r="H49" s="387"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="379"/>
-      <c r="B50" s="362"/>
+      <c r="A50" s="357"/>
+      <c r="B50" s="370"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -4954,11 +4983,11 @@
       <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="353"/>
+      <c r="H50" s="387"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="379"/>
-      <c r="B51" s="363" t="s">
+      <c r="A51" s="357"/>
+      <c r="B51" s="369" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -4970,11 +4999,11 @@
       <c r="F51" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="353"/>
+      <c r="H51" s="387"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="379"/>
-      <c r="B52" s="361"/>
+      <c r="A52" s="357"/>
+      <c r="B52" s="354"/>
       <c r="C52" s="334" t="s">
         <v>201</v>
       </c>
@@ -4987,11 +5016,11 @@
       <c r="G52" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="353"/>
+      <c r="H52" s="387"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="379"/>
-      <c r="B53" s="362"/>
+      <c r="A53" s="357"/>
+      <c r="B53" s="370"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
@@ -5001,11 +5030,11 @@
       <c r="F53" t="s">
         <v>188</v>
       </c>
-      <c r="H53" s="353"/>
+      <c r="H53" s="387"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="379"/>
-      <c r="B54" s="363" t="s">
+      <c r="A54" s="357"/>
+      <c r="B54" s="369" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
@@ -5020,11 +5049,11 @@
       <c r="G54" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="353"/>
+      <c r="H54" s="387"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="379"/>
-      <c r="B55" s="361"/>
+      <c r="A55" s="357"/>
+      <c r="B55" s="354"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -5034,11 +5063,11 @@
       <c r="F55" t="s">
         <v>188</v>
       </c>
-      <c r="H55" s="353"/>
+      <c r="H55" s="387"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="380"/>
-      <c r="B56" s="374"/>
+      <c r="A56" s="358"/>
+      <c r="B56" s="355"/>
       <c r="C56" s="337" t="s">
         <v>226</v>
       </c>
@@ -5051,13 +5080,13 @@
       <c r="G56" t="s">
         <v>238</v>
       </c>
-      <c r="H56" s="353"/>
+      <c r="H56" s="387"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="385" t="s">
+      <c r="A57" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="375" t="s">
+      <c r="B57" s="371" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -5069,11 +5098,11 @@
       <c r="F57" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="353"/>
+      <c r="H57" s="387"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="386"/>
-      <c r="B58" s="376"/>
+      <c r="A58" s="364"/>
+      <c r="B58" s="372"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -5086,11 +5115,11 @@
       <c r="F58" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="353"/>
+      <c r="H58" s="387"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="386"/>
-      <c r="B59" s="377"/>
+      <c r="A59" s="364"/>
+      <c r="B59" s="373"/>
       <c r="C59" s="333" t="s">
         <v>228</v>
       </c>
@@ -5100,11 +5129,11 @@
       <c r="F59" t="s">
         <v>188</v>
       </c>
-      <c r="H59" s="353"/>
+      <c r="H59" s="387"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="386"/>
-      <c r="B60" s="364" t="s">
+      <c r="A60" s="364"/>
+      <c r="B60" s="366" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -5119,11 +5148,11 @@
       <c r="F60" t="s">
         <v>188</v>
       </c>
-      <c r="H60" s="353"/>
+      <c r="H60" s="387"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="386"/>
-      <c r="B61" s="358"/>
+      <c r="A61" s="364"/>
+      <c r="B61" s="367"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -5133,11 +5162,11 @@
       <c r="F61" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="353"/>
+      <c r="H61" s="387"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="386"/>
-      <c r="B62" s="365"/>
+      <c r="A62" s="364"/>
+      <c r="B62" s="368"/>
       <c r="C62" s="333" t="s">
         <v>237</v>
       </c>
@@ -5150,11 +5179,11 @@
       <c r="G62" t="s">
         <v>243</v>
       </c>
-      <c r="H62" s="353"/>
+      <c r="H62" s="387"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="386"/>
-      <c r="B63" s="363" t="s">
+      <c r="A63" s="364"/>
+      <c r="B63" s="369" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -5166,11 +5195,11 @@
       <c r="F63" t="s">
         <v>188</v>
       </c>
-      <c r="H63" s="353"/>
+      <c r="H63" s="387"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="386"/>
-      <c r="B64" s="361"/>
+      <c r="A64" s="364"/>
+      <c r="B64" s="354"/>
       <c r="C64" s="334" t="s">
         <v>225</v>
       </c>
@@ -5183,11 +5212,11 @@
       <c r="F64" t="s">
         <v>188</v>
       </c>
-      <c r="H64" s="353"/>
+      <c r="H64" s="387"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="386"/>
-      <c r="B65" s="362"/>
+      <c r="A65" s="364"/>
+      <c r="B65" s="370"/>
       <c r="C65" s="333" t="s">
         <v>209</v>
       </c>
@@ -5197,11 +5226,11 @@
       <c r="F65" t="s">
         <v>188</v>
       </c>
-      <c r="H65" s="353"/>
+      <c r="H65" s="387"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="386"/>
-      <c r="B66" s="363" t="s">
+      <c r="A66" s="364"/>
+      <c r="B66" s="369" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
@@ -5213,11 +5242,11 @@
       <c r="F66" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="353"/>
+      <c r="H66" s="387"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="386"/>
-      <c r="B67" s="361"/>
+      <c r="A67" s="364"/>
+      <c r="B67" s="354"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -5230,11 +5259,11 @@
       <c r="F67" t="s">
         <v>188</v>
       </c>
-      <c r="H67" s="353"/>
+      <c r="H67" s="387"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="387"/>
-      <c r="B68" s="374"/>
+      <c r="A68" s="365"/>
+      <c r="B68" s="355"/>
       <c r="C68" s="334" t="s">
         <v>209</v>
       </c>
@@ -5244,13 +5273,13 @@
       <c r="F68" t="s">
         <v>188</v>
       </c>
-      <c r="H68" s="353"/>
+      <c r="H68" s="387"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="381" t="s">
+      <c r="A69" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="360" t="s">
+      <c r="B69" s="353" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5262,11 +5291,11 @@
       <c r="F69" t="s">
         <v>188</v>
       </c>
-      <c r="H69" s="353"/>
+      <c r="H69" s="387"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="379"/>
-      <c r="B70" s="361"/>
+      <c r="A70" s="357"/>
+      <c r="B70" s="354"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
@@ -5276,11 +5305,11 @@
       <c r="F70" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="353"/>
+      <c r="H70" s="387"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="380"/>
-      <c r="B71" s="374"/>
+      <c r="A71" s="358"/>
+      <c r="B71" s="355"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
@@ -5293,13 +5322,13 @@
       <c r="G71" t="s">
         <v>240</v>
       </c>
-      <c r="H71" s="353"/>
+      <c r="H71" s="387"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="382" t="s">
+      <c r="A72" s="360" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="360" t="s">
+      <c r="B72" s="353" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
@@ -5311,11 +5340,11 @@
       <c r="F72" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="353"/>
+      <c r="H72" s="387"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="383"/>
-      <c r="B73" s="361"/>
+      <c r="A73" s="361"/>
+      <c r="B73" s="354"/>
       <c r="C73" s="341" t="s">
         <v>206</v>
       </c>
@@ -5328,11 +5357,11 @@
       <c r="G73" t="s">
         <v>229</v>
       </c>
-      <c r="H73" s="353"/>
+      <c r="H73" s="387"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="383"/>
-      <c r="B74" s="361"/>
+      <c r="A74" s="361"/>
+      <c r="B74" s="354"/>
       <c r="C74" s="341" t="s">
         <v>223</v>
       </c>
@@ -5342,11 +5371,11 @@
       <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="H74" s="353"/>
+      <c r="H74" s="387"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="384"/>
-      <c r="B75" s="374"/>
+      <c r="A75" s="362"/>
+      <c r="B75" s="355"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
@@ -5359,13 +5388,13 @@
       <c r="G75" t="s">
         <v>241</v>
       </c>
-      <c r="H75" s="353"/>
+      <c r="H75" s="387"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="382" t="s">
+      <c r="A76" s="360" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="360" t="s">
+      <c r="B76" s="353" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
@@ -5380,11 +5409,11 @@
       <c r="F76" t="s">
         <v>188</v>
       </c>
-      <c r="H76" s="353"/>
+      <c r="H76" s="387"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="383"/>
-      <c r="B77" s="361"/>
+      <c r="A77" s="361"/>
+      <c r="B77" s="354"/>
       <c r="C77" s="341" t="s">
         <v>203</v>
       </c>
@@ -5394,11 +5423,11 @@
       <c r="F77" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="353"/>
+      <c r="H77" s="387"/>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="384"/>
-      <c r="B78" s="374"/>
+      <c r="A78" s="362"/>
+      <c r="B78" s="355"/>
       <c r="C78" s="335" t="s">
         <v>221</v>
       </c>
@@ -5408,10 +5437,55 @@
       <c r="F78" t="s">
         <v>188</v>
       </c>
-      <c r="H78" s="353"/>
+      <c r="H78" s="387"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5428,51 +5502,6 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H76:H78"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5594,15 +5623,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="392" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="389"/>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
-      <c r="G1" s="390"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="394"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5632,7 +5661,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5645,7 +5674,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5656,7 +5685,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5667,7 +5696,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5680,7 +5709,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5704,7 +5733,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5717,7 +5746,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5728,7 +5757,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5741,7 +5770,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="406"/>
+      <c r="A12" s="390"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5752,7 +5781,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="407" t="s">
+      <c r="A13" s="391" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5765,7 +5794,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5776,7 +5805,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5798,19 +5827,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
-      <c r="B16" s="394" t="s">
+      <c r="A16" s="389"/>
+      <c r="B16" s="398" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="391" t="s">
+      <c r="C16" s="395" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="398"/>
-      <c r="G16" s="401"/>
+      <c r="F16" s="402"/>
+      <c r="G16" s="405"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5822,15 +5851,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="405"/>
-      <c r="B17" s="395"/>
-      <c r="C17" s="392"/>
+      <c r="A17" s="389"/>
+      <c r="B17" s="399"/>
+      <c r="C17" s="396"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="399"/>
-      <c r="G17" s="402"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="406"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5842,15 +5871,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
-      <c r="B18" s="395"/>
-      <c r="C18" s="392"/>
+      <c r="A18" s="389"/>
+      <c r="B18" s="399"/>
+      <c r="C18" s="396"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="402"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="406"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5862,15 +5891,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
-      <c r="B19" s="395"/>
-      <c r="C19" s="393"/>
+      <c r="A19" s="389"/>
+      <c r="B19" s="399"/>
+      <c r="C19" s="397"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="400"/>
-      <c r="G19" s="403"/>
+      <c r="F19" s="404"/>
+      <c r="G19" s="407"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5882,8 +5911,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
-      <c r="B20" s="396"/>
+      <c r="A20" s="389"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5904,8 +5933,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="406"/>
-      <c r="B21" s="397"/>
+      <c r="A21" s="390"/>
+      <c r="B21" s="401"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5926,7 +5955,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5948,7 +5977,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5968,7 +5997,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -5988,7 +6017,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="406"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -5999,7 +6028,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="404" t="s">
+      <c r="A26" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -6012,7 +6041,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -6023,7 +6052,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -6034,7 +6063,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="406"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6409,17 +6438,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6489,7 +6518,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6502,7 +6531,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6513,7 +6542,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6524,7 +6553,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6537,7 +6566,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6561,7 +6590,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6574,7 +6603,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -6585,45 +6614,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
-      <c r="B11" s="396"/>
+      <c r="A11" s="389"/>
+      <c r="B11" s="400"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
-      <c r="B12" s="396"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
-      <c r="B13" s="396"/>
+      <c r="A13" s="389"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="400"/>
-      <c r="G13" s="403"/>
+      <c r="F13" s="404"/>
+      <c r="G13" s="407"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="412"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6636,7 +6665,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6651,7 +6680,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="406"/>
+      <c r="A16" s="390"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6662,7 +6691,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="407" t="s">
+      <c r="A17" s="391" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6675,7 +6704,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6686,7 +6715,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6699,7 +6728,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="411" t="s">
         <v>32</v>
       </c>
@@ -6710,46 +6739,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="398"/>
-      <c r="G20" s="401"/>
+      <c r="F20" s="402"/>
+      <c r="G20" s="405"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="405"/>
-      <c r="B21" s="396"/>
+      <c r="A21" s="389"/>
+      <c r="B21" s="400"/>
       <c r="C21" s="414"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="399"/>
-      <c r="G21" s="402"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="406"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
-      <c r="B22" s="396"/>
+      <c r="A22" s="389"/>
+      <c r="B22" s="400"/>
       <c r="C22" s="414"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="399"/>
-      <c r="G22" s="402"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="406"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
-      <c r="B23" s="396"/>
+      <c r="A23" s="389"/>
+      <c r="B23" s="400"/>
       <c r="C23" s="415"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="400"/>
-      <c r="G23" s="403"/>
+      <c r="F23" s="404"/>
+      <c r="G23" s="407"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="405"/>
-      <c r="B24" s="396"/>
+      <c r="A24" s="389"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6761,8 +6790,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="405"/>
-      <c r="B25" s="396"/>
+      <c r="A25" s="389"/>
+      <c r="B25" s="400"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6774,7 +6803,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="406"/>
+      <c r="A26" s="390"/>
       <c r="B26" s="416"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6788,7 +6817,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="404" t="s">
+      <c r="A27" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6802,7 +6831,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6813,7 +6842,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6824,7 +6853,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="406"/>
+      <c r="A30" s="390"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6835,7 +6864,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="404" t="s">
+      <c r="A31" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6848,7 +6877,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="405"/>
+      <c r="A32" s="389"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6859,7 +6888,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="405"/>
+      <c r="A33" s="389"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6870,7 +6899,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="406"/>
+      <c r="A34" s="390"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7253,12 +7282,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -7268,6 +7291,12 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7337,7 +7366,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7350,7 +7379,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7361,7 +7390,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7372,7 +7401,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7385,7 +7414,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7409,7 +7438,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="405" t="s">
+      <c r="A9" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7422,7 +7451,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -7433,45 +7462,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
-      <c r="B11" s="396"/>
+      <c r="A11" s="389"/>
+      <c r="B11" s="400"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
-      <c r="B12" s="396"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
-      <c r="B13" s="396"/>
+      <c r="A13" s="389"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="400"/>
-      <c r="G13" s="403"/>
+      <c r="F13" s="404"/>
+      <c r="G13" s="407"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
-      <c r="B14" s="396"/>
+      <c r="A14" s="389"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7483,7 +7512,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="412"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7496,7 +7525,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7507,7 +7536,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="406"/>
+      <c r="A17" s="390"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7531,7 +7560,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7542,7 +7571,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7553,7 +7582,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7564,7 +7593,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7577,7 +7606,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7588,7 +7617,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7599,7 +7628,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="406"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7610,7 +7639,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="405" t="s">
+      <c r="A26" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7623,7 +7652,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7634,7 +7663,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7645,7 +7674,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="406"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -8049,17 +8078,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8133,7 +8162,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -8154,7 +8183,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -8165,8 +8194,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="405"/>
-      <c r="B5" s="418" t="s">
+      <c r="A5" s="389"/>
+      <c r="B5" s="426" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -8180,8 +8209,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="406"/>
-      <c r="B6" s="419"/>
+      <c r="A6" s="390"/>
+      <c r="B6" s="427"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8193,7 +8222,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="405" t="s">
+      <c r="A7" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8206,7 +8235,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="406"/>
+      <c r="A8" s="390"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8220,7 +8249,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="420" t="s">
+      <c r="B9" s="428" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8235,7 +8264,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="419"/>
+      <c r="B10" s="427"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8247,7 +8276,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="405" t="s">
+      <c r="A11" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8260,7 +8289,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8275,7 +8304,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
+      <c r="A13" s="389"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8286,7 +8315,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="406"/>
+      <c r="A14" s="390"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8318,7 +8347,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8329,7 +8358,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="405"/>
+      <c r="A17" s="389"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8340,7 +8369,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="406"/>
+      <c r="A18" s="390"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8351,7 +8380,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="405" t="s">
+      <c r="A19" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8368,7 +8397,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8379,7 +8408,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="405"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="411" t="s">
         <v>81</v>
       </c>
@@ -8394,7 +8423,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="412"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8407,7 +8436,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="406"/>
+      <c r="A23" s="390"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8422,7 +8451,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="405" t="s">
+      <c r="A24" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8439,7 +8468,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8450,7 +8479,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="405"/>
+      <c r="A26" s="389"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8465,7 +8494,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="406"/>
+      <c r="A27" s="390"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8476,13 +8505,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="426" t="s">
+      <c r="A28" s="423" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="424" t="s">
+      <c r="B28" s="421" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="425" t="s">
+      <c r="C28" s="422" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8493,8 +8522,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="427"/>
-      <c r="B29" s="396"/>
+      <c r="A29" s="424"/>
+      <c r="B29" s="400"/>
       <c r="C29" s="414"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8504,8 +8533,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="427"/>
-      <c r="B30" s="396"/>
+      <c r="A30" s="424"/>
+      <c r="B30" s="400"/>
       <c r="C30" s="414"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8515,8 +8544,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="427"/>
-      <c r="B31" s="396"/>
+      <c r="A31" s="424"/>
+      <c r="B31" s="400"/>
       <c r="C31" s="415"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8526,8 +8555,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="427"/>
-      <c r="B32" s="396"/>
+      <c r="A32" s="424"/>
+      <c r="B32" s="400"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8539,7 +8568,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="428"/>
+      <c r="A33" s="425"/>
       <c r="B33" s="416"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8552,13 +8581,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="421" t="s">
+      <c r="A34" s="418" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="424" t="s">
+      <c r="B34" s="421" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="425" t="s">
+      <c r="C34" s="422" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8569,8 +8598,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="422"/>
-      <c r="B35" s="396"/>
+      <c r="A35" s="419"/>
+      <c r="B35" s="400"/>
       <c r="C35" s="414"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8580,8 +8609,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="422"/>
-      <c r="B36" s="396"/>
+      <c r="A36" s="419"/>
+      <c r="B36" s="400"/>
       <c r="C36" s="414"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8591,8 +8620,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="422"/>
-      <c r="B37" s="396"/>
+      <c r="A37" s="419"/>
+      <c r="B37" s="400"/>
       <c r="C37" s="415"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8602,8 +8631,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="422"/>
-      <c r="B38" s="396"/>
+      <c r="A38" s="419"/>
+      <c r="B38" s="400"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8615,8 +8644,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="422"/>
-      <c r="B39" s="396"/>
+      <c r="A39" s="419"/>
+      <c r="B39" s="400"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8628,8 +8657,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="422"/>
-      <c r="B40" s="396"/>
+      <c r="A40" s="419"/>
+      <c r="B40" s="400"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8641,8 +8670,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="422"/>
-      <c r="B41" s="396"/>
+      <c r="A41" s="419"/>
+      <c r="B41" s="400"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8654,7 +8683,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="423"/>
+      <c r="A42" s="420"/>
       <c r="B42" s="416"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8667,13 +8696,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="421" t="s">
+      <c r="A43" s="418" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="424" t="s">
+      <c r="B43" s="421" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="425" t="s">
+      <c r="C43" s="422" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8684,8 +8713,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="422"/>
-      <c r="B44" s="396"/>
+      <c r="A44" s="419"/>
+      <c r="B44" s="400"/>
       <c r="C44" s="414"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8695,8 +8724,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="422"/>
-      <c r="B45" s="396"/>
+      <c r="A45" s="419"/>
+      <c r="B45" s="400"/>
       <c r="C45" s="414"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8706,8 +8735,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="422"/>
-      <c r="B46" s="396"/>
+      <c r="A46" s="419"/>
+      <c r="B46" s="400"/>
       <c r="C46" s="415"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8717,8 +8746,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="422"/>
-      <c r="B47" s="396"/>
+      <c r="A47" s="419"/>
+      <c r="B47" s="400"/>
       <c r="C47" s="414" t="s">
         <v>133</v>
       </c>
@@ -8730,8 +8759,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="422"/>
-      <c r="B48" s="396"/>
+      <c r="A48" s="419"/>
+      <c r="B48" s="400"/>
       <c r="C48" s="414"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8741,8 +8770,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="422"/>
-      <c r="B49" s="396"/>
+      <c r="A49" s="419"/>
+      <c r="B49" s="400"/>
       <c r="C49" s="414"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8752,8 +8781,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="422"/>
-      <c r="B50" s="396"/>
+      <c r="A50" s="419"/>
+      <c r="B50" s="400"/>
       <c r="C50" s="415"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8763,8 +8792,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="422"/>
-      <c r="B51" s="396"/>
+      <c r="A51" s="419"/>
+      <c r="B51" s="400"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8776,7 +8805,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="423"/>
+      <c r="A52" s="420"/>
       <c r="B52" s="416"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -9173,6 +9202,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -9183,17 +9223,6 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9263,7 +9292,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9276,7 +9305,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9287,7 +9316,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9298,7 +9327,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9311,7 +9340,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9338,10 +9367,10 @@
       <c r="A9" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="396" t="s">
+      <c r="B9" s="400" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="392" t="s">
+      <c r="C9" s="396" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9353,40 +9382,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="431"/>
-      <c r="B10" s="396"/>
-      <c r="C10" s="392"/>
+      <c r="B10" s="400"/>
+      <c r="C10" s="396"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="402"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="406"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="431"/>
-      <c r="B11" s="396"/>
-      <c r="C11" s="392"/>
+      <c r="B11" s="400"/>
+      <c r="C11" s="396"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="431"/>
-      <c r="B12" s="396"/>
-      <c r="C12" s="393"/>
+      <c r="B12" s="400"/>
+      <c r="C12" s="397"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="400"/>
-      <c r="G12" s="403"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="407"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="431"/>
-      <c r="B13" s="396"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9459,7 +9488,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9470,7 +9499,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9483,7 +9512,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="406"/>
+      <c r="A21" s="390"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9494,7 +9523,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="405" t="s">
+      <c r="A22" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9507,7 +9536,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9518,7 +9547,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9529,7 +9558,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="406"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9540,7 +9569,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="405" t="s">
+      <c r="A26" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9553,7 +9582,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9564,7 +9593,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9575,7 +9604,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="406"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9946,17 +9975,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9987,15 +10016,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="455" t="s">
+      <c r="A1" s="435" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="456"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
+      <c r="G1" s="436"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10021,13 +10050,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="435" t="s">
+      <c r="A3" s="437" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="420" t="s">
+      <c r="B3" s="428" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="425" t="s">
+      <c r="C3" s="422" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -10038,8 +10067,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="436"/>
-      <c r="B4" s="441"/>
+      <c r="A4" s="438"/>
+      <c r="B4" s="440"/>
       <c r="C4" s="414"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -10049,8 +10078,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="436"/>
-      <c r="B5" s="441"/>
+      <c r="A5" s="438"/>
+      <c r="B5" s="440"/>
       <c r="C5" s="414"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -10060,8 +10089,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="436"/>
-      <c r="B6" s="441"/>
+      <c r="A6" s="438"/>
+      <c r="B6" s="440"/>
       <c r="C6" s="415"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -10071,8 +10100,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="436"/>
-      <c r="B7" s="441"/>
+      <c r="A7" s="438"/>
+      <c r="B7" s="440"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -10084,8 +10113,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="436"/>
-      <c r="B8" s="437"/>
+      <c r="A8" s="438"/>
+      <c r="B8" s="441"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -10097,8 +10126,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="436"/>
-      <c r="B9" s="418" t="s">
+      <c r="A9" s="438"/>
+      <c r="B9" s="426" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="413" t="s">
@@ -10107,137 +10136,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="398"/>
-      <c r="F9" s="398"/>
-      <c r="G9" s="401"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="402"/>
+      <c r="G9" s="405"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="436"/>
-      <c r="B10" s="441"/>
+      <c r="A10" s="438"/>
+      <c r="B10" s="440"/>
       <c r="C10" s="414"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="402"/>
+      <c r="E10" s="403"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="406"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="436"/>
-      <c r="B11" s="441"/>
+      <c r="A11" s="438"/>
+      <c r="B11" s="440"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="399"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="E11" s="403"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="436"/>
-      <c r="B12" s="441"/>
+      <c r="A12" s="438"/>
+      <c r="B12" s="440"/>
       <c r="C12" s="415"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="400"/>
-      <c r="F12" s="400"/>
-      <c r="G12" s="403"/>
+      <c r="E12" s="404"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="407"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="436"/>
-      <c r="B13" s="441"/>
+      <c r="A13" s="438"/>
+      <c r="B13" s="440"/>
       <c r="C13" s="414" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="399"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="402"/>
+      <c r="E13" s="403"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="436"/>
-      <c r="B14" s="441"/>
+      <c r="A14" s="438"/>
+      <c r="B14" s="440"/>
       <c r="C14" s="414"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="399"/>
-      <c r="F14" s="399"/>
-      <c r="G14" s="402"/>
+      <c r="E14" s="403"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="406"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="436"/>
-      <c r="B15" s="441"/>
+      <c r="A15" s="438"/>
+      <c r="B15" s="440"/>
       <c r="C15" s="414"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="399"/>
-      <c r="F15" s="399"/>
-      <c r="G15" s="402"/>
+      <c r="E15" s="403"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="406"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="436"/>
-      <c r="B16" s="441"/>
+      <c r="A16" s="438"/>
+      <c r="B16" s="440"/>
       <c r="C16" s="415"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="400"/>
-      <c r="F16" s="400"/>
-      <c r="G16" s="403"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="404"/>
+      <c r="G16" s="407"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="436"/>
-      <c r="B17" s="441"/>
+      <c r="A17" s="438"/>
+      <c r="B17" s="440"/>
       <c r="C17" s="414" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="399"/>
-      <c r="F17" s="399"/>
-      <c r="G17" s="402"/>
+      <c r="E17" s="403"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="406"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="436"/>
-      <c r="B18" s="441"/>
+      <c r="A18" s="438"/>
+      <c r="B18" s="440"/>
       <c r="C18" s="414"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="402"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="406"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="436"/>
-      <c r="B19" s="441"/>
+      <c r="A19" s="438"/>
+      <c r="B19" s="440"/>
       <c r="C19" s="414"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="399"/>
-      <c r="F19" s="399"/>
-      <c r="G19" s="402"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="406"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="436"/>
-      <c r="B20" s="441"/>
-      <c r="C20" s="444"/>
+      <c r="A20" s="438"/>
+      <c r="B20" s="440"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="448"/>
-      <c r="F20" s="448"/>
-      <c r="G20" s="442"/>
+      <c r="E20" s="443"/>
+      <c r="F20" s="443"/>
+      <c r="G20" s="444"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="443"/>
+      <c r="A21" s="439"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -10248,10 +10277,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="449" t="s">
+      <c r="A22" s="445" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="420" t="s">
+      <c r="B22" s="428" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -10263,8 +10292,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="450"/>
-      <c r="B23" s="441"/>
+      <c r="A23" s="446"/>
+      <c r="B23" s="440"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -10274,54 +10303,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="450"/>
-      <c r="B24" s="441"/>
+      <c r="A24" s="446"/>
+      <c r="B24" s="440"/>
       <c r="C24" s="414" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="399"/>
-      <c r="F24" s="399"/>
-      <c r="G24" s="402"/>
+      <c r="E24" s="403"/>
+      <c r="F24" s="403"/>
+      <c r="G24" s="406"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="450"/>
-      <c r="B25" s="441"/>
+      <c r="A25" s="446"/>
+      <c r="B25" s="440"/>
       <c r="C25" s="414"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="399"/>
-      <c r="F25" s="399"/>
-      <c r="G25" s="402"/>
+      <c r="E25" s="403"/>
+      <c r="F25" s="403"/>
+      <c r="G25" s="406"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="450"/>
-      <c r="B26" s="441"/>
+      <c r="A26" s="446"/>
+      <c r="B26" s="440"/>
       <c r="C26" s="414"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="399"/>
-      <c r="F26" s="399"/>
-      <c r="G26" s="402"/>
+      <c r="E26" s="403"/>
+      <c r="F26" s="403"/>
+      <c r="G26" s="406"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="450"/>
-      <c r="B27" s="437"/>
-      <c r="C27" s="444"/>
+      <c r="A27" s="446"/>
+      <c r="B27" s="441"/>
+      <c r="C27" s="442"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="448"/>
-      <c r="F27" s="448"/>
-      <c r="G27" s="442"/>
+      <c r="E27" s="443"/>
+      <c r="F27" s="443"/>
+      <c r="G27" s="444"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="450"/>
-      <c r="B28" s="441" t="s">
+      <c r="A28" s="446"/>
+      <c r="B28" s="440" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10333,50 +10362,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="450"/>
-      <c r="B29" s="441"/>
+      <c r="A29" s="446"/>
+      <c r="B29" s="440"/>
       <c r="C29" s="414" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="399"/>
-      <c r="F29" s="399"/>
-      <c r="G29" s="402"/>
+      <c r="E29" s="403"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="406"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="450"/>
-      <c r="B30" s="441"/>
+      <c r="A30" s="446"/>
+      <c r="B30" s="440"/>
       <c r="C30" s="414"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="399"/>
-      <c r="F30" s="399"/>
-      <c r="G30" s="402"/>
+      <c r="E30" s="403"/>
+      <c r="F30" s="403"/>
+      <c r="G30" s="406"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="450"/>
-      <c r="B31" s="441"/>
+      <c r="A31" s="446"/>
+      <c r="B31" s="440"/>
       <c r="C31" s="414"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="399"/>
-      <c r="F31" s="399"/>
-      <c r="G31" s="402"/>
+      <c r="E31" s="403"/>
+      <c r="F31" s="403"/>
+      <c r="G31" s="406"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="451"/>
-      <c r="B32" s="419"/>
-      <c r="C32" s="452"/>
+      <c r="A32" s="447"/>
+      <c r="B32" s="427"/>
+      <c r="C32" s="448"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="453"/>
-      <c r="F32" s="453"/>
-      <c r="G32" s="454"/>
+      <c r="E32" s="449"/>
+      <c r="F32" s="449"/>
+      <c r="G32" s="450"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10392,10 +10421,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="435" t="s">
+      <c r="A34" s="437" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="445" t="s">
+      <c r="B34" s="451" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10407,8 +10436,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="436"/>
-      <c r="B35" s="446"/>
+      <c r="A35" s="438"/>
+      <c r="B35" s="452"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10418,53 +10447,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="436"/>
-      <c r="B36" s="446"/>
-      <c r="C36" s="444" t="s">
+      <c r="A36" s="438"/>
+      <c r="B36" s="452"/>
+      <c r="C36" s="442" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="399"/>
-      <c r="F36" s="399"/>
-      <c r="G36" s="402"/>
+      <c r="E36" s="403"/>
+      <c r="F36" s="403"/>
+      <c r="G36" s="406"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="436"/>
-      <c r="B37" s="446"/>
-      <c r="C37" s="447"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="452"/>
+      <c r="C37" s="453"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="399"/>
-      <c r="F37" s="399"/>
-      <c r="G37" s="402"/>
+      <c r="E37" s="403"/>
+      <c r="F37" s="403"/>
+      <c r="G37" s="406"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="436"/>
-      <c r="B38" s="446"/>
-      <c r="C38" s="447"/>
+      <c r="A38" s="438"/>
+      <c r="B38" s="452"/>
+      <c r="C38" s="453"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="399"/>
-      <c r="F38" s="399"/>
-      <c r="G38" s="402"/>
+      <c r="E38" s="403"/>
+      <c r="F38" s="403"/>
+      <c r="G38" s="406"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="436"/>
-      <c r="B39" s="446"/>
-      <c r="C39" s="447"/>
+      <c r="A39" s="438"/>
+      <c r="B39" s="452"/>
+      <c r="C39" s="453"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="448"/>
-      <c r="F39" s="448"/>
-      <c r="G39" s="442"/>
+      <c r="E39" s="443"/>
+      <c r="F39" s="443"/>
+      <c r="G39" s="444"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="436"/>
+      <c r="A40" s="438"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10475,7 +10504,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="436"/>
+      <c r="A41" s="438"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10486,7 +10515,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="443"/>
+      <c r="A42" s="439"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10497,7 +10526,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="435" t="s">
+      <c r="A43" s="437" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10510,8 +10539,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="436"/>
-      <c r="B44" s="418" t="s">
+      <c r="A44" s="438"/>
+      <c r="B44" s="426" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10523,8 +10552,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="436"/>
-      <c r="B45" s="441"/>
+      <c r="A45" s="438"/>
+      <c r="B45" s="440"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10534,8 +10563,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="436"/>
-      <c r="B46" s="441"/>
+      <c r="A46" s="438"/>
+      <c r="B46" s="440"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10545,8 +10574,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="436"/>
-      <c r="B47" s="441"/>
+      <c r="A47" s="438"/>
+      <c r="B47" s="440"/>
       <c r="C47" s="414" t="s">
         <v>58</v>
       </c>
@@ -10558,8 +10587,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="436"/>
-      <c r="B48" s="441"/>
+      <c r="A48" s="438"/>
+      <c r="B48" s="440"/>
       <c r="C48" s="414"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10569,8 +10598,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="436"/>
-      <c r="B49" s="441"/>
+      <c r="A49" s="438"/>
+      <c r="B49" s="440"/>
       <c r="C49" s="414"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10580,9 +10609,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="436"/>
-      <c r="B50" s="437"/>
-      <c r="C50" s="444"/>
+      <c r="A50" s="438"/>
+      <c r="B50" s="441"/>
+      <c r="C50" s="442"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10591,8 +10620,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="436"/>
-      <c r="B51" s="418" t="s">
+      <c r="A51" s="438"/>
+      <c r="B51" s="426" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="413" t="s">
@@ -10606,8 +10635,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="436"/>
-      <c r="B52" s="441"/>
+      <c r="A52" s="438"/>
+      <c r="B52" s="440"/>
       <c r="C52" s="414"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10617,8 +10646,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="436"/>
-      <c r="B53" s="441"/>
+      <c r="A53" s="438"/>
+      <c r="B53" s="440"/>
       <c r="C53" s="414"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10628,8 +10657,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="436"/>
-      <c r="B54" s="441"/>
+      <c r="A54" s="438"/>
+      <c r="B54" s="440"/>
       <c r="C54" s="415"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10639,8 +10668,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="436"/>
-      <c r="B55" s="441"/>
+      <c r="A55" s="438"/>
+      <c r="B55" s="440"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10650,8 +10679,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="436"/>
-      <c r="B56" s="437"/>
+      <c r="A56" s="438"/>
+      <c r="B56" s="441"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10661,8 +10690,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="436"/>
-      <c r="B57" s="441" t="s">
+      <c r="A57" s="438"/>
+      <c r="B57" s="440" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10674,8 +10703,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="436"/>
-      <c r="B58" s="441"/>
+      <c r="A58" s="438"/>
+      <c r="B58" s="440"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10685,8 +10714,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="443"/>
-      <c r="B59" s="419"/>
+      <c r="A59" s="439"/>
+      <c r="B59" s="427"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10696,7 +10725,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="435" t="s">
+      <c r="A60" s="437" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10709,8 +10738,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="436"/>
-      <c r="B61" s="418" t="s">
+      <c r="A61" s="438"/>
+      <c r="B61" s="426" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10722,8 +10751,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="436"/>
-      <c r="B62" s="437"/>
+      <c r="A62" s="438"/>
+      <c r="B62" s="441"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10733,7 +10762,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="436"/>
+      <c r="A63" s="438"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10744,7 +10773,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="436"/>
+      <c r="A64" s="438"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10755,7 +10784,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="438" t="s">
+      <c r="A65" s="454" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10768,8 +10797,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="439"/>
-      <c r="B66" s="418" t="s">
+      <c r="A66" s="455"/>
+      <c r="B66" s="426" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10781,8 +10810,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="439"/>
-      <c r="B67" s="441"/>
+      <c r="A67" s="455"/>
+      <c r="B67" s="440"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10792,8 +10821,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="439"/>
-      <c r="B68" s="437"/>
+      <c r="A68" s="455"/>
+      <c r="B68" s="441"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10803,7 +10832,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="439"/>
+      <c r="A69" s="455"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10814,8 +10843,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="439"/>
-      <c r="B70" s="418" t="s">
+      <c r="A70" s="455"/>
+      <c r="B70" s="426" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10827,8 +10856,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="439"/>
-      <c r="B71" s="441"/>
+      <c r="A71" s="455"/>
+      <c r="B71" s="440"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10838,8 +10867,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="440"/>
-      <c r="B72" s="419"/>
+      <c r="A72" s="456"/>
+      <c r="B72" s="427"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10889,6 +10918,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10905,35 +10963,6 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11003,7 +11032,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -11016,7 +11045,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -11027,7 +11056,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -11038,7 +11067,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -11051,7 +11080,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -11075,7 +11104,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="405" t="s">
+      <c r="A9" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -11088,7 +11117,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -11099,7 +11128,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -11112,7 +11141,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="406"/>
+      <c r="A12" s="390"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -11136,7 +11165,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -11147,7 +11176,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -11160,7 +11189,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="406"/>
+      <c r="A16" s="390"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -11171,7 +11200,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="405" t="s">
+      <c r="A17" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -11184,7 +11213,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -11195,7 +11224,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -11206,7 +11235,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="406"/>
+      <c r="A20" s="390"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -11217,7 +11246,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="405" t="s">
+      <c r="A21" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -11230,7 +11259,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -11241,7 +11270,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -11252,7 +11281,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="406"/>
+      <c r="A24" s="390"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378567C-8491-4CCD-8E16-48BF4F1EBEF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A616BCDE-33B7-4DD4-9F66-B4E9E412A87B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="255">
   <si>
     <t>ENG 251</t>
   </si>
@@ -970,6 +970,9 @@
   </si>
   <si>
     <t>ok (copy from 1.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing to highlight in the samples per se </t>
   </si>
 </sst>
 </file>
@@ -2848,15 +2851,81 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2887,70 +2956,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2965,54 +3016,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3043,6 +3046,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3067,15 +3079,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3094,71 +3097,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4069,10 +4072,10 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,11 +4092,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="366" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="376"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="368"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="M1" t="s">
@@ -4131,10 +4134,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="369" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4146,7 +4149,7 @@
       <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I3" t="s">
@@ -4157,8 +4160,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="357"/>
-      <c r="B4" s="378"/>
+      <c r="A4" s="379"/>
+      <c r="B4" s="370"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4168,7 +4171,7 @@
       <c r="F4" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="387"/>
+      <c r="H4" s="353"/>
       <c r="I4" t="s">
         <v>250</v>
       </c>
@@ -4177,8 +4180,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="357"/>
-      <c r="B5" s="379"/>
+      <c r="A5" s="379"/>
+      <c r="B5" s="371"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4191,7 +4194,7 @@
       <c r="G5" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="387"/>
+      <c r="H5" s="353"/>
       <c r="I5" t="s">
         <v>250</v>
       </c>
@@ -4200,8 +4203,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="357"/>
-      <c r="B6" s="377" t="s">
+      <c r="A6" s="379"/>
+      <c r="B6" s="369" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
@@ -4216,7 +4219,7 @@
       <c r="G6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="387" t="s">
+      <c r="H6" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I6" t="s">
@@ -4227,8 +4230,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="357"/>
-      <c r="B7" s="378"/>
+      <c r="A7" s="379"/>
+      <c r="B7" s="370"/>
       <c r="C7" s="341" t="s">
         <v>209</v>
       </c>
@@ -4238,7 +4241,7 @@
       <c r="F7" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="387"/>
+      <c r="H7" s="353"/>
       <c r="I7" t="s">
         <v>251</v>
       </c>
@@ -4247,8 +4250,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="357"/>
-      <c r="B8" s="379"/>
+      <c r="A8" s="379"/>
+      <c r="B8" s="371"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4258,7 +4261,7 @@
       <c r="F8" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="387"/>
+      <c r="H8" s="353"/>
       <c r="I8" t="s">
         <v>250</v>
       </c>
@@ -4267,8 +4270,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="357"/>
-      <c r="B9" s="377" t="s">
+      <c r="A9" s="379"/>
+      <c r="B9" s="369" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4283,7 +4286,7 @@
       <c r="G9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="387" t="s">
+      <c r="H9" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I9" t="s">
@@ -4294,8 +4297,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="357"/>
-      <c r="B10" s="378"/>
+      <c r="A10" s="379"/>
+      <c r="B10" s="370"/>
       <c r="C10" s="334" t="s">
         <v>212</v>
       </c>
@@ -4308,7 +4311,7 @@
       <c r="G10" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="387"/>
+      <c r="H10" s="353"/>
       <c r="I10" t="s">
         <v>250</v>
       </c>
@@ -4317,8 +4320,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="358"/>
-      <c r="B11" s="380"/>
+      <c r="A11" s="380"/>
+      <c r="B11" s="372"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4328,7 +4331,7 @@
       <c r="F11" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="387"/>
+      <c r="H11" s="353"/>
       <c r="I11" t="s">
         <v>250</v>
       </c>
@@ -4337,10 +4340,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="381" t="s">
+      <c r="B12" s="373" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
@@ -4352,11 +4355,11 @@
       <c r="F12" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="387"/>
+      <c r="H12" s="353"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="357"/>
-      <c r="B13" s="378"/>
+      <c r="A13" s="379"/>
+      <c r="B13" s="370"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4366,11 +4369,11 @@
       <c r="F13" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="387"/>
+      <c r="H13" s="353"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="357"/>
-      <c r="B14" s="379"/>
+      <c r="A14" s="379"/>
+      <c r="B14" s="371"/>
       <c r="C14" s="333" t="s">
         <v>195</v>
       </c>
@@ -4380,11 +4383,11 @@
       <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="387"/>
+      <c r="H14" s="353"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="357"/>
-      <c r="B15" s="382" t="s">
+      <c r="A15" s="379"/>
+      <c r="B15" s="354" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4399,11 +4402,11 @@
       <c r="G15" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="387"/>
+      <c r="H15" s="353"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="357"/>
-      <c r="B16" s="383"/>
+      <c r="A16" s="379"/>
+      <c r="B16" s="355"/>
       <c r="C16" s="334" t="s">
         <v>210</v>
       </c>
@@ -4413,11 +4416,11 @@
       <c r="F16" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="387"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358"/>
-      <c r="B17" s="384"/>
+      <c r="H16" s="353"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="380"/>
+      <c r="B17" s="356"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4427,13 +4430,13 @@
       <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="387"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="359" t="s">
+      <c r="H17" s="353"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="385" t="s">
+      <c r="B18" s="357" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
@@ -4445,11 +4448,11 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="387"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="357"/>
-      <c r="B19" s="367"/>
+      <c r="H18" s="353"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="379"/>
+      <c r="B19" s="358"/>
       <c r="C19" s="334" t="s">
         <v>214</v>
       </c>
@@ -4459,11 +4462,11 @@
       <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="387"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="358"/>
-      <c r="B20" s="386"/>
+      <c r="H19" s="353"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="380"/>
+      <c r="B20" s="359"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4473,13 +4476,13 @@
       <c r="F20" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="387"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="359" t="s">
+      <c r="H20" s="353"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="381" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="353" t="s">
+      <c r="B21" s="360" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4494,7 +4497,7 @@
       <c r="G21" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="387" t="s">
+      <c r="H21" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I21" t="s">
@@ -4504,9 +4507,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="357"/>
-      <c r="B22" s="354"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="379"/>
+      <c r="B22" s="361"/>
       <c r="C22" s="334" t="s">
         <v>196</v>
       </c>
@@ -4516,7 +4519,7 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="387"/>
+      <c r="H22" s="353"/>
       <c r="I22" t="s">
         <v>252</v>
       </c>
@@ -4524,9 +4527,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="357"/>
-      <c r="B23" s="370"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="379"/>
+      <c r="B23" s="362"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4536,7 +4539,7 @@
       <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="387"/>
+      <c r="H23" s="353"/>
       <c r="I23" t="s">
         <v>253</v>
       </c>
@@ -4544,9 +4547,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="369" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="379"/>
+      <c r="B24" s="363" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4561,13 +4564,22 @@
       <c r="G24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="387" t="s">
+      <c r="H24" s="353" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="357"/>
-      <c r="B25" s="354"/>
+      <c r="I24" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" t="s">
+        <v>247</v>
+      </c>
+      <c r="K24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="379"/>
+      <c r="B25" s="361"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4580,11 +4592,17 @@
       <c r="G25" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="387"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="357"/>
-      <c r="B26" s="370"/>
+      <c r="H25" s="353"/>
+      <c r="I25" t="s">
+        <v>250</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="379"/>
+      <c r="B26" s="362"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4597,11 +4615,17 @@
       <c r="G26" t="s">
         <v>233</v>
       </c>
-      <c r="H26" s="387"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="357"/>
-      <c r="B27" s="366" t="s">
+      <c r="H26" s="353"/>
+      <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="379"/>
+      <c r="B27" s="364" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4613,13 +4637,13 @@
       <c r="F27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="387" t="s">
+      <c r="H27" s="353" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="357"/>
-      <c r="B28" s="367"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="379"/>
+      <c r="B28" s="358"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4629,11 +4653,11 @@
       <c r="F28" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="387"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="357"/>
-      <c r="B29" s="368"/>
+      <c r="H28" s="353"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="379"/>
+      <c r="B29" s="365"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4643,11 +4667,11 @@
       <c r="F29" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="387"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="357"/>
-      <c r="B30" s="369" t="s">
+      <c r="H29" s="353"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="379"/>
+      <c r="B30" s="363" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4659,13 +4683,13 @@
       <c r="F30" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="387" t="s">
+      <c r="H30" s="353" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="357"/>
-      <c r="B31" s="354"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="379"/>
+      <c r="B31" s="361"/>
       <c r="C31" s="334" t="s">
         <v>216</v>
       </c>
@@ -4678,11 +4702,11 @@
       <c r="G31" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="387"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="358"/>
-      <c r="B32" s="355"/>
+      <c r="H31" s="353"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="380"/>
+      <c r="B32" s="374"/>
       <c r="C32" s="337" t="s">
         <v>197</v>
       </c>
@@ -4692,13 +4716,13 @@
       <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="387"/>
+      <c r="H32" s="353"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="360" t="s">
+      <c r="A33" s="382" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="353" t="s">
+      <c r="B33" s="360" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4710,13 +4734,13 @@
       <c r="F33" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="387" t="s">
+      <c r="H33" s="353" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="361"/>
-      <c r="B34" s="354"/>
+      <c r="A34" s="383"/>
+      <c r="B34" s="361"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4726,11 +4750,11 @@
       <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="387"/>
+      <c r="H34" s="353"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="361"/>
-      <c r="B35" s="370"/>
+      <c r="A35" s="383"/>
+      <c r="B35" s="362"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
@@ -4743,11 +4767,11 @@
       <c r="G35" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="387"/>
+      <c r="H35" s="353"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="361"/>
-      <c r="B36" s="369" t="s">
+      <c r="A36" s="383"/>
+      <c r="B36" s="363" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
@@ -4759,13 +4783,13 @@
       <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="387" t="s">
+      <c r="H36" s="353" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="361"/>
-      <c r="B37" s="354"/>
+      <c r="A37" s="383"/>
+      <c r="B37" s="361"/>
       <c r="C37" s="334" t="s">
         <v>215</v>
       </c>
@@ -4775,11 +4799,11 @@
       <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="387"/>
+      <c r="H37" s="353"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="361"/>
-      <c r="B38" s="370"/>
+      <c r="A38" s="383"/>
+      <c r="B38" s="362"/>
       <c r="C38" s="333" t="s">
         <v>199</v>
       </c>
@@ -4789,11 +4813,11 @@
       <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="387"/>
+      <c r="H38" s="353"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="361"/>
-      <c r="B39" s="369" t="s">
+      <c r="A39" s="383"/>
+      <c r="B39" s="363" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4808,13 +4832,13 @@
       <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="387" t="s">
+      <c r="H39" s="353" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="361"/>
-      <c r="B40" s="354"/>
+      <c r="A40" s="383"/>
+      <c r="B40" s="361"/>
       <c r="C40" s="334" t="s">
         <v>200</v>
       </c>
@@ -4827,11 +4851,11 @@
       <c r="G40" t="s">
         <v>235</v>
       </c>
-      <c r="H40" s="387"/>
+      <c r="H40" s="353"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="361"/>
-      <c r="B41" s="370"/>
+      <c r="A41" s="383"/>
+      <c r="B41" s="362"/>
       <c r="C41" s="333" t="s">
         <v>236</v>
       </c>
@@ -4844,11 +4868,11 @@
       <c r="G41" t="s">
         <v>248</v>
       </c>
-      <c r="H41" s="387"/>
+      <c r="H41" s="353"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="361"/>
-      <c r="B42" s="369" t="s">
+      <c r="A42" s="383"/>
+      <c r="B42" s="363" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="334" t="s">
@@ -4860,13 +4884,13 @@
       <c r="F42" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="387" t="s">
+      <c r="H42" s="353" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="361"/>
-      <c r="B43" s="354"/>
+      <c r="A43" s="383"/>
+      <c r="B43" s="361"/>
       <c r="C43" s="334" t="s">
         <v>197</v>
       </c>
@@ -4876,11 +4900,11 @@
       <c r="F43" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="387"/>
+      <c r="H43" s="353"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="362"/>
-      <c r="B44" s="355"/>
+      <c r="A44" s="384"/>
+      <c r="B44" s="374"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4890,13 +4914,13 @@
       <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="387"/>
+      <c r="H44" s="353"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="359" t="s">
+      <c r="A45" s="381" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="353" t="s">
+      <c r="B45" s="360" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4908,11 +4932,11 @@
       <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="387"/>
+      <c r="H45" s="353"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="357"/>
-      <c r="B46" s="354"/>
+      <c r="A46" s="379"/>
+      <c r="B46" s="361"/>
       <c r="C46" s="334" t="s">
         <v>228</v>
       </c>
@@ -4922,11 +4946,11 @@
       <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="387"/>
+      <c r="H46" s="353"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="357"/>
-      <c r="B47" s="370"/>
+      <c r="A47" s="379"/>
+      <c r="B47" s="362"/>
       <c r="C47" s="333" t="s">
         <v>209</v>
       </c>
@@ -4936,11 +4960,11 @@
       <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="387"/>
+      <c r="H47" s="353"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="357"/>
-      <c r="B48" s="369" t="s">
+      <c r="A48" s="379"/>
+      <c r="B48" s="363" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
@@ -4955,11 +4979,11 @@
       <c r="G48" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="387"/>
+      <c r="H48" s="353"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="357"/>
-      <c r="B49" s="354"/>
+      <c r="A49" s="379"/>
+      <c r="B49" s="361"/>
       <c r="C49" s="334" t="s">
         <v>175</v>
       </c>
@@ -4969,11 +4993,11 @@
       <c r="F49" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="387"/>
+      <c r="H49" s="353"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="357"/>
-      <c r="B50" s="370"/>
+      <c r="A50" s="379"/>
+      <c r="B50" s="362"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -4983,11 +5007,11 @@
       <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="387"/>
+      <c r="H50" s="353"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="357"/>
-      <c r="B51" s="369" t="s">
+      <c r="A51" s="379"/>
+      <c r="B51" s="363" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -4999,11 +5023,11 @@
       <c r="F51" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="387"/>
+      <c r="H51" s="353"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="357"/>
-      <c r="B52" s="354"/>
+      <c r="A52" s="379"/>
+      <c r="B52" s="361"/>
       <c r="C52" s="334" t="s">
         <v>201</v>
       </c>
@@ -5016,11 +5040,11 @@
       <c r="G52" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="387"/>
+      <c r="H52" s="353"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="357"/>
-      <c r="B53" s="370"/>
+      <c r="A53" s="379"/>
+      <c r="B53" s="362"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
@@ -5030,11 +5054,11 @@
       <c r="F53" t="s">
         <v>188</v>
       </c>
-      <c r="H53" s="387"/>
+      <c r="H53" s="353"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="357"/>
-      <c r="B54" s="369" t="s">
+      <c r="A54" s="379"/>
+      <c r="B54" s="363" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
@@ -5049,11 +5073,11 @@
       <c r="G54" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="387"/>
+      <c r="H54" s="353"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="357"/>
-      <c r="B55" s="354"/>
+      <c r="A55" s="379"/>
+      <c r="B55" s="361"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -5063,11 +5087,11 @@
       <c r="F55" t="s">
         <v>188</v>
       </c>
-      <c r="H55" s="387"/>
+      <c r="H55" s="353"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="358"/>
-      <c r="B56" s="355"/>
+      <c r="A56" s="380"/>
+      <c r="B56" s="374"/>
       <c r="C56" s="337" t="s">
         <v>226</v>
       </c>
@@ -5080,13 +5104,13 @@
       <c r="G56" t="s">
         <v>238</v>
       </c>
-      <c r="H56" s="387"/>
+      <c r="H56" s="353"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="363" t="s">
+      <c r="A57" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="371" t="s">
+      <c r="B57" s="375" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -5098,11 +5122,11 @@
       <c r="F57" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="387"/>
+      <c r="H57" s="353"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="364"/>
-      <c r="B58" s="372"/>
+      <c r="A58" s="386"/>
+      <c r="B58" s="376"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -5115,11 +5139,11 @@
       <c r="F58" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="387"/>
+      <c r="H58" s="353"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="364"/>
-      <c r="B59" s="373"/>
+      <c r="A59" s="386"/>
+      <c r="B59" s="377"/>
       <c r="C59" s="333" t="s">
         <v>228</v>
       </c>
@@ -5129,11 +5153,11 @@
       <c r="F59" t="s">
         <v>188</v>
       </c>
-      <c r="H59" s="387"/>
+      <c r="H59" s="353"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="364"/>
-      <c r="B60" s="366" t="s">
+      <c r="A60" s="386"/>
+      <c r="B60" s="364" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -5148,11 +5172,11 @@
       <c r="F60" t="s">
         <v>188</v>
       </c>
-      <c r="H60" s="387"/>
+      <c r="H60" s="353"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="364"/>
-      <c r="B61" s="367"/>
+      <c r="A61" s="386"/>
+      <c r="B61" s="358"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -5162,11 +5186,11 @@
       <c r="F61" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="387"/>
+      <c r="H61" s="353"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="364"/>
-      <c r="B62" s="368"/>
+      <c r="A62" s="386"/>
+      <c r="B62" s="365"/>
       <c r="C62" s="333" t="s">
         <v>237</v>
       </c>
@@ -5179,11 +5203,11 @@
       <c r="G62" t="s">
         <v>243</v>
       </c>
-      <c r="H62" s="387"/>
+      <c r="H62" s="353"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="364"/>
-      <c r="B63" s="369" t="s">
+      <c r="A63" s="386"/>
+      <c r="B63" s="363" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -5195,11 +5219,11 @@
       <c r="F63" t="s">
         <v>188</v>
       </c>
-      <c r="H63" s="387"/>
+      <c r="H63" s="353"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="364"/>
-      <c r="B64" s="354"/>
+      <c r="A64" s="386"/>
+      <c r="B64" s="361"/>
       <c r="C64" s="334" t="s">
         <v>225</v>
       </c>
@@ -5212,11 +5236,11 @@
       <c r="F64" t="s">
         <v>188</v>
       </c>
-      <c r="H64" s="387"/>
+      <c r="H64" s="353"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="364"/>
-      <c r="B65" s="370"/>
+      <c r="A65" s="386"/>
+      <c r="B65" s="362"/>
       <c r="C65" s="333" t="s">
         <v>209</v>
       </c>
@@ -5226,11 +5250,11 @@
       <c r="F65" t="s">
         <v>188</v>
       </c>
-      <c r="H65" s="387"/>
+      <c r="H65" s="353"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="364"/>
-      <c r="B66" s="369" t="s">
+      <c r="A66" s="386"/>
+      <c r="B66" s="363" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
@@ -5242,11 +5266,11 @@
       <c r="F66" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="387"/>
+      <c r="H66" s="353"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="364"/>
-      <c r="B67" s="354"/>
+      <c r="A67" s="386"/>
+      <c r="B67" s="361"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -5259,11 +5283,11 @@
       <c r="F67" t="s">
         <v>188</v>
       </c>
-      <c r="H67" s="387"/>
+      <c r="H67" s="353"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="365"/>
-      <c r="B68" s="355"/>
+      <c r="A68" s="387"/>
+      <c r="B68" s="374"/>
       <c r="C68" s="334" t="s">
         <v>209</v>
       </c>
@@ -5273,13 +5297,13 @@
       <c r="F68" t="s">
         <v>188</v>
       </c>
-      <c r="H68" s="387"/>
+      <c r="H68" s="353"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="359" t="s">
+      <c r="A69" s="381" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="353" t="s">
+      <c r="B69" s="360" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5291,11 +5315,11 @@
       <c r="F69" t="s">
         <v>188</v>
       </c>
-      <c r="H69" s="387"/>
+      <c r="H69" s="353"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="357"/>
-      <c r="B70" s="354"/>
+      <c r="A70" s="379"/>
+      <c r="B70" s="361"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
@@ -5305,11 +5329,11 @@
       <c r="F70" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="387"/>
+      <c r="H70" s="353"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="358"/>
-      <c r="B71" s="355"/>
+      <c r="A71" s="380"/>
+      <c r="B71" s="374"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
@@ -5322,13 +5346,13 @@
       <c r="G71" t="s">
         <v>240</v>
       </c>
-      <c r="H71" s="387"/>
+      <c r="H71" s="353"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="360" t="s">
+      <c r="A72" s="382" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="353" t="s">
+      <c r="B72" s="360" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
@@ -5340,11 +5364,11 @@
       <c r="F72" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="387"/>
+      <c r="H72" s="353"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="361"/>
-      <c r="B73" s="354"/>
+      <c r="A73" s="383"/>
+      <c r="B73" s="361"/>
       <c r="C73" s="341" t="s">
         <v>206</v>
       </c>
@@ -5357,11 +5381,11 @@
       <c r="G73" t="s">
         <v>229</v>
       </c>
-      <c r="H73" s="387"/>
+      <c r="H73" s="353"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="361"/>
-      <c r="B74" s="354"/>
+      <c r="A74" s="383"/>
+      <c r="B74" s="361"/>
       <c r="C74" s="341" t="s">
         <v>223</v>
       </c>
@@ -5371,11 +5395,11 @@
       <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="H74" s="387"/>
+      <c r="H74" s="353"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="362"/>
-      <c r="B75" s="355"/>
+      <c r="A75" s="384"/>
+      <c r="B75" s="374"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
@@ -5388,13 +5412,13 @@
       <c r="G75" t="s">
         <v>241</v>
       </c>
-      <c r="H75" s="387"/>
+      <c r="H75" s="353"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="360" t="s">
+      <c r="A76" s="382" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="353" t="s">
+      <c r="B76" s="360" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
@@ -5409,11 +5433,11 @@
       <c r="F76" t="s">
         <v>188</v>
       </c>
-      <c r="H76" s="387"/>
+      <c r="H76" s="353"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="361"/>
-      <c r="B77" s="354"/>
+      <c r="A77" s="383"/>
+      <c r="B77" s="361"/>
       <c r="C77" s="341" t="s">
         <v>203</v>
       </c>
@@ -5423,11 +5447,11 @@
       <c r="F77" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="387"/>
+      <c r="H77" s="353"/>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="362"/>
-      <c r="B78" s="355"/>
+      <c r="A78" s="384"/>
+      <c r="B78" s="374"/>
       <c r="C78" s="335" t="s">
         <v>221</v>
       </c>
@@ -5437,55 +5461,10 @@
       <c r="F78" t="s">
         <v>188</v>
       </c>
-      <c r="H78" s="387"/>
+      <c r="H78" s="353"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5502,6 +5481,51 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H76:H78"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5623,15 +5647,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="388" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="394"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="390"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5661,7 +5685,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5674,7 +5698,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5685,7 +5709,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5696,7 +5720,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5709,7 +5733,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5733,7 +5757,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5746,7 +5770,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5757,7 +5781,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
+      <c r="A11" s="405"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5770,7 +5794,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="390"/>
+      <c r="A12" s="406"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5781,7 +5805,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="391" t="s">
+      <c r="A13" s="407" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5794,7 +5818,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5805,7 +5829,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5827,19 +5851,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
-      <c r="B16" s="398" t="s">
+      <c r="A16" s="405"/>
+      <c r="B16" s="394" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="395" t="s">
+      <c r="C16" s="391" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="402"/>
-      <c r="G16" s="405"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="401"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5851,15 +5875,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="389"/>
-      <c r="B17" s="399"/>
-      <c r="C17" s="396"/>
+      <c r="A17" s="405"/>
+      <c r="B17" s="395"/>
+      <c r="C17" s="392"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="406"/>
+      <c r="F17" s="399"/>
+      <c r="G17" s="402"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5871,15 +5895,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
-      <c r="B18" s="399"/>
-      <c r="C18" s="396"/>
+      <c r="A18" s="405"/>
+      <c r="B18" s="395"/>
+      <c r="C18" s="392"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="406"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="402"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5891,15 +5915,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
-      <c r="B19" s="399"/>
-      <c r="C19" s="397"/>
+      <c r="A19" s="405"/>
+      <c r="B19" s="395"/>
+      <c r="C19" s="393"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="404"/>
-      <c r="G19" s="407"/>
+      <c r="F19" s="400"/>
+      <c r="G19" s="403"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5911,8 +5935,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
-      <c r="B20" s="400"/>
+      <c r="A20" s="405"/>
+      <c r="B20" s="396"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5933,8 +5957,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="390"/>
-      <c r="B21" s="401"/>
+      <c r="A21" s="406"/>
+      <c r="B21" s="397"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5955,7 +5979,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -5977,7 +6001,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -5997,7 +6021,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -6017,7 +6041,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -6028,7 +6052,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -6041,7 +6065,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -6052,7 +6076,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -6063,7 +6087,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6438,17 +6462,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6518,7 +6542,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6531,7 +6555,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6542,7 +6566,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6553,7 +6577,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6566,7 +6590,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6590,7 +6614,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6603,7 +6627,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -6614,45 +6638,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
-      <c r="B11" s="400"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="405"/>
+      <c r="B12" s="396"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
-      <c r="B13" s="400"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="404"/>
-      <c r="G13" s="407"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="403"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="412"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6665,7 +6689,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6680,7 +6704,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390"/>
+      <c r="A16" s="406"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6691,7 +6715,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="391" t="s">
+      <c r="A17" s="407" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6704,7 +6728,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
+      <c r="A18" s="405"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6715,7 +6739,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6728,7 +6752,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="411" t="s">
         <v>32</v>
       </c>
@@ -6739,46 +6763,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="402"/>
-      <c r="G20" s="405"/>
+      <c r="F20" s="398"/>
+      <c r="G20" s="401"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="389"/>
-      <c r="B21" s="400"/>
+      <c r="A21" s="405"/>
+      <c r="B21" s="396"/>
       <c r="C21" s="414"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="403"/>
-      <c r="G21" s="406"/>
+      <c r="F21" s="399"/>
+      <c r="G21" s="402"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
-      <c r="B22" s="400"/>
+      <c r="A22" s="405"/>
+      <c r="B22" s="396"/>
       <c r="C22" s="414"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="403"/>
-      <c r="G22" s="406"/>
+      <c r="F22" s="399"/>
+      <c r="G22" s="402"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
-      <c r="B23" s="400"/>
+      <c r="A23" s="405"/>
+      <c r="B23" s="396"/>
       <c r="C23" s="415"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="404"/>
-      <c r="G23" s="407"/>
+      <c r="F23" s="400"/>
+      <c r="G23" s="403"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
-      <c r="B24" s="400"/>
+      <c r="A24" s="405"/>
+      <c r="B24" s="396"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6790,8 +6814,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="389"/>
-      <c r="B25" s="400"/>
+      <c r="A25" s="405"/>
+      <c r="B25" s="396"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6803,7 +6827,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="390"/>
+      <c r="A26" s="406"/>
       <c r="B26" s="416"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6817,7 +6841,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="388" t="s">
+      <c r="A27" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6831,7 +6855,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6842,7 +6866,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="389"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6853,7 +6877,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="390"/>
+      <c r="A30" s="406"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6864,7 +6888,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="388" t="s">
+      <c r="A31" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6877,7 +6901,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="389"/>
+      <c r="A32" s="405"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6888,7 +6912,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="389"/>
+      <c r="A33" s="405"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6899,7 +6923,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="390"/>
+      <c r="A34" s="406"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7282,6 +7306,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -7291,12 +7321,6 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7366,7 +7390,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7379,7 +7403,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7390,7 +7414,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7401,7 +7425,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7414,7 +7438,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7438,7 +7462,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="389" t="s">
+      <c r="A9" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7451,7 +7475,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -7462,45 +7486,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
-      <c r="B11" s="400"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="405"/>
+      <c r="B12" s="396"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
-      <c r="B13" s="400"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="404"/>
-      <c r="G13" s="407"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="403"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
-      <c r="B14" s="400"/>
+      <c r="A14" s="405"/>
+      <c r="B14" s="396"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7512,7 +7536,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="412"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7525,7 +7549,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7536,7 +7560,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="390"/>
+      <c r="A17" s="406"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7560,7 +7584,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7571,7 +7595,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7582,7 +7606,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="389"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7593,7 +7617,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7606,7 +7630,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7617,7 +7641,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7628,7 +7652,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7639,7 +7663,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="389" t="s">
+      <c r="A26" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7652,7 +7676,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7663,7 +7687,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7674,7 +7698,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -8078,17 +8102,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8162,7 +8186,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -8183,7 +8207,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -8194,8 +8218,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="389"/>
-      <c r="B5" s="426" t="s">
+      <c r="A5" s="405"/>
+      <c r="B5" s="418" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -8209,8 +8233,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="390"/>
-      <c r="B6" s="427"/>
+      <c r="A6" s="406"/>
+      <c r="B6" s="419"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8222,7 +8246,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="389" t="s">
+      <c r="A7" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8235,7 +8259,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="390"/>
+      <c r="A8" s="406"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8249,7 +8273,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="428" t="s">
+      <c r="B9" s="420" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8264,7 +8288,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="427"/>
+      <c r="B10" s="419"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8276,7 +8300,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389" t="s">
+      <c r="A11" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8289,7 +8313,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
+      <c r="A12" s="405"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8304,7 +8328,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
+      <c r="A13" s="405"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8315,7 +8339,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="390"/>
+      <c r="A14" s="406"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8347,7 +8371,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8358,7 +8382,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="389"/>
+      <c r="A17" s="405"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8369,7 +8393,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="390"/>
+      <c r="A18" s="406"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8380,7 +8404,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389" t="s">
+      <c r="A19" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8397,7 +8421,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8408,7 +8432,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="389"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="411" t="s">
         <v>81</v>
       </c>
@@ -8423,7 +8447,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
+      <c r="A22" s="405"/>
       <c r="B22" s="412"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8436,7 +8460,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="390"/>
+      <c r="A23" s="406"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8451,7 +8475,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389" t="s">
+      <c r="A24" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8468,7 +8492,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="389"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8479,7 +8503,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="389"/>
+      <c r="A26" s="405"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8494,7 +8518,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="390"/>
+      <c r="A27" s="406"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8505,13 +8529,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="423" t="s">
+      <c r="A28" s="426" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="421" t="s">
+      <c r="B28" s="424" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="422" t="s">
+      <c r="C28" s="425" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8522,8 +8546,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="424"/>
-      <c r="B29" s="400"/>
+      <c r="A29" s="427"/>
+      <c r="B29" s="396"/>
       <c r="C29" s="414"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8533,8 +8557,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="424"/>
-      <c r="B30" s="400"/>
+      <c r="A30" s="427"/>
+      <c r="B30" s="396"/>
       <c r="C30" s="414"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8544,8 +8568,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="424"/>
-      <c r="B31" s="400"/>
+      <c r="A31" s="427"/>
+      <c r="B31" s="396"/>
       <c r="C31" s="415"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8555,8 +8579,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="424"/>
-      <c r="B32" s="400"/>
+      <c r="A32" s="427"/>
+      <c r="B32" s="396"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8568,7 +8592,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="425"/>
+      <c r="A33" s="428"/>
       <c r="B33" s="416"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8581,13 +8605,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="418" t="s">
+      <c r="A34" s="421" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="421" t="s">
+      <c r="B34" s="424" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="422" t="s">
+      <c r="C34" s="425" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8598,8 +8622,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="419"/>
-      <c r="B35" s="400"/>
+      <c r="A35" s="422"/>
+      <c r="B35" s="396"/>
       <c r="C35" s="414"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8609,8 +8633,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="419"/>
-      <c r="B36" s="400"/>
+      <c r="A36" s="422"/>
+      <c r="B36" s="396"/>
       <c r="C36" s="414"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8620,8 +8644,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="419"/>
-      <c r="B37" s="400"/>
+      <c r="A37" s="422"/>
+      <c r="B37" s="396"/>
       <c r="C37" s="415"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8631,8 +8655,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="419"/>
-      <c r="B38" s="400"/>
+      <c r="A38" s="422"/>
+      <c r="B38" s="396"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8644,8 +8668,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="419"/>
-      <c r="B39" s="400"/>
+      <c r="A39" s="422"/>
+      <c r="B39" s="396"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8657,8 +8681,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="419"/>
-      <c r="B40" s="400"/>
+      <c r="A40" s="422"/>
+      <c r="B40" s="396"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8670,8 +8694,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="419"/>
-      <c r="B41" s="400"/>
+      <c r="A41" s="422"/>
+      <c r="B41" s="396"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8683,7 +8707,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="420"/>
+      <c r="A42" s="423"/>
       <c r="B42" s="416"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8696,13 +8720,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="418" t="s">
+      <c r="A43" s="421" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="421" t="s">
+      <c r="B43" s="424" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="422" t="s">
+      <c r="C43" s="425" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8713,8 +8737,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="419"/>
-      <c r="B44" s="400"/>
+      <c r="A44" s="422"/>
+      <c r="B44" s="396"/>
       <c r="C44" s="414"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8724,8 +8748,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="419"/>
-      <c r="B45" s="400"/>
+      <c r="A45" s="422"/>
+      <c r="B45" s="396"/>
       <c r="C45" s="414"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8735,8 +8759,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="419"/>
-      <c r="B46" s="400"/>
+      <c r="A46" s="422"/>
+      <c r="B46" s="396"/>
       <c r="C46" s="415"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8746,8 +8770,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="419"/>
-      <c r="B47" s="400"/>
+      <c r="A47" s="422"/>
+      <c r="B47" s="396"/>
       <c r="C47" s="414" t="s">
         <v>133</v>
       </c>
@@ -8759,8 +8783,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="419"/>
-      <c r="B48" s="400"/>
+      <c r="A48" s="422"/>
+      <c r="B48" s="396"/>
       <c r="C48" s="414"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8770,8 +8794,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="419"/>
-      <c r="B49" s="400"/>
+      <c r="A49" s="422"/>
+      <c r="B49" s="396"/>
       <c r="C49" s="414"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8781,8 +8805,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="419"/>
-      <c r="B50" s="400"/>
+      <c r="A50" s="422"/>
+      <c r="B50" s="396"/>
       <c r="C50" s="415"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8792,8 +8816,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="419"/>
-      <c r="B51" s="400"/>
+      <c r="A51" s="422"/>
+      <c r="B51" s="396"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8805,7 +8829,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="420"/>
+      <c r="A52" s="423"/>
       <c r="B52" s="416"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -9202,17 +9226,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -9223,6 +9236,17 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9292,7 +9316,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9305,7 +9329,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9316,7 +9340,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9327,7 +9351,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9340,7 +9364,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9367,10 +9391,10 @@
       <c r="A9" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="400" t="s">
+      <c r="B9" s="396" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="396" t="s">
+      <c r="C9" s="392" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9382,40 +9406,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="431"/>
-      <c r="B10" s="400"/>
-      <c r="C10" s="396"/>
+      <c r="B10" s="396"/>
+      <c r="C10" s="392"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="406"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="402"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="431"/>
-      <c r="B11" s="400"/>
-      <c r="C11" s="396"/>
+      <c r="B11" s="396"/>
+      <c r="C11" s="392"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="431"/>
-      <c r="B12" s="400"/>
-      <c r="C12" s="397"/>
+      <c r="B12" s="396"/>
+      <c r="C12" s="393"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="407"/>
+      <c r="F12" s="400"/>
+      <c r="G12" s="403"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="431"/>
-      <c r="B13" s="400"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9488,7 +9512,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9499,7 +9523,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9512,7 +9536,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="390"/>
+      <c r="A21" s="406"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9523,7 +9547,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="389" t="s">
+      <c r="A22" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9536,7 +9560,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9547,7 +9571,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9558,7 +9582,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9569,7 +9593,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="389" t="s">
+      <c r="A26" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9582,7 +9606,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9593,7 +9617,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9604,7 +9628,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9975,17 +9999,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10016,15 +10040,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="435" t="s">
+      <c r="A1" s="455" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="436"/>
+      <c r="B1" s="455"/>
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="456"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10050,13 +10074,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="437" t="s">
+      <c r="A3" s="435" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="428" t="s">
+      <c r="B3" s="420" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="422" t="s">
+      <c r="C3" s="425" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -10067,8 +10091,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="438"/>
-      <c r="B4" s="440"/>
+      <c r="A4" s="436"/>
+      <c r="B4" s="441"/>
       <c r="C4" s="414"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -10078,8 +10102,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="438"/>
-      <c r="B5" s="440"/>
+      <c r="A5" s="436"/>
+      <c r="B5" s="441"/>
       <c r="C5" s="414"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -10089,8 +10113,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="438"/>
-      <c r="B6" s="440"/>
+      <c r="A6" s="436"/>
+      <c r="B6" s="441"/>
       <c r="C6" s="415"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -10100,8 +10124,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="438"/>
-      <c r="B7" s="440"/>
+      <c r="A7" s="436"/>
+      <c r="B7" s="441"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -10113,8 +10137,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="438"/>
-      <c r="B8" s="441"/>
+      <c r="A8" s="436"/>
+      <c r="B8" s="437"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -10126,8 +10150,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="438"/>
-      <c r="B9" s="426" t="s">
+      <c r="A9" s="436"/>
+      <c r="B9" s="418" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="413" t="s">
@@ -10136,137 +10160,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="402"/>
-      <c r="F9" s="402"/>
-      <c r="G9" s="405"/>
+      <c r="E9" s="398"/>
+      <c r="F9" s="398"/>
+      <c r="G9" s="401"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="438"/>
-      <c r="B10" s="440"/>
+      <c r="A10" s="436"/>
+      <c r="B10" s="441"/>
       <c r="C10" s="414"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="403"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="406"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="402"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="438"/>
-      <c r="B11" s="440"/>
+      <c r="A11" s="436"/>
+      <c r="B11" s="441"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="403"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="E11" s="399"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="438"/>
-      <c r="B12" s="440"/>
+      <c r="A12" s="436"/>
+      <c r="B12" s="441"/>
       <c r="C12" s="415"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="404"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="407"/>
+      <c r="E12" s="400"/>
+      <c r="F12" s="400"/>
+      <c r="G12" s="403"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="438"/>
-      <c r="B13" s="440"/>
+      <c r="A13" s="436"/>
+      <c r="B13" s="441"/>
       <c r="C13" s="414" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="403"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="406"/>
+      <c r="E13" s="399"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="438"/>
-      <c r="B14" s="440"/>
+      <c r="A14" s="436"/>
+      <c r="B14" s="441"/>
       <c r="C14" s="414"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="403"/>
-      <c r="F14" s="403"/>
-      <c r="G14" s="406"/>
+      <c r="E14" s="399"/>
+      <c r="F14" s="399"/>
+      <c r="G14" s="402"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="438"/>
-      <c r="B15" s="440"/>
+      <c r="A15" s="436"/>
+      <c r="B15" s="441"/>
       <c r="C15" s="414"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="403"/>
-      <c r="F15" s="403"/>
-      <c r="G15" s="406"/>
+      <c r="E15" s="399"/>
+      <c r="F15" s="399"/>
+      <c r="G15" s="402"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="438"/>
-      <c r="B16" s="440"/>
+      <c r="A16" s="436"/>
+      <c r="B16" s="441"/>
       <c r="C16" s="415"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="404"/>
-      <c r="F16" s="404"/>
-      <c r="G16" s="407"/>
+      <c r="E16" s="400"/>
+      <c r="F16" s="400"/>
+      <c r="G16" s="403"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="438"/>
-      <c r="B17" s="440"/>
+      <c r="A17" s="436"/>
+      <c r="B17" s="441"/>
       <c r="C17" s="414" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="403"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="406"/>
+      <c r="E17" s="399"/>
+      <c r="F17" s="399"/>
+      <c r="G17" s="402"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="438"/>
-      <c r="B18" s="440"/>
+      <c r="A18" s="436"/>
+      <c r="B18" s="441"/>
       <c r="C18" s="414"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="403"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="406"/>
+      <c r="E18" s="399"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="402"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="438"/>
-      <c r="B19" s="440"/>
+      <c r="A19" s="436"/>
+      <c r="B19" s="441"/>
       <c r="C19" s="414"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="403"/>
-      <c r="F19" s="403"/>
-      <c r="G19" s="406"/>
+      <c r="E19" s="399"/>
+      <c r="F19" s="399"/>
+      <c r="G19" s="402"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="438"/>
-      <c r="B20" s="440"/>
-      <c r="C20" s="442"/>
+      <c r="A20" s="436"/>
+      <c r="B20" s="441"/>
+      <c r="C20" s="444"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="443"/>
-      <c r="F20" s="443"/>
-      <c r="G20" s="444"/>
+      <c r="E20" s="448"/>
+      <c r="F20" s="448"/>
+      <c r="G20" s="442"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="439"/>
+      <c r="A21" s="443"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -10277,10 +10301,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="445" t="s">
+      <c r="A22" s="449" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="428" t="s">
+      <c r="B22" s="420" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -10292,8 +10316,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="446"/>
-      <c r="B23" s="440"/>
+      <c r="A23" s="450"/>
+      <c r="B23" s="441"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -10303,54 +10327,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="446"/>
-      <c r="B24" s="440"/>
+      <c r="A24" s="450"/>
+      <c r="B24" s="441"/>
       <c r="C24" s="414" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="403"/>
-      <c r="F24" s="403"/>
-      <c r="G24" s="406"/>
+      <c r="E24" s="399"/>
+      <c r="F24" s="399"/>
+      <c r="G24" s="402"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="446"/>
-      <c r="B25" s="440"/>
+      <c r="A25" s="450"/>
+      <c r="B25" s="441"/>
       <c r="C25" s="414"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="403"/>
-      <c r="F25" s="403"/>
-      <c r="G25" s="406"/>
+      <c r="E25" s="399"/>
+      <c r="F25" s="399"/>
+      <c r="G25" s="402"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="446"/>
-      <c r="B26" s="440"/>
+      <c r="A26" s="450"/>
+      <c r="B26" s="441"/>
       <c r="C26" s="414"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="403"/>
-      <c r="F26" s="403"/>
-      <c r="G26" s="406"/>
+      <c r="E26" s="399"/>
+      <c r="F26" s="399"/>
+      <c r="G26" s="402"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="446"/>
-      <c r="B27" s="441"/>
-      <c r="C27" s="442"/>
+      <c r="A27" s="450"/>
+      <c r="B27" s="437"/>
+      <c r="C27" s="444"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="443"/>
-      <c r="F27" s="443"/>
-      <c r="G27" s="444"/>
+      <c r="E27" s="448"/>
+      <c r="F27" s="448"/>
+      <c r="G27" s="442"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="446"/>
-      <c r="B28" s="440" t="s">
+      <c r="A28" s="450"/>
+      <c r="B28" s="441" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10362,50 +10386,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="446"/>
-      <c r="B29" s="440"/>
+      <c r="A29" s="450"/>
+      <c r="B29" s="441"/>
       <c r="C29" s="414" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="403"/>
-      <c r="F29" s="403"/>
-      <c r="G29" s="406"/>
+      <c r="E29" s="399"/>
+      <c r="F29" s="399"/>
+      <c r="G29" s="402"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="446"/>
-      <c r="B30" s="440"/>
+      <c r="A30" s="450"/>
+      <c r="B30" s="441"/>
       <c r="C30" s="414"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="403"/>
-      <c r="F30" s="403"/>
-      <c r="G30" s="406"/>
+      <c r="E30" s="399"/>
+      <c r="F30" s="399"/>
+      <c r="G30" s="402"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="446"/>
-      <c r="B31" s="440"/>
+      <c r="A31" s="450"/>
+      <c r="B31" s="441"/>
       <c r="C31" s="414"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="403"/>
-      <c r="F31" s="403"/>
-      <c r="G31" s="406"/>
+      <c r="E31" s="399"/>
+      <c r="F31" s="399"/>
+      <c r="G31" s="402"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="447"/>
-      <c r="B32" s="427"/>
-      <c r="C32" s="448"/>
+      <c r="A32" s="451"/>
+      <c r="B32" s="419"/>
+      <c r="C32" s="452"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="449"/>
-      <c r="F32" s="449"/>
-      <c r="G32" s="450"/>
+      <c r="E32" s="453"/>
+      <c r="F32" s="453"/>
+      <c r="G32" s="454"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10421,10 +10445,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="437" t="s">
+      <c r="A34" s="435" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="451" t="s">
+      <c r="B34" s="445" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10436,8 +10460,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="438"/>
-      <c r="B35" s="452"/>
+      <c r="A35" s="436"/>
+      <c r="B35" s="446"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10447,53 +10471,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="438"/>
-      <c r="B36" s="452"/>
-      <c r="C36" s="442" t="s">
+      <c r="A36" s="436"/>
+      <c r="B36" s="446"/>
+      <c r="C36" s="444" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="403"/>
-      <c r="F36" s="403"/>
-      <c r="G36" s="406"/>
+      <c r="E36" s="399"/>
+      <c r="F36" s="399"/>
+      <c r="G36" s="402"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="438"/>
-      <c r="B37" s="452"/>
-      <c r="C37" s="453"/>
+      <c r="A37" s="436"/>
+      <c r="B37" s="446"/>
+      <c r="C37" s="447"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="403"/>
-      <c r="F37" s="403"/>
-      <c r="G37" s="406"/>
+      <c r="E37" s="399"/>
+      <c r="F37" s="399"/>
+      <c r="G37" s="402"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="438"/>
-      <c r="B38" s="452"/>
-      <c r="C38" s="453"/>
+      <c r="A38" s="436"/>
+      <c r="B38" s="446"/>
+      <c r="C38" s="447"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="403"/>
-      <c r="F38" s="403"/>
-      <c r="G38" s="406"/>
+      <c r="E38" s="399"/>
+      <c r="F38" s="399"/>
+      <c r="G38" s="402"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="438"/>
-      <c r="B39" s="452"/>
-      <c r="C39" s="453"/>
+      <c r="A39" s="436"/>
+      <c r="B39" s="446"/>
+      <c r="C39" s="447"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="443"/>
-      <c r="F39" s="443"/>
-      <c r="G39" s="444"/>
+      <c r="E39" s="448"/>
+      <c r="F39" s="448"/>
+      <c r="G39" s="442"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="438"/>
+      <c r="A40" s="436"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10504,7 +10528,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="438"/>
+      <c r="A41" s="436"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10515,7 +10539,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="439"/>
+      <c r="A42" s="443"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10526,7 +10550,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="437" t="s">
+      <c r="A43" s="435" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10539,8 +10563,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="438"/>
-      <c r="B44" s="426" t="s">
+      <c r="A44" s="436"/>
+      <c r="B44" s="418" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10552,8 +10576,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="438"/>
-      <c r="B45" s="440"/>
+      <c r="A45" s="436"/>
+      <c r="B45" s="441"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10563,8 +10587,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="438"/>
-      <c r="B46" s="440"/>
+      <c r="A46" s="436"/>
+      <c r="B46" s="441"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10574,8 +10598,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="438"/>
-      <c r="B47" s="440"/>
+      <c r="A47" s="436"/>
+      <c r="B47" s="441"/>
       <c r="C47" s="414" t="s">
         <v>58</v>
       </c>
@@ -10587,8 +10611,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="438"/>
-      <c r="B48" s="440"/>
+      <c r="A48" s="436"/>
+      <c r="B48" s="441"/>
       <c r="C48" s="414"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10598,8 +10622,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="438"/>
-      <c r="B49" s="440"/>
+      <c r="A49" s="436"/>
+      <c r="B49" s="441"/>
       <c r="C49" s="414"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10609,9 +10633,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="438"/>
-      <c r="B50" s="441"/>
-      <c r="C50" s="442"/>
+      <c r="A50" s="436"/>
+      <c r="B50" s="437"/>
+      <c r="C50" s="444"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10620,8 +10644,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="438"/>
-      <c r="B51" s="426" t="s">
+      <c r="A51" s="436"/>
+      <c r="B51" s="418" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="413" t="s">
@@ -10635,8 +10659,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="438"/>
-      <c r="B52" s="440"/>
+      <c r="A52" s="436"/>
+      <c r="B52" s="441"/>
       <c r="C52" s="414"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10646,8 +10670,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="438"/>
-      <c r="B53" s="440"/>
+      <c r="A53" s="436"/>
+      <c r="B53" s="441"/>
       <c r="C53" s="414"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10657,8 +10681,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="438"/>
-      <c r="B54" s="440"/>
+      <c r="A54" s="436"/>
+      <c r="B54" s="441"/>
       <c r="C54" s="415"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10668,8 +10692,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="438"/>
-      <c r="B55" s="440"/>
+      <c r="A55" s="436"/>
+      <c r="B55" s="441"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10679,8 +10703,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="438"/>
-      <c r="B56" s="441"/>
+      <c r="A56" s="436"/>
+      <c r="B56" s="437"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10690,8 +10714,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="438"/>
-      <c r="B57" s="440" t="s">
+      <c r="A57" s="436"/>
+      <c r="B57" s="441" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10703,8 +10727,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="438"/>
-      <c r="B58" s="440"/>
+      <c r="A58" s="436"/>
+      <c r="B58" s="441"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10714,8 +10738,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="439"/>
-      <c r="B59" s="427"/>
+      <c r="A59" s="443"/>
+      <c r="B59" s="419"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10725,7 +10749,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="437" t="s">
+      <c r="A60" s="435" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10738,8 +10762,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="438"/>
-      <c r="B61" s="426" t="s">
+      <c r="A61" s="436"/>
+      <c r="B61" s="418" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10751,8 +10775,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="438"/>
-      <c r="B62" s="441"/>
+      <c r="A62" s="436"/>
+      <c r="B62" s="437"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10762,7 +10786,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="438"/>
+      <c r="A63" s="436"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10773,7 +10797,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="438"/>
+      <c r="A64" s="436"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10784,7 +10808,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="454" t="s">
+      <c r="A65" s="438" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10797,8 +10821,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="455"/>
-      <c r="B66" s="426" t="s">
+      <c r="A66" s="439"/>
+      <c r="B66" s="418" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10810,8 +10834,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="455"/>
-      <c r="B67" s="440"/>
+      <c r="A67" s="439"/>
+      <c r="B67" s="441"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10821,8 +10845,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="455"/>
-      <c r="B68" s="441"/>
+      <c r="A68" s="439"/>
+      <c r="B68" s="437"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10832,7 +10856,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="455"/>
+      <c r="A69" s="439"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10843,8 +10867,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="455"/>
-      <c r="B70" s="426" t="s">
+      <c r="A70" s="439"/>
+      <c r="B70" s="418" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10856,8 +10880,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="455"/>
-      <c r="B71" s="440"/>
+      <c r="A71" s="439"/>
+      <c r="B71" s="441"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10867,8 +10891,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="456"/>
-      <c r="B72" s="427"/>
+      <c r="A72" s="440"/>
+      <c r="B72" s="419"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10918,35 +10942,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10963,6 +10958,35 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11032,7 +11056,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -11045,7 +11069,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -11056,7 +11080,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -11067,7 +11091,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -11080,7 +11104,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -11104,7 +11128,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="389" t="s">
+      <c r="A9" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -11117,7 +11141,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -11128,7 +11152,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
+      <c r="A11" s="405"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -11141,7 +11165,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="390"/>
+      <c r="A12" s="406"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -11165,7 +11189,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -11176,7 +11200,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -11189,7 +11213,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390"/>
+      <c r="A16" s="406"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -11200,7 +11224,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="389" t="s">
+      <c r="A17" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -11213,7 +11237,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
+      <c r="A18" s="405"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -11224,7 +11248,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -11235,7 +11259,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="390"/>
+      <c r="A20" s="406"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -11246,7 +11270,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="389" t="s">
+      <c r="A21" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -11259,7 +11283,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
+      <c r="A22" s="405"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -11270,7 +11294,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -11281,7 +11305,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="390"/>
+      <c r="A24" s="406"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A616BCDE-33B7-4DD4-9F66-B4E9E412A87B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CB7F3E-764E-44C2-950D-7BD887C6976C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="258">
   <si>
     <t>ENG 251</t>
   </si>
@@ -973,6 +973,15 @@
   </si>
   <si>
     <t xml:space="preserve">Nothing to highlight in the samples per se </t>
+  </si>
+  <si>
+    <t>ok (left the same ones but highlighted parts of prompt)</t>
+  </si>
+  <si>
+    <t>ok (left the last ones since I highlighted all lexile levels in the previous ones)</t>
+  </si>
+  <si>
+    <t>done (decided to not highlight anything in the samples but did highlight some part of the prompt)</t>
   </si>
 </sst>
 </file>
@@ -2851,110 +2860,122 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3004,18 +3025,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3046,6 +3055,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3055,30 +3088,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3097,15 +3106,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3114,54 +3171,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4072,10 +4081,10 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,11 +4101,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="366" t="s">
+      <c r="A1" s="374" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="367"/>
-      <c r="C1" s="368"/>
+      <c r="B1" s="375"/>
+      <c r="C1" s="376"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="M1" t="s">
@@ -4134,10 +4143,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="378" t="s">
+      <c r="A3" s="356" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="369" t="s">
+      <c r="B3" s="377" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4149,7 +4158,7 @@
       <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="353" t="s">
+      <c r="H3" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I3" t="s">
@@ -4160,8 +4169,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="379"/>
-      <c r="B4" s="370"/>
+      <c r="A4" s="357"/>
+      <c r="B4" s="378"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4171,7 +4180,7 @@
       <c r="F4" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="353"/>
+      <c r="H4" s="387"/>
       <c r="I4" t="s">
         <v>250</v>
       </c>
@@ -4180,8 +4189,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="379"/>
-      <c r="B5" s="371"/>
+      <c r="A5" s="357"/>
+      <c r="B5" s="379"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4194,7 +4203,7 @@
       <c r="G5" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="353"/>
+      <c r="H5" s="387"/>
       <c r="I5" t="s">
         <v>250</v>
       </c>
@@ -4203,8 +4212,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="379"/>
-      <c r="B6" s="369" t="s">
+      <c r="A6" s="357"/>
+      <c r="B6" s="377" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
@@ -4219,7 +4228,7 @@
       <c r="G6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="353" t="s">
+      <c r="H6" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I6" t="s">
@@ -4230,8 +4239,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="379"/>
-      <c r="B7" s="370"/>
+      <c r="A7" s="357"/>
+      <c r="B7" s="378"/>
       <c r="C7" s="341" t="s">
         <v>209</v>
       </c>
@@ -4241,7 +4250,7 @@
       <c r="F7" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="353"/>
+      <c r="H7" s="387"/>
       <c r="I7" t="s">
         <v>251</v>
       </c>
@@ -4250,8 +4259,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="379"/>
-      <c r="B8" s="371"/>
+      <c r="A8" s="357"/>
+      <c r="B8" s="379"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4261,7 +4270,7 @@
       <c r="F8" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="353"/>
+      <c r="H8" s="387"/>
       <c r="I8" t="s">
         <v>250</v>
       </c>
@@ -4270,8 +4279,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="379"/>
-      <c r="B9" s="369" t="s">
+      <c r="A9" s="357"/>
+      <c r="B9" s="377" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4286,7 +4295,7 @@
       <c r="G9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="353" t="s">
+      <c r="H9" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I9" t="s">
@@ -4297,8 +4306,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="379"/>
-      <c r="B10" s="370"/>
+      <c r="A10" s="357"/>
+      <c r="B10" s="378"/>
       <c r="C10" s="334" t="s">
         <v>212</v>
       </c>
@@ -4311,7 +4320,7 @@
       <c r="G10" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="353"/>
+      <c r="H10" s="387"/>
       <c r="I10" t="s">
         <v>250</v>
       </c>
@@ -4320,8 +4329,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="380"/>
-      <c r="B11" s="372"/>
+      <c r="A11" s="358"/>
+      <c r="B11" s="380"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4331,7 +4340,7 @@
       <c r="F11" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="353"/>
+      <c r="H11" s="387"/>
       <c r="I11" t="s">
         <v>250</v>
       </c>
@@ -4340,10 +4349,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="381" t="s">
+      <c r="A12" s="359" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="373" t="s">
+      <c r="B12" s="381" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
@@ -4355,11 +4364,11 @@
       <c r="F12" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="353"/>
+      <c r="H12" s="387"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="379"/>
-      <c r="B13" s="370"/>
+      <c r="A13" s="357"/>
+      <c r="B13" s="378"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4369,11 +4378,11 @@
       <c r="F13" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="353"/>
+      <c r="H13" s="387"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="379"/>
-      <c r="B14" s="371"/>
+      <c r="A14" s="357"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="333" t="s">
         <v>195</v>
       </c>
@@ -4383,11 +4392,11 @@
       <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="353"/>
+      <c r="H14" s="387"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="379"/>
-      <c r="B15" s="354" t="s">
+      <c r="A15" s="357"/>
+      <c r="B15" s="382" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4402,11 +4411,11 @@
       <c r="G15" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="353"/>
+      <c r="H15" s="387"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="379"/>
-      <c r="B16" s="355"/>
+      <c r="A16" s="357"/>
+      <c r="B16" s="383"/>
       <c r="C16" s="334" t="s">
         <v>210</v>
       </c>
@@ -4416,11 +4425,11 @@
       <c r="F16" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="353"/>
+      <c r="H16" s="387"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="380"/>
-      <c r="B17" s="356"/>
+      <c r="A17" s="358"/>
+      <c r="B17" s="384"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4430,13 +4439,13 @@
       <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="353"/>
+      <c r="H17" s="387"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="381" t="s">
+      <c r="A18" s="359" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="357" t="s">
+      <c r="B18" s="385" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
@@ -4448,11 +4457,11 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="353"/>
+      <c r="H18" s="387"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="379"/>
-      <c r="B19" s="358"/>
+      <c r="A19" s="357"/>
+      <c r="B19" s="367"/>
       <c r="C19" s="334" t="s">
         <v>214</v>
       </c>
@@ -4462,11 +4471,11 @@
       <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="353"/>
+      <c r="H19" s="387"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="380"/>
-      <c r="B20" s="359"/>
+      <c r="A20" s="358"/>
+      <c r="B20" s="386"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4476,13 +4485,13 @@
       <c r="F20" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="353"/>
+      <c r="H20" s="387"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="381" t="s">
+      <c r="A21" s="359" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="360" t="s">
+      <c r="B21" s="353" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4497,7 +4506,7 @@
       <c r="G21" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="353" t="s">
+      <c r="H21" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I21" t="s">
@@ -4508,8 +4517,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="379"/>
-      <c r="B22" s="361"/>
+      <c r="A22" s="357"/>
+      <c r="B22" s="354"/>
       <c r="C22" s="334" t="s">
         <v>196</v>
       </c>
@@ -4519,7 +4528,7 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="353"/>
+      <c r="H22" s="387"/>
       <c r="I22" t="s">
         <v>252</v>
       </c>
@@ -4528,8 +4537,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="379"/>
-      <c r="B23" s="362"/>
+      <c r="A23" s="357"/>
+      <c r="B23" s="370"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4539,7 +4548,7 @@
       <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="353"/>
+      <c r="H23" s="387"/>
       <c r="I23" t="s">
         <v>253</v>
       </c>
@@ -4548,8 +4557,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="379"/>
-      <c r="B24" s="363" t="s">
+      <c r="A24" s="357"/>
+      <c r="B24" s="369" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4564,7 +4573,7 @@
       <c r="G24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="353" t="s">
+      <c r="H24" s="387" t="s">
         <v>247</v>
       </c>
       <c r="I24" t="s">
@@ -4578,8 +4587,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="379"/>
-      <c r="B25" s="361"/>
+      <c r="A25" s="357"/>
+      <c r="B25" s="354"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4592,7 +4601,7 @@
       <c r="G25" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="353"/>
+      <c r="H25" s="387"/>
       <c r="I25" t="s">
         <v>250</v>
       </c>
@@ -4601,8 +4610,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="379"/>
-      <c r="B26" s="362"/>
+      <c r="A26" s="357"/>
+      <c r="B26" s="370"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4615,7 +4624,7 @@
       <c r="G26" t="s">
         <v>233</v>
       </c>
-      <c r="H26" s="353"/>
+      <c r="H26" s="387"/>
       <c r="I26" t="s">
         <v>250</v>
       </c>
@@ -4624,8 +4633,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="379"/>
-      <c r="B27" s="364" t="s">
+      <c r="A27" s="357"/>
+      <c r="B27" s="366" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4637,13 +4646,19 @@
       <c r="F27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="353" t="s">
+      <c r="H27" s="387" t="s">
         <v>247</v>
       </c>
+      <c r="I27" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="379"/>
-      <c r="B28" s="358"/>
+      <c r="A28" s="357"/>
+      <c r="B28" s="367"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4653,11 +4668,17 @@
       <c r="F28" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="353"/>
+      <c r="H28" s="387"/>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="379"/>
-      <c r="B29" s="365"/>
+      <c r="A29" s="357"/>
+      <c r="B29" s="368"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4667,11 +4688,17 @@
       <c r="F29" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="353"/>
+      <c r="H29" s="387"/>
+      <c r="I29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="379"/>
-      <c r="B30" s="363" t="s">
+      <c r="A30" s="357"/>
+      <c r="B30" s="369" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4683,13 +4710,19 @@
       <c r="F30" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="353" t="s">
+      <c r="H30" s="387" t="s">
         <v>247</v>
       </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="379"/>
-      <c r="B31" s="361"/>
+      <c r="A31" s="357"/>
+      <c r="B31" s="354"/>
       <c r="C31" s="334" t="s">
         <v>216</v>
       </c>
@@ -4702,11 +4735,17 @@
       <c r="G31" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="353"/>
+      <c r="H31" s="387"/>
+      <c r="I31" t="s">
+        <v>251</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="380"/>
-      <c r="B32" s="374"/>
+      <c r="A32" s="358"/>
+      <c r="B32" s="355"/>
       <c r="C32" s="337" t="s">
         <v>197</v>
       </c>
@@ -4716,13 +4755,19 @@
       <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="353"/>
+      <c r="H32" s="387"/>
+      <c r="I32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="382" t="s">
+      <c r="A33" s="360" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="360" t="s">
+      <c r="B33" s="353" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4734,13 +4779,13 @@
       <c r="F33" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="353" t="s">
+      <c r="H33" s="387" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="383"/>
-      <c r="B34" s="361"/>
+      <c r="A34" s="361"/>
+      <c r="B34" s="354"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4750,11 +4795,11 @@
       <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="353"/>
+      <c r="H34" s="387"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="383"/>
-      <c r="B35" s="362"/>
+      <c r="A35" s="361"/>
+      <c r="B35" s="370"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
@@ -4767,11 +4812,11 @@
       <c r="G35" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="353"/>
+      <c r="H35" s="387"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="383"/>
-      <c r="B36" s="363" t="s">
+      <c r="A36" s="361"/>
+      <c r="B36" s="369" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
@@ -4783,13 +4828,13 @@
       <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="353" t="s">
+      <c r="H36" s="387" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="383"/>
-      <c r="B37" s="361"/>
+      <c r="A37" s="361"/>
+      <c r="B37" s="354"/>
       <c r="C37" s="334" t="s">
         <v>215</v>
       </c>
@@ -4799,11 +4844,11 @@
       <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="353"/>
+      <c r="H37" s="387"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="383"/>
-      <c r="B38" s="362"/>
+      <c r="A38" s="361"/>
+      <c r="B38" s="370"/>
       <c r="C38" s="333" t="s">
         <v>199</v>
       </c>
@@ -4813,11 +4858,11 @@
       <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="353"/>
+      <c r="H38" s="387"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="383"/>
-      <c r="B39" s="363" t="s">
+      <c r="A39" s="361"/>
+      <c r="B39" s="369" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4832,13 +4877,13 @@
       <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="353" t="s">
+      <c r="H39" s="387" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="383"/>
-      <c r="B40" s="361"/>
+      <c r="A40" s="361"/>
+      <c r="B40" s="354"/>
       <c r="C40" s="334" t="s">
         <v>200</v>
       </c>
@@ -4851,11 +4896,11 @@
       <c r="G40" t="s">
         <v>235</v>
       </c>
-      <c r="H40" s="353"/>
+      <c r="H40" s="387"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="383"/>
-      <c r="B41" s="362"/>
+      <c r="A41" s="361"/>
+      <c r="B41" s="370"/>
       <c r="C41" s="333" t="s">
         <v>236</v>
       </c>
@@ -4868,11 +4913,11 @@
       <c r="G41" t="s">
         <v>248</v>
       </c>
-      <c r="H41" s="353"/>
+      <c r="H41" s="387"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="383"/>
-      <c r="B42" s="363" t="s">
+      <c r="A42" s="361"/>
+      <c r="B42" s="369" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="334" t="s">
@@ -4884,13 +4929,13 @@
       <c r="F42" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="353" t="s">
+      <c r="H42" s="387" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="383"/>
-      <c r="B43" s="361"/>
+      <c r="A43" s="361"/>
+      <c r="B43" s="354"/>
       <c r="C43" s="334" t="s">
         <v>197</v>
       </c>
@@ -4900,11 +4945,11 @@
       <c r="F43" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="353"/>
+      <c r="H43" s="387"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="384"/>
-      <c r="B44" s="374"/>
+      <c r="A44" s="362"/>
+      <c r="B44" s="355"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4914,13 +4959,13 @@
       <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="353"/>
+      <c r="H44" s="387"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="381" t="s">
+      <c r="A45" s="359" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="360" t="s">
+      <c r="B45" s="353" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4932,11 +4977,11 @@
       <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="353"/>
+      <c r="H45" s="387"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="379"/>
-      <c r="B46" s="361"/>
+      <c r="A46" s="357"/>
+      <c r="B46" s="354"/>
       <c r="C46" s="334" t="s">
         <v>228</v>
       </c>
@@ -4946,11 +4991,11 @@
       <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="353"/>
+      <c r="H46" s="387"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="379"/>
-      <c r="B47" s="362"/>
+      <c r="A47" s="357"/>
+      <c r="B47" s="370"/>
       <c r="C47" s="333" t="s">
         <v>209</v>
       </c>
@@ -4960,11 +5005,11 @@
       <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="353"/>
+      <c r="H47" s="387"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="379"/>
-      <c r="B48" s="363" t="s">
+      <c r="A48" s="357"/>
+      <c r="B48" s="369" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
@@ -4979,11 +5024,11 @@
       <c r="G48" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="353"/>
+      <c r="H48" s="387"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="379"/>
-      <c r="B49" s="361"/>
+      <c r="A49" s="357"/>
+      <c r="B49" s="354"/>
       <c r="C49" s="334" t="s">
         <v>175</v>
       </c>
@@ -4993,11 +5038,11 @@
       <c r="F49" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="353"/>
+      <c r="H49" s="387"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="379"/>
-      <c r="B50" s="362"/>
+      <c r="A50" s="357"/>
+      <c r="B50" s="370"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -5007,11 +5052,11 @@
       <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="353"/>
+      <c r="H50" s="387"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="379"/>
-      <c r="B51" s="363" t="s">
+      <c r="A51" s="357"/>
+      <c r="B51" s="369" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -5023,11 +5068,11 @@
       <c r="F51" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="353"/>
+      <c r="H51" s="387"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="379"/>
-      <c r="B52" s="361"/>
+      <c r="A52" s="357"/>
+      <c r="B52" s="354"/>
       <c r="C52" s="334" t="s">
         <v>201</v>
       </c>
@@ -5040,11 +5085,11 @@
       <c r="G52" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="353"/>
+      <c r="H52" s="387"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="379"/>
-      <c r="B53" s="362"/>
+      <c r="A53" s="357"/>
+      <c r="B53" s="370"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
@@ -5054,11 +5099,11 @@
       <c r="F53" t="s">
         <v>188</v>
       </c>
-      <c r="H53" s="353"/>
+      <c r="H53" s="387"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="379"/>
-      <c r="B54" s="363" t="s">
+      <c r="A54" s="357"/>
+      <c r="B54" s="369" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
@@ -5073,11 +5118,11 @@
       <c r="G54" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="353"/>
+      <c r="H54" s="387"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="379"/>
-      <c r="B55" s="361"/>
+      <c r="A55" s="357"/>
+      <c r="B55" s="354"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -5087,11 +5132,11 @@
       <c r="F55" t="s">
         <v>188</v>
       </c>
-      <c r="H55" s="353"/>
+      <c r="H55" s="387"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="380"/>
-      <c r="B56" s="374"/>
+      <c r="A56" s="358"/>
+      <c r="B56" s="355"/>
       <c r="C56" s="337" t="s">
         <v>226</v>
       </c>
@@ -5104,13 +5149,13 @@
       <c r="G56" t="s">
         <v>238</v>
       </c>
-      <c r="H56" s="353"/>
+      <c r="H56" s="387"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="385" t="s">
+      <c r="A57" s="363" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="375" t="s">
+      <c r="B57" s="371" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -5122,11 +5167,11 @@
       <c r="F57" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="353"/>
+      <c r="H57" s="387"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="386"/>
-      <c r="B58" s="376"/>
+      <c r="A58" s="364"/>
+      <c r="B58" s="372"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -5139,11 +5184,11 @@
       <c r="F58" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="353"/>
+      <c r="H58" s="387"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="386"/>
-      <c r="B59" s="377"/>
+      <c r="A59" s="364"/>
+      <c r="B59" s="373"/>
       <c r="C59" s="333" t="s">
         <v>228</v>
       </c>
@@ -5153,11 +5198,11 @@
       <c r="F59" t="s">
         <v>188</v>
       </c>
-      <c r="H59" s="353"/>
+      <c r="H59" s="387"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="386"/>
-      <c r="B60" s="364" t="s">
+      <c r="A60" s="364"/>
+      <c r="B60" s="366" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -5172,11 +5217,11 @@
       <c r="F60" t="s">
         <v>188</v>
       </c>
-      <c r="H60" s="353"/>
+      <c r="H60" s="387"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="386"/>
-      <c r="B61" s="358"/>
+      <c r="A61" s="364"/>
+      <c r="B61" s="367"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -5186,11 +5231,11 @@
       <c r="F61" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="353"/>
+      <c r="H61" s="387"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="386"/>
-      <c r="B62" s="365"/>
+      <c r="A62" s="364"/>
+      <c r="B62" s="368"/>
       <c r="C62" s="333" t="s">
         <v>237</v>
       </c>
@@ -5203,11 +5248,11 @@
       <c r="G62" t="s">
         <v>243</v>
       </c>
-      <c r="H62" s="353"/>
+      <c r="H62" s="387"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="386"/>
-      <c r="B63" s="363" t="s">
+      <c r="A63" s="364"/>
+      <c r="B63" s="369" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -5219,11 +5264,11 @@
       <c r="F63" t="s">
         <v>188</v>
       </c>
-      <c r="H63" s="353"/>
+      <c r="H63" s="387"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="386"/>
-      <c r="B64" s="361"/>
+      <c r="A64" s="364"/>
+      <c r="B64" s="354"/>
       <c r="C64" s="334" t="s">
         <v>225</v>
       </c>
@@ -5236,11 +5281,11 @@
       <c r="F64" t="s">
         <v>188</v>
       </c>
-      <c r="H64" s="353"/>
+      <c r="H64" s="387"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="386"/>
-      <c r="B65" s="362"/>
+      <c r="A65" s="364"/>
+      <c r="B65" s="370"/>
       <c r="C65" s="333" t="s">
         <v>209</v>
       </c>
@@ -5250,11 +5295,11 @@
       <c r="F65" t="s">
         <v>188</v>
       </c>
-      <c r="H65" s="353"/>
+      <c r="H65" s="387"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="386"/>
-      <c r="B66" s="363" t="s">
+      <c r="A66" s="364"/>
+      <c r="B66" s="369" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
@@ -5266,11 +5311,11 @@
       <c r="F66" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="353"/>
+      <c r="H66" s="387"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="386"/>
-      <c r="B67" s="361"/>
+      <c r="A67" s="364"/>
+      <c r="B67" s="354"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -5283,11 +5328,11 @@
       <c r="F67" t="s">
         <v>188</v>
       </c>
-      <c r="H67" s="353"/>
+      <c r="H67" s="387"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="387"/>
-      <c r="B68" s="374"/>
+      <c r="A68" s="365"/>
+      <c r="B68" s="355"/>
       <c r="C68" s="334" t="s">
         <v>209</v>
       </c>
@@ -5297,13 +5342,13 @@
       <c r="F68" t="s">
         <v>188</v>
       </c>
-      <c r="H68" s="353"/>
+      <c r="H68" s="387"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="381" t="s">
+      <c r="A69" s="359" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="360" t="s">
+      <c r="B69" s="353" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5315,11 +5360,11 @@
       <c r="F69" t="s">
         <v>188</v>
       </c>
-      <c r="H69" s="353"/>
+      <c r="H69" s="387"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="379"/>
-      <c r="B70" s="361"/>
+      <c r="A70" s="357"/>
+      <c r="B70" s="354"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
@@ -5329,11 +5374,11 @@
       <c r="F70" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="353"/>
+      <c r="H70" s="387"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="380"/>
-      <c r="B71" s="374"/>
+      <c r="A71" s="358"/>
+      <c r="B71" s="355"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
@@ -5346,13 +5391,13 @@
       <c r="G71" t="s">
         <v>240</v>
       </c>
-      <c r="H71" s="353"/>
+      <c r="H71" s="387"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="382" t="s">
+      <c r="A72" s="360" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="360" t="s">
+      <c r="B72" s="353" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
@@ -5364,11 +5409,11 @@
       <c r="F72" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="353"/>
+      <c r="H72" s="387"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="383"/>
-      <c r="B73" s="361"/>
+      <c r="A73" s="361"/>
+      <c r="B73" s="354"/>
       <c r="C73" s="341" t="s">
         <v>206</v>
       </c>
@@ -5381,11 +5426,11 @@
       <c r="G73" t="s">
         <v>229</v>
       </c>
-      <c r="H73" s="353"/>
+      <c r="H73" s="387"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="383"/>
-      <c r="B74" s="361"/>
+      <c r="A74" s="361"/>
+      <c r="B74" s="354"/>
       <c r="C74" s="341" t="s">
         <v>223</v>
       </c>
@@ -5395,11 +5440,11 @@
       <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="H74" s="353"/>
+      <c r="H74" s="387"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="384"/>
-      <c r="B75" s="374"/>
+      <c r="A75" s="362"/>
+      <c r="B75" s="355"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
@@ -5412,13 +5457,13 @@
       <c r="G75" t="s">
         <v>241</v>
       </c>
-      <c r="H75" s="353"/>
+      <c r="H75" s="387"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="382" t="s">
+      <c r="A76" s="360" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="360" t="s">
+      <c r="B76" s="353" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
@@ -5433,11 +5478,11 @@
       <c r="F76" t="s">
         <v>188</v>
       </c>
-      <c r="H76" s="353"/>
+      <c r="H76" s="387"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="383"/>
-      <c r="B77" s="361"/>
+      <c r="A77" s="361"/>
+      <c r="B77" s="354"/>
       <c r="C77" s="341" t="s">
         <v>203</v>
       </c>
@@ -5447,11 +5492,11 @@
       <c r="F77" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="353"/>
+      <c r="H77" s="387"/>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="384"/>
-      <c r="B78" s="374"/>
+      <c r="A78" s="362"/>
+      <c r="B78" s="355"/>
       <c r="C78" s="335" t="s">
         <v>221</v>
       </c>
@@ -5461,10 +5506,55 @@
       <c r="F78" t="s">
         <v>188</v>
       </c>
-      <c r="H78" s="353"/>
+      <c r="H78" s="387"/>
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5481,51 +5571,6 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H76:H78"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5647,15 +5692,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="388" t="s">
+      <c r="A1" s="392" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="389"/>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
-      <c r="G1" s="390"/>
+      <c r="B1" s="393"/>
+      <c r="C1" s="393"/>
+      <c r="D1" s="393"/>
+      <c r="E1" s="393"/>
+      <c r="F1" s="393"/>
+      <c r="G1" s="394"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5685,7 +5730,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5698,7 +5743,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5709,7 +5754,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5720,7 +5765,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5733,7 +5778,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5757,7 +5802,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5770,7 +5815,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5781,7 +5826,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5794,7 +5839,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="406"/>
+      <c r="A12" s="390"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5805,7 +5850,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="407" t="s">
+      <c r="A13" s="391" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5818,7 +5863,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5829,7 +5874,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5851,19 +5896,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
-      <c r="B16" s="394" t="s">
+      <c r="A16" s="389"/>
+      <c r="B16" s="398" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="391" t="s">
+      <c r="C16" s="395" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="398"/>
-      <c r="G16" s="401"/>
+      <c r="F16" s="402"/>
+      <c r="G16" s="405"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5875,15 +5920,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="405"/>
-      <c r="B17" s="395"/>
-      <c r="C17" s="392"/>
+      <c r="A17" s="389"/>
+      <c r="B17" s="399"/>
+      <c r="C17" s="396"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="399"/>
-      <c r="G17" s="402"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="406"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5895,15 +5940,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
-      <c r="B18" s="395"/>
-      <c r="C18" s="392"/>
+      <c r="A18" s="389"/>
+      <c r="B18" s="399"/>
+      <c r="C18" s="396"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="402"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="406"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5915,15 +5960,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
-      <c r="B19" s="395"/>
-      <c r="C19" s="393"/>
+      <c r="A19" s="389"/>
+      <c r="B19" s="399"/>
+      <c r="C19" s="397"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="400"/>
-      <c r="G19" s="403"/>
+      <c r="F19" s="404"/>
+      <c r="G19" s="407"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5935,8 +5980,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
-      <c r="B20" s="396"/>
+      <c r="A20" s="389"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -5957,8 +6002,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="406"/>
-      <c r="B21" s="397"/>
+      <c r="A21" s="390"/>
+      <c r="B21" s="401"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -5979,7 +6024,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -6001,7 +6046,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -6021,7 +6066,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -6041,7 +6086,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="406"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -6052,7 +6097,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="404" t="s">
+      <c r="A26" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -6065,7 +6110,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -6076,7 +6121,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -6087,7 +6132,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="406"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6462,17 +6507,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6542,7 +6587,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6555,7 +6600,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6566,7 +6611,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6577,7 +6622,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="404" t="s">
+      <c r="A6" s="388" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6590,7 +6635,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6614,7 +6659,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="404" t="s">
+      <c r="A9" s="388" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6627,7 +6672,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -6638,45 +6683,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
-      <c r="B11" s="396"/>
+      <c r="A11" s="389"/>
+      <c r="B11" s="400"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
-      <c r="B12" s="396"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
-      <c r="B13" s="396"/>
+      <c r="A13" s="389"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="400"/>
-      <c r="G13" s="403"/>
+      <c r="F13" s="404"/>
+      <c r="G13" s="407"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="412"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6689,7 +6734,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6704,7 +6749,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="406"/>
+      <c r="A16" s="390"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6715,7 +6760,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="407" t="s">
+      <c r="A17" s="391" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6728,7 +6773,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6739,7 +6784,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6752,7 +6797,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="411" t="s">
         <v>32</v>
       </c>
@@ -6763,46 +6808,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="398"/>
-      <c r="G20" s="401"/>
+      <c r="F20" s="402"/>
+      <c r="G20" s="405"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="405"/>
-      <c r="B21" s="396"/>
+      <c r="A21" s="389"/>
+      <c r="B21" s="400"/>
       <c r="C21" s="414"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="399"/>
-      <c r="G21" s="402"/>
+      <c r="F21" s="403"/>
+      <c r="G21" s="406"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
-      <c r="B22" s="396"/>
+      <c r="A22" s="389"/>
+      <c r="B22" s="400"/>
       <c r="C22" s="414"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="399"/>
-      <c r="G22" s="402"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="406"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
-      <c r="B23" s="396"/>
+      <c r="A23" s="389"/>
+      <c r="B23" s="400"/>
       <c r="C23" s="415"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="400"/>
-      <c r="G23" s="403"/>
+      <c r="F23" s="404"/>
+      <c r="G23" s="407"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="405"/>
-      <c r="B24" s="396"/>
+      <c r="A24" s="389"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6814,8 +6859,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="405"/>
-      <c r="B25" s="396"/>
+      <c r="A25" s="389"/>
+      <c r="B25" s="400"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6827,7 +6872,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="406"/>
+      <c r="A26" s="390"/>
       <c r="B26" s="416"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6841,7 +6886,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="404" t="s">
+      <c r="A27" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6855,7 +6900,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6866,7 +6911,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="405"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6877,7 +6922,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="406"/>
+      <c r="A30" s="390"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6888,7 +6933,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="404" t="s">
+      <c r="A31" s="388" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6901,7 +6946,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="405"/>
+      <c r="A32" s="389"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6912,7 +6957,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="405"/>
+      <c r="A33" s="389"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6923,7 +6968,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="406"/>
+      <c r="A34" s="390"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7306,12 +7351,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -7321,6 +7360,12 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7390,7 +7435,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7403,7 +7448,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7414,7 +7459,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7425,7 +7470,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7438,7 +7483,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7462,7 +7507,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="405" t="s">
+      <c r="A9" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7475,7 +7520,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -7486,45 +7531,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="398"/>
-      <c r="G10" s="401"/>
+      <c r="F10" s="402"/>
+      <c r="G10" s="405"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
-      <c r="B11" s="396"/>
+      <c r="A11" s="389"/>
+      <c r="B11" s="400"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
-      <c r="B12" s="396"/>
+      <c r="A12" s="389"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="402"/>
+      <c r="F12" s="403"/>
+      <c r="G12" s="406"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
-      <c r="B13" s="396"/>
+      <c r="A13" s="389"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="400"/>
-      <c r="G13" s="403"/>
+      <c r="F13" s="404"/>
+      <c r="G13" s="407"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
-      <c r="B14" s="396"/>
+      <c r="A14" s="389"/>
+      <c r="B14" s="400"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7536,7 +7581,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="412"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7549,7 +7594,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7560,7 +7605,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="406"/>
+      <c r="A17" s="390"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7584,7 +7629,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7595,7 +7640,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7606,7 +7651,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="405"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7617,7 +7662,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="404" t="s">
+      <c r="A22" s="388" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7630,7 +7675,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7641,7 +7686,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7652,7 +7697,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="406"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7663,7 +7708,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="405" t="s">
+      <c r="A26" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7676,7 +7721,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7687,7 +7732,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7698,7 +7743,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="406"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -8102,17 +8147,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8186,7 +8231,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="404" t="s">
+      <c r="A3" s="388" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -8207,7 +8252,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -8218,8 +8263,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="405"/>
-      <c r="B5" s="418" t="s">
+      <c r="A5" s="389"/>
+      <c r="B5" s="426" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -8233,8 +8278,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="406"/>
-      <c r="B6" s="419"/>
+      <c r="A6" s="390"/>
+      <c r="B6" s="427"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8246,7 +8291,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="405" t="s">
+      <c r="A7" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8259,7 +8304,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="406"/>
+      <c r="A8" s="390"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8273,7 +8318,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="420" t="s">
+      <c r="B9" s="428" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8288,7 +8333,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="419"/>
+      <c r="B10" s="427"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8300,7 +8345,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="405" t="s">
+      <c r="A11" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8313,7 +8358,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="405"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8328,7 +8373,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="405"/>
+      <c r="A13" s="389"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8339,7 +8384,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="406"/>
+      <c r="A14" s="390"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8371,7 +8416,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="405"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8382,7 +8427,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="405"/>
+      <c r="A17" s="389"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8393,7 +8438,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="406"/>
+      <c r="A18" s="390"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8404,7 +8449,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="405" t="s">
+      <c r="A19" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8421,7 +8466,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8432,7 +8477,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="405"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="411" t="s">
         <v>81</v>
       </c>
@@ -8447,7 +8492,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="412"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8460,7 +8505,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="406"/>
+      <c r="A23" s="390"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8475,7 +8520,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="405" t="s">
+      <c r="A24" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8492,7 +8537,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="405"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8503,7 +8548,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="405"/>
+      <c r="A26" s="389"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8518,7 +8563,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="406"/>
+      <c r="A27" s="390"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8529,13 +8574,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="426" t="s">
+      <c r="A28" s="423" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="424" t="s">
+      <c r="B28" s="421" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="425" t="s">
+      <c r="C28" s="422" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8546,8 +8591,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="427"/>
-      <c r="B29" s="396"/>
+      <c r="A29" s="424"/>
+      <c r="B29" s="400"/>
       <c r="C29" s="414"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8557,8 +8602,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="427"/>
-      <c r="B30" s="396"/>
+      <c r="A30" s="424"/>
+      <c r="B30" s="400"/>
       <c r="C30" s="414"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8568,8 +8613,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="427"/>
-      <c r="B31" s="396"/>
+      <c r="A31" s="424"/>
+      <c r="B31" s="400"/>
       <c r="C31" s="415"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8579,8 +8624,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="427"/>
-      <c r="B32" s="396"/>
+      <c r="A32" s="424"/>
+      <c r="B32" s="400"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8592,7 +8637,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="428"/>
+      <c r="A33" s="425"/>
       <c r="B33" s="416"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8605,13 +8650,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="421" t="s">
+      <c r="A34" s="418" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="424" t="s">
+      <c r="B34" s="421" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="425" t="s">
+      <c r="C34" s="422" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8622,8 +8667,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="422"/>
-      <c r="B35" s="396"/>
+      <c r="A35" s="419"/>
+      <c r="B35" s="400"/>
       <c r="C35" s="414"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8633,8 +8678,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="422"/>
-      <c r="B36" s="396"/>
+      <c r="A36" s="419"/>
+      <c r="B36" s="400"/>
       <c r="C36" s="414"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8644,8 +8689,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="422"/>
-      <c r="B37" s="396"/>
+      <c r="A37" s="419"/>
+      <c r="B37" s="400"/>
       <c r="C37" s="415"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8655,8 +8700,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="422"/>
-      <c r="B38" s="396"/>
+      <c r="A38" s="419"/>
+      <c r="B38" s="400"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8668,8 +8713,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="422"/>
-      <c r="B39" s="396"/>
+      <c r="A39" s="419"/>
+      <c r="B39" s="400"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8681,8 +8726,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="422"/>
-      <c r="B40" s="396"/>
+      <c r="A40" s="419"/>
+      <c r="B40" s="400"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8694,8 +8739,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="422"/>
-      <c r="B41" s="396"/>
+      <c r="A41" s="419"/>
+      <c r="B41" s="400"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8707,7 +8752,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="423"/>
+      <c r="A42" s="420"/>
       <c r="B42" s="416"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8720,13 +8765,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="421" t="s">
+      <c r="A43" s="418" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="424" t="s">
+      <c r="B43" s="421" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="425" t="s">
+      <c r="C43" s="422" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8737,8 +8782,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="422"/>
-      <c r="B44" s="396"/>
+      <c r="A44" s="419"/>
+      <c r="B44" s="400"/>
       <c r="C44" s="414"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8748,8 +8793,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="422"/>
-      <c r="B45" s="396"/>
+      <c r="A45" s="419"/>
+      <c r="B45" s="400"/>
       <c r="C45" s="414"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8759,8 +8804,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="422"/>
-      <c r="B46" s="396"/>
+      <c r="A46" s="419"/>
+      <c r="B46" s="400"/>
       <c r="C46" s="415"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8770,8 +8815,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="422"/>
-      <c r="B47" s="396"/>
+      <c r="A47" s="419"/>
+      <c r="B47" s="400"/>
       <c r="C47" s="414" t="s">
         <v>133</v>
       </c>
@@ -8783,8 +8828,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="422"/>
-      <c r="B48" s="396"/>
+      <c r="A48" s="419"/>
+      <c r="B48" s="400"/>
       <c r="C48" s="414"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8794,8 +8839,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="422"/>
-      <c r="B49" s="396"/>
+      <c r="A49" s="419"/>
+      <c r="B49" s="400"/>
       <c r="C49" s="414"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8805,8 +8850,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="422"/>
-      <c r="B50" s="396"/>
+      <c r="A50" s="419"/>
+      <c r="B50" s="400"/>
       <c r="C50" s="415"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8816,8 +8861,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="422"/>
-      <c r="B51" s="396"/>
+      <c r="A51" s="419"/>
+      <c r="B51" s="400"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8829,7 +8874,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="423"/>
+      <c r="A52" s="420"/>
       <c r="B52" s="416"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -9226,6 +9271,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -9236,17 +9292,6 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9316,7 +9361,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9329,7 +9374,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9340,7 +9385,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9351,7 +9396,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9364,7 +9409,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9391,10 +9436,10 @@
       <c r="A9" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="396" t="s">
+      <c r="B9" s="400" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="392" t="s">
+      <c r="C9" s="396" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9406,40 +9451,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="431"/>
-      <c r="B10" s="396"/>
-      <c r="C10" s="392"/>
+      <c r="B10" s="400"/>
+      <c r="C10" s="396"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="402"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="406"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="431"/>
-      <c r="B11" s="396"/>
-      <c r="C11" s="392"/>
+      <c r="B11" s="400"/>
+      <c r="C11" s="396"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="431"/>
-      <c r="B12" s="396"/>
-      <c r="C12" s="393"/>
+      <c r="B12" s="400"/>
+      <c r="C12" s="397"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="400"/>
-      <c r="G12" s="403"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="407"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="431"/>
-      <c r="B13" s="396"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9512,7 +9557,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9523,7 +9568,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="405"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9536,7 +9581,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="406"/>
+      <c r="A21" s="390"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9547,7 +9592,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="405" t="s">
+      <c r="A22" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9560,7 +9605,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9571,7 +9616,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="405"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9582,7 +9627,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="406"/>
+      <c r="A25" s="390"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9593,7 +9638,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="405" t="s">
+      <c r="A26" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9606,7 +9651,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="405"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9617,7 +9662,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="405"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9628,7 +9673,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="406"/>
+      <c r="A29" s="390"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -9999,17 +10044,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10040,15 +10085,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="455" t="s">
+      <c r="A1" s="435" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="455"/>
-      <c r="C1" s="455"/>
-      <c r="D1" s="455"/>
-      <c r="E1" s="455"/>
-      <c r="F1" s="455"/>
-      <c r="G1" s="456"/>
+      <c r="B1" s="435"/>
+      <c r="C1" s="435"/>
+      <c r="D1" s="435"/>
+      <c r="E1" s="435"/>
+      <c r="F1" s="435"/>
+      <c r="G1" s="436"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10074,13 +10119,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="435" t="s">
+      <c r="A3" s="437" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="420" t="s">
+      <c r="B3" s="428" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="425" t="s">
+      <c r="C3" s="422" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -10091,8 +10136,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="436"/>
-      <c r="B4" s="441"/>
+      <c r="A4" s="438"/>
+      <c r="B4" s="440"/>
       <c r="C4" s="414"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -10102,8 +10147,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="436"/>
-      <c r="B5" s="441"/>
+      <c r="A5" s="438"/>
+      <c r="B5" s="440"/>
       <c r="C5" s="414"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -10113,8 +10158,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="436"/>
-      <c r="B6" s="441"/>
+      <c r="A6" s="438"/>
+      <c r="B6" s="440"/>
       <c r="C6" s="415"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -10124,8 +10169,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="436"/>
-      <c r="B7" s="441"/>
+      <c r="A7" s="438"/>
+      <c r="B7" s="440"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -10137,8 +10182,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="436"/>
-      <c r="B8" s="437"/>
+      <c r="A8" s="438"/>
+      <c r="B8" s="441"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -10150,8 +10195,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="436"/>
-      <c r="B9" s="418" t="s">
+      <c r="A9" s="438"/>
+      <c r="B9" s="426" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="413" t="s">
@@ -10160,137 +10205,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="398"/>
-      <c r="F9" s="398"/>
-      <c r="G9" s="401"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="402"/>
+      <c r="G9" s="405"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="436"/>
-      <c r="B10" s="441"/>
+      <c r="A10" s="438"/>
+      <c r="B10" s="440"/>
       <c r="C10" s="414"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="399"/>
-      <c r="F10" s="399"/>
-      <c r="G10" s="402"/>
+      <c r="E10" s="403"/>
+      <c r="F10" s="403"/>
+      <c r="G10" s="406"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="436"/>
-      <c r="B11" s="441"/>
+      <c r="A11" s="438"/>
+      <c r="B11" s="440"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="399"/>
-      <c r="F11" s="399"/>
-      <c r="G11" s="402"/>
+      <c r="E11" s="403"/>
+      <c r="F11" s="403"/>
+      <c r="G11" s="406"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="436"/>
-      <c r="B12" s="441"/>
+      <c r="A12" s="438"/>
+      <c r="B12" s="440"/>
       <c r="C12" s="415"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="400"/>
-      <c r="F12" s="400"/>
-      <c r="G12" s="403"/>
+      <c r="E12" s="404"/>
+      <c r="F12" s="404"/>
+      <c r="G12" s="407"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="436"/>
-      <c r="B13" s="441"/>
+      <c r="A13" s="438"/>
+      <c r="B13" s="440"/>
       <c r="C13" s="414" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="399"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="402"/>
+      <c r="E13" s="403"/>
+      <c r="F13" s="403"/>
+      <c r="G13" s="406"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="436"/>
-      <c r="B14" s="441"/>
+      <c r="A14" s="438"/>
+      <c r="B14" s="440"/>
       <c r="C14" s="414"/>
       <c r="D14" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="399"/>
-      <c r="F14" s="399"/>
-      <c r="G14" s="402"/>
+      <c r="E14" s="403"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="406"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="436"/>
-      <c r="B15" s="441"/>
+      <c r="A15" s="438"/>
+      <c r="B15" s="440"/>
       <c r="C15" s="414"/>
       <c r="D15" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="399"/>
-      <c r="F15" s="399"/>
-      <c r="G15" s="402"/>
+      <c r="E15" s="403"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="406"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="436"/>
-      <c r="B16" s="441"/>
+      <c r="A16" s="438"/>
+      <c r="B16" s="440"/>
       <c r="C16" s="415"/>
       <c r="D16" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="400"/>
-      <c r="F16" s="400"/>
-      <c r="G16" s="403"/>
+      <c r="E16" s="404"/>
+      <c r="F16" s="404"/>
+      <c r="G16" s="407"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="436"/>
-      <c r="B17" s="441"/>
+      <c r="A17" s="438"/>
+      <c r="B17" s="440"/>
       <c r="C17" s="414" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="399"/>
-      <c r="F17" s="399"/>
-      <c r="G17" s="402"/>
+      <c r="E17" s="403"/>
+      <c r="F17" s="403"/>
+      <c r="G17" s="406"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="436"/>
-      <c r="B18" s="441"/>
+      <c r="A18" s="438"/>
+      <c r="B18" s="440"/>
       <c r="C18" s="414"/>
       <c r="D18" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="402"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="406"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="436"/>
-      <c r="B19" s="441"/>
+      <c r="A19" s="438"/>
+      <c r="B19" s="440"/>
       <c r="C19" s="414"/>
       <c r="D19" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="399"/>
-      <c r="F19" s="399"/>
-      <c r="G19" s="402"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="406"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="436"/>
-      <c r="B20" s="441"/>
-      <c r="C20" s="444"/>
+      <c r="A20" s="438"/>
+      <c r="B20" s="440"/>
+      <c r="C20" s="442"/>
       <c r="D20" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="448"/>
-      <c r="F20" s="448"/>
-      <c r="G20" s="442"/>
+      <c r="E20" s="443"/>
+      <c r="F20" s="443"/>
+      <c r="G20" s="444"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="443"/>
+      <c r="A21" s="439"/>
       <c r="B21" s="281" t="s">
         <v>20</v>
       </c>
@@ -10301,10 +10346,10 @@
       <c r="G21" s="53"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="449" t="s">
+      <c r="A22" s="445" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="420" t="s">
+      <c r="B22" s="428" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="293" t="s">
@@ -10316,8 +10361,8 @@
       <c r="G22" s="295"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="450"/>
-      <c r="B23" s="441"/>
+      <c r="A23" s="446"/>
+      <c r="B23" s="440"/>
       <c r="C23" s="212" t="s">
         <v>54</v>
       </c>
@@ -10327,54 +10372,54 @@
       <c r="G23" s="297"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="450"/>
-      <c r="B24" s="441"/>
+      <c r="A24" s="446"/>
+      <c r="B24" s="440"/>
       <c r="C24" s="414" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="399"/>
-      <c r="F24" s="399"/>
-      <c r="G24" s="402"/>
+      <c r="E24" s="403"/>
+      <c r="F24" s="403"/>
+      <c r="G24" s="406"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="450"/>
-      <c r="B25" s="441"/>
+      <c r="A25" s="446"/>
+      <c r="B25" s="440"/>
       <c r="C25" s="414"/>
       <c r="D25" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="399"/>
-      <c r="F25" s="399"/>
-      <c r="G25" s="402"/>
+      <c r="E25" s="403"/>
+      <c r="F25" s="403"/>
+      <c r="G25" s="406"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="450"/>
-      <c r="B26" s="441"/>
+      <c r="A26" s="446"/>
+      <c r="B26" s="440"/>
       <c r="C26" s="414"/>
       <c r="D26" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="399"/>
-      <c r="F26" s="399"/>
-      <c r="G26" s="402"/>
+      <c r="E26" s="403"/>
+      <c r="F26" s="403"/>
+      <c r="G26" s="406"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="450"/>
-      <c r="B27" s="437"/>
-      <c r="C27" s="444"/>
+      <c r="A27" s="446"/>
+      <c r="B27" s="441"/>
+      <c r="C27" s="442"/>
       <c r="D27" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="448"/>
-      <c r="F27" s="448"/>
-      <c r="G27" s="442"/>
+      <c r="E27" s="443"/>
+      <c r="F27" s="443"/>
+      <c r="G27" s="444"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="450"/>
-      <c r="B28" s="441" t="s">
+      <c r="A28" s="446"/>
+      <c r="B28" s="440" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="178" t="s">
@@ -10386,50 +10431,50 @@
       <c r="G28" s="299"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="450"/>
-      <c r="B29" s="441"/>
+      <c r="A29" s="446"/>
+      <c r="B29" s="440"/>
       <c r="C29" s="414" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="399"/>
-      <c r="F29" s="399"/>
-      <c r="G29" s="402"/>
+      <c r="E29" s="403"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="406"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="450"/>
-      <c r="B30" s="441"/>
+      <c r="A30" s="446"/>
+      <c r="B30" s="440"/>
       <c r="C30" s="414"/>
       <c r="D30" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="399"/>
-      <c r="F30" s="399"/>
-      <c r="G30" s="402"/>
+      <c r="E30" s="403"/>
+      <c r="F30" s="403"/>
+      <c r="G30" s="406"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="450"/>
-      <c r="B31" s="441"/>
+      <c r="A31" s="446"/>
+      <c r="B31" s="440"/>
       <c r="C31" s="414"/>
       <c r="D31" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="399"/>
-      <c r="F31" s="399"/>
-      <c r="G31" s="402"/>
+      <c r="E31" s="403"/>
+      <c r="F31" s="403"/>
+      <c r="G31" s="406"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="451"/>
-      <c r="B32" s="419"/>
-      <c r="C32" s="452"/>
+      <c r="A32" s="447"/>
+      <c r="B32" s="427"/>
+      <c r="C32" s="448"/>
       <c r="D32" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="E32" s="453"/>
-      <c r="F32" s="453"/>
-      <c r="G32" s="454"/>
+      <c r="E32" s="449"/>
+      <c r="F32" s="449"/>
+      <c r="G32" s="450"/>
     </row>
     <row r="33" spans="1:7" s="79" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="315" t="s">
@@ -10445,10 +10490,10 @@
       <c r="G33" s="58"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="435" t="s">
+      <c r="A34" s="437" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="445" t="s">
+      <c r="B34" s="451" t="s">
         <v>72</v>
       </c>
       <c r="C34" s="293" t="s">
@@ -10460,8 +10505,8 @@
       <c r="G34" s="300"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="436"/>
-      <c r="B35" s="446"/>
+      <c r="A35" s="438"/>
+      <c r="B35" s="452"/>
       <c r="C35" s="212" t="s">
         <v>55</v>
       </c>
@@ -10471,53 +10516,53 @@
       <c r="G35" s="301"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="436"/>
-      <c r="B36" s="446"/>
-      <c r="C36" s="444" t="s">
+      <c r="A36" s="438"/>
+      <c r="B36" s="452"/>
+      <c r="C36" s="442" t="s">
         <v>57</v>
       </c>
       <c r="D36" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="399"/>
-      <c r="F36" s="399"/>
-      <c r="G36" s="402"/>
+      <c r="E36" s="403"/>
+      <c r="F36" s="403"/>
+      <c r="G36" s="406"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="436"/>
-      <c r="B37" s="446"/>
-      <c r="C37" s="447"/>
+      <c r="A37" s="438"/>
+      <c r="B37" s="452"/>
+      <c r="C37" s="453"/>
       <c r="D37" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="399"/>
-      <c r="F37" s="399"/>
-      <c r="G37" s="402"/>
+      <c r="E37" s="403"/>
+      <c r="F37" s="403"/>
+      <c r="G37" s="406"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="436"/>
-      <c r="B38" s="446"/>
-      <c r="C38" s="447"/>
+      <c r="A38" s="438"/>
+      <c r="B38" s="452"/>
+      <c r="C38" s="453"/>
       <c r="D38" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="399"/>
-      <c r="F38" s="399"/>
-      <c r="G38" s="402"/>
+      <c r="E38" s="403"/>
+      <c r="F38" s="403"/>
+      <c r="G38" s="406"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="436"/>
-      <c r="B39" s="446"/>
-      <c r="C39" s="447"/>
+      <c r="A39" s="438"/>
+      <c r="B39" s="452"/>
+      <c r="C39" s="453"/>
       <c r="D39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="448"/>
-      <c r="F39" s="448"/>
-      <c r="G39" s="442"/>
+      <c r="E39" s="443"/>
+      <c r="F39" s="443"/>
+      <c r="G39" s="444"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="436"/>
+      <c r="A40" s="438"/>
       <c r="B40" s="282" t="s">
         <v>73</v>
       </c>
@@ -10528,7 +10573,7 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="436"/>
+      <c r="A41" s="438"/>
       <c r="B41" s="282" t="s">
         <v>27</v>
       </c>
@@ -10539,7 +10584,7 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="443"/>
+      <c r="A42" s="439"/>
       <c r="B42" s="281" t="s">
         <v>74</v>
       </c>
@@ -10550,7 +10595,7 @@
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="435" t="s">
+      <c r="A43" s="437" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="283" t="s">
@@ -10563,8 +10608,8 @@
       <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="436"/>
-      <c r="B44" s="418" t="s">
+      <c r="A44" s="438"/>
+      <c r="B44" s="426" t="s">
         <v>76</v>
       </c>
       <c r="C44" s="178" t="s">
@@ -10576,8 +10621,8 @@
       <c r="G44" s="303"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="436"/>
-      <c r="B45" s="441"/>
+      <c r="A45" s="438"/>
+      <c r="B45" s="440"/>
       <c r="C45" s="212" t="s">
         <v>53</v>
       </c>
@@ -10587,8 +10632,8 @@
       <c r="G45" s="301"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="436"/>
-      <c r="B46" s="441"/>
+      <c r="A46" s="438"/>
+      <c r="B46" s="440"/>
       <c r="C46" s="212" t="s">
         <v>54</v>
       </c>
@@ -10598,8 +10643,8 @@
       <c r="G46" s="301"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="436"/>
-      <c r="B47" s="441"/>
+      <c r="A47" s="438"/>
+      <c r="B47" s="440"/>
       <c r="C47" s="414" t="s">
         <v>58</v>
       </c>
@@ -10611,8 +10656,8 @@
       <c r="G47" s="306"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="436"/>
-      <c r="B48" s="441"/>
+      <c r="A48" s="438"/>
+      <c r="B48" s="440"/>
       <c r="C48" s="414"/>
       <c r="D48" s="305" t="s">
         <v>66</v>
@@ -10622,8 +10667,8 @@
       <c r="G48" s="306"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="436"/>
-      <c r="B49" s="441"/>
+      <c r="A49" s="438"/>
+      <c r="B49" s="440"/>
       <c r="C49" s="414"/>
       <c r="D49" s="305" t="s">
         <v>67</v>
@@ -10633,9 +10678,9 @@
       <c r="G49" s="306"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="436"/>
-      <c r="B50" s="437"/>
-      <c r="C50" s="444"/>
+      <c r="A50" s="438"/>
+      <c r="B50" s="441"/>
+      <c r="C50" s="442"/>
       <c r="D50" s="307" t="s">
         <v>98</v>
       </c>
@@ -10644,8 +10689,8 @@
       <c r="G50" s="308"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="436"/>
-      <c r="B51" s="418" t="s">
+      <c r="A51" s="438"/>
+      <c r="B51" s="426" t="s">
         <v>77</v>
       </c>
       <c r="C51" s="413" t="s">
@@ -10659,8 +10704,8 @@
       <c r="G51" s="310"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="436"/>
-      <c r="B52" s="441"/>
+      <c r="A52" s="438"/>
+      <c r="B52" s="440"/>
       <c r="C52" s="414"/>
       <c r="D52" s="305" t="s">
         <v>66</v>
@@ -10670,8 +10715,8 @@
       <c r="G52" s="306"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="436"/>
-      <c r="B53" s="441"/>
+      <c r="A53" s="438"/>
+      <c r="B53" s="440"/>
       <c r="C53" s="414"/>
       <c r="D53" s="305" t="s">
         <v>67</v>
@@ -10681,8 +10726,8 @@
       <c r="G53" s="306"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="436"/>
-      <c r="B54" s="441"/>
+      <c r="A54" s="438"/>
+      <c r="B54" s="440"/>
       <c r="C54" s="415"/>
       <c r="D54" s="152" t="s">
         <v>98</v>
@@ -10692,8 +10737,8 @@
       <c r="G54" s="311"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="436"/>
-      <c r="B55" s="441"/>
+      <c r="A55" s="438"/>
+      <c r="B55" s="440"/>
       <c r="C55" s="212" t="s">
         <v>58</v>
       </c>
@@ -10703,8 +10748,8 @@
       <c r="G55" s="301"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="436"/>
-      <c r="B56" s="437"/>
+      <c r="A56" s="438"/>
+      <c r="B56" s="441"/>
       <c r="C56" s="265" t="s">
         <v>57</v>
       </c>
@@ -10714,8 +10759,8 @@
       <c r="G56" s="308"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="436"/>
-      <c r="B57" s="441" t="s">
+      <c r="A57" s="438"/>
+      <c r="B57" s="440" t="s">
         <v>78</v>
       </c>
       <c r="C57" s="178" t="s">
@@ -10727,8 +10772,8 @@
       <c r="G57" s="303"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="436"/>
-      <c r="B58" s="441"/>
+      <c r="A58" s="438"/>
+      <c r="B58" s="440"/>
       <c r="C58" s="212" t="s">
         <v>56</v>
       </c>
@@ -10738,8 +10783,8 @@
       <c r="G58" s="301"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="443"/>
-      <c r="B59" s="419"/>
+      <c r="A59" s="439"/>
+      <c r="B59" s="427"/>
       <c r="C59" s="231" t="s">
         <v>70</v>
       </c>
@@ -10749,7 +10794,7 @@
       <c r="G59" s="313"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="435" t="s">
+      <c r="A60" s="437" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="284" t="s">
@@ -10762,8 +10807,8 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="436"/>
-      <c r="B61" s="418" t="s">
+      <c r="A61" s="438"/>
+      <c r="B61" s="426" t="s">
         <v>80</v>
       </c>
       <c r="C61" s="178" t="s">
@@ -10775,8 +10820,8 @@
       <c r="G61" s="303"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="436"/>
-      <c r="B62" s="437"/>
+      <c r="A62" s="438"/>
+      <c r="B62" s="441"/>
       <c r="C62" s="265" t="s">
         <v>54</v>
       </c>
@@ -10786,7 +10831,7 @@
       <c r="G62" s="308"/>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="436"/>
+      <c r="A63" s="438"/>
       <c r="B63" s="314" t="s">
         <v>142</v>
       </c>
@@ -10797,7 +10842,7 @@
       <c r="G63" s="71"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="436"/>
+      <c r="A64" s="438"/>
       <c r="B64" s="285" t="s">
         <v>82</v>
       </c>
@@ -10808,7 +10853,7 @@
       <c r="G64" s="73"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="438" t="s">
+      <c r="A65" s="454" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="286" t="s">
@@ -10821,8 +10866,8 @@
       <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="439"/>
-      <c r="B66" s="418" t="s">
+      <c r="A66" s="455"/>
+      <c r="B66" s="426" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="178" t="s">
@@ -10834,8 +10879,8 @@
       <c r="G66" s="303"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="439"/>
-      <c r="B67" s="441"/>
+      <c r="A67" s="455"/>
+      <c r="B67" s="440"/>
       <c r="C67" s="212" t="s">
         <v>53</v>
       </c>
@@ -10845,8 +10890,8 @@
       <c r="G67" s="301"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="439"/>
-      <c r="B68" s="437"/>
+      <c r="A68" s="455"/>
+      <c r="B68" s="441"/>
       <c r="C68" s="265" t="s">
         <v>54</v>
       </c>
@@ -10856,7 +10901,7 @@
       <c r="G68" s="308"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="439"/>
+      <c r="A69" s="455"/>
       <c r="B69" s="287" t="s">
         <v>84</v>
       </c>
@@ -10867,8 +10912,8 @@
       <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="439"/>
-      <c r="B70" s="418" t="s">
+      <c r="A70" s="455"/>
+      <c r="B70" s="426" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="178" t="s">
@@ -10880,8 +10925,8 @@
       <c r="G70" s="303"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="439"/>
-      <c r="B71" s="441"/>
+      <c r="A71" s="455"/>
+      <c r="B71" s="440"/>
       <c r="C71" s="212" t="s">
         <v>53</v>
       </c>
@@ -10891,8 +10936,8 @@
       <c r="G71" s="301"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="440"/>
-      <c r="B72" s="419"/>
+      <c r="A72" s="456"/>
+      <c r="B72" s="427"/>
       <c r="C72" s="231" t="s">
         <v>54</v>
       </c>
@@ -10942,6 +10987,35 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="G29:G32"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:A21"/>
@@ -10958,35 +11032,6 @@
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="E17:E20"/>
     <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A34:A42"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="A60:A64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B70:B72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11056,7 +11101,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="405" t="s">
+      <c r="A3" s="389" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="123" t="s">
@@ -11069,7 +11114,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="405"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="29" t="s">
         <v>21</v>
       </c>
@@ -11080,7 +11125,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="406"/>
+      <c r="A5" s="390"/>
       <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
@@ -11091,7 +11136,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="405" t="s">
+      <c r="A6" s="389" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="158" t="s">
@@ -11104,7 +11149,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
+      <c r="A7" s="390"/>
       <c r="B7" s="117" t="s">
         <v>23</v>
       </c>
@@ -11128,7 +11173,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="405" t="s">
+      <c r="A9" s="389" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="158" t="s">
@@ -11141,7 +11186,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="405"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="118" t="s">
         <v>26</v>
       </c>
@@ -11152,7 +11197,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="405"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="29" t="s">
         <v>27</v>
       </c>
@@ -11165,7 +11210,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="406"/>
+      <c r="A12" s="390"/>
       <c r="B12" s="117" t="s">
         <v>28</v>
       </c>
@@ -11189,7 +11234,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="405"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="118" t="s">
         <v>30</v>
       </c>
@@ -11200,7 +11245,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="405"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
@@ -11213,7 +11258,7 @@
       <c r="G15" s="112"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="406"/>
+      <c r="A16" s="390"/>
       <c r="B16" s="117" t="s">
         <v>32</v>
       </c>
@@ -11224,7 +11269,7 @@
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="405" t="s">
+      <c r="A17" s="389" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="158" t="s">
@@ -11237,7 +11282,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="405"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="118" t="s">
         <v>34</v>
       </c>
@@ -11248,7 +11293,7 @@
       <c r="G18" s="112"/>
     </row>
     <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="405"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="118" t="s">
         <v>35</v>
       </c>
@@ -11259,7 +11304,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="406"/>
+      <c r="A20" s="390"/>
       <c r="B20" s="117" t="s">
         <v>36</v>
       </c>
@@ -11270,7 +11315,7 @@
       <c r="G20" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="405" t="s">
+      <c r="A21" s="389" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="158" t="s">
@@ -11283,7 +11328,7 @@
       <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="405"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="29" t="s">
         <v>38</v>
       </c>
@@ -11294,7 +11339,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="405"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="118" t="s">
         <v>39</v>
       </c>
@@ -11305,7 +11350,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="406"/>
+      <c r="A24" s="390"/>
       <c r="B24" s="117" t="s">
         <v>40</v>
       </c>

--- a/SP 2019 Standards + Assessments Results.xlsx
+++ b/SP 2019 Standards + Assessments Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CB7F3E-764E-44C2-950D-7BD887C6976C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071FCCBB-D01A-4FB4-8042-9F918AC5D391}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="260">
   <si>
     <t>ENG 251</t>
   </si>
@@ -982,6 +982,12 @@
   </si>
   <si>
     <t>done (decided to not highlight anything in the samples but did highlight some part of the prompt)</t>
+  </si>
+  <si>
+    <t>ok (copied from 1.3)</t>
+  </si>
+  <si>
+    <t>done (just added a few highlighted grammar-related words to 1.3)</t>
   </si>
 </sst>
 </file>
@@ -2860,15 +2866,81 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2899,70 +2971,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2977,54 +3031,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3055,6 +3061,15 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3079,15 +3094,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3106,71 +3112,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4081,10 +4087,10 @@
   <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4101,11 +4107,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="366" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="376"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="368"/>
       <c r="F1" s="346"/>
       <c r="G1" s="346"/>
       <c r="M1" t="s">
@@ -4143,10 +4149,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="356" t="s">
+      <c r="A3" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="369" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="339" t="s">
@@ -4158,7 +4164,7 @@
       <c r="F3" t="s">
         <v>188</v>
       </c>
-      <c r="H3" s="387" t="s">
+      <c r="H3" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I3" t="s">
@@ -4169,8 +4175,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="357"/>
-      <c r="B4" s="378"/>
+      <c r="A4" s="379"/>
+      <c r="B4" s="370"/>
       <c r="C4" s="339" t="s">
         <v>189</v>
       </c>
@@ -4180,7 +4186,7 @@
       <c r="F4" t="s">
         <v>188</v>
       </c>
-      <c r="H4" s="387"/>
+      <c r="H4" s="353"/>
       <c r="I4" t="s">
         <v>250</v>
       </c>
@@ -4189,8 +4195,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="357"/>
-      <c r="B5" s="379"/>
+      <c r="A5" s="379"/>
+      <c r="B5" s="371"/>
       <c r="C5" s="336" t="s">
         <v>191</v>
       </c>
@@ -4203,7 +4209,7 @@
       <c r="G5" t="s">
         <v>211</v>
       </c>
-      <c r="H5" s="387"/>
+      <c r="H5" s="353"/>
       <c r="I5" t="s">
         <v>250</v>
       </c>
@@ -4212,8 +4218,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="357"/>
-      <c r="B6" s="377" t="s">
+      <c r="A6" s="379"/>
+      <c r="B6" s="369" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="340" t="s">
@@ -4228,7 +4234,7 @@
       <c r="G6" t="s">
         <v>218</v>
       </c>
-      <c r="H6" s="387" t="s">
+      <c r="H6" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I6" t="s">
@@ -4239,8 +4245,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="357"/>
-      <c r="B7" s="378"/>
+      <c r="A7" s="379"/>
+      <c r="B7" s="370"/>
       <c r="C7" s="341" t="s">
         <v>209</v>
       </c>
@@ -4250,7 +4256,7 @@
       <c r="F7" t="s">
         <v>188</v>
       </c>
-      <c r="H7" s="387"/>
+      <c r="H7" s="353"/>
       <c r="I7" t="s">
         <v>251</v>
       </c>
@@ -4259,8 +4265,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="357"/>
-      <c r="B8" s="379"/>
+      <c r="A8" s="379"/>
+      <c r="B8" s="371"/>
       <c r="C8" s="333" t="s">
         <v>164</v>
       </c>
@@ -4270,7 +4276,7 @@
       <c r="F8" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="387"/>
+      <c r="H8" s="353"/>
       <c r="I8" t="s">
         <v>250</v>
       </c>
@@ -4279,8 +4285,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="357"/>
-      <c r="B9" s="377" t="s">
+      <c r="A9" s="379"/>
+      <c r="B9" s="369" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="334" t="s">
@@ -4295,7 +4301,7 @@
       <c r="G9" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="387" t="s">
+      <c r="H9" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I9" t="s">
@@ -4306,8 +4312,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="357"/>
-      <c r="B10" s="378"/>
+      <c r="A10" s="379"/>
+      <c r="B10" s="370"/>
       <c r="C10" s="334" t="s">
         <v>212</v>
       </c>
@@ -4320,7 +4326,7 @@
       <c r="G10" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="387"/>
+      <c r="H10" s="353"/>
       <c r="I10" t="s">
         <v>250</v>
       </c>
@@ -4329,8 +4335,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="358"/>
-      <c r="B11" s="380"/>
+      <c r="A11" s="380"/>
+      <c r="B11" s="372"/>
       <c r="C11" s="337" t="s">
         <v>165</v>
       </c>
@@ -4340,7 +4346,7 @@
       <c r="F11" t="s">
         <v>188</v>
       </c>
-      <c r="H11" s="387"/>
+      <c r="H11" s="353"/>
       <c r="I11" t="s">
         <v>250</v>
       </c>
@@ -4349,10 +4355,10 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="359" t="s">
+      <c r="A12" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="381" t="s">
+      <c r="B12" s="373" t="s">
         <v>177</v>
       </c>
       <c r="C12" s="334" t="s">
@@ -4364,11 +4370,11 @@
       <c r="F12" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="387"/>
+      <c r="H12" s="353"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="357"/>
-      <c r="B13" s="378"/>
+      <c r="A13" s="379"/>
+      <c r="B13" s="370"/>
       <c r="C13" s="334" t="s">
         <v>165</v>
       </c>
@@ -4378,11 +4384,11 @@
       <c r="F13" t="s">
         <v>188</v>
       </c>
-      <c r="H13" s="387"/>
+      <c r="H13" s="353"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="357"/>
-      <c r="B14" s="379"/>
+      <c r="A14" s="379"/>
+      <c r="B14" s="371"/>
       <c r="C14" s="333" t="s">
         <v>195</v>
       </c>
@@ -4392,11 +4398,11 @@
       <c r="F14" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="387"/>
+      <c r="H14" s="353"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="357"/>
-      <c r="B15" s="382" t="s">
+      <c r="A15" s="379"/>
+      <c r="B15" s="354" t="s">
         <v>178</v>
       </c>
       <c r="C15" s="334" t="s">
@@ -4411,11 +4417,11 @@
       <c r="G15" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="387"/>
+      <c r="H15" s="353"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="357"/>
-      <c r="B16" s="383"/>
+      <c r="A16" s="379"/>
+      <c r="B16" s="355"/>
       <c r="C16" s="334" t="s">
         <v>210</v>
       </c>
@@ -4425,11 +4431,11 @@
       <c r="F16" t="s">
         <v>188</v>
       </c>
-      <c r="H16" s="387"/>
+      <c r="H16" s="353"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="358"/>
-      <c r="B17" s="384"/>
+      <c r="A17" s="380"/>
+      <c r="B17" s="356"/>
       <c r="C17" s="337" t="s">
         <v>165</v>
       </c>
@@ -4439,13 +4445,13 @@
       <c r="F17" t="s">
         <v>188</v>
       </c>
-      <c r="H17" s="387"/>
+      <c r="H17" s="353"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="359" t="s">
+      <c r="A18" s="381" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="385" t="s">
+      <c r="B18" s="357" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="334" t="s">
@@ -4457,11 +4463,11 @@
       <c r="F18" t="s">
         <v>188</v>
       </c>
-      <c r="H18" s="387"/>
+      <c r="H18" s="353"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="357"/>
-      <c r="B19" s="367"/>
+      <c r="A19" s="379"/>
+      <c r="B19" s="358"/>
       <c r="C19" s="334" t="s">
         <v>214</v>
       </c>
@@ -4471,11 +4477,11 @@
       <c r="F19" t="s">
         <v>188</v>
       </c>
-      <c r="H19" s="387"/>
+      <c r="H19" s="353"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="358"/>
-      <c r="B20" s="386"/>
+      <c r="A20" s="380"/>
+      <c r="B20" s="359"/>
       <c r="C20" s="337" t="s">
         <v>165</v>
       </c>
@@ -4485,13 +4491,13 @@
       <c r="F20" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="387"/>
+      <c r="H20" s="353"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="359" t="s">
+      <c r="A21" s="381" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="353" t="s">
+      <c r="B21" s="360" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="334" t="s">
@@ -4506,7 +4512,7 @@
       <c r="G21" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="387" t="s">
+      <c r="H21" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I21" t="s">
@@ -4517,8 +4523,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="357"/>
-      <c r="B22" s="354"/>
+      <c r="A22" s="379"/>
+      <c r="B22" s="361"/>
       <c r="C22" s="334" t="s">
         <v>196</v>
       </c>
@@ -4528,7 +4534,7 @@
       <c r="F22" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="387"/>
+      <c r="H22" s="353"/>
       <c r="I22" t="s">
         <v>252</v>
       </c>
@@ -4537,8 +4543,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="357"/>
-      <c r="B23" s="370"/>
+      <c r="A23" s="379"/>
+      <c r="B23" s="362"/>
       <c r="C23" s="333" t="s">
         <v>164</v>
       </c>
@@ -4548,7 +4554,7 @@
       <c r="F23" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="387"/>
+      <c r="H23" s="353"/>
       <c r="I23" t="s">
         <v>253</v>
       </c>
@@ -4557,8 +4563,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="357"/>
-      <c r="B24" s="369" t="s">
+      <c r="A24" s="379"/>
+      <c r="B24" s="363" t="s">
         <v>179</v>
       </c>
       <c r="C24" s="334" t="s">
@@ -4573,7 +4579,7 @@
       <c r="G24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" s="387" t="s">
+      <c r="H24" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I24" t="s">
@@ -4587,8 +4593,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="357"/>
-      <c r="B25" s="354"/>
+      <c r="A25" s="379"/>
+      <c r="B25" s="361"/>
       <c r="C25" s="334" t="s">
         <v>171</v>
       </c>
@@ -4601,7 +4607,7 @@
       <c r="G25" t="s">
         <v>232</v>
       </c>
-      <c r="H25" s="387"/>
+      <c r="H25" s="353"/>
       <c r="I25" t="s">
         <v>250</v>
       </c>
@@ -4610,8 +4616,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="357"/>
-      <c r="B26" s="370"/>
+      <c r="A26" s="379"/>
+      <c r="B26" s="362"/>
       <c r="C26" s="333" t="s">
         <v>166</v>
       </c>
@@ -4624,7 +4630,7 @@
       <c r="G26" t="s">
         <v>233</v>
       </c>
-      <c r="H26" s="387"/>
+      <c r="H26" s="353"/>
       <c r="I26" t="s">
         <v>250</v>
       </c>
@@ -4633,8 +4639,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="357"/>
-      <c r="B27" s="366" t="s">
+      <c r="A27" s="379"/>
+      <c r="B27" s="364" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="334" t="s">
@@ -4646,7 +4652,7 @@
       <c r="F27" t="s">
         <v>188</v>
       </c>
-      <c r="H27" s="387" t="s">
+      <c r="H27" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I27" t="s">
@@ -4657,8 +4663,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="357"/>
-      <c r="B28" s="367"/>
+      <c r="A28" s="379"/>
+      <c r="B28" s="358"/>
       <c r="C28" s="334" t="s">
         <v>171</v>
       </c>
@@ -4668,7 +4674,7 @@
       <c r="F28" t="s">
         <v>188</v>
       </c>
-      <c r="H28" s="387"/>
+      <c r="H28" s="353"/>
       <c r="I28" t="s">
         <v>250</v>
       </c>
@@ -4677,8 +4683,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="357"/>
-      <c r="B29" s="368"/>
+      <c r="A29" s="379"/>
+      <c r="B29" s="365"/>
       <c r="C29" s="333" t="s">
         <v>165</v>
       </c>
@@ -4688,7 +4694,7 @@
       <c r="F29" t="s">
         <v>188</v>
       </c>
-      <c r="H29" s="387"/>
+      <c r="H29" s="353"/>
       <c r="I29" t="s">
         <v>255</v>
       </c>
@@ -4697,8 +4703,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="357"/>
-      <c r="B30" s="369" t="s">
+      <c r="A30" s="379"/>
+      <c r="B30" s="363" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="334" t="s">
@@ -4710,7 +4716,7 @@
       <c r="F30" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="387" t="s">
+      <c r="H30" s="353" t="s">
         <v>247</v>
       </c>
       <c r="I30" t="s">
@@ -4721,8 +4727,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="357"/>
-      <c r="B31" s="354"/>
+      <c r="A31" s="379"/>
+      <c r="B31" s="361"/>
       <c r="C31" s="334" t="s">
         <v>216</v>
       </c>
@@ -4735,7 +4741,7 @@
       <c r="G31" t="s">
         <v>234</v>
       </c>
-      <c r="H31" s="387"/>
+      <c r="H31" s="353"/>
       <c r="I31" t="s">
         <v>251</v>
       </c>
@@ -4744,8 +4750,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="358"/>
-      <c r="B32" s="355"/>
+      <c r="A32" s="380"/>
+      <c r="B32" s="374"/>
       <c r="C32" s="337" t="s">
         <v>197</v>
       </c>
@@ -4755,7 +4761,7 @@
       <c r="F32" t="s">
         <v>188</v>
       </c>
-      <c r="H32" s="387"/>
+      <c r="H32" s="353"/>
       <c r="I32" t="s">
         <v>251</v>
       </c>
@@ -4763,11 +4769,11 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="360" t="s">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="382" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="353" t="s">
+      <c r="B33" s="360" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="334" t="s">
@@ -4779,13 +4785,19 @@
       <c r="F33" t="s">
         <v>188</v>
       </c>
-      <c r="H33" s="387" t="s">
+      <c r="H33" s="353" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="361"/>
-      <c r="B34" s="354"/>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="383"/>
+      <c r="B34" s="361"/>
       <c r="C34" s="334" t="s">
         <v>165</v>
       </c>
@@ -4795,11 +4807,17 @@
       <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="H34" s="387"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="361"/>
-      <c r="B35" s="370"/>
+      <c r="H34" s="353"/>
+      <c r="I34" t="s">
+        <v>258</v>
+      </c>
+      <c r="J34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="383"/>
+      <c r="B35" s="362"/>
       <c r="C35" s="333" t="s">
         <v>180</v>
       </c>
@@ -4812,11 +4830,17 @@
       <c r="G35" t="s">
         <v>249</v>
       </c>
-      <c r="H35" s="387"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="361"/>
-      <c r="B36" s="369" t="s">
+      <c r="H35" s="353"/>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="383"/>
+      <c r="B36" s="363" t="s">
         <v>181</v>
       </c>
       <c r="C36" s="334" t="s">
@@ -4828,13 +4852,19 @@
       <c r="F36" t="s">
         <v>188</v>
       </c>
-      <c r="H36" s="387" t="s">
+      <c r="H36" s="353" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="361"/>
-      <c r="B37" s="354"/>
+      <c r="I36" t="s">
+        <v>251</v>
+      </c>
+      <c r="J36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="383"/>
+      <c r="B37" s="361"/>
       <c r="C37" s="334" t="s">
         <v>215</v>
       </c>
@@ -4844,11 +4874,17 @@
       <c r="F37" t="s">
         <v>188</v>
       </c>
-      <c r="H37" s="387"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="361"/>
-      <c r="B38" s="370"/>
+      <c r="H37" s="353"/>
+      <c r="I37" t="s">
+        <v>250</v>
+      </c>
+      <c r="J37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="383"/>
+      <c r="B38" s="362"/>
       <c r="C38" s="333" t="s">
         <v>199</v>
       </c>
@@ -4858,11 +4894,17 @@
       <c r="F38" t="s">
         <v>188</v>
       </c>
-      <c r="H38" s="387"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="361"/>
-      <c r="B39" s="369" t="s">
+      <c r="H38" s="353"/>
+      <c r="I38" t="s">
+        <v>251</v>
+      </c>
+      <c r="J38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="383"/>
+      <c r="B39" s="363" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="334" t="s">
@@ -4877,13 +4919,19 @@
       <c r="F39" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="387" t="s">
+      <c r="H39" s="353" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="361"/>
-      <c r="B40" s="354"/>
+      <c r="I39" t="s">
+        <v>250</v>
+      </c>
+      <c r="J39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="383"/>
+      <c r="B40" s="361"/>
       <c r="C40" s="334" t="s">
         <v>200</v>
       </c>
@@ -4896,11 +4944,17 @@
       <c r="G40" t="s">
         <v>235</v>
       </c>
-      <c r="H40" s="387"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="361"/>
-      <c r="B41" s="370"/>
+      <c r="H40" s="353"/>
+      <c r="I40" t="s">
+        <v>250</v>
+      </c>
+      <c r="J40" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="383"/>
+      <c r="B41" s="362"/>
       <c r="C41" s="333" t="s">
         <v>236</v>
       </c>
@@ -4913,11 +4967,17 @@
       <c r="G41" t="s">
         <v>248</v>
       </c>
-      <c r="H41" s="387"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="361"/>
-      <c r="B42" s="369" t="s">
+      <c r="H41" s="353"/>
+      <c r="I41" t="s">
+        <v>250</v>
+      </c>
+      <c r="J41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="383"/>
+      <c r="B42" s="363" t="s">
         <v>182</v>
       </c>
       <c r="C42" s="334" t="s">
@@ -4929,13 +4989,13 @@
       <c r="F42" t="s">
         <v>188</v>
       </c>
-      <c r="H42" s="387" t="s">
+      <c r="H42" s="353" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="361"/>
-      <c r="B43" s="354"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="383"/>
+      <c r="B43" s="361"/>
       <c r="C43" s="334" t="s">
         <v>197</v>
       </c>
@@ -4945,11 +5005,11 @@
       <c r="F43" t="s">
         <v>188</v>
       </c>
-      <c r="H43" s="387"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="362"/>
-      <c r="B44" s="355"/>
+      <c r="H43" s="353"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="384"/>
+      <c r="B44" s="374"/>
       <c r="C44" s="337" t="s">
         <v>165</v>
       </c>
@@ -4959,13 +5019,13 @@
       <c r="F44" t="s">
         <v>188</v>
       </c>
-      <c r="H44" s="387"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="359" t="s">
+      <c r="H44" s="353"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="381" t="s">
         <v>183</v>
       </c>
-      <c r="B45" s="353" t="s">
+      <c r="B45" s="360" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="334" t="s">
@@ -4977,11 +5037,11 @@
       <c r="F45" t="s">
         <v>188</v>
       </c>
-      <c r="H45" s="387"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="357"/>
-      <c r="B46" s="354"/>
+      <c r="H45" s="353"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="379"/>
+      <c r="B46" s="361"/>
       <c r="C46" s="334" t="s">
         <v>228</v>
       </c>
@@ -4991,11 +5051,11 @@
       <c r="F46" t="s">
         <v>188</v>
       </c>
-      <c r="H46" s="387"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="357"/>
-      <c r="B47" s="370"/>
+      <c r="H46" s="353"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="379"/>
+      <c r="B47" s="362"/>
       <c r="C47" s="333" t="s">
         <v>209</v>
       </c>
@@ -5005,11 +5065,11 @@
       <c r="F47" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="387"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="357"/>
-      <c r="B48" s="369" t="s">
+      <c r="H47" s="353"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="379"/>
+      <c r="B48" s="363" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="338" t="s">
@@ -5024,11 +5084,11 @@
       <c r="G48" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="387"/>
+      <c r="H48" s="353"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="357"/>
-      <c r="B49" s="354"/>
+      <c r="A49" s="379"/>
+      <c r="B49" s="361"/>
       <c r="C49" s="334" t="s">
         <v>175</v>
       </c>
@@ -5038,11 +5098,11 @@
       <c r="F49" t="s">
         <v>188</v>
       </c>
-      <c r="H49" s="387"/>
+      <c r="H49" s="353"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="357"/>
-      <c r="B50" s="370"/>
+      <c r="A50" s="379"/>
+      <c r="B50" s="362"/>
       <c r="C50" s="333" t="s">
         <v>189</v>
       </c>
@@ -5052,11 +5112,11 @@
       <c r="F50" t="s">
         <v>188</v>
       </c>
-      <c r="H50" s="387"/>
+      <c r="H50" s="353"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="357"/>
-      <c r="B51" s="369" t="s">
+      <c r="A51" s="379"/>
+      <c r="B51" s="363" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="334" t="s">
@@ -5068,11 +5128,11 @@
       <c r="F51" t="s">
         <v>188</v>
       </c>
-      <c r="H51" s="387"/>
+      <c r="H51" s="353"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="357"/>
-      <c r="B52" s="354"/>
+      <c r="A52" s="379"/>
+      <c r="B52" s="361"/>
       <c r="C52" s="334" t="s">
         <v>201</v>
       </c>
@@ -5085,11 +5145,11 @@
       <c r="G52" t="s">
         <v>242</v>
       </c>
-      <c r="H52" s="387"/>
+      <c r="H52" s="353"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="357"/>
-      <c r="B53" s="370"/>
+      <c r="A53" s="379"/>
+      <c r="B53" s="362"/>
       <c r="C53" s="333" t="s">
         <v>167</v>
       </c>
@@ -5099,11 +5159,11 @@
       <c r="F53" t="s">
         <v>188</v>
       </c>
-      <c r="H53" s="387"/>
+      <c r="H53" s="353"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="357"/>
-      <c r="B54" s="369" t="s">
+      <c r="A54" s="379"/>
+      <c r="B54" s="363" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="338" t="s">
@@ -5118,11 +5178,11 @@
       <c r="G54" t="s">
         <v>239</v>
       </c>
-      <c r="H54" s="387"/>
+      <c r="H54" s="353"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="357"/>
-      <c r="B55" s="354"/>
+      <c r="A55" s="379"/>
+      <c r="B55" s="361"/>
       <c r="C55" s="334" t="s">
         <v>165</v>
       </c>
@@ -5132,11 +5192,11 @@
       <c r="F55" t="s">
         <v>188</v>
       </c>
-      <c r="H55" s="387"/>
+      <c r="H55" s="353"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="358"/>
-      <c r="B56" s="355"/>
+      <c r="A56" s="380"/>
+      <c r="B56" s="374"/>
       <c r="C56" s="337" t="s">
         <v>226</v>
       </c>
@@ -5149,13 +5209,13 @@
       <c r="G56" t="s">
         <v>238</v>
       </c>
-      <c r="H56" s="387"/>
+      <c r="H56" s="353"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="363" t="s">
+      <c r="A57" s="385" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="371" t="s">
+      <c r="B57" s="375" t="s">
         <v>37</v>
       </c>
       <c r="C57" s="343" t="s">
@@ -5167,11 +5227,11 @@
       <c r="F57" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="387"/>
+      <c r="H57" s="353"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="364"/>
-      <c r="B58" s="372"/>
+      <c r="A58" s="386"/>
+      <c r="B58" s="376"/>
       <c r="C58" s="334" t="s">
         <v>174</v>
       </c>
@@ -5184,11 +5244,11 @@
       <c r="F58" t="s">
         <v>188</v>
       </c>
-      <c r="H58" s="387"/>
+      <c r="H58" s="353"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="364"/>
-      <c r="B59" s="373"/>
+      <c r="A59" s="386"/>
+      <c r="B59" s="377"/>
       <c r="C59" s="333" t="s">
         <v>228</v>
       </c>
@@ -5198,11 +5258,11 @@
       <c r="F59" t="s">
         <v>188</v>
       </c>
-      <c r="H59" s="387"/>
+      <c r="H59" s="353"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="364"/>
-      <c r="B60" s="366" t="s">
+      <c r="A60" s="386"/>
+      <c r="B60" s="364" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="338" t="s">
@@ -5217,11 +5277,11 @@
       <c r="F60" t="s">
         <v>188</v>
       </c>
-      <c r="H60" s="387"/>
+      <c r="H60" s="353"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="364"/>
-      <c r="B61" s="367"/>
+      <c r="A61" s="386"/>
+      <c r="B61" s="358"/>
       <c r="C61" s="334" t="s">
         <v>175</v>
       </c>
@@ -5231,11 +5291,11 @@
       <c r="F61" t="s">
         <v>188</v>
       </c>
-      <c r="H61" s="387"/>
+      <c r="H61" s="353"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="364"/>
-      <c r="B62" s="368"/>
+      <c r="A62" s="386"/>
+      <c r="B62" s="365"/>
       <c r="C62" s="333" t="s">
         <v>237</v>
       </c>
@@ -5248,11 +5308,11 @@
       <c r="G62" t="s">
         <v>243</v>
       </c>
-      <c r="H62" s="387"/>
+      <c r="H62" s="353"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="364"/>
-      <c r="B63" s="369" t="s">
+      <c r="A63" s="386"/>
+      <c r="B63" s="363" t="s">
         <v>39</v>
       </c>
       <c r="C63" s="334" t="s">
@@ -5264,11 +5324,11 @@
       <c r="F63" t="s">
         <v>188</v>
       </c>
-      <c r="H63" s="387"/>
+      <c r="H63" s="353"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="364"/>
-      <c r="B64" s="354"/>
+      <c r="A64" s="386"/>
+      <c r="B64" s="361"/>
       <c r="C64" s="334" t="s">
         <v>225</v>
       </c>
@@ -5281,11 +5341,11 @@
       <c r="F64" t="s">
         <v>188</v>
       </c>
-      <c r="H64" s="387"/>
+      <c r="H64" s="353"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="364"/>
-      <c r="B65" s="370"/>
+      <c r="A65" s="386"/>
+      <c r="B65" s="362"/>
       <c r="C65" s="333" t="s">
         <v>209</v>
       </c>
@@ -5295,11 +5355,11 @@
       <c r="F65" t="s">
         <v>188</v>
       </c>
-      <c r="H65" s="387"/>
+      <c r="H65" s="353"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="364"/>
-      <c r="B66" s="369" t="s">
+      <c r="A66" s="386"/>
+      <c r="B66" s="363" t="s">
         <v>40</v>
       </c>
       <c r="C66" s="334" t="s">
@@ -5311,11 +5371,11 @@
       <c r="F66" t="s">
         <v>188</v>
       </c>
-      <c r="H66" s="387"/>
+      <c r="H66" s="353"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="364"/>
-      <c r="B67" s="354"/>
+      <c r="A67" s="386"/>
+      <c r="B67" s="361"/>
       <c r="C67" s="334" t="s">
         <v>174</v>
       </c>
@@ -5328,11 +5388,11 @@
       <c r="F67" t="s">
         <v>188</v>
       </c>
-      <c r="H67" s="387"/>
+      <c r="H67" s="353"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="365"/>
-      <c r="B68" s="355"/>
+      <c r="A68" s="387"/>
+      <c r="B68" s="374"/>
       <c r="C68" s="334" t="s">
         <v>209</v>
       </c>
@@ -5342,13 +5402,13 @@
       <c r="F68" t="s">
         <v>188</v>
       </c>
-      <c r="H68" s="387"/>
+      <c r="H68" s="353"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="359" t="s">
+      <c r="A69" s="381" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="353" t="s">
+      <c r="B69" s="360" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="344" t="s">
@@ -5360,11 +5420,11 @@
       <c r="F69" t="s">
         <v>188</v>
       </c>
-      <c r="H69" s="387"/>
+      <c r="H69" s="353"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="357"/>
-      <c r="B70" s="354"/>
+      <c r="A70" s="379"/>
+      <c r="B70" s="361"/>
       <c r="C70" s="334" t="s">
         <v>167</v>
       </c>
@@ -5374,11 +5434,11 @@
       <c r="F70" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="387"/>
+      <c r="H70" s="353"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="358"/>
-      <c r="B71" s="355"/>
+      <c r="A71" s="380"/>
+      <c r="B71" s="374"/>
       <c r="C71" s="335" t="s">
         <v>184</v>
       </c>
@@ -5391,13 +5451,13 @@
       <c r="G71" t="s">
         <v>240</v>
       </c>
-      <c r="H71" s="387"/>
+      <c r="H71" s="353"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="360" t="s">
+      <c r="A72" s="382" t="s">
         <v>16</v>
       </c>
-      <c r="B72" s="353" t="s">
+      <c r="B72" s="360" t="s">
         <v>42</v>
       </c>
       <c r="C72" s="342" t="s">
@@ -5409,11 +5469,11 @@
       <c r="F72" t="s">
         <v>188</v>
       </c>
-      <c r="H72" s="387"/>
+      <c r="H72" s="353"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="361"/>
-      <c r="B73" s="354"/>
+      <c r="A73" s="383"/>
+      <c r="B73" s="361"/>
       <c r="C73" s="341" t="s">
         <v>206</v>
       </c>
@@ -5426,11 +5486,11 @@
       <c r="G73" t="s">
         <v>229</v>
       </c>
-      <c r="H73" s="387"/>
+      <c r="H73" s="353"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="361"/>
-      <c r="B74" s="354"/>
+      <c r="A74" s="383"/>
+      <c r="B74" s="361"/>
       <c r="C74" s="341" t="s">
         <v>223</v>
       </c>
@@ -5440,11 +5500,11 @@
       <c r="F74" t="s">
         <v>188</v>
       </c>
-      <c r="H74" s="387"/>
+      <c r="H74" s="353"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="362"/>
-      <c r="B75" s="355"/>
+      <c r="A75" s="384"/>
+      <c r="B75" s="374"/>
       <c r="C75" s="335" t="s">
         <v>176</v>
       </c>
@@ -5457,13 +5517,13 @@
       <c r="G75" t="s">
         <v>241</v>
       </c>
-      <c r="H75" s="387"/>
+      <c r="H75" s="353"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="360" t="s">
+      <c r="A76" s="382" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="353" t="s">
+      <c r="B76" s="360" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="341" t="s">
@@ -5478,11 +5538,11 @@
       <c r="F76" t="s">
         <v>188</v>
       </c>
-      <c r="H76" s="387"/>
+      <c r="H76" s="353"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="361"/>
-      <c r="B77" s="354"/>
+      <c r="A77" s="383"/>
+      <c r="B77" s="361"/>
       <c r="C77" s="341" t="s">
         <v>203</v>
       </c>
@@ -5492,11 +5552,11 @@
       <c r="F77" t="s">
         <v>188</v>
       </c>
-      <c r="H77" s="387"/>
+      <c r="H77" s="353"/>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="362"/>
-      <c r="B78" s="355"/>
+      <c r="A78" s="384"/>
+      <c r="B78" s="374"/>
       <c r="C78" s="335" t="s">
         <v>221</v>
       </c>
@@ -5506,55 +5566,10 @@
       <c r="F78" t="s">
         <v>188</v>
       </c>
-      <c r="H78" s="387"/>
+      <c r="H78" s="353"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="H63:H65"/>
-    <mergeCell ref="H66:H68"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="H72:H75"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B57:B59"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A17"/>
@@ -5571,6 +5586,51 @@
     <mergeCell ref="B66:B68"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H63:H65"/>
+    <mergeCell ref="H66:H68"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="H76:H78"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="D1:D14 D21:D26 D28:D36 D38:D44 D46 D48 D50 D52:D57 D59 D63 D65:D66 D68:D69 D71:D72 D74:D1048576 D16:D19">
@@ -5692,15 +5752,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="392" t="s">
+      <c r="A1" s="388" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="394"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="389"/>
+      <c r="F1" s="389"/>
+      <c r="G1" s="390"/>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
     </row>
@@ -5730,7 +5790,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -5743,7 +5803,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -5754,7 +5814,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -5765,7 +5825,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -5778,7 +5838,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -5802,7 +5862,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -5815,7 +5875,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="204" t="s">
         <v>73</v>
       </c>
@@ -5826,7 +5886,7 @@
       <c r="G10" s="90"/>
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
+      <c r="A11" s="405"/>
       <c r="B11" s="201" t="s">
         <v>27</v>
       </c>
@@ -5839,7 +5899,7 @@
       <c r="G11" s="112"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="390"/>
+      <c r="A12" s="406"/>
       <c r="B12" s="198" t="s">
         <v>74</v>
       </c>
@@ -5850,7 +5910,7 @@
       <c r="G12" s="88"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="391" t="s">
+      <c r="A13" s="407" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="197" t="s">
@@ -5863,7 +5923,7 @@
       <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="204" t="s">
         <v>76</v>
       </c>
@@ -5874,7 +5934,7 @@
       <c r="G14" s="90"/>
     </row>
     <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="204" t="s">
         <v>77</v>
       </c>
@@ -5896,19 +5956,19 @@
       <c r="P15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
-      <c r="B16" s="398" t="s">
+      <c r="A16" s="405"/>
+      <c r="B16" s="394" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="395" t="s">
+      <c r="C16" s="391" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="218" t="s">
         <v>97</v>
       </c>
       <c r="E16" s="142"/>
-      <c r="F16" s="402"/>
-      <c r="G16" s="405"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="401"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -5920,15 +5980,15 @@
       <c r="P16"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="389"/>
-      <c r="B17" s="399"/>
-      <c r="C17" s="396"/>
+      <c r="A17" s="405"/>
+      <c r="B17" s="395"/>
+      <c r="C17" s="392"/>
       <c r="D17" s="219" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="143"/>
-      <c r="F17" s="403"/>
-      <c r="G17" s="406"/>
+      <c r="F17" s="399"/>
+      <c r="G17" s="402"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -5940,15 +6000,15 @@
       <c r="P17"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
-      <c r="B18" s="399"/>
-      <c r="C18" s="396"/>
+      <c r="A18" s="405"/>
+      <c r="B18" s="395"/>
+      <c r="C18" s="392"/>
       <c r="D18" s="219" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="143"/>
-      <c r="F18" s="403"/>
-      <c r="G18" s="406"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="402"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -5960,15 +6020,15 @@
       <c r="P18"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
-      <c r="B19" s="399"/>
-      <c r="C19" s="397"/>
+      <c r="A19" s="405"/>
+      <c r="B19" s="395"/>
+      <c r="C19" s="393"/>
       <c r="D19" s="140" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="145"/>
-      <c r="F19" s="404"/>
-      <c r="G19" s="407"/>
+      <c r="F19" s="400"/>
+      <c r="G19" s="403"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -5980,8 +6040,8 @@
       <c r="P19"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
-      <c r="B20" s="400"/>
+      <c r="A20" s="405"/>
+      <c r="B20" s="396"/>
       <c r="C20" s="212" t="s">
         <v>110</v>
       </c>
@@ -6002,8 +6062,8 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="390"/>
-      <c r="B21" s="401"/>
+      <c r="A21" s="406"/>
+      <c r="B21" s="397"/>
       <c r="C21" s="169" t="s">
         <v>111</v>
       </c>
@@ -6024,7 +6084,7 @@
       <c r="P21"/>
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="197" t="s">
@@ -6046,7 +6106,7 @@
       <c r="P22"/>
     </row>
     <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="204" t="s">
         <v>80</v>
       </c>
@@ -6066,7 +6126,7 @@
       <c r="P23"/>
     </row>
     <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -6086,7 +6146,7 @@
       <c r="P24"/>
     </row>
     <row r="25" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -6097,7 +6157,7 @@
       <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="388" t="s">
+      <c r="A26" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="197" t="s">
@@ -6110,7 +6170,7 @@
       <c r="G26" s="100"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -6121,7 +6181,7 @@
       <c r="G27" s="106"/>
     </row>
     <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>84</v>
       </c>
@@ -6132,7 +6192,7 @@
       <c r="G28" s="106"/>
     </row>
     <row r="29" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>85</v>
       </c>
@@ -6507,17 +6567,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G16:G19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G16:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="84" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6587,7 +6647,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="228" t="s">
@@ -6600,7 +6660,7 @@
       <c r="G3" s="109"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -6611,7 +6671,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -6622,7 +6682,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="388" t="s">
+      <c r="A6" s="404" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="197" t="s">
@@ -6635,7 +6695,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -6659,7 +6719,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="388" t="s">
+      <c r="A9" s="404" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="197" t="s">
@@ -6672,7 +6732,7 @@
       <c r="G9" s="109"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -6683,45 +6743,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="142"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
-      <c r="B11" s="400"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="405"/>
+      <c r="B12" s="396"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
-      <c r="B13" s="400"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="404"/>
-      <c r="G13" s="407"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="403"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
+      <c r="A14" s="405"/>
       <c r="B14" s="412"/>
       <c r="C14" s="212" t="s">
         <v>107</v>
@@ -6734,7 +6794,7 @@
       <c r="G14" s="153"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="196" t="s">
         <v>27</v>
       </c>
@@ -6749,7 +6809,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="390"/>
+      <c r="A16" s="406"/>
       <c r="B16" s="198" t="s">
         <v>28</v>
       </c>
@@ -6760,7 +6820,7 @@
       <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="391" t="s">
+      <c r="A17" s="407" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="197" t="s">
@@ -6773,7 +6833,7 @@
       <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="389"/>
+      <c r="A18" s="405"/>
       <c r="B18" s="204" t="s">
         <v>30</v>
       </c>
@@ -6784,7 +6844,7 @@
       <c r="G18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>77</v>
       </c>
@@ -6797,7 +6857,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="411" t="s">
         <v>32</v>
       </c>
@@ -6808,46 +6868,46 @@
         <v>97</v>
       </c>
       <c r="E20" s="142"/>
-      <c r="F20" s="402"/>
-      <c r="G20" s="405"/>
+      <c r="F20" s="398"/>
+      <c r="G20" s="401"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="389"/>
-      <c r="B21" s="400"/>
+      <c r="A21" s="405"/>
+      <c r="B21" s="396"/>
       <c r="C21" s="414"/>
       <c r="D21" s="148" t="s">
         <v>66</v>
       </c>
       <c r="E21" s="143"/>
-      <c r="F21" s="403"/>
-      <c r="G21" s="406"/>
+      <c r="F21" s="399"/>
+      <c r="G21" s="402"/>
       <c r="I21"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
-      <c r="B22" s="400"/>
+      <c r="A22" s="405"/>
+      <c r="B22" s="396"/>
       <c r="C22" s="414"/>
       <c r="D22" s="148" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="143"/>
-      <c r="F22" s="403"/>
-      <c r="G22" s="406"/>
+      <c r="F22" s="399"/>
+      <c r="G22" s="402"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
-      <c r="B23" s="400"/>
+      <c r="A23" s="405"/>
+      <c r="B23" s="396"/>
       <c r="C23" s="415"/>
       <c r="D23" s="144" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="145"/>
-      <c r="F23" s="404"/>
-      <c r="G23" s="407"/>
+      <c r="F23" s="400"/>
+      <c r="G23" s="403"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
-      <c r="B24" s="400"/>
+      <c r="A24" s="405"/>
+      <c r="B24" s="396"/>
       <c r="C24" s="230" t="s">
         <v>103</v>
       </c>
@@ -6859,8 +6919,8 @@
       <c r="G24" s="156"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="389"/>
-      <c r="B25" s="400"/>
+      <c r="A25" s="405"/>
+      <c r="B25" s="396"/>
       <c r="C25" s="212" t="s">
         <v>104</v>
       </c>
@@ -6872,7 +6932,7 @@
       <c r="G25" s="235"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="390"/>
+      <c r="A26" s="406"/>
       <c r="B26" s="416"/>
       <c r="C26" s="231" t="s">
         <v>105</v>
@@ -6886,7 +6946,7 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="388" t="s">
+      <c r="A27" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="197" t="s">
@@ -6900,7 +6960,7 @@
       <c r="H27"/>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
@@ -6911,7 +6971,7 @@
       <c r="G28" s="86"/>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="389"/>
+      <c r="A29" s="405"/>
       <c r="B29" s="204" t="s">
         <v>81</v>
       </c>
@@ -6922,7 +6982,7 @@
       <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="390"/>
+      <c r="A30" s="406"/>
       <c r="B30" s="198" t="s">
         <v>82</v>
       </c>
@@ -6933,7 +6993,7 @@
       <c r="G30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="388" t="s">
+      <c r="A31" s="404" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="197" t="s">
@@ -6946,7 +7006,7 @@
       <c r="G31" s="109"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="389"/>
+      <c r="A32" s="405"/>
       <c r="B32" s="201" t="s">
         <v>38</v>
       </c>
@@ -6957,7 +7017,7 @@
       <c r="G32" s="90"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="389"/>
+      <c r="A33" s="405"/>
       <c r="B33" s="204" t="s">
         <v>39</v>
       </c>
@@ -6968,7 +7028,7 @@
       <c r="G33" s="90"/>
     </row>
     <row r="34" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="390"/>
+      <c r="A34" s="406"/>
       <c r="B34" s="198" t="s">
         <v>40</v>
       </c>
@@ -7351,6 +7411,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
     <mergeCell ref="A1:G1"/>
@@ -7360,12 +7426,6 @@
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="B20:B26"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7435,7 +7495,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -7448,7 +7508,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -7459,7 +7519,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -7470,7 +7530,7 @@
       <c r="G5" s="93"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -7483,7 +7543,7 @@
       <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -7507,7 +7567,7 @@
       <c r="G8" s="95"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="389" t="s">
+      <c r="A9" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="199" t="s">
@@ -7520,7 +7580,7 @@
       <c r="G9" s="90"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="389"/>
+      <c r="A10" s="405"/>
       <c r="B10" s="411" t="s">
         <v>26</v>
       </c>
@@ -7531,45 +7591,45 @@
         <v>97</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="402"/>
-      <c r="G10" s="405"/>
+      <c r="F10" s="398"/>
+      <c r="G10" s="401"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="389"/>
-      <c r="B11" s="400"/>
+      <c r="A11" s="405"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>66</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="405"/>
+      <c r="B12" s="396"/>
       <c r="C12" s="414"/>
       <c r="D12" s="138" t="s">
         <v>67</v>
       </c>
       <c r="E12" s="143"/>
-      <c r="F12" s="403"/>
-      <c r="G12" s="406"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="402"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
-      <c r="B13" s="400"/>
+      <c r="A13" s="405"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="415"/>
       <c r="D13" s="152" t="s">
         <v>98</v>
       </c>
       <c r="E13" s="145"/>
-      <c r="F13" s="404"/>
-      <c r="G13" s="407"/>
+      <c r="F13" s="400"/>
+      <c r="G13" s="403"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="389"/>
-      <c r="B14" s="400"/>
+      <c r="A14" s="405"/>
+      <c r="B14" s="396"/>
       <c r="C14" s="230" t="s">
         <v>99</v>
       </c>
@@ -7581,7 +7641,7 @@
       <c r="G14" s="156"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="389"/>
+      <c r="A15" s="405"/>
       <c r="B15" s="412"/>
       <c r="C15" s="241" t="s">
         <v>101</v>
@@ -7594,7 +7654,7 @@
       <c r="G15" s="154"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="201" t="s">
         <v>27</v>
       </c>
@@ -7605,7 +7665,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="390"/>
+      <c r="A17" s="406"/>
       <c r="B17" s="198" t="s">
         <v>28</v>
       </c>
@@ -7629,7 +7689,7 @@
       <c r="G18" s="86"/>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -7640,7 +7700,7 @@
       <c r="G19" s="112"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -7651,7 +7711,7 @@
       <c r="G20" s="90"/>
     </row>
     <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="389"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="198" t="s">
         <v>32</v>
       </c>
@@ -7662,7 +7722,7 @@
       <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="388" t="s">
+      <c r="A22" s="404" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="236" t="s">
@@ -7675,7 +7735,7 @@
       <c r="G22" s="90"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="237" t="s">
         <v>34</v>
       </c>
@@ -7686,7 +7746,7 @@
       <c r="G23" s="90"/>
     </row>
     <row r="24" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="238" t="s">
         <v>81</v>
       </c>
@@ -7697,7 +7757,7 @@
       <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="239" t="s">
         <v>82</v>
       </c>
@@ -7708,7 +7768,7 @@
       <c r="G25" s="95"/>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="389" t="s">
+      <c r="A26" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -7721,7 +7781,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -7732,7 +7792,7 @@
       <c r="G27" s="86"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -7743,7 +7803,7 @@
       <c r="G28" s="112"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -8147,17 +8207,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C10:C13"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8231,7 +8291,7 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="388" t="s">
+      <c r="A3" s="404" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="194" t="s">
@@ -8252,7 +8312,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="195" t="s">
         <v>21</v>
       </c>
@@ -8263,8 +8323,8 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="389"/>
-      <c r="B5" s="426" t="s">
+      <c r="A5" s="405"/>
+      <c r="B5" s="418" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="178" t="s">
@@ -8278,8 +8338,8 @@
       <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="390"/>
-      <c r="B6" s="427"/>
+      <c r="A6" s="406"/>
+      <c r="B6" s="419"/>
       <c r="C6" s="182" t="s">
         <v>53</v>
       </c>
@@ -8291,7 +8351,7 @@
       <c r="G6" s="185"/>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="389" t="s">
+      <c r="A7" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="197" t="s">
@@ -8304,7 +8364,7 @@
       <c r="G7" s="86"/>
     </row>
     <row r="8" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="390"/>
+      <c r="A8" s="406"/>
       <c r="B8" s="198" t="s">
         <v>23</v>
       </c>
@@ -8318,7 +8378,7 @@
       <c r="A9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="428" t="s">
+      <c r="B9" s="420" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="251" t="s">
@@ -8333,7 +8393,7 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="350"/>
-      <c r="B10" s="427"/>
+      <c r="B10" s="419"/>
       <c r="C10" s="231" t="s">
         <v>119</v>
       </c>
@@ -8345,7 +8405,7 @@
       <c r="G10" s="150"/>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="389" t="s">
+      <c r="A11" s="405" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="199" t="s">
@@ -8358,7 +8418,7 @@
       <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="389"/>
+      <c r="A12" s="405"/>
       <c r="B12" s="200" t="s">
         <v>26</v>
       </c>
@@ -8373,7 +8433,7 @@
       <c r="G12" s="187"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="389"/>
+      <c r="A13" s="405"/>
       <c r="B13" s="201" t="s">
         <v>27</v>
       </c>
@@ -8384,7 +8444,7 @@
       <c r="G13" s="90"/>
     </row>
     <row r="14" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="390"/>
+      <c r="A14" s="406"/>
       <c r="B14" s="202" t="s">
         <v>28</v>
       </c>
@@ -8416,7 +8476,7 @@
       <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="389"/>
+      <c r="A16" s="405"/>
       <c r="B16" s="204" t="s">
         <v>30</v>
       </c>
@@ -8427,7 +8487,7 @@
       <c r="G16" s="112"/>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="389"/>
+      <c r="A17" s="405"/>
       <c r="B17" s="204" t="s">
         <v>31</v>
       </c>
@@ -8438,7 +8498,7 @@
       <c r="G17" s="90"/>
     </row>
     <row r="18" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="390"/>
+      <c r="A18" s="406"/>
       <c r="B18" s="198" t="s">
         <v>32</v>
       </c>
@@ -8449,7 +8509,7 @@
       <c r="G18" s="93"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389" t="s">
+      <c r="A19" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="203" t="s">
@@ -8466,7 +8526,7 @@
       <c r="G19" s="189"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>34</v>
       </c>
@@ -8477,7 +8537,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="389"/>
+      <c r="A21" s="405"/>
       <c r="B21" s="411" t="s">
         <v>81</v>
       </c>
@@ -8492,7 +8552,7 @@
       <c r="G21" s="191"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="389"/>
+      <c r="A22" s="405"/>
       <c r="B22" s="412"/>
       <c r="C22" s="265" t="s">
         <v>123</v>
@@ -8505,7 +8565,7 @@
       <c r="G22" s="154"/>
     </row>
     <row r="23" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="390"/>
+      <c r="A23" s="406"/>
       <c r="B23" s="202" t="s">
         <v>36</v>
       </c>
@@ -8520,7 +8580,7 @@
       <c r="G23" s="150"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389" t="s">
+      <c r="A24" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="203" t="s">
@@ -8537,7 +8597,7 @@
       <c r="G24" s="189"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="389"/>
+      <c r="A25" s="405"/>
       <c r="B25" s="201" t="s">
         <v>38</v>
       </c>
@@ -8548,7 +8608,7 @@
       <c r="G25" s="90"/>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="389"/>
+      <c r="A26" s="405"/>
       <c r="B26" s="200" t="s">
         <v>39</v>
       </c>
@@ -8563,7 +8623,7 @@
       <c r="G26" s="154"/>
     </row>
     <row r="27" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="390"/>
+      <c r="A27" s="406"/>
       <c r="B27" s="198" t="s">
         <v>40</v>
       </c>
@@ -8574,13 +8634,13 @@
       <c r="G27" s="93"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="423" t="s">
+      <c r="A28" s="426" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="421" t="s">
+      <c r="B28" s="424" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="422" t="s">
+      <c r="C28" s="425" t="s">
         <v>125</v>
       </c>
       <c r="D28" s="268" t="s">
@@ -8591,8 +8651,8 @@
       <c r="G28" s="269"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="424"/>
-      <c r="B29" s="400"/>
+      <c r="A29" s="427"/>
+      <c r="B29" s="396"/>
       <c r="C29" s="414"/>
       <c r="D29" s="224" t="s">
         <v>66</v>
@@ -8602,8 +8662,8 @@
       <c r="G29" s="269"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="424"/>
-      <c r="B30" s="400"/>
+      <c r="A30" s="427"/>
+      <c r="B30" s="396"/>
       <c r="C30" s="414"/>
       <c r="D30" s="224" t="s">
         <v>67</v>
@@ -8613,8 +8673,8 @@
       <c r="G30" s="269"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="424"/>
-      <c r="B31" s="400"/>
+      <c r="A31" s="427"/>
+      <c r="B31" s="396"/>
       <c r="C31" s="415"/>
       <c r="D31" s="140" t="s">
         <v>98</v>
@@ -8624,8 +8684,8 @@
       <c r="G31" s="153"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="424"/>
-      <c r="B32" s="400"/>
+      <c r="A32" s="427"/>
+      <c r="B32" s="396"/>
       <c r="C32" s="212" t="s">
         <v>99</v>
       </c>
@@ -8637,7 +8697,7 @@
       <c r="G32" s="156"/>
     </row>
     <row r="33" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="425"/>
+      <c r="A33" s="428"/>
       <c r="B33" s="416"/>
       <c r="C33" s="255" t="s">
         <v>126</v>
@@ -8650,13 +8710,13 @@
       <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="418" t="s">
+      <c r="A34" s="421" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="421" t="s">
+      <c r="B34" s="424" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="422" t="s">
+      <c r="C34" s="425" t="s">
         <v>127</v>
       </c>
       <c r="D34" s="224" t="s">
@@ -8667,8 +8727,8 @@
       <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="419"/>
-      <c r="B35" s="400"/>
+      <c r="A35" s="422"/>
+      <c r="B35" s="396"/>
       <c r="C35" s="414"/>
       <c r="D35" s="224" t="s">
         <v>66</v>
@@ -8678,8 +8738,8 @@
       <c r="G35" s="269"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="419"/>
-      <c r="B36" s="400"/>
+      <c r="A36" s="422"/>
+      <c r="B36" s="396"/>
       <c r="C36" s="414"/>
       <c r="D36" s="224" t="s">
         <v>67</v>
@@ -8689,8 +8749,8 @@
       <c r="G36" s="269"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="419"/>
-      <c r="B37" s="400"/>
+      <c r="A37" s="422"/>
+      <c r="B37" s="396"/>
       <c r="C37" s="415"/>
       <c r="D37" s="140" t="s">
         <v>98</v>
@@ -8700,8 +8760,8 @@
       <c r="G37" s="153"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="419"/>
-      <c r="B38" s="400"/>
+      <c r="A38" s="422"/>
+      <c r="B38" s="396"/>
       <c r="C38" s="212" t="s">
         <v>128</v>
       </c>
@@ -8713,8 +8773,8 @@
       <c r="G38" s="156"/>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="419"/>
-      <c r="B39" s="400"/>
+      <c r="A39" s="422"/>
+      <c r="B39" s="396"/>
       <c r="C39" s="266" t="s">
         <v>129</v>
       </c>
@@ -8726,8 +8786,8 @@
       <c r="G39" s="156"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="419"/>
-      <c r="B40" s="400"/>
+      <c r="A40" s="422"/>
+      <c r="B40" s="396"/>
       <c r="C40" s="212" t="s">
         <v>130</v>
       </c>
@@ -8739,8 +8799,8 @@
       <c r="G40" s="156"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="419"/>
-      <c r="B41" s="400"/>
+      <c r="A41" s="422"/>
+      <c r="B41" s="396"/>
       <c r="C41" s="212" t="s">
         <v>132</v>
       </c>
@@ -8752,7 +8812,7 @@
       <c r="G41" s="156"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="420"/>
+      <c r="A42" s="423"/>
       <c r="B42" s="416"/>
       <c r="C42" s="231" t="s">
         <v>131</v>
@@ -8765,13 +8825,13 @@
       <c r="G42" s="150"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="418" t="s">
+      <c r="A43" s="421" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="421" t="s">
+      <c r="B43" s="424" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="422" t="s">
+      <c r="C43" s="425" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="224" t="s">
@@ -8782,8 +8842,8 @@
       <c r="G43" s="269"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="419"/>
-      <c r="B44" s="400"/>
+      <c r="A44" s="422"/>
+      <c r="B44" s="396"/>
       <c r="C44" s="414"/>
       <c r="D44" s="224" t="s">
         <v>66</v>
@@ -8793,8 +8853,8 @@
       <c r="G44" s="269"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="419"/>
-      <c r="B45" s="400"/>
+      <c r="A45" s="422"/>
+      <c r="B45" s="396"/>
       <c r="C45" s="414"/>
       <c r="D45" s="224" t="s">
         <v>67</v>
@@ -8804,8 +8864,8 @@
       <c r="G45" s="269"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="419"/>
-      <c r="B46" s="400"/>
+      <c r="A46" s="422"/>
+      <c r="B46" s="396"/>
       <c r="C46" s="415"/>
       <c r="D46" s="140" t="s">
         <v>98</v>
@@ -8815,8 +8875,8 @@
       <c r="G46" s="153"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="419"/>
-      <c r="B47" s="400"/>
+      <c r="A47" s="422"/>
+      <c r="B47" s="396"/>
       <c r="C47" s="414" t="s">
         <v>133</v>
       </c>
@@ -8828,8 +8888,8 @@
       <c r="G47" s="269"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="419"/>
-      <c r="B48" s="400"/>
+      <c r="A48" s="422"/>
+      <c r="B48" s="396"/>
       <c r="C48" s="414"/>
       <c r="D48" s="224" t="s">
         <v>66</v>
@@ -8839,8 +8899,8 @@
       <c r="G48" s="269"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="419"/>
-      <c r="B49" s="400"/>
+      <c r="A49" s="422"/>
+      <c r="B49" s="396"/>
       <c r="C49" s="414"/>
       <c r="D49" s="224" t="s">
         <v>67</v>
@@ -8850,8 +8910,8 @@
       <c r="G49" s="269"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="419"/>
-      <c r="B50" s="400"/>
+      <c r="A50" s="422"/>
+      <c r="B50" s="396"/>
       <c r="C50" s="415"/>
       <c r="D50" s="140" t="s">
         <v>98</v>
@@ -8861,8 +8921,8 @@
       <c r="G50" s="153"/>
     </row>
     <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="419"/>
-      <c r="B51" s="400"/>
+      <c r="A51" s="422"/>
+      <c r="B51" s="396"/>
       <c r="C51" s="266" t="s">
         <v>135</v>
       </c>
@@ -8874,7 +8934,7 @@
       <c r="G51" s="156"/>
     </row>
     <row r="52" spans="1:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="420"/>
+      <c r="A52" s="423"/>
       <c r="B52" s="416"/>
       <c r="C52" s="255" t="s">
         <v>136</v>
@@ -9271,17 +9331,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="C43:C46"/>
@@ -9292,6 +9341,17 @@
     <mergeCell ref="B34:B42"/>
     <mergeCell ref="A34:A42"/>
     <mergeCell ref="C34:C37"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9361,7 +9421,7 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="389" t="s">
+      <c r="A3" s="405" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="206" t="s">
@@ -9374,7 +9434,7 @@
       <c r="G3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="389"/>
+      <c r="A4" s="405"/>
       <c r="B4" s="201" t="s">
         <v>21</v>
       </c>
@@ -9385,7 +9445,7 @@
       <c r="G4" s="112"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="390"/>
+      <c r="A5" s="406"/>
       <c r="B5" s="207" t="s">
         <v>20</v>
       </c>
@@ -9396,7 +9456,7 @@
       <c r="G5" s="88"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="389" t="s">
+      <c r="A6" s="405" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="199" t="s">
@@ -9409,7 +9469,7 @@
       <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="390"/>
+      <c r="A7" s="406"/>
       <c r="B7" s="198" t="s">
         <v>71</v>
       </c>
@@ -9436,10 +9496,10 @@
       <c r="A9" s="431" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="400" t="s">
+      <c r="B9" s="396" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="396" t="s">
+      <c r="C9" s="392" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="280" t="s">
@@ -9451,40 +9511,40 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="431"/>
-      <c r="B10" s="400"/>
-      <c r="C10" s="396"/>
+      <c r="B10" s="396"/>
+      <c r="C10" s="392"/>
       <c r="D10" s="222" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="143"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="406"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="402"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="431"/>
-      <c r="B11" s="400"/>
-      <c r="C11" s="396"/>
+      <c r="B11" s="396"/>
+      <c r="C11" s="392"/>
       <c r="D11" s="222" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="143"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="431"/>
-      <c r="B12" s="400"/>
-      <c r="C12" s="397"/>
+      <c r="B12" s="396"/>
+      <c r="C12" s="393"/>
       <c r="D12" s="223" t="s">
         <v>98</v>
       </c>
       <c r="E12" s="145"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="407"/>
+      <c r="F12" s="400"/>
+      <c r="G12" s="403"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="431"/>
-      <c r="B13" s="400"/>
+      <c r="B13" s="396"/>
       <c r="C13" s="229" t="s">
         <v>138</v>
       </c>
@@ -9557,7 +9617,7 @@
       <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="389"/>
+      <c r="A19" s="405"/>
       <c r="B19" s="204" t="s">
         <v>30</v>
       </c>
@@ -9568,7 +9628,7 @@
       <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="389"/>
+      <c r="A20" s="405"/>
       <c r="B20" s="204" t="s">
         <v>77</v>
       </c>
@@ -9581,7 +9641,7 @@
       <c r="G20" s="112"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="390"/>
+      <c r="A21" s="406"/>
       <c r="B21" s="198" t="s">
         <v>78</v>
       </c>
@@ -9592,7 +9652,7 @@
       <c r="G21" s="93"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="389" t="s">
+      <c r="A22" s="405" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="199" t="s">
@@ -9605,7 +9665,7 @@
       <c r="G22" s="86"/>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="389"/>
+      <c r="A23" s="405"/>
       <c r="B23" s="204" t="s">
         <v>34</v>
       </c>
@@ -9616,7 +9676,7 @@
       <c r="G23" s="112"/>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="389"/>
+      <c r="A24" s="405"/>
       <c r="B24" s="204" t="s">
         <v>81</v>
       </c>
@@ -9627,7 +9687,7 @@
       <c r="G24" s="112"/>
     </row>
     <row r="25" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="390"/>
+      <c r="A25" s="406"/>
       <c r="B25" s="198" t="s">
         <v>82</v>
       </c>
@@ -9638,7 +9698,7 @@
       <c r="G25" s="276"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="389" t="s">
+      <c r="A26" s="405" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="199" t="s">
@@ -9651,7 +9711,7 @@
       <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="389"/>
+      <c r="A27" s="405"/>
       <c r="B27" s="201" t="s">
         <v>38</v>
       </c>
@@ -9662,7 +9722,7 @@
       <c r="G27" s="90"/>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="389"/>
+      <c r="A28" s="405"/>
       <c r="B28" s="204" t="s">
         <v>39</v>
       </c>
@@ -9673,7 +9733,7 @@
       <c r="G28" s="90"/>
     </row>
     <row r="29" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="390"/>
+      <c r="A29" s="406"/>
       <c r="B29" s="198" t="s">
         <v>40</v>
       </c>
@@ -10044,17 +10104,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C9:C12"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="A9:A17"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10085,15 +10145,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="435" t="s">
+      <c r="A1" s="455" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="435"/>
-      <c r="C1" s="435"/>
-      <c r="D1" s="435"/>
-      <c r="E1" s="435"/>
-      <c r="F1" s="435"/>
-      <c r="G1" s="436"/>
+      <c r="B1" s="455"/>
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="456"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -10119,13 +10179,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="437" t="s">
+      <c r="A3" s="435" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="428" t="s">
+      <c r="B3" s="420" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="422" t="s">
+      <c r="C3" s="425" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="290" t="s">
@@ -10136,8 +10196,8 @@
       <c r="G3" s="271"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="438"/>
-      <c r="B4" s="440"/>
+      <c r="A4" s="436"/>
+      <c r="B4" s="441"/>
       <c r="C4" s="414"/>
       <c r="D4" s="138" t="s">
         <v>66</v>
@@ -10147,8 +10207,8 @@
       <c r="G4" s="269"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="438"/>
-      <c r="B5" s="440"/>
+      <c r="A5" s="436"/>
+      <c r="B5" s="441"/>
       <c r="C5" s="414"/>
       <c r="D5" s="138" t="s">
         <v>67</v>
@@ -10158,8 +10218,8 @@
       <c r="G5" s="269"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="438"/>
-      <c r="B6" s="440"/>
+      <c r="A6" s="436"/>
+      <c r="B6" s="441"/>
       <c r="C6" s="415"/>
       <c r="D6" s="152" t="s">
         <v>98</v>
@@ -10169,8 +10229,8 @@
       <c r="G6" s="153"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="438"/>
-      <c r="B7" s="440"/>
+      <c r="A7" s="436"/>
+      <c r="B7" s="441"/>
       <c r="C7" s="292" t="s">
         <v>140</v>
       </c>
@@ -10182,8 +10242,8 @@
       <c r="G7" s="156"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="438"/>
-      <c r="B8" s="441"/>
+      <c r="A8" s="436"/>
+      <c r="B8" s="437"/>
       <c r="C8" s="291" t="s">
         <v>141</v>
       </c>
@@ -10195,8 +10255,8 @@
       <c r="G8" s="269"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="438"/>
-      <c r="B9" s="426" t="s">
+      <c r="A9" s="436"/>
+      <c r="B9" s="418" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="413" t="s">
@@ -10205,137 +10265,137 @@
       <c r="D9" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="402"/>
-      <c r="F9" s="402"/>
-      <c r="G9" s="405"/>
+      <c r="E9" s="398"/>
+      <c r="F9" s="398"/>
+      <c r="G9" s="401"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="438"/>
-      <c r="B10" s="440"/>
+      <c r="A10" s="436"/>
+      <c r="B10" s="441"/>
       <c r="C10" s="414"/>
       <c r="D10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="403"/>
-      <c r="F10" s="403"/>
-      <c r="G10" s="406"/>
+      <c r="E10" s="399"/>
+      <c r="F10" s="399"/>
+      <c r="G10" s="402"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="438"/>
-      <c r="B11" s="440"/>
+      <c r="A11" s="436"/>
+      <c r="B11" s="441"/>
       <c r="C11" s="414"/>
       <c r="D11" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="403"/>
-      <c r="F11" s="403"/>
-      <c r="G11" s="406"/>
+      <c r="E11" s="399"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="402"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="438"/>
-      <c r="B12" s="440"/>
+      <c r="A12" s="436"/>
+      <c r="B12" s="441"/>
       <c r="C12" s="415"/>
       <c r="D12" s="152" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="404"/>
-      <c r="F12" s="404"/>
-      <c r="G12" s="407"/>
+      <c r="E12" s="400"/>
+      <c r="F12" s="400"/>
+      <c r="G12" s="403"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="438"/>
-      <c r="B13" s="440"/>
+      <c r="A13" s="436"/>
+      <c r="B13" s="441"/>
       <c r="C13" s="414" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="403"/>
-      <c r="F13" s="403"/>
-      <c r="G13" s="406"/>
+      <c r="E13" s="399"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="402"/>
     </row>
     <row r="14" 